--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['24', '61']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -623,6 +626,9 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['72', '86']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1249,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2148,7 +2154,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2891,7 +2897,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3097,7 +3103,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3303,7 +3309,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3509,7 +3515,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4127,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4333,7 +4339,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4539,7 +4545,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5363,7 +5369,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5775,7 +5781,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -5856,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6393,7 +6399,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6599,7 +6605,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7011,7 +7017,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7423,7 +7429,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7916,7 +7922,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR34">
         <v>1.99</v>
@@ -8041,7 +8047,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8247,7 +8253,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8453,7 +8459,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8531,7 +8537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8659,7 +8665,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9277,7 +9283,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9689,7 +9695,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9767,7 +9773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ43">
         <v>1.2</v>
@@ -10307,7 +10313,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10513,7 +10519,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10719,7 +10725,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11543,7 +11549,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11955,7 +11961,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12036,7 +12042,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR54">
         <v>1.44</v>
@@ -12573,7 +12579,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12985,7 +12991,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13191,7 +13197,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14015,7 +14021,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14093,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ64">
         <v>0.8</v>
@@ -14839,7 +14845,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15045,7 +15051,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15457,7 +15463,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15663,7 +15669,7 @@
         <v>91</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16359,7 +16365,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ75">
         <v>2.25</v>
@@ -16693,7 +16699,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16899,7 +16905,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17105,7 +17111,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17929,7 +17935,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18547,7 +18553,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18628,7 +18634,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR86">
         <v>1.65</v>
@@ -18959,7 +18965,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19371,7 +19377,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19577,7 +19583,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19783,7 +19789,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20401,7 +20407,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21225,7 +21231,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21509,7 +21515,7 @@
         <v>0.33</v>
       </c>
       <c r="AP100">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -21637,7 +21643,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21843,7 +21849,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22049,7 +22055,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22130,7 +22136,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22206,6 +22212,212 @@
       </c>
       <c r="BP103">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7778177</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45766.08333333334</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q104">
+        <v>3</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>3.5</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>2.75</v>
+      </c>
+      <c r="W104">
+        <v>1.4</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>2.37</v>
+      </c>
+      <c r="AA104">
+        <v>3.09</v>
+      </c>
+      <c r="AB104">
+        <v>3.09</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>1.85</v>
+      </c>
+      <c r="AH104">
+        <v>1.85</v>
+      </c>
+      <c r="AI104">
+        <v>1.67</v>
+      </c>
+      <c r="AJ104">
+        <v>2.1</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0.8</v>
+      </c>
+      <c r="AO104">
+        <v>1.67</v>
+      </c>
+      <c r="AP104">
+        <v>0.67</v>
+      </c>
+      <c r="AQ104">
+        <v>1.86</v>
+      </c>
+      <c r="AR104">
+        <v>1.53</v>
+      </c>
+      <c r="AS104">
+        <v>1.35</v>
+      </c>
+      <c r="AT104">
+        <v>2.88</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>3</v>
+      </c>
+      <c r="AW104">
+        <v>11</v>
+      </c>
+      <c r="AX104">
+        <v>9</v>
+      </c>
+      <c r="AY104">
+        <v>19</v>
+      </c>
+      <c r="AZ104">
+        <v>16</v>
+      </c>
+      <c r="BA104">
+        <v>3</v>
+      </c>
+      <c r="BB104">
+        <v>8</v>
+      </c>
+      <c r="BC104">
+        <v>11</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,24 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['3', '45+2', '45+5']</t>
+  </si>
+  <si>
+    <t>['40', '48']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['45+8', '46', '88']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -586,9 +604,6 @@
     <t>['55', '72', '83']</t>
   </si>
   <si>
-    <t>['43']</t>
-  </si>
-  <si>
     <t>['43', '89']</t>
   </si>
   <si>
@@ -629,6 +644,21 @@
   </si>
   <si>
     <t>['72', '86']</t>
+  </si>
+  <si>
+    <t>['50', '73']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1279,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1536,7 +1566,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1739,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1945,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.86</v>
@@ -2563,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>0.17</v>
@@ -2769,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2897,7 +2927,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2978,7 +3008,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3103,7 +3133,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3309,7 +3339,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3387,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3515,7 +3545,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3799,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4005,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>0.8</v>
@@ -4133,7 +4163,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4339,7 +4369,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4417,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.83</v>
@@ -4545,7 +4575,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4626,7 +4656,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>2.07</v>
@@ -4832,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5038,7 +5068,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5244,7 +5274,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ21">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5369,7 +5399,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5653,10 +5683,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR23">
         <v>1.24</v>
@@ -5781,7 +5811,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -5859,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.86</v>
@@ -6065,10 +6095,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6271,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6399,7 +6429,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6605,7 +6635,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6686,7 +6716,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>0.8</v>
@@ -7017,7 +7047,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7429,7 +7459,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7716,7 +7746,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.86</v>
@@ -7919,7 +7949,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>1.86</v>
@@ -8047,7 +8077,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8125,10 +8155,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
         <v>1.47</v>
@@ -8253,7 +8283,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8334,7 +8364,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8459,7 +8489,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8665,7 +8695,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8743,10 +8773,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR38">
         <v>1.35</v>
@@ -8949,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1.17</v>
@@ -9283,7 +9313,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9361,10 +9391,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9567,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9695,7 +9725,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9776,7 +9806,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.74</v>
@@ -10313,7 +10343,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10391,10 +10421,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10519,7 +10549,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10597,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.17</v>
@@ -10725,7 +10755,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -10806,7 +10836,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.45</v>
@@ -11012,7 +11042,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11215,7 +11245,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>0.8</v>
@@ -11549,7 +11579,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11836,7 +11866,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.12</v>
@@ -11961,7 +11991,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12039,7 +12069,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>1.86</v>
@@ -12248,7 +12278,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.24</v>
@@ -12451,7 +12481,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -12579,7 +12609,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12660,7 +12690,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ57">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.46</v>
@@ -12991,7 +13021,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13069,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13197,7 +13227,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13275,7 +13305,7 @@
         <v>0.75</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13481,10 +13511,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -13687,7 +13717,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -13896,7 +13926,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14021,7 +14051,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14102,7 +14132,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14305,7 +14335,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14514,7 +14544,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -14845,7 +14875,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -14926,7 +14956,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15051,7 +15081,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15338,7 +15368,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15463,7 +15493,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15541,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>0.75</v>
@@ -15669,7 +15699,7 @@
         <v>91</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15750,7 +15780,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR72">
         <v>1.64</v>
@@ -15956,7 +15986,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16159,10 +16189,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR74">
         <v>1.09</v>
@@ -16368,7 +16398,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ75">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -16571,7 +16601,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
         <v>0.83</v>
@@ -16699,7 +16729,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16780,7 +16810,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ77">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -16905,7 +16935,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -16983,7 +17013,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17111,7 +17141,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17189,7 +17219,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ79">
         <v>1.17</v>
@@ -17398,7 +17428,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR80">
         <v>1.25</v>
@@ -17601,10 +17631,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -17935,7 +17965,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18219,7 +18249,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
         <v>1.17</v>
@@ -18425,7 +18455,7 @@
         <v>0.25</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>0.8</v>
@@ -18553,7 +18583,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18840,7 +18870,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.34</v>
@@ -18965,7 +18995,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19043,7 +19073,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ88">
         <v>0.17</v>
@@ -19377,7 +19407,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19455,10 +19485,10 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR90">
         <v>1.9</v>
@@ -19583,7 +19613,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19664,7 +19694,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>1.32</v>
@@ -19789,7 +19819,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20073,7 +20103,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93">
         <v>1.43</v>
@@ -20407,7 +20437,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20488,7 +20518,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ95">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -20897,10 +20927,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR97">
         <v>1.91</v>
@@ -21231,7 +21261,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21643,7 +21673,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21849,7 +21879,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21927,7 +21957,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
         <v>1.43</v>
@@ -22055,7 +22085,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22133,7 +22163,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ103">
         <v>1.86</v>
@@ -22261,7 +22291,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22417,6 +22447,1860 @@
         <v>0</v>
       </c>
       <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7778175</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>70</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>163</v>
+      </c>
+      <c r="P105" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q105">
+        <v>3.75</v>
+      </c>
+      <c r="R105">
+        <v>1.91</v>
+      </c>
+      <c r="S105">
+        <v>3.5</v>
+      </c>
+      <c r="T105">
+        <v>1.62</v>
+      </c>
+      <c r="U105">
+        <v>2.2</v>
+      </c>
+      <c r="V105">
+        <v>4</v>
+      </c>
+      <c r="W105">
+        <v>1.22</v>
+      </c>
+      <c r="X105">
+        <v>13</v>
+      </c>
+      <c r="Y105">
+        <v>1.04</v>
+      </c>
+      <c r="Z105">
+        <v>2.89</v>
+      </c>
+      <c r="AA105">
+        <v>2.88</v>
+      </c>
+      <c r="AB105">
+        <v>2.65</v>
+      </c>
+      <c r="AC105">
+        <v>1.12</v>
+      </c>
+      <c r="AD105">
+        <v>6</v>
+      </c>
+      <c r="AE105">
+        <v>1.5</v>
+      </c>
+      <c r="AF105">
+        <v>2.3</v>
+      </c>
+      <c r="AG105">
+        <v>2.7</v>
+      </c>
+      <c r="AH105">
+        <v>1.43</v>
+      </c>
+      <c r="AI105">
+        <v>2.1</v>
+      </c>
+      <c r="AJ105">
+        <v>1.67</v>
+      </c>
+      <c r="AK105">
+        <v>1.45</v>
+      </c>
+      <c r="AL105">
+        <v>1.35</v>
+      </c>
+      <c r="AM105">
+        <v>1.4</v>
+      </c>
+      <c r="AN105">
+        <v>1.5</v>
+      </c>
+      <c r="AO105">
+        <v>0.8</v>
+      </c>
+      <c r="AP105">
+        <v>1.43</v>
+      </c>
+      <c r="AQ105">
+        <v>0.83</v>
+      </c>
+      <c r="AR105">
+        <v>1.2</v>
+      </c>
+      <c r="AS105">
+        <v>1.72</v>
+      </c>
+      <c r="AT105">
+        <v>2.92</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>4</v>
+      </c>
+      <c r="AY105">
+        <v>13</v>
+      </c>
+      <c r="AZ105">
+        <v>7</v>
+      </c>
+      <c r="BA105">
+        <v>4</v>
+      </c>
+      <c r="BB105">
+        <v>2</v>
+      </c>
+      <c r="BC105">
+        <v>6</v>
+      </c>
+      <c r="BD105">
+        <v>1.71</v>
+      </c>
+      <c r="BE105">
+        <v>6.75</v>
+      </c>
+      <c r="BF105">
+        <v>2.35</v>
+      </c>
+      <c r="BG105">
+        <v>1.35</v>
+      </c>
+      <c r="BH105">
+        <v>2.8</v>
+      </c>
+      <c r="BI105">
+        <v>1.6</v>
+      </c>
+      <c r="BJ105">
+        <v>2.12</v>
+      </c>
+      <c r="BK105">
+        <v>1.98</v>
+      </c>
+      <c r="BL105">
+        <v>1.68</v>
+      </c>
+      <c r="BM105">
+        <v>2.55</v>
+      </c>
+      <c r="BN105">
+        <v>1.42</v>
+      </c>
+      <c r="BO105">
+        <v>3.3</v>
+      </c>
+      <c r="BP105">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7778182</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>74</v>
+      </c>
+      <c r="H106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P106" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q106">
+        <v>3.75</v>
+      </c>
+      <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>3.4</v>
+      </c>
+      <c r="T106">
+        <v>1.53</v>
+      </c>
+      <c r="U106">
+        <v>2.38</v>
+      </c>
+      <c r="V106">
+        <v>3.5</v>
+      </c>
+      <c r="W106">
+        <v>1.29</v>
+      </c>
+      <c r="X106">
+        <v>11</v>
+      </c>
+      <c r="Y106">
+        <v>1.05</v>
+      </c>
+      <c r="Z106">
+        <v>2.81</v>
+      </c>
+      <c r="AA106">
+        <v>3.17</v>
+      </c>
+      <c r="AB106">
+        <v>2.51</v>
+      </c>
+      <c r="AC106">
+        <v>1.09</v>
+      </c>
+      <c r="AD106">
+        <v>7</v>
+      </c>
+      <c r="AE106">
+        <v>1.45</v>
+      </c>
+      <c r="AF106">
+        <v>2.7</v>
+      </c>
+      <c r="AG106">
+        <v>2.25</v>
+      </c>
+      <c r="AH106">
+        <v>1.53</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.75</v>
+      </c>
+      <c r="AK106">
+        <v>1.5</v>
+      </c>
+      <c r="AL106">
+        <v>1.3</v>
+      </c>
+      <c r="AM106">
+        <v>1.4</v>
+      </c>
+      <c r="AN106">
+        <v>2.33</v>
+      </c>
+      <c r="AO106">
+        <v>0.75</v>
+      </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
+      <c r="AQ106">
+        <v>1.2</v>
+      </c>
+      <c r="AR106">
+        <v>1.54</v>
+      </c>
+      <c r="AS106">
+        <v>1.41</v>
+      </c>
+      <c r="AT106">
+        <v>2.95</v>
+      </c>
+      <c r="AU106">
+        <v>5</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>7</v>
+      </c>
+      <c r="AX106">
+        <v>7</v>
+      </c>
+      <c r="AY106">
+        <v>16</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>7</v>
+      </c>
+      <c r="BD106">
+        <v>2.1</v>
+      </c>
+      <c r="BE106">
+        <v>6.75</v>
+      </c>
+      <c r="BF106">
+        <v>1.88</v>
+      </c>
+      <c r="BG106">
+        <v>1.3</v>
+      </c>
+      <c r="BH106">
+        <v>3.05</v>
+      </c>
+      <c r="BI106">
+        <v>1.53</v>
+      </c>
+      <c r="BJ106">
+        <v>2.25</v>
+      </c>
+      <c r="BK106">
+        <v>1.87</v>
+      </c>
+      <c r="BL106">
+        <v>1.78</v>
+      </c>
+      <c r="BM106">
+        <v>2.35</v>
+      </c>
+      <c r="BN106">
+        <v>1.49</v>
+      </c>
+      <c r="BO106">
+        <v>3.05</v>
+      </c>
+      <c r="BP106">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7778178</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>3.2</v>
+      </c>
+      <c r="T107">
+        <v>1.53</v>
+      </c>
+      <c r="U107">
+        <v>2.38</v>
+      </c>
+      <c r="V107">
+        <v>3.5</v>
+      </c>
+      <c r="W107">
+        <v>1.29</v>
+      </c>
+      <c r="X107">
+        <v>11</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>3.09</v>
+      </c>
+      <c r="AA107">
+        <v>3.23</v>
+      </c>
+      <c r="AB107">
+        <v>2.29</v>
+      </c>
+      <c r="AC107">
+        <v>1.1</v>
+      </c>
+      <c r="AD107">
+        <v>6.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.48</v>
+      </c>
+      <c r="AF107">
+        <v>2.6</v>
+      </c>
+      <c r="AG107">
+        <v>2.15</v>
+      </c>
+      <c r="AH107">
+        <v>1.57</v>
+      </c>
+      <c r="AI107">
+        <v>2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.75</v>
+      </c>
+      <c r="AK107">
+        <v>1.45</v>
+      </c>
+      <c r="AL107">
+        <v>1.3</v>
+      </c>
+      <c r="AM107">
+        <v>1.42</v>
+      </c>
+      <c r="AN107">
+        <v>1.6</v>
+      </c>
+      <c r="AO107">
+        <v>2.25</v>
+      </c>
+      <c r="AP107">
+        <v>1.83</v>
+      </c>
+      <c r="AQ107">
+        <v>1.8</v>
+      </c>
+      <c r="AR107">
+        <v>1.41</v>
+      </c>
+      <c r="AS107">
+        <v>1.79</v>
+      </c>
+      <c r="AT107">
+        <v>3.2</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>3</v>
+      </c>
+      <c r="AX107">
+        <v>10</v>
+      </c>
+      <c r="AY107">
+        <v>8</v>
+      </c>
+      <c r="AZ107">
+        <v>14</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>4</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>0</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>0</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>0</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7778179</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H108" t="s">
+        <v>87</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>166</v>
+      </c>
+      <c r="P108" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q108">
+        <v>4.75</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>2.75</v>
+      </c>
+      <c r="T108">
+        <v>1.53</v>
+      </c>
+      <c r="U108">
+        <v>2.38</v>
+      </c>
+      <c r="V108">
+        <v>3.75</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>11</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>3.93</v>
+      </c>
+      <c r="AA108">
+        <v>3.12</v>
+      </c>
+      <c r="AB108">
+        <v>2.02</v>
+      </c>
+      <c r="AC108">
+        <v>1.1</v>
+      </c>
+      <c r="AD108">
+        <v>6.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.54</v>
+      </c>
+      <c r="AF108">
+        <v>2.48</v>
+      </c>
+      <c r="AG108">
+        <v>2.3</v>
+      </c>
+      <c r="AH108">
+        <v>1.5</v>
+      </c>
+      <c r="AI108">
+        <v>2.05</v>
+      </c>
+      <c r="AJ108">
+        <v>1.7</v>
+      </c>
+      <c r="AK108">
+        <v>1.75</v>
+      </c>
+      <c r="AL108">
+        <v>1.3</v>
+      </c>
+      <c r="AM108">
+        <v>1.22</v>
+      </c>
+      <c r="AN108">
+        <v>1.75</v>
+      </c>
+      <c r="AO108">
+        <v>1.33</v>
+      </c>
+      <c r="AP108">
+        <v>2</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>1.41</v>
+      </c>
+      <c r="AS108">
+        <v>1.72</v>
+      </c>
+      <c r="AT108">
+        <v>3.13</v>
+      </c>
+      <c r="AU108">
+        <v>3</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>11</v>
+      </c>
+      <c r="AY108">
+        <v>11</v>
+      </c>
+      <c r="AZ108">
+        <v>18</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>8</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>2.55</v>
+      </c>
+      <c r="BE108">
+        <v>6.75</v>
+      </c>
+      <c r="BF108">
+        <v>1.61</v>
+      </c>
+      <c r="BG108">
+        <v>1.34</v>
+      </c>
+      <c r="BH108">
+        <v>2.85</v>
+      </c>
+      <c r="BI108">
+        <v>1.58</v>
+      </c>
+      <c r="BJ108">
+        <v>2.14</v>
+      </c>
+      <c r="BK108">
+        <v>1.95</v>
+      </c>
+      <c r="BL108">
+        <v>1.71</v>
+      </c>
+      <c r="BM108">
+        <v>2.5</v>
+      </c>
+      <c r="BN108">
+        <v>1.43</v>
+      </c>
+      <c r="BO108">
+        <v>3.3</v>
+      </c>
+      <c r="BP108">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7778181</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>154</v>
+      </c>
+      <c r="P109" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q109">
+        <v>3.4</v>
+      </c>
+      <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
+        <v>3.75</v>
+      </c>
+      <c r="T109">
+        <v>1.53</v>
+      </c>
+      <c r="U109">
+        <v>2.38</v>
+      </c>
+      <c r="V109">
+        <v>3.75</v>
+      </c>
+      <c r="W109">
+        <v>1.25</v>
+      </c>
+      <c r="X109">
+        <v>11</v>
+      </c>
+      <c r="Y109">
+        <v>1.05</v>
+      </c>
+      <c r="Z109">
+        <v>2.24</v>
+      </c>
+      <c r="AA109">
+        <v>3.23</v>
+      </c>
+      <c r="AB109">
+        <v>3.18</v>
+      </c>
+      <c r="AC109">
+        <v>1.1</v>
+      </c>
+      <c r="AD109">
+        <v>6.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.5</v>
+      </c>
+      <c r="AF109">
+        <v>2.4</v>
+      </c>
+      <c r="AG109">
+        <v>2.25</v>
+      </c>
+      <c r="AH109">
+        <v>1.53</v>
+      </c>
+      <c r="AI109">
+        <v>2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.75</v>
+      </c>
+      <c r="AK109">
+        <v>1.33</v>
+      </c>
+      <c r="AL109">
+        <v>1.33</v>
+      </c>
+      <c r="AM109">
+        <v>1.55</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
+        <v>2.6</v>
+      </c>
+      <c r="AP109">
+        <v>1.33</v>
+      </c>
+      <c r="AQ109">
+        <v>2.17</v>
+      </c>
+      <c r="AR109">
+        <v>1.57</v>
+      </c>
+      <c r="AS109">
+        <v>1.28</v>
+      </c>
+      <c r="AT109">
+        <v>2.85</v>
+      </c>
+      <c r="AU109">
+        <v>7</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>13</v>
+      </c>
+      <c r="AY109">
+        <v>15</v>
+      </c>
+      <c r="AZ109">
+        <v>19</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>8</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>0</v>
+      </c>
+      <c r="BG109">
+        <v>0</v>
+      </c>
+      <c r="BH109">
+        <v>0</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7778180</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45767.125</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" t="s">
+        <v>85</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>167</v>
+      </c>
+      <c r="P110" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q110">
+        <v>2.63</v>
+      </c>
+      <c r="R110">
+        <v>2.1</v>
+      </c>
+      <c r="S110">
+        <v>4.33</v>
+      </c>
+      <c r="T110">
+        <v>1.44</v>
+      </c>
+      <c r="U110">
+        <v>2.63</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>9</v>
+      </c>
+      <c r="Y110">
+        <v>1.07</v>
+      </c>
+      <c r="Z110">
+        <v>1.89</v>
+      </c>
+      <c r="AA110">
+        <v>3.5</v>
+      </c>
+      <c r="AB110">
+        <v>3.93</v>
+      </c>
+      <c r="AC110">
+        <v>1.06</v>
+      </c>
+      <c r="AD110">
+        <v>8.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.33</v>
+      </c>
+      <c r="AF110">
+        <v>3.25</v>
+      </c>
+      <c r="AG110">
+        <v>1.94</v>
+      </c>
+      <c r="AH110">
+        <v>1.8</v>
+      </c>
+      <c r="AI110">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110">
+        <v>1.95</v>
+      </c>
+      <c r="AK110">
+        <v>1.22</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.83</v>
+      </c>
+      <c r="AN110">
+        <v>1.6</v>
+      </c>
+      <c r="AO110">
+        <v>0.8</v>
+      </c>
+      <c r="AP110">
+        <v>1.5</v>
+      </c>
+      <c r="AQ110">
+        <v>0.83</v>
+      </c>
+      <c r="AR110">
+        <v>2.07</v>
+      </c>
+      <c r="AS110">
+        <v>1.18</v>
+      </c>
+      <c r="AT110">
+        <v>3.25</v>
+      </c>
+      <c r="AU110">
+        <v>7</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>10</v>
+      </c>
+      <c r="AX110">
+        <v>8</v>
+      </c>
+      <c r="AY110">
+        <v>21</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>3</v>
+      </c>
+      <c r="BC110">
+        <v>10</v>
+      </c>
+      <c r="BD110">
+        <v>1.68</v>
+      </c>
+      <c r="BE110">
+        <v>6.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.43</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.7</v>
+      </c>
+      <c r="BI110">
+        <v>1.64</v>
+      </c>
+      <c r="BJ110">
+        <v>2.04</v>
+      </c>
+      <c r="BK110">
+        <v>2.04</v>
+      </c>
+      <c r="BL110">
+        <v>1.64</v>
+      </c>
+      <c r="BM110">
+        <v>2.6</v>
+      </c>
+      <c r="BN110">
+        <v>1.4</v>
+      </c>
+      <c r="BO110">
+        <v>3.4</v>
+      </c>
+      <c r="BP110">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7778176</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45767.125</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>81</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>91</v>
+      </c>
+      <c r="P111" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q111">
+        <v>3.6</v>
+      </c>
+      <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
+        <v>3.4</v>
+      </c>
+      <c r="T111">
+        <v>1.53</v>
+      </c>
+      <c r="U111">
+        <v>2.38</v>
+      </c>
+      <c r="V111">
+        <v>3.5</v>
+      </c>
+      <c r="W111">
+        <v>1.29</v>
+      </c>
+      <c r="X111">
+        <v>11</v>
+      </c>
+      <c r="Y111">
+        <v>1.05</v>
+      </c>
+      <c r="Z111">
+        <v>2.77</v>
+      </c>
+      <c r="AA111">
+        <v>3.09</v>
+      </c>
+      <c r="AB111">
+        <v>2.6</v>
+      </c>
+      <c r="AC111">
+        <v>1.09</v>
+      </c>
+      <c r="AD111">
+        <v>7</v>
+      </c>
+      <c r="AE111">
+        <v>1.45</v>
+      </c>
+      <c r="AF111">
+        <v>2.7</v>
+      </c>
+      <c r="AG111">
+        <v>2.25</v>
+      </c>
+      <c r="AH111">
+        <v>1.53</v>
+      </c>
+      <c r="AI111">
+        <v>2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.75</v>
+      </c>
+      <c r="AK111">
+        <v>1.48</v>
+      </c>
+      <c r="AL111">
+        <v>1.3</v>
+      </c>
+      <c r="AM111">
+        <v>1.42</v>
+      </c>
+      <c r="AN111">
+        <v>2.25</v>
+      </c>
+      <c r="AO111">
+        <v>1.8</v>
+      </c>
+      <c r="AP111">
+        <v>1.8</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>1.52</v>
+      </c>
+      <c r="AS111">
+        <v>1.27</v>
+      </c>
+      <c r="AT111">
+        <v>2.79</v>
+      </c>
+      <c r="AU111">
+        <v>4</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>12</v>
+      </c>
+      <c r="AX111">
+        <v>8</v>
+      </c>
+      <c r="AY111">
+        <v>20</v>
+      </c>
+      <c r="AZ111">
+        <v>19</v>
+      </c>
+      <c r="BA111">
+        <v>13</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>18</v>
+      </c>
+      <c r="BD111">
+        <v>2</v>
+      </c>
+      <c r="BE111">
+        <v>6.4</v>
+      </c>
+      <c r="BF111">
+        <v>1.98</v>
+      </c>
+      <c r="BG111">
+        <v>1.32</v>
+      </c>
+      <c r="BH111">
+        <v>2.95</v>
+      </c>
+      <c r="BI111">
+        <v>1.55</v>
+      </c>
+      <c r="BJ111">
+        <v>2.2</v>
+      </c>
+      <c r="BK111">
+        <v>1.9</v>
+      </c>
+      <c r="BL111">
+        <v>1.75</v>
+      </c>
+      <c r="BM111">
+        <v>2.4</v>
+      </c>
+      <c r="BN111">
+        <v>1.46</v>
+      </c>
+      <c r="BO111">
+        <v>3.15</v>
+      </c>
+      <c r="BP111">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7778174</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45767.125</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>79</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>91</v>
+      </c>
+      <c r="P112" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q112">
+        <v>2.6</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>4.75</v>
+      </c>
+      <c r="T112">
+        <v>1.44</v>
+      </c>
+      <c r="U112">
+        <v>2.63</v>
+      </c>
+      <c r="V112">
+        <v>3.25</v>
+      </c>
+      <c r="W112">
+        <v>1.33</v>
+      </c>
+      <c r="X112">
+        <v>9</v>
+      </c>
+      <c r="Y112">
+        <v>1.07</v>
+      </c>
+      <c r="Z112">
+        <v>2.09</v>
+      </c>
+      <c r="AA112">
+        <v>3.28</v>
+      </c>
+      <c r="AB112">
+        <v>3.47</v>
+      </c>
+      <c r="AC112">
+        <v>1.07</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.35</v>
+      </c>
+      <c r="AF112">
+        <v>3.1</v>
+      </c>
+      <c r="AG112">
+        <v>1.82</v>
+      </c>
+      <c r="AH112">
+        <v>1.92</v>
+      </c>
+      <c r="AI112">
+        <v>1.91</v>
+      </c>
+      <c r="AJ112">
+        <v>1.91</v>
+      </c>
+      <c r="AK112">
+        <v>1.22</v>
+      </c>
+      <c r="AL112">
+        <v>1.28</v>
+      </c>
+      <c r="AM112">
+        <v>1.85</v>
+      </c>
+      <c r="AN112">
+        <v>1.75</v>
+      </c>
+      <c r="AO112">
+        <v>1.2</v>
+      </c>
+      <c r="AP112">
+        <v>1.6</v>
+      </c>
+      <c r="AQ112">
+        <v>1.17</v>
+      </c>
+      <c r="AR112">
+        <v>1.78</v>
+      </c>
+      <c r="AS112">
+        <v>1.24</v>
+      </c>
+      <c r="AT112">
+        <v>3.02</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>2</v>
+      </c>
+      <c r="AW112">
+        <v>8</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>15</v>
+      </c>
+      <c r="AZ112">
+        <v>10</v>
+      </c>
+      <c r="BA112">
+        <v>7</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>10</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>0</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7778173</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45767.16666666666</v>
+      </c>
+      <c r="F113">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>89</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>168</v>
+      </c>
+      <c r="P113" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q113">
+        <v>2.88</v>
+      </c>
+      <c r="R113">
+        <v>2.2</v>
+      </c>
+      <c r="S113">
+        <v>3.75</v>
+      </c>
+      <c r="T113">
+        <v>1.36</v>
+      </c>
+      <c r="U113">
+        <v>3</v>
+      </c>
+      <c r="V113">
+        <v>2.75</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>1.1</v>
+      </c>
+      <c r="Z113">
+        <v>2.36</v>
+      </c>
+      <c r="AA113">
+        <v>3.23</v>
+      </c>
+      <c r="AB113">
+        <v>2.98</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>9</v>
+      </c>
+      <c r="AE113">
+        <v>1.28</v>
+      </c>
+      <c r="AF113">
+        <v>3.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.87</v>
+      </c>
+      <c r="AH113">
+        <v>1.87</v>
+      </c>
+      <c r="AI113">
+        <v>1.67</v>
+      </c>
+      <c r="AJ113">
+        <v>2.1</v>
+      </c>
+      <c r="AK113">
+        <v>1.28</v>
+      </c>
+      <c r="AL113">
+        <v>1.25</v>
+      </c>
+      <c r="AM113">
+        <v>1.75</v>
+      </c>
+      <c r="AN113">
+        <v>2.25</v>
+      </c>
+      <c r="AO113">
+        <v>0.2</v>
+      </c>
+      <c r="AP113">
+        <v>2.4</v>
+      </c>
+      <c r="AQ113">
+        <v>0.17</v>
+      </c>
+      <c r="AR113">
+        <v>1.45</v>
+      </c>
+      <c r="AS113">
+        <v>1.3</v>
+      </c>
+      <c r="AT113">
+        <v>2.75</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>7</v>
+      </c>
+      <c r="AX113">
+        <v>10</v>
+      </c>
+      <c r="AY113">
+        <v>14</v>
+      </c>
+      <c r="AZ113">
+        <v>17</v>
+      </c>
+      <c r="BA113">
+        <v>10</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>13</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,15 @@
     <t>['45+8', '46', '88']</t>
   </si>
   <si>
+    <t>['15', '70']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['86', '90', '90+4']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -659,6 +668,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1291,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1360,7 +1372,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1563,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -2596,7 +2608,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2927,7 +2939,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3005,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
+        <v>0.67</v>
+      </c>
+      <c r="AQ10">
         <v>0.8</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3133,7 +3145,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3211,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3339,7 +3351,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3545,7 +3557,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3832,7 +3844,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -4163,7 +4175,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4241,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4369,7 +4381,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4450,7 +4462,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4575,7 +4587,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4859,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>2.17</v>
@@ -5065,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5399,7 +5411,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5477,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ22">
         <v>1.43</v>
@@ -5686,7 +5698,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>1.24</v>
@@ -5811,7 +5823,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6098,7 +6110,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6429,7 +6441,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6507,7 +6519,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
         <v>0.8</v>
@@ -6635,7 +6647,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6713,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -6919,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR29">
         <v>1.17</v>
@@ -7047,7 +7059,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7128,7 +7140,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7334,7 +7346,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR31">
         <v>1.14</v>
@@ -7459,7 +7471,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7540,7 +7552,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR32">
         <v>1.12</v>
@@ -7743,7 +7755,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33">
         <v>0.83</v>
@@ -8077,7 +8089,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8283,7 +8295,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8361,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8489,7 +8501,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8570,7 +8582,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8695,7 +8707,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9188,7 +9200,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR40">
         <v>1.25</v>
@@ -9313,7 +9325,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9391,7 +9403,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9597,10 +9609,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>2.05</v>
@@ -9725,7 +9737,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10215,10 +10227,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10343,7 +10355,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10549,7 +10561,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10630,7 +10642,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR47">
         <v>1.63</v>
@@ -10755,7 +10767,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11039,7 +11051,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49">
         <v>1.8</v>
@@ -11248,7 +11260,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11451,7 +11463,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
         <v>0.8</v>
@@ -11579,7 +11591,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11657,10 +11669,10 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -11863,7 +11875,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ53">
         <v>0.83</v>
@@ -11991,7 +12003,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12278,7 +12290,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR55">
         <v>1.24</v>
@@ -12609,7 +12621,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12893,7 +12905,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13021,7 +13033,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13227,7 +13239,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13720,7 +13732,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14051,7 +14063,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14132,7 +14144,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14338,7 +14350,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>1.08</v>
@@ -14541,10 +14553,10 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -14747,7 +14759,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -14875,7 +14887,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -14953,7 +14965,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68">
         <v>2.17</v>
@@ -15081,7 +15093,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15159,7 +15171,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15493,7 +15505,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15574,7 +15586,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15983,7 +15995,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16604,7 +16616,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>1.89</v>
@@ -16729,7 +16741,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16807,7 +16819,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -16935,7 +16947,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17141,7 +17153,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17219,7 +17231,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79">
         <v>1.17</v>
@@ -17837,7 +17849,7 @@
         <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -17965,7 +17977,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18043,7 +18055,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ83">
         <v>1.43</v>
@@ -18583,7 +18595,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18661,7 +18673,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ86">
         <v>1.86</v>
@@ -18870,7 +18882,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR87">
         <v>1.34</v>
@@ -18995,7 +19007,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19076,7 +19088,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ88">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR88">
         <v>1.6</v>
@@ -19282,7 +19294,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19407,7 +19419,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19613,7 +19625,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19691,7 +19703,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>2</v>
@@ -19819,7 +19831,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -19900,7 +19912,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ92">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20312,7 +20324,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ94">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR94">
         <v>1.55</v>
@@ -20437,7 +20449,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20515,7 +20527,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
         <v>0.17</v>
@@ -20721,7 +20733,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
         <v>2</v>
@@ -21133,10 +21145,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ98">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
         <v>1.39</v>
@@ -21261,7 +21273,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21339,7 +21351,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21548,7 +21560,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ100">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21673,7 +21685,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21879,7 +21891,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22085,7 +22097,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22163,7 +22175,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ103">
         <v>1.86</v>
@@ -22291,7 +22303,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22578,7 +22590,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR105">
         <v>1.2</v>
@@ -22703,7 +22715,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22909,7 +22921,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23115,7 +23127,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23196,7 +23208,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR108">
         <v>1.41</v>
@@ -23733,7 +23745,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24145,7 +24157,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24223,7 +24235,7 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ113">
         <v>0.17</v>
@@ -24301,6 +24313,1448 @@
         <v>0</v>
       </c>
       <c r="BP113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7778187</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>84</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>135</v>
+      </c>
+      <c r="P114" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q114">
+        <v>3.25</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>3.6</v>
+      </c>
+      <c r="T114">
+        <v>1.5</v>
+      </c>
+      <c r="U114">
+        <v>2.5</v>
+      </c>
+      <c r="V114">
+        <v>3.4</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+      <c r="X114">
+        <v>10</v>
+      </c>
+      <c r="Y114">
+        <v>1.06</v>
+      </c>
+      <c r="Z114">
+        <v>2.35</v>
+      </c>
+      <c r="AA114">
+        <v>3.09</v>
+      </c>
+      <c r="AB114">
+        <v>3.13</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>2.39</v>
+      </c>
+      <c r="AF114">
+        <v>1.61</v>
+      </c>
+      <c r="AG114">
+        <v>2.15</v>
+      </c>
+      <c r="AH114">
+        <v>1.57</v>
+      </c>
+      <c r="AI114">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114">
+        <v>1.8</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0.8</v>
+      </c>
+      <c r="AO114">
+        <v>0.8</v>
+      </c>
+      <c r="AP114">
+        <v>1.17</v>
+      </c>
+      <c r="AQ114">
+        <v>0.67</v>
+      </c>
+      <c r="AR114">
+        <v>1.46</v>
+      </c>
+      <c r="AS114">
+        <v>1.42</v>
+      </c>
+      <c r="AT114">
+        <v>2.88</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>12</v>
+      </c>
+      <c r="AX114">
+        <v>10</v>
+      </c>
+      <c r="AY114">
+        <v>20</v>
+      </c>
+      <c r="AZ114">
+        <v>18</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7778188</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>91</v>
+      </c>
+      <c r="P115" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q115">
+        <v>2.75</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>4.5</v>
+      </c>
+      <c r="T115">
+        <v>1.53</v>
+      </c>
+      <c r="U115">
+        <v>2.38</v>
+      </c>
+      <c r="V115">
+        <v>3.5</v>
+      </c>
+      <c r="W115">
+        <v>1.29</v>
+      </c>
+      <c r="X115">
+        <v>11</v>
+      </c>
+      <c r="Y115">
+        <v>1.05</v>
+      </c>
+      <c r="Z115">
+        <v>2.02</v>
+      </c>
+      <c r="AA115">
+        <v>3.2</v>
+      </c>
+      <c r="AB115">
+        <v>3.82</v>
+      </c>
+      <c r="AC115">
+        <v>2.56</v>
+      </c>
+      <c r="AD115">
+        <v>1.55</v>
+      </c>
+      <c r="AE115">
+        <v>1.5</v>
+      </c>
+      <c r="AF115">
+        <v>2.4</v>
+      </c>
+      <c r="AG115">
+        <v>2.2</v>
+      </c>
+      <c r="AH115">
+        <v>1.53</v>
+      </c>
+      <c r="AI115">
+        <v>2.05</v>
+      </c>
+      <c r="AJ115">
+        <v>1.7</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0.8</v>
+      </c>
+      <c r="AO115">
+        <v>0.83</v>
+      </c>
+      <c r="AP115">
+        <v>0.67</v>
+      </c>
+      <c r="AQ115">
+        <v>1.14</v>
+      </c>
+      <c r="AR115">
+        <v>1.31</v>
+      </c>
+      <c r="AS115">
+        <v>1.18</v>
+      </c>
+      <c r="AT115">
+        <v>2.49</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>3</v>
+      </c>
+      <c r="AW115">
+        <v>7</v>
+      </c>
+      <c r="AX115">
+        <v>8</v>
+      </c>
+      <c r="AY115">
+        <v>13</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>4</v>
+      </c>
+      <c r="BB115">
+        <v>1</v>
+      </c>
+      <c r="BC115">
+        <v>5</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7778189</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>169</v>
+      </c>
+      <c r="P116" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>1.91</v>
+      </c>
+      <c r="S116">
+        <v>4.5</v>
+      </c>
+      <c r="T116">
+        <v>1.57</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>3.75</v>
+      </c>
+      <c r="W116">
+        <v>1.25</v>
+      </c>
+      <c r="X116">
+        <v>13</v>
+      </c>
+      <c r="Y116">
+        <v>1.04</v>
+      </c>
+      <c r="Z116">
+        <v>2.13</v>
+      </c>
+      <c r="AA116">
+        <v>3.16</v>
+      </c>
+      <c r="AB116">
+        <v>3.51</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>1.5</v>
+      </c>
+      <c r="AF116">
+        <v>2.4</v>
+      </c>
+      <c r="AG116">
+        <v>2.4</v>
+      </c>
+      <c r="AH116">
+        <v>1.48</v>
+      </c>
+      <c r="AI116">
+        <v>2.1</v>
+      </c>
+      <c r="AJ116">
+        <v>1.67</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1.6</v>
+      </c>
+      <c r="AO116">
+        <v>0.5</v>
+      </c>
+      <c r="AP116">
+        <v>1.83</v>
+      </c>
+      <c r="AQ116">
+        <v>0.4</v>
+      </c>
+      <c r="AR116">
+        <v>1.54</v>
+      </c>
+      <c r="AS116">
+        <v>1.14</v>
+      </c>
+      <c r="AT116">
+        <v>2.68</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>10</v>
+      </c>
+      <c r="AY116">
+        <v>13</v>
+      </c>
+      <c r="AZ116">
+        <v>17</v>
+      </c>
+      <c r="BA116">
+        <v>4</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>7</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7778190</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>71</v>
+      </c>
+      <c r="H117" t="s">
+        <v>74</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>163</v>
+      </c>
+      <c r="P117" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q117">
+        <v>3.1</v>
+      </c>
+      <c r="R117">
+        <v>1.91</v>
+      </c>
+      <c r="S117">
+        <v>4.33</v>
+      </c>
+      <c r="T117">
+        <v>1.62</v>
+      </c>
+      <c r="U117">
+        <v>2.2</v>
+      </c>
+      <c r="V117">
+        <v>4</v>
+      </c>
+      <c r="W117">
+        <v>1.22</v>
+      </c>
+      <c r="X117">
+        <v>13</v>
+      </c>
+      <c r="Y117">
+        <v>1.04</v>
+      </c>
+      <c r="Z117">
+        <v>2.11</v>
+      </c>
+      <c r="AA117">
+        <v>3</v>
+      </c>
+      <c r="AB117">
+        <v>3.79</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>1.5</v>
+      </c>
+      <c r="AF117">
+        <v>2.3</v>
+      </c>
+      <c r="AG117">
+        <v>2.67</v>
+      </c>
+      <c r="AH117">
+        <v>1.44</v>
+      </c>
+      <c r="AI117">
+        <v>2.2</v>
+      </c>
+      <c r="AJ117">
+        <v>1.62</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1.67</v>
+      </c>
+      <c r="AO117">
+        <v>0.75</v>
+      </c>
+      <c r="AP117">
+        <v>1.57</v>
+      </c>
+      <c r="AQ117">
+        <v>0.8</v>
+      </c>
+      <c r="AR117">
+        <v>1.59</v>
+      </c>
+      <c r="AS117">
+        <v>1.33</v>
+      </c>
+      <c r="AT117">
+        <v>2.92</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>6</v>
+      </c>
+      <c r="AW117">
+        <v>9</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>17</v>
+      </c>
+      <c r="AZ117">
+        <v>13</v>
+      </c>
+      <c r="BA117">
+        <v>4</v>
+      </c>
+      <c r="BB117">
+        <v>3</v>
+      </c>
+      <c r="BC117">
+        <v>7</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7778183</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
+      </c>
+      <c r="H118" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>170</v>
+      </c>
+      <c r="P118" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q118">
+        <v>2.88</v>
+      </c>
+      <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
+        <v>4.5</v>
+      </c>
+      <c r="T118">
+        <v>1.53</v>
+      </c>
+      <c r="U118">
+        <v>2.38</v>
+      </c>
+      <c r="V118">
+        <v>3.5</v>
+      </c>
+      <c r="W118">
+        <v>1.29</v>
+      </c>
+      <c r="X118">
+        <v>11</v>
+      </c>
+      <c r="Y118">
+        <v>1.05</v>
+      </c>
+      <c r="Z118">
+        <v>1.97</v>
+      </c>
+      <c r="AA118">
+        <v>3.18</v>
+      </c>
+      <c r="AB118">
+        <v>4</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>2.9</v>
+      </c>
+      <c r="AF118">
+        <v>1.44</v>
+      </c>
+      <c r="AG118">
+        <v>2.25</v>
+      </c>
+      <c r="AH118">
+        <v>1.53</v>
+      </c>
+      <c r="AI118">
+        <v>2.05</v>
+      </c>
+      <c r="AJ118">
+        <v>1.7</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>2.17</v>
+      </c>
+      <c r="AO118">
+        <v>0.17</v>
+      </c>
+      <c r="AP118">
+        <v>2.29</v>
+      </c>
+      <c r="AQ118">
+        <v>0.14</v>
+      </c>
+      <c r="AR118">
+        <v>1.72</v>
+      </c>
+      <c r="AS118">
+        <v>1.19</v>
+      </c>
+      <c r="AT118">
+        <v>2.91</v>
+      </c>
+      <c r="AU118">
+        <v>6</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>5</v>
+      </c>
+      <c r="AX118">
+        <v>6</v>
+      </c>
+      <c r="AY118">
+        <v>12</v>
+      </c>
+      <c r="AZ118">
+        <v>9</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>1</v>
+      </c>
+      <c r="BC118">
+        <v>5</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7778184</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45772.3125</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>89</v>
+      </c>
+      <c r="H119" t="s">
+        <v>87</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>98</v>
+      </c>
+      <c r="P119" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q119">
+        <v>3.6</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>3.2</v>
+      </c>
+      <c r="T119">
+        <v>1.44</v>
+      </c>
+      <c r="U119">
+        <v>2.63</v>
+      </c>
+      <c r="V119">
+        <v>3.4</v>
+      </c>
+      <c r="W119">
+        <v>1.3</v>
+      </c>
+      <c r="X119">
+        <v>10</v>
+      </c>
+      <c r="Y119">
+        <v>1.06</v>
+      </c>
+      <c r="Z119">
+        <v>2.98</v>
+      </c>
+      <c r="AA119">
+        <v>3.28</v>
+      </c>
+      <c r="AB119">
+        <v>2.33</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>3.03</v>
+      </c>
+      <c r="AF119">
+        <v>1.41</v>
+      </c>
+      <c r="AG119">
+        <v>2</v>
+      </c>
+      <c r="AH119">
+        <v>1.65</v>
+      </c>
+      <c r="AI119">
+        <v>1.91</v>
+      </c>
+      <c r="AJ119">
+        <v>1.91</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>2.4</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
+        <v>2.5</v>
+      </c>
+      <c r="AQ119">
+        <v>0.8</v>
+      </c>
+      <c r="AR119">
+        <v>1.43</v>
+      </c>
+      <c r="AS119">
+        <v>1.71</v>
+      </c>
+      <c r="AT119">
+        <v>3.14</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>2</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>11</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>14</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7778186</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45772.3125</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>85</v>
+      </c>
+      <c r="H120" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>171</v>
+      </c>
+      <c r="P120" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q120">
+        <v>3.75</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>3.2</v>
+      </c>
+      <c r="T120">
+        <v>1.5</v>
+      </c>
+      <c r="U120">
+        <v>2.5</v>
+      </c>
+      <c r="V120">
+        <v>3.5</v>
+      </c>
+      <c r="W120">
+        <v>1.29</v>
+      </c>
+      <c r="X120">
+        <v>11</v>
+      </c>
+      <c r="Y120">
+        <v>1.05</v>
+      </c>
+      <c r="Z120">
+        <v>3.23</v>
+      </c>
+      <c r="AA120">
+        <v>3.01</v>
+      </c>
+      <c r="AB120">
+        <v>2.34</v>
+      </c>
+      <c r="AC120">
+        <v>2.22</v>
+      </c>
+      <c r="AD120">
+        <v>1.7</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>2.15</v>
+      </c>
+      <c r="AH120">
+        <v>1.57</v>
+      </c>
+      <c r="AI120">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120">
+        <v>1.8</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>0.83</v>
+      </c>
+      <c r="AP120">
+        <v>1.33</v>
+      </c>
+      <c r="AQ120">
+        <v>0.71</v>
+      </c>
+      <c r="AR120">
+        <v>1.31</v>
+      </c>
+      <c r="AS120">
+        <v>1.58</v>
+      </c>
+      <c r="AT120">
+        <v>2.89</v>
+      </c>
+      <c r="AU120">
+        <v>11</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>2</v>
+      </c>
+      <c r="AX120">
+        <v>11</v>
+      </c>
+      <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
+        <v>17</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>6</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,9 @@
     <t>['86', '90', '90+4']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -671,6 +674,9 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1297,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2402,7 +2408,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2939,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3145,7 +3151,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3351,7 +3357,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3557,7 +3563,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3635,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -4050,7 +4056,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4175,7 +4181,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4381,7 +4387,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4587,7 +4593,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5411,7 +5417,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5823,7 +5829,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6441,7 +6447,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6522,7 +6528,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>2.08</v>
@@ -6647,7 +6653,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7059,7 +7065,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7137,7 +7143,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7471,7 +7477,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8089,7 +8095,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8295,7 +8301,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8501,7 +8507,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8707,7 +8713,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9325,7 +9331,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9737,7 +9743,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10355,7 +10361,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10561,7 +10567,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10767,7 +10773,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -10845,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -11466,7 +11472,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.02</v>
@@ -11591,7 +11597,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12003,7 +12009,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12621,7 +12627,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13033,7 +13039,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13239,7 +13245,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13935,7 +13941,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>1.17</v>
@@ -14063,7 +14069,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14887,7 +14893,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15093,7 +15099,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15505,7 +15511,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16741,7 +16747,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16947,7 +16953,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17153,7 +17159,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17977,7 +17983,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18470,7 +18476,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18595,7 +18601,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18879,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.71</v>
@@ -19007,7 +19013,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19419,7 +19425,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19625,7 +19631,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19831,7 +19837,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20449,7 +20455,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21273,7 +21279,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21685,7 +21691,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21891,7 +21897,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22097,7 +22103,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22303,7 +22309,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22715,7 +22721,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22921,7 +22927,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23127,7 +23133,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23745,7 +23751,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24157,7 +24163,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24569,7 +24575,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24775,7 +24781,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25755,6 +25761,212 @@
         <v>0</v>
       </c>
       <c r="BP120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7778185</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45773.08333333334</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s">
+        <v>88</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>172</v>
+      </c>
+      <c r="P121" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>1.53</v>
+      </c>
+      <c r="U121">
+        <v>2.38</v>
+      </c>
+      <c r="V121">
+        <v>3.5</v>
+      </c>
+      <c r="W121">
+        <v>1.29</v>
+      </c>
+      <c r="X121">
+        <v>11</v>
+      </c>
+      <c r="Y121">
+        <v>1.05</v>
+      </c>
+      <c r="Z121">
+        <v>2.41</v>
+      </c>
+      <c r="AA121">
+        <v>3.02</v>
+      </c>
+      <c r="AB121">
+        <v>3.08</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>2.25</v>
+      </c>
+      <c r="AH121">
+        <v>1.53</v>
+      </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.75</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>1.6</v>
+      </c>
+      <c r="AO121">
+        <v>0.8</v>
+      </c>
+      <c r="AP121">
+        <v>1.5</v>
+      </c>
+      <c r="AQ121">
+        <v>0.83</v>
+      </c>
+      <c r="AR121">
+        <v>1.42</v>
+      </c>
+      <c r="AS121">
+        <v>1.15</v>
+      </c>
+      <c r="AT121">
+        <v>2.57</v>
+      </c>
+      <c r="AU121">
+        <v>7</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>9</v>
+      </c>
+      <c r="AY121">
+        <v>15</v>
+      </c>
+      <c r="AZ121">
+        <v>16</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>5</v>
+      </c>
+      <c r="BC121">
+        <v>7</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>0</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -24480,13 +24480,13 @@
         <v>18</v>
       </c>
       <c r="BA114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB114">
         <v>6</v>
       </c>
       <c r="BC114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD114">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['10', '27']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -677,6 +683,21 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['45+1', '79']</t>
+  </si>
+  <si>
+    <t>['49', '67', '77']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['33', '50']</t>
+  </si>
+  <si>
+    <t>['49', '78']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1318,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1375,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1584,7 +1605,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1993,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>0.83</v>
@@ -2199,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2408,7 +2429,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2817,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2945,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3151,7 +3172,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3232,7 +3253,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3357,7 +3378,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3435,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3563,7 +3584,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3847,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>0.8</v>
@@ -4056,7 +4077,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4181,7 +4202,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4387,7 +4408,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4465,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
         <v>1.14</v>
@@ -4593,7 +4614,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4671,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>2.07</v>
@@ -4877,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5086,7 +5107,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5289,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21">
         <v>0.17</v>
@@ -5417,7 +5438,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5701,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -5829,7 +5850,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -5910,7 +5931,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6319,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6447,7 +6468,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6528,7 +6549,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>2.08</v>
@@ -6653,7 +6674,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6734,7 +6755,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR28">
         <v>0.8</v>
@@ -6937,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29">
         <v>0.14</v>
@@ -7065,7 +7086,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7477,7 +7498,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7970,7 +7991,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR34">
         <v>1.99</v>
@@ -8095,7 +8116,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8176,7 +8197,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.47</v>
@@ -8301,7 +8322,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8507,7 +8528,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8713,7 +8734,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8791,10 +8812,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR38">
         <v>1.35</v>
@@ -8997,10 +9018,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9203,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
         <v>0.4</v>
@@ -9331,7 +9352,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9412,7 +9433,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9743,7 +9764,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9824,7 +9845,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.74</v>
@@ -10027,10 +10048,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>1.53</v>
@@ -10233,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45">
         <v>1.14</v>
@@ -10361,7 +10382,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10439,10 +10460,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10567,7 +10588,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10645,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>0.14</v>
@@ -10773,7 +10794,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -10854,7 +10875,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.45</v>
@@ -11060,7 +11081,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ49">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11263,7 +11284,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -11472,7 +11493,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR51">
         <v>1.02</v>
@@ -11597,7 +11618,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12009,7 +12030,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12090,7 +12111,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
         <v>1.44</v>
@@ -12499,7 +12520,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -12627,7 +12648,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12705,10 +12726,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR57">
         <v>1.46</v>
@@ -13039,7 +13060,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13117,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13245,7 +13266,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13323,7 +13344,7 @@
         <v>0.75</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13529,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
         <v>0.17</v>
@@ -13944,7 +13965,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14069,7 +14090,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14353,7 +14374,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65">
         <v>0.4</v>
@@ -14893,7 +14914,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -14974,7 +14995,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ68">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15099,7 +15120,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15177,7 +15198,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15383,10 +15404,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15511,7 +15532,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15589,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>0.8</v>
@@ -15795,10 +15816,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR72">
         <v>1.64</v>
@@ -16004,7 +16025,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16207,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>0.17</v>
@@ -16416,7 +16437,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ75">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -16747,7 +16768,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16953,7 +16974,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17031,7 +17052,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17159,7 +17180,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17240,7 +17261,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>1.78</v>
@@ -17446,7 +17467,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ80">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.25</v>
@@ -17649,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -17983,7 +18004,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18267,10 +18288,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
+        <v>1.25</v>
+      </c>
+      <c r="AQ84">
         <v>1.43</v>
-      </c>
-      <c r="AQ84">
-        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>1.19</v>
@@ -18476,7 +18497,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18601,7 +18622,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18682,7 +18703,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ86">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR86">
         <v>1.65</v>
@@ -19013,7 +19034,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19091,7 +19112,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ88">
         <v>0.14</v>
@@ -19297,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ89">
         <v>0.67</v>
@@ -19425,7 +19446,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19631,7 +19652,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19709,10 +19730,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR91">
         <v>1.32</v>
@@ -19837,7 +19858,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -19915,7 +19936,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ92">
         <v>0.8</v>
@@ -20327,7 +20348,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>0.14</v>
@@ -20455,7 +20476,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20945,10 +20966,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
+        <v>1.29</v>
+      </c>
+      <c r="AQ97">
         <v>1.5</v>
-      </c>
-      <c r="AQ97">
-        <v>1.2</v>
       </c>
       <c r="AR97">
         <v>1.91</v>
@@ -21279,7 +21300,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21691,7 +21712,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21772,7 +21793,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -21897,7 +21918,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22103,7 +22124,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22184,7 +22205,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ103">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22309,7 +22330,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22390,7 +22411,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ104">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR104">
         <v>1.53</v>
@@ -22593,7 +22614,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
         <v>0.71</v>
@@ -22721,7 +22742,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22799,10 +22820,10 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -22927,7 +22948,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23008,7 +23029,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23133,7 +23154,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23211,7 +23232,7 @@
         <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
         <v>0.8</v>
@@ -23420,7 +23441,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR109">
         <v>1.57</v>
@@ -23623,7 +23644,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
         <v>0.83</v>
@@ -23751,7 +23772,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -23829,10 +23850,10 @@
         <v>1.8</v>
       </c>
       <c r="AP111">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24038,7 +24059,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ112">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR112">
         <v>1.78</v>
@@ -24163,7 +24184,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24575,7 +24596,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24781,7 +24802,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25683,7 +25704,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ120">
         <v>0.71</v>
@@ -25811,7 +25832,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -25892,7 +25913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -25967,6 +25988,1654 @@
         <v>0</v>
       </c>
       <c r="BP121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7778193</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45776.04513888889</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>85</v>
+      </c>
+      <c r="H122" t="s">
+        <v>82</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>91</v>
+      </c>
+      <c r="P122" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q122">
+        <v>3.5</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>3.2</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.63</v>
+      </c>
+      <c r="V122">
+        <v>3.25</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.07</v>
+      </c>
+      <c r="Z122">
+        <v>2.87</v>
+      </c>
+      <c r="AA122">
+        <v>3.12</v>
+      </c>
+      <c r="AB122">
+        <v>2.5</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>2.05</v>
+      </c>
+      <c r="AH122">
+        <v>1.65</v>
+      </c>
+      <c r="AI122">
+        <v>1.91</v>
+      </c>
+      <c r="AJ122">
+        <v>1.91</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1.33</v>
+      </c>
+      <c r="AO122">
+        <v>1.17</v>
+      </c>
+      <c r="AP122">
+        <v>1.14</v>
+      </c>
+      <c r="AQ122">
+        <v>1.43</v>
+      </c>
+      <c r="AR122">
+        <v>1.41</v>
+      </c>
+      <c r="AS122">
+        <v>1.55</v>
+      </c>
+      <c r="AT122">
+        <v>2.96</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>14</v>
+      </c>
+      <c r="AZ122">
+        <v>7</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>1</v>
+      </c>
+      <c r="BC122">
+        <v>5</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7778200</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>87</v>
+      </c>
+      <c r="H123" t="s">
+        <v>88</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>91</v>
+      </c>
+      <c r="P123" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q123">
+        <v>2.2</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>1.4</v>
+      </c>
+      <c r="U123">
+        <v>2.75</v>
+      </c>
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>9</v>
+      </c>
+      <c r="Y123">
+        <v>1.07</v>
+      </c>
+      <c r="Z123">
+        <v>1.59</v>
+      </c>
+      <c r="AA123">
+        <v>3.78</v>
+      </c>
+      <c r="AB123">
+        <v>5.6</v>
+      </c>
+      <c r="AC123">
+        <v>3.29</v>
+      </c>
+      <c r="AD123">
+        <v>1.37</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>1.95</v>
+      </c>
+      <c r="AH123">
+        <v>1.7</v>
+      </c>
+      <c r="AI123">
+        <v>2.05</v>
+      </c>
+      <c r="AJ123">
+        <v>1.7</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>2.17</v>
+      </c>
+      <c r="AO123">
+        <v>0.83</v>
+      </c>
+      <c r="AP123">
+        <v>1.86</v>
+      </c>
+      <c r="AQ123">
+        <v>1.14</v>
+      </c>
+      <c r="AR123">
+        <v>1.56</v>
+      </c>
+      <c r="AS123">
+        <v>1.16</v>
+      </c>
+      <c r="AT123">
+        <v>2.72</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>12</v>
+      </c>
+      <c r="AX123">
+        <v>6</v>
+      </c>
+      <c r="AY123">
+        <v>19</v>
+      </c>
+      <c r="AZ123">
+        <v>10</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>7</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>0</v>
+      </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7778194</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>86</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>91</v>
+      </c>
+      <c r="P124" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q124">
+        <v>3.6</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>3.4</v>
+      </c>
+      <c r="T124">
+        <v>1.5</v>
+      </c>
+      <c r="U124">
+        <v>2.5</v>
+      </c>
+      <c r="V124">
+        <v>3.5</v>
+      </c>
+      <c r="W124">
+        <v>1.29</v>
+      </c>
+      <c r="X124">
+        <v>11</v>
+      </c>
+      <c r="Y124">
+        <v>1.05</v>
+      </c>
+      <c r="Z124">
+        <v>2.8</v>
+      </c>
+      <c r="AA124">
+        <v>3.03</v>
+      </c>
+      <c r="AB124">
+        <v>2.61</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>1.5</v>
+      </c>
+      <c r="AF124">
+        <v>2.4</v>
+      </c>
+      <c r="AG124">
+        <v>2.37</v>
+      </c>
+      <c r="AH124">
+        <v>1.48</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.75</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1.43</v>
+      </c>
+      <c r="AO124">
+        <v>1.2</v>
+      </c>
+      <c r="AP124">
+        <v>1.25</v>
+      </c>
+      <c r="AQ124">
+        <v>1.5</v>
+      </c>
+      <c r="AR124">
+        <v>1.26</v>
+      </c>
+      <c r="AS124">
+        <v>1.43</v>
+      </c>
+      <c r="AT124">
+        <v>2.69</v>
+      </c>
+      <c r="AU124">
+        <v>3</v>
+      </c>
+      <c r="AV124">
+        <v>8</v>
+      </c>
+      <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>4</v>
+      </c>
+      <c r="AY124">
+        <v>12</v>
+      </c>
+      <c r="AZ124">
+        <v>13</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>8</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <v>0</v>
+      </c>
+      <c r="BL124">
+        <v>0</v>
+      </c>
+      <c r="BM124">
+        <v>0</v>
+      </c>
+      <c r="BN124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>0</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7778199</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>74</v>
+      </c>
+      <c r="H125" t="s">
+        <v>79</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>91</v>
+      </c>
+      <c r="P125" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q125">
+        <v>3.4</v>
+      </c>
+      <c r="R125">
+        <v>1.91</v>
+      </c>
+      <c r="S125">
+        <v>3.75</v>
+      </c>
+      <c r="T125">
+        <v>1.57</v>
+      </c>
+      <c r="U125">
+        <v>2.25</v>
+      </c>
+      <c r="V125">
+        <v>3.75</v>
+      </c>
+      <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>11</v>
+      </c>
+      <c r="Y125">
+        <v>1.05</v>
+      </c>
+      <c r="Z125">
+        <v>2.63</v>
+      </c>
+      <c r="AA125">
+        <v>2.85</v>
+      </c>
+      <c r="AB125">
+        <v>2.95</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>1.48</v>
+      </c>
+      <c r="AF125">
+        <v>2.37</v>
+      </c>
+      <c r="AG125">
+        <v>2.6</v>
+      </c>
+      <c r="AH125">
+        <v>1.46</v>
+      </c>
+      <c r="AI125">
+        <v>2.1</v>
+      </c>
+      <c r="AJ125">
+        <v>1.67</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>2</v>
+      </c>
+      <c r="AO125">
+        <v>1.17</v>
+      </c>
+      <c r="AP125">
+        <v>1.75</v>
+      </c>
+      <c r="AQ125">
+        <v>1.43</v>
+      </c>
+      <c r="AR125">
+        <v>1.53</v>
+      </c>
+      <c r="AS125">
+        <v>1.21</v>
+      </c>
+      <c r="AT125">
+        <v>2.74</v>
+      </c>
+      <c r="AU125">
+        <v>2</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>14</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+      <c r="AY125">
+        <v>20</v>
+      </c>
+      <c r="AZ125">
+        <v>10</v>
+      </c>
+      <c r="BA125">
+        <v>7</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
+        <v>10</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7778196</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>130</v>
+      </c>
+      <c r="P126" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q126">
+        <v>3.6</v>
+      </c>
+      <c r="R126">
+        <v>1.91</v>
+      </c>
+      <c r="S126">
+        <v>3.5</v>
+      </c>
+      <c r="T126">
+        <v>1.57</v>
+      </c>
+      <c r="U126">
+        <v>2.25</v>
+      </c>
+      <c r="V126">
+        <v>3.75</v>
+      </c>
+      <c r="W126">
+        <v>1.25</v>
+      </c>
+      <c r="X126">
+        <v>11</v>
+      </c>
+      <c r="Y126">
+        <v>1.05</v>
+      </c>
+      <c r="Z126">
+        <v>2.86</v>
+      </c>
+      <c r="AA126">
+        <v>2.9</v>
+      </c>
+      <c r="AB126">
+        <v>2.66</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>1.48</v>
+      </c>
+      <c r="AF126">
+        <v>2.37</v>
+      </c>
+      <c r="AG126">
+        <v>2.67</v>
+      </c>
+      <c r="AH126">
+        <v>1.44</v>
+      </c>
+      <c r="AI126">
+        <v>2.1</v>
+      </c>
+      <c r="AJ126">
+        <v>1.67</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>2</v>
+      </c>
+      <c r="AO126">
+        <v>2</v>
+      </c>
+      <c r="AP126">
+        <v>1.67</v>
+      </c>
+      <c r="AQ126">
+        <v>2.14</v>
+      </c>
+      <c r="AR126">
+        <v>1.31</v>
+      </c>
+      <c r="AS126">
+        <v>1.34</v>
+      </c>
+      <c r="AT126">
+        <v>2.65</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>13</v>
+      </c>
+      <c r="AX126">
+        <v>8</v>
+      </c>
+      <c r="AY126">
+        <v>19</v>
+      </c>
+      <c r="AZ126">
+        <v>16</v>
+      </c>
+      <c r="BA126">
+        <v>8</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7778197</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45776.125</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>70</v>
+      </c>
+      <c r="H127" t="s">
+        <v>83</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>173</v>
+      </c>
+      <c r="P127" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>3.75</v>
+      </c>
+      <c r="T127">
+        <v>1.44</v>
+      </c>
+      <c r="U127">
+        <v>2.63</v>
+      </c>
+      <c r="V127">
+        <v>3.25</v>
+      </c>
+      <c r="W127">
+        <v>1.33</v>
+      </c>
+      <c r="X127">
+        <v>9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>2.3</v>
+      </c>
+      <c r="AA127">
+        <v>3.2</v>
+      </c>
+      <c r="AB127">
+        <v>3.1</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>2</v>
+      </c>
+      <c r="AH127">
+        <v>1.65</v>
+      </c>
+      <c r="AI127">
+        <v>1.91</v>
+      </c>
+      <c r="AJ127">
+        <v>1.91</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1.8</v>
+      </c>
+      <c r="AO127">
+        <v>1.86</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>1.63</v>
+      </c>
+      <c r="AR127">
+        <v>1.65</v>
+      </c>
+      <c r="AS127">
+        <v>1.34</v>
+      </c>
+      <c r="AT127">
+        <v>2.99</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>6</v>
+      </c>
+      <c r="AX127">
+        <v>13</v>
+      </c>
+      <c r="AY127">
+        <v>12</v>
+      </c>
+      <c r="AZ127">
+        <v>19</v>
+      </c>
+      <c r="BA127">
+        <v>7</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>11</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7778195</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45776.125</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>91</v>
+      </c>
+      <c r="P128" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q128">
+        <v>3.6</v>
+      </c>
+      <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
+        <v>3.5</v>
+      </c>
+      <c r="T128">
+        <v>1.53</v>
+      </c>
+      <c r="U128">
+        <v>2.38</v>
+      </c>
+      <c r="V128">
+        <v>3.75</v>
+      </c>
+      <c r="W128">
+        <v>1.25</v>
+      </c>
+      <c r="X128">
+        <v>11</v>
+      </c>
+      <c r="Y128">
+        <v>1.05</v>
+      </c>
+      <c r="Z128">
+        <v>2.77</v>
+      </c>
+      <c r="AA128">
+        <v>3.06</v>
+      </c>
+      <c r="AB128">
+        <v>2.62</v>
+      </c>
+      <c r="AC128">
+        <v>3.51</v>
+      </c>
+      <c r="AD128">
+        <v>1.33</v>
+      </c>
+      <c r="AE128">
+        <v>1.57</v>
+      </c>
+      <c r="AF128">
+        <v>2.4</v>
+      </c>
+      <c r="AG128">
+        <v>2.37</v>
+      </c>
+      <c r="AH128">
+        <v>1.48</v>
+      </c>
+      <c r="AI128">
+        <v>2.05</v>
+      </c>
+      <c r="AJ128">
+        <v>1.7</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>1.8</v>
+      </c>
+      <c r="AO128">
+        <v>1.8</v>
+      </c>
+      <c r="AP128">
+        <v>1.67</v>
+      </c>
+      <c r="AQ128">
+        <v>1.67</v>
+      </c>
+      <c r="AR128">
+        <v>1.57</v>
+      </c>
+      <c r="AS128">
+        <v>1.76</v>
+      </c>
+      <c r="AT128">
+        <v>3.33</v>
+      </c>
+      <c r="AU128">
+        <v>3</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>18</v>
+      </c>
+      <c r="AY128">
+        <v>10</v>
+      </c>
+      <c r="AZ128">
+        <v>25</v>
+      </c>
+      <c r="BA128">
+        <v>1</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>5</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>0</v>
+      </c>
+      <c r="BJ128">
+        <v>0</v>
+      </c>
+      <c r="BK128">
+        <v>0</v>
+      </c>
+      <c r="BL128">
+        <v>0</v>
+      </c>
+      <c r="BM128">
+        <v>0</v>
+      </c>
+      <c r="BN128">
+        <v>0</v>
+      </c>
+      <c r="BO128">
+        <v>0</v>
+      </c>
+      <c r="BP128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7778198</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45776.125</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>174</v>
+      </c>
+      <c r="P129" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q129">
+        <v>3.4</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>3.4</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>9</v>
+      </c>
+      <c r="Y129">
+        <v>1.07</v>
+      </c>
+      <c r="Z129">
+        <v>2.63</v>
+      </c>
+      <c r="AA129">
+        <v>3.23</v>
+      </c>
+      <c r="AB129">
+        <v>2.63</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>2.1</v>
+      </c>
+      <c r="AH129">
+        <v>1.6</v>
+      </c>
+      <c r="AI129">
+        <v>1.91</v>
+      </c>
+      <c r="AJ129">
+        <v>1.91</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>1.5</v>
+      </c>
+      <c r="AO129">
+        <v>2.17</v>
+      </c>
+      <c r="AP129">
+        <v>1.29</v>
+      </c>
+      <c r="AQ129">
+        <v>2.29</v>
+      </c>
+      <c r="AR129">
+        <v>2.07</v>
+      </c>
+      <c r="AS129">
+        <v>1.31</v>
+      </c>
+      <c r="AT129">
+        <v>3.38</v>
+      </c>
+      <c r="AU129">
+        <v>2</v>
+      </c>
+      <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129">
+        <v>4</v>
+      </c>
+      <c r="AX129">
+        <v>13</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>19</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>7</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>0</v>
+      </c>
+      <c r="BJ129">
+        <v>0</v>
+      </c>
+      <c r="BK129">
+        <v>0</v>
+      </c>
+      <c r="BL129">
+        <v>0</v>
+      </c>
+      <c r="BM129">
+        <v>0</v>
+      </c>
+      <c r="BN129">
+        <v>0</v>
+      </c>
+      <c r="BO129">
+        <v>0</v>
+      </c>
+      <c r="BP129">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,27 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['67', '90+8']</t>
+  </si>
+  <si>
+    <t>['66', '90+9']</t>
+  </si>
+  <si>
+    <t>['51', '73']</t>
+  </si>
+  <si>
+    <t>['2', '13', '29', '35']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['6', '31']</t>
+  </si>
+  <si>
+    <t>['12', '14']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -698,6 +719,15 @@
   </si>
   <si>
     <t>['49', '78']</t>
+  </si>
+  <si>
+    <t>['36', '48', '50']</t>
+  </si>
+  <si>
+    <t>['8', '52', '82']</t>
+  </si>
+  <si>
+    <t>['18', '43', '65']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1348,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1396,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1808,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2017,7 +2047,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2635,7 +2665,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2966,7 +2996,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3172,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3378,7 +3408,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3584,7 +3614,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3871,7 +3901,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -4074,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4202,7 +4232,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4280,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4408,7 +4438,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4489,7 +4519,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4614,7 +4644,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4692,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>2.07</v>
@@ -4901,7 +4931,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ19">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5104,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5310,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.17</v>
@@ -5438,7 +5468,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5850,7 +5880,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -5928,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ24">
         <v>1.63</v>
@@ -6134,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6468,7 +6498,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6546,7 +6576,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6674,7 +6704,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6755,7 +6785,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>0.8</v>
@@ -6961,7 +6991,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ29">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.17</v>
@@ -7086,7 +7116,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7167,7 +7197,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7498,7 +7528,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7579,7 +7609,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.12</v>
@@ -7782,10 +7812,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR33">
         <v>1.86</v>
@@ -8116,7 +8146,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8194,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.47</v>
@@ -8322,7 +8352,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8528,7 +8558,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8606,10 +8636,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8734,7 +8764,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8815,7 +8845,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.35</v>
@@ -9224,7 +9254,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.4</v>
@@ -9352,7 +9382,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9430,7 +9460,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ41">
         <v>2.14</v>
@@ -9636,10 +9666,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>2.05</v>
@@ -9764,7 +9794,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9842,10 +9872,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>1.74</v>
@@ -10048,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44">
         <v>1.43</v>
@@ -10257,7 +10287,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ45">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10382,7 +10412,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10463,7 +10493,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10588,7 +10618,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10669,7 +10699,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.63</v>
@@ -10794,7 +10824,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11078,10 +11108,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11287,7 +11317,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11618,7 +11648,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11699,7 +11729,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -11905,7 +11935,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.12</v>
@@ -12030,7 +12060,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12108,7 +12138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>1.63</v>
@@ -12648,7 +12678,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12726,7 +12756,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>2.14</v>
@@ -12932,7 +12962,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13060,7 +13090,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13266,7 +13296,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13756,10 +13786,10 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -13965,7 +13995,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14090,7 +14120,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14168,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14580,7 +14610,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>0.8</v>
@@ -14786,7 +14816,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -14914,7 +14944,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -14995,7 +15025,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ68">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15120,7 +15150,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15404,7 +15434,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15532,7 +15562,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15613,7 +15643,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15816,10 +15846,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ72">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.64</v>
@@ -16022,7 +16052,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73">
         <v>2.14</v>
@@ -16434,10 +16464,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -16643,7 +16673,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.89</v>
@@ -16768,7 +16798,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16849,7 +16879,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -16974,7 +17004,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17180,7 +17210,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17258,7 +17288,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ79">
         <v>1.43</v>
@@ -17467,7 +17497,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.25</v>
@@ -17673,7 +17703,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -18004,7 +18034,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18494,7 +18524,7 @@
         <v>0.25</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
         <v>1.14</v>
@@ -18622,7 +18652,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18700,7 +18730,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ86">
         <v>1.63</v>
@@ -19034,7 +19064,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19115,7 +19145,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ88">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
         <v>1.6</v>
@@ -19318,10 +19348,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19446,7 +19476,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19652,7 +19682,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19858,7 +19888,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -19936,10 +19966,10 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20142,7 +20172,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>1.43</v>
@@ -20348,10 +20378,10 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ94">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
         <v>1.55</v>
@@ -20476,7 +20506,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21172,10 +21202,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ98">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.39</v>
@@ -21300,7 +21330,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21584,7 +21614,7 @@
         <v>0.33</v>
       </c>
       <c r="AP100">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ100">
         <v>0.4</v>
@@ -21712,7 +21742,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21918,7 +21948,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21996,7 +22026,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ102">
         <v>1.43</v>
@@ -22124,7 +22154,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22202,7 +22232,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ103">
         <v>1.63</v>
@@ -22330,7 +22360,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22408,7 +22438,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ104">
         <v>1.63</v>
@@ -22742,7 +22772,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22948,7 +22978,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23026,10 +23056,10 @@
         <v>2.25</v>
       </c>
       <c r="AP107">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23154,7 +23184,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23438,10 +23468,10 @@
         <v>2.6</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ109">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR109">
         <v>1.57</v>
@@ -23647,7 +23677,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR110">
         <v>2.07</v>
@@ -23772,7 +23802,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24059,7 +24089,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ112">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.78</v>
@@ -24184,7 +24214,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24262,7 +24292,7 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ113">
         <v>0.17</v>
@@ -24471,7 +24501,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ114">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.46</v>
@@ -24596,7 +24626,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24677,7 +24707,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ115">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.31</v>
@@ -24802,7 +24832,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24880,7 +24910,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ116">
         <v>0.4</v>
@@ -25089,7 +25119,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ117">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25292,10 +25322,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ118">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR118">
         <v>1.72</v>
@@ -25498,7 +25528,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ119">
         <v>0.8</v>
@@ -25832,7 +25862,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26038,7 +26068,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26244,7 +26274,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26322,7 +26352,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.14</v>
@@ -26450,7 +26480,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26656,7 +26686,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26737,7 +26767,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ125">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR125">
         <v>1.53</v>
@@ -26862,7 +26892,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27146,7 +27176,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ127">
         <v>1.63</v>
@@ -27355,7 +27385,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ128">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR128">
         <v>1.57</v>
@@ -27480,7 +27510,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27561,7 +27591,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR129">
         <v>2.07</v>
@@ -27636,6 +27666,1654 @@
         <v>0</v>
       </c>
       <c r="BP129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7778209</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45780.04166666666</v>
+      </c>
+      <c r="F130">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>87</v>
+      </c>
+      <c r="H130" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>175</v>
+      </c>
+      <c r="P130" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q130">
+        <v>2.4</v>
+      </c>
+      <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
+        <v>5.5</v>
+      </c>
+      <c r="T130">
+        <v>1.5</v>
+      </c>
+      <c r="U130">
+        <v>2.5</v>
+      </c>
+      <c r="V130">
+        <v>3.4</v>
+      </c>
+      <c r="W130">
+        <v>1.3</v>
+      </c>
+      <c r="X130">
+        <v>10</v>
+      </c>
+      <c r="Y130">
+        <v>1.06</v>
+      </c>
+      <c r="Z130">
+        <v>1.75</v>
+      </c>
+      <c r="AA130">
+        <v>3.45</v>
+      </c>
+      <c r="AB130">
+        <v>4.8</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
+        <v>0</v>
+      </c>
+      <c r="AE130">
+        <v>1.5</v>
+      </c>
+      <c r="AF130">
+        <v>2.4</v>
+      </c>
+      <c r="AG130">
+        <v>2.2</v>
+      </c>
+      <c r="AH130">
+        <v>1.55</v>
+      </c>
+      <c r="AI130">
+        <v>2.2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.62</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1.86</v>
+      </c>
+      <c r="AO130">
+        <v>1.67</v>
+      </c>
+      <c r="AP130">
+        <v>2</v>
+      </c>
+      <c r="AQ130">
+        <v>1.43</v>
+      </c>
+      <c r="AR130">
+        <v>1.6</v>
+      </c>
+      <c r="AS130">
+        <v>1.79</v>
+      </c>
+      <c r="AT130">
+        <v>3.39</v>
+      </c>
+      <c r="AU130">
+        <v>8</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>11</v>
+      </c>
+      <c r="AX130">
+        <v>7</v>
+      </c>
+      <c r="AY130">
+        <v>20</v>
+      </c>
+      <c r="AZ130">
+        <v>11</v>
+      </c>
+      <c r="BA130">
+        <v>8</v>
+      </c>
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>0</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>0</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>0</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7778206</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>82</v>
+      </c>
+      <c r="H131" t="s">
+        <v>80</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>91</v>
+      </c>
+      <c r="P131" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="T131">
+        <v>1.53</v>
+      </c>
+      <c r="U131">
+        <v>2.38</v>
+      </c>
+      <c r="V131">
+        <v>3.5</v>
+      </c>
+      <c r="W131">
+        <v>1.29</v>
+      </c>
+      <c r="X131">
+        <v>11</v>
+      </c>
+      <c r="Y131">
+        <v>1.05</v>
+      </c>
+      <c r="Z131">
+        <v>2.13</v>
+      </c>
+      <c r="AA131">
+        <v>3.08</v>
+      </c>
+      <c r="AB131">
+        <v>3.63</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>2.37</v>
+      </c>
+      <c r="AH131">
+        <v>1.48</v>
+      </c>
+      <c r="AI131">
+        <v>2.05</v>
+      </c>
+      <c r="AJ131">
+        <v>1.7</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1.83</v>
+      </c>
+      <c r="AO131">
+        <v>0.14</v>
+      </c>
+      <c r="AP131">
+        <v>1.57</v>
+      </c>
+      <c r="AQ131">
+        <v>0.5</v>
+      </c>
+      <c r="AR131">
+        <v>1.34</v>
+      </c>
+      <c r="AS131">
+        <v>1.18</v>
+      </c>
+      <c r="AT131">
+        <v>2.52</v>
+      </c>
+      <c r="AU131">
+        <v>2</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>15</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>0</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7778205</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>88</v>
+      </c>
+      <c r="H132" t="s">
+        <v>85</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>176</v>
+      </c>
+      <c r="P132" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q132">
+        <v>2.88</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>9</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>2.12</v>
+      </c>
+      <c r="AA132">
+        <v>3.34</v>
+      </c>
+      <c r="AB132">
+        <v>3.36</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>2.05</v>
+      </c>
+      <c r="AH132">
+        <v>1.61</v>
+      </c>
+      <c r="AI132">
+        <v>1.95</v>
+      </c>
+      <c r="AJ132">
+        <v>1.8</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0.67</v>
+      </c>
+      <c r="AO132">
+        <v>0.83</v>
+      </c>
+      <c r="AP132">
+        <v>0.57</v>
+      </c>
+      <c r="AQ132">
+        <v>1.14</v>
+      </c>
+      <c r="AR132">
+        <v>1.52</v>
+      </c>
+      <c r="AS132">
+        <v>1.15</v>
+      </c>
+      <c r="AT132">
+        <v>2.67</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>9</v>
+      </c>
+      <c r="AY132">
+        <v>15</v>
+      </c>
+      <c r="AZ132">
+        <v>17</v>
+      </c>
+      <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>5</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7778212</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45780.125</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>72</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>177</v>
+      </c>
+      <c r="P133" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q133">
+        <v>2.3</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>5.5</v>
+      </c>
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3.25</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>9</v>
+      </c>
+      <c r="Y133">
+        <v>1.07</v>
+      </c>
+      <c r="Z133">
+        <v>1.67</v>
+      </c>
+      <c r="AA133">
+        <v>3.59</v>
+      </c>
+      <c r="AB133">
+        <v>5.2</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>2</v>
+      </c>
+      <c r="AH133">
+        <v>1.65</v>
+      </c>
+      <c r="AI133">
+        <v>2.1</v>
+      </c>
+      <c r="AJ133">
+        <v>1.67</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1.33</v>
+      </c>
+      <c r="AO133">
+        <v>0.8</v>
+      </c>
+      <c r="AP133">
+        <v>1.57</v>
+      </c>
+      <c r="AQ133">
+        <v>0.67</v>
+      </c>
+      <c r="AR133">
+        <v>1.62</v>
+      </c>
+      <c r="AS133">
+        <v>1.4</v>
+      </c>
+      <c r="AT133">
+        <v>3.02</v>
+      </c>
+      <c r="AU133">
+        <v>8</v>
+      </c>
+      <c r="AV133">
+        <v>2</v>
+      </c>
+      <c r="AW133">
+        <v>13</v>
+      </c>
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>25</v>
+      </c>
+      <c r="AZ133">
+        <v>9</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>4</v>
+      </c>
+      <c r="BC133">
+        <v>10</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7778208</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45780.125</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>77</v>
+      </c>
+      <c r="I134">
+        <v>4</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>178</v>
+      </c>
+      <c r="P134" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q134">
+        <v>2.88</v>
+      </c>
+      <c r="R134">
+        <v>2.1</v>
+      </c>
+      <c r="S134">
+        <v>4</v>
+      </c>
+      <c r="T134">
+        <v>1.44</v>
+      </c>
+      <c r="U134">
+        <v>2.63</v>
+      </c>
+      <c r="V134">
+        <v>3.25</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>9</v>
+      </c>
+      <c r="Y134">
+        <v>1.07</v>
+      </c>
+      <c r="Z134">
+        <v>2.16</v>
+      </c>
+      <c r="AA134">
+        <v>3.2</v>
+      </c>
+      <c r="AB134">
+        <v>3.39</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>2.05</v>
+      </c>
+      <c r="AH134">
+        <v>1.65</v>
+      </c>
+      <c r="AI134">
+        <v>1.91</v>
+      </c>
+      <c r="AJ134">
+        <v>1.91</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>2</v>
+      </c>
+      <c r="AO134">
+        <v>1.14</v>
+      </c>
+      <c r="AP134">
+        <v>2.14</v>
+      </c>
+      <c r="AQ134">
+        <v>1</v>
+      </c>
+      <c r="AR134">
+        <v>1.6</v>
+      </c>
+      <c r="AS134">
+        <v>1.19</v>
+      </c>
+      <c r="AT134">
+        <v>2.79</v>
+      </c>
+      <c r="AU134">
+        <v>6</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>8</v>
+      </c>
+      <c r="AX134">
+        <v>11</v>
+      </c>
+      <c r="AY134">
+        <v>17</v>
+      </c>
+      <c r="AZ134">
+        <v>20</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>5</v>
+      </c>
+      <c r="BC134">
+        <v>7</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>0</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>0</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7778203</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45780.125</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>86</v>
+      </c>
+      <c r="H135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>179</v>
+      </c>
+      <c r="P135" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q135">
+        <v>3.5</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>3.5</v>
+      </c>
+      <c r="T135">
+        <v>1.53</v>
+      </c>
+      <c r="U135">
+        <v>2.38</v>
+      </c>
+      <c r="V135">
+        <v>3.5</v>
+      </c>
+      <c r="W135">
+        <v>1.29</v>
+      </c>
+      <c r="X135">
+        <v>11</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>2.42</v>
+      </c>
+      <c r="AA135">
+        <v>3.07</v>
+      </c>
+      <c r="AB135">
+        <v>3.02</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>1.5</v>
+      </c>
+      <c r="AF135">
+        <v>2.45</v>
+      </c>
+      <c r="AG135">
+        <v>2.25</v>
+      </c>
+      <c r="AH135">
+        <v>1.5</v>
+      </c>
+      <c r="AI135">
+        <v>2.05</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>2.29</v>
+      </c>
+      <c r="AO135">
+        <v>2.29</v>
+      </c>
+      <c r="AP135">
+        <v>2.38</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>1.68</v>
+      </c>
+      <c r="AS135">
+        <v>1.42</v>
+      </c>
+      <c r="AT135">
+        <v>3.1</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>7</v>
+      </c>
+      <c r="AX135">
+        <v>6</v>
+      </c>
+      <c r="AY135">
+        <v>15</v>
+      </c>
+      <c r="AZ135">
+        <v>13</v>
+      </c>
+      <c r="BA135">
+        <v>5</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>7</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>0</v>
+      </c>
+      <c r="BJ135">
+        <v>0</v>
+      </c>
+      <c r="BK135">
+        <v>0</v>
+      </c>
+      <c r="BL135">
+        <v>0</v>
+      </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>0</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7778204</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45780.125</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>89</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>180</v>
+      </c>
+      <c r="P136" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q136">
+        <v>2.6</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>5</v>
+      </c>
+      <c r="T136">
+        <v>1.5</v>
+      </c>
+      <c r="U136">
+        <v>2.5</v>
+      </c>
+      <c r="V136">
+        <v>3.5</v>
+      </c>
+      <c r="W136">
+        <v>1.29</v>
+      </c>
+      <c r="X136">
+        <v>11</v>
+      </c>
+      <c r="Y136">
+        <v>1.05</v>
+      </c>
+      <c r="Z136">
+        <v>1.89</v>
+      </c>
+      <c r="AA136">
+        <v>3.23</v>
+      </c>
+      <c r="AB136">
+        <v>4.33</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>1.5</v>
+      </c>
+      <c r="AF136">
+        <v>2.4</v>
+      </c>
+      <c r="AG136">
+        <v>2.25</v>
+      </c>
+      <c r="AH136">
+        <v>1.53</v>
+      </c>
+      <c r="AI136">
+        <v>2.1</v>
+      </c>
+      <c r="AJ136">
+        <v>1.67</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>2.5</v>
+      </c>
+      <c r="AO136">
+        <v>1.43</v>
+      </c>
+      <c r="AP136">
+        <v>2.57</v>
+      </c>
+      <c r="AQ136">
+        <v>1.25</v>
+      </c>
+      <c r="AR136">
+        <v>1.42</v>
+      </c>
+      <c r="AS136">
+        <v>1.18</v>
+      </c>
+      <c r="AT136">
+        <v>2.6</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>3</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
+        <v>5</v>
+      </c>
+      <c r="AY136">
+        <v>10</v>
+      </c>
+      <c r="AZ136">
+        <v>8</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>8</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7778207</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45780.29166666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" t="s">
+        <v>84</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>4</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137" t="s">
+        <v>181</v>
+      </c>
+      <c r="P137" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q137">
+        <v>3.25</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>3.2</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>2.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>2.7</v>
+      </c>
+      <c r="AA137">
+        <v>3.25</v>
+      </c>
+      <c r="AB137">
+        <v>2.56</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>1.91</v>
+      </c>
+      <c r="AH137">
+        <v>1.83</v>
+      </c>
+      <c r="AI137">
+        <v>1.7</v>
+      </c>
+      <c r="AJ137">
+        <v>2.05</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>1.83</v>
+      </c>
+      <c r="AO137">
+        <v>0.67</v>
+      </c>
+      <c r="AP137">
+        <v>1.57</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>1.5</v>
+      </c>
+      <c r="AS137">
+        <v>1.51</v>
+      </c>
+      <c r="AT137">
+        <v>3.01</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>14</v>
+      </c>
+      <c r="AX137">
+        <v>6</v>
+      </c>
+      <c r="AY137">
+        <v>26</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
+        <v>7</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>10</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -28448,10 +28448,10 @@
         <v>6</v>
       </c>
       <c r="BB133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD133">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,15 @@
     <t>['12', '14']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['36', '90+1']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -728,6 +737,12 @@
   </si>
   <si>
     <t>['18', '43', '65']</t>
+  </si>
+  <si>
+    <t>['45+2', '83', '90+6']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1363,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1429,7 +1444,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1632,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>2.14</v>
@@ -1838,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2871,7 +2886,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2996,7 +3011,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3202,7 +3217,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3280,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3408,7 +3423,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3486,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3614,7 +3629,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3692,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3901,7 +3916,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -4232,7 +4247,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4438,7 +4453,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4644,7 +4659,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5468,7 +5483,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5546,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
         <v>1.43</v>
@@ -5755,7 +5770,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.24</v>
@@ -5880,7 +5895,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -5958,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1.63</v>
@@ -6498,7 +6513,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6704,7 +6719,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7116,7 +7131,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7194,10 +7209,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7403,7 +7418,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR31">
         <v>1.14</v>
@@ -7528,7 +7543,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8146,7 +8161,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8224,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
         <v>1.43</v>
@@ -8352,7 +8367,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8430,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8558,7 +8573,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8639,7 +8654,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8764,7 +8779,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8842,7 +8857,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -9051,7 +9066,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9257,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR40">
         <v>1.25</v>
@@ -9382,7 +9397,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9460,7 +9475,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ41">
         <v>2.14</v>
@@ -9666,10 +9681,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR42">
         <v>2.05</v>
@@ -9794,7 +9809,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10081,7 +10096,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>1.53</v>
@@ -10412,7 +10427,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10618,7 +10633,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10824,7 +10839,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -10902,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR48">
         <v>1.45</v>
@@ -11317,7 +11332,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11648,7 +11663,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11726,7 +11741,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11932,7 +11947,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -12060,7 +12075,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12347,7 +12362,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.24</v>
@@ -12678,7 +12693,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13090,7 +13105,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13296,7 +13311,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13992,7 +14007,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -14120,7 +14135,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14201,7 +14216,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14404,10 +14419,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.08</v>
@@ -14944,7 +14959,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15022,7 +15037,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15150,7 +15165,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15437,7 +15452,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15562,7 +15577,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15643,7 +15658,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -16258,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ74">
         <v>0.17</v>
@@ -16798,7 +16813,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16876,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
         <v>1.14</v>
@@ -17004,7 +17019,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17210,7 +17225,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17288,10 +17303,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
         <v>1.78</v>
@@ -17906,7 +17921,7 @@
         <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18034,7 +18049,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18321,7 +18336,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>1.19</v>
@@ -18524,7 +18539,7 @@
         <v>0.25</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ85">
         <v>1.14</v>
@@ -18652,7 +18667,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18936,10 +18951,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.34</v>
@@ -19064,7 +19079,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19351,7 +19366,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19476,7 +19491,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19682,7 +19697,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19888,7 +19903,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -19969,7 +19984,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20506,7 +20521,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20584,7 +20599,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
         <v>0.17</v>
@@ -20790,7 +20805,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
         <v>2</v>
@@ -20999,7 +21014,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR97">
         <v>1.91</v>
@@ -21330,7 +21345,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21617,7 +21632,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ100">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21742,7 +21757,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21823,7 +21838,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ101">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -21948,7 +21963,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22026,7 +22041,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>1.43</v>
@@ -22154,7 +22169,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22232,7 +22247,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103">
         <v>1.63</v>
@@ -22360,7 +22375,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22647,7 +22662,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.2</v>
@@ -22772,7 +22787,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22853,7 +22868,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -22978,7 +22993,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23184,7 +23199,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23262,7 +23277,7 @@
         <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ108">
         <v>0.8</v>
@@ -23468,7 +23483,7 @@
         <v>2.6</v>
       </c>
       <c r="AP109">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>2</v>
@@ -23802,7 +23817,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24214,7 +24229,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24292,7 +24307,7 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ113">
         <v>0.17</v>
@@ -24498,10 +24513,10 @@
         <v>0.8</v>
       </c>
       <c r="AP114">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
         <v>1.46</v>
@@ -24626,7 +24641,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24832,7 +24847,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24913,7 +24928,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ116">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25116,10 +25131,10 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25528,7 +25543,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ119">
         <v>0.8</v>
@@ -25737,7 +25752,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ120">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.31</v>
@@ -25862,7 +25877,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -25940,7 +25955,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ121">
         <v>1.14</v>
@@ -26068,7 +26083,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26149,7 +26164,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ122">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
         <v>1.41</v>
@@ -26274,7 +26289,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26480,7 +26495,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26561,7 +26576,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR124">
         <v>1.26</v>
@@ -26686,7 +26701,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26892,7 +26907,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -26970,7 +26985,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ126">
         <v>2.14</v>
@@ -27510,7 +27525,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27716,7 +27731,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27922,7 +27937,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28128,7 +28143,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28412,10 +28427,10 @@
         <v>0.8</v>
       </c>
       <c r="AP133">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -29030,7 +29045,7 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ136">
         <v>1.25</v>
@@ -29158,7 +29173,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29239,7 +29254,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -29314,6 +29329,1242 @@
         <v>0</v>
       </c>
       <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7778222</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F138">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138" t="s">
+        <v>84</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>182</v>
+      </c>
+      <c r="P138" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q138">
+        <v>2.6</v>
+      </c>
+      <c r="R138">
+        <v>2.1</v>
+      </c>
+      <c r="S138">
+        <v>4.5</v>
+      </c>
+      <c r="T138">
+        <v>1.44</v>
+      </c>
+      <c r="U138">
+        <v>2.63</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>9</v>
+      </c>
+      <c r="Y138">
+        <v>1.07</v>
+      </c>
+      <c r="Z138">
+        <v>1.83</v>
+      </c>
+      <c r="AA138">
+        <v>3.23</v>
+      </c>
+      <c r="AB138">
+        <v>3.77</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>1.91</v>
+      </c>
+      <c r="AH138">
+        <v>1.79</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1.57</v>
+      </c>
+      <c r="AO138">
+        <v>1</v>
+      </c>
+      <c r="AP138">
+        <v>1.38</v>
+      </c>
+      <c r="AQ138">
+        <v>1.25</v>
+      </c>
+      <c r="AR138">
+        <v>1.72</v>
+      </c>
+      <c r="AS138">
+        <v>1.5</v>
+      </c>
+      <c r="AT138">
+        <v>3.22</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>12</v>
+      </c>
+      <c r="AX138">
+        <v>6</v>
+      </c>
+      <c r="AY138">
+        <v>21</v>
+      </c>
+      <c r="AZ138">
+        <v>14</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>1</v>
+      </c>
+      <c r="BC138">
+        <v>7</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>0</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7778219</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F139">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139" t="s">
+        <v>86</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>91</v>
+      </c>
+      <c r="P139" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q139">
+        <v>3.2</v>
+      </c>
+      <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>1.57</v>
+      </c>
+      <c r="U139">
+        <v>2.25</v>
+      </c>
+      <c r="V139">
+        <v>3.75</v>
+      </c>
+      <c r="W139">
+        <v>1.25</v>
+      </c>
+      <c r="X139">
+        <v>11</v>
+      </c>
+      <c r="Y139">
+        <v>1.05</v>
+      </c>
+      <c r="Z139">
+        <v>2.26</v>
+      </c>
+      <c r="AA139">
+        <v>2.98</v>
+      </c>
+      <c r="AB139">
+        <v>2.93</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>1.48</v>
+      </c>
+      <c r="AF139">
+        <v>2.37</v>
+      </c>
+      <c r="AG139">
+        <v>2.48</v>
+      </c>
+      <c r="AH139">
+        <v>1.5</v>
+      </c>
+      <c r="AI139">
+        <v>2.1</v>
+      </c>
+      <c r="AJ139">
+        <v>1.67</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>1.57</v>
+      </c>
+      <c r="AO139">
+        <v>1.5</v>
+      </c>
+      <c r="AP139">
+        <v>1.38</v>
+      </c>
+      <c r="AQ139">
+        <v>1.71</v>
+      </c>
+      <c r="AR139">
+        <v>1.63</v>
+      </c>
+      <c r="AS139">
+        <v>1.45</v>
+      </c>
+      <c r="AT139">
+        <v>3.08</v>
+      </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
+      <c r="AV139">
+        <v>5</v>
+      </c>
+      <c r="AW139">
+        <v>10</v>
+      </c>
+      <c r="AX139">
+        <v>10</v>
+      </c>
+      <c r="AY139">
+        <v>16</v>
+      </c>
+      <c r="AZ139">
+        <v>19</v>
+      </c>
+      <c r="BA139">
+        <v>3</v>
+      </c>
+      <c r="BB139">
+        <v>4</v>
+      </c>
+      <c r="BC139">
+        <v>7</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7778213</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F140">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>89</v>
+      </c>
+      <c r="H140" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>91</v>
+      </c>
+      <c r="P140" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q140">
+        <v>2.75</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>4.33</v>
+      </c>
+      <c r="T140">
+        <v>1.44</v>
+      </c>
+      <c r="U140">
+        <v>2.63</v>
+      </c>
+      <c r="V140">
+        <v>3.25</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>9</v>
+      </c>
+      <c r="Y140">
+        <v>1.07</v>
+      </c>
+      <c r="Z140">
+        <v>1.98</v>
+      </c>
+      <c r="AA140">
+        <v>3.11</v>
+      </c>
+      <c r="AB140">
+        <v>3.39</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+      <c r="AF140">
+        <v>0</v>
+      </c>
+      <c r="AG140">
+        <v>2.1</v>
+      </c>
+      <c r="AH140">
+        <v>1.6</v>
+      </c>
+      <c r="AI140">
+        <v>1.95</v>
+      </c>
+      <c r="AJ140">
+        <v>1.8</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>2.57</v>
+      </c>
+      <c r="AO140">
+        <v>0.71</v>
+      </c>
+      <c r="AP140">
+        <v>2.25</v>
+      </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
+      <c r="AR140">
+        <v>1.37</v>
+      </c>
+      <c r="AS140">
+        <v>1.58</v>
+      </c>
+      <c r="AT140">
+        <v>2.95</v>
+      </c>
+      <c r="AU140">
+        <v>0</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>15</v>
+      </c>
+      <c r="AX140">
+        <v>8</v>
+      </c>
+      <c r="AY140">
+        <v>18</v>
+      </c>
+      <c r="AZ140">
+        <v>16</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
+        <v>6</v>
+      </c>
+      <c r="BC140">
+        <v>11</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7778218</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F141">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>91</v>
+      </c>
+      <c r="P141" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q141">
+        <v>3.2</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.53</v>
+      </c>
+      <c r="U141">
+        <v>2.38</v>
+      </c>
+      <c r="V141">
+        <v>3.75</v>
+      </c>
+      <c r="W141">
+        <v>1.25</v>
+      </c>
+      <c r="X141">
+        <v>11</v>
+      </c>
+      <c r="Y141">
+        <v>1.05</v>
+      </c>
+      <c r="Z141">
+        <v>2.23</v>
+      </c>
+      <c r="AA141">
+        <v>2.87</v>
+      </c>
+      <c r="AB141">
+        <v>3.1</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>1.5</v>
+      </c>
+      <c r="AF141">
+        <v>2.3</v>
+      </c>
+      <c r="AG141">
+        <v>2.48</v>
+      </c>
+      <c r="AH141">
+        <v>1.5</v>
+      </c>
+      <c r="AI141">
+        <v>2.1</v>
+      </c>
+      <c r="AJ141">
+        <v>1.67</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1.67</v>
+      </c>
+      <c r="AO141">
+        <v>0.67</v>
+      </c>
+      <c r="AP141">
+        <v>1.57</v>
+      </c>
+      <c r="AQ141">
+        <v>0.71</v>
+      </c>
+      <c r="AR141">
+        <v>1.35</v>
+      </c>
+      <c r="AS141">
+        <v>1.32</v>
+      </c>
+      <c r="AT141">
+        <v>2.67</v>
+      </c>
+      <c r="AU141">
+        <v>2</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>9</v>
+      </c>
+      <c r="AX141">
+        <v>7</v>
+      </c>
+      <c r="AY141">
+        <v>11</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>4</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>9</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7778214</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45783.16666666666</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>183</v>
+      </c>
+      <c r="P142" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q142">
+        <v>2.75</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>4.33</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.63</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>10</v>
+      </c>
+      <c r="Y142">
+        <v>1.06</v>
+      </c>
+      <c r="Z142">
+        <v>2.01</v>
+      </c>
+      <c r="AA142">
+        <v>3.04</v>
+      </c>
+      <c r="AB142">
+        <v>3.39</v>
+      </c>
+      <c r="AC142">
+        <v>0</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>0</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>2.15</v>
+      </c>
+      <c r="AH142">
+        <v>1.57</v>
+      </c>
+      <c r="AI142">
+        <v>1.95</v>
+      </c>
+      <c r="AJ142">
+        <v>1.8</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>1.5</v>
+      </c>
+      <c r="AO142">
+        <v>1.43</v>
+      </c>
+      <c r="AP142">
+        <v>1.71</v>
+      </c>
+      <c r="AQ142">
+        <v>1.25</v>
+      </c>
+      <c r="AR142">
+        <v>1.48</v>
+      </c>
+      <c r="AS142">
+        <v>1.47</v>
+      </c>
+      <c r="AT142">
+        <v>2.95</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>8</v>
+      </c>
+      <c r="AX142">
+        <v>15</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
+        <v>20</v>
+      </c>
+      <c r="BA142">
+        <v>6</v>
+      </c>
+      <c r="BB142">
+        <v>9</v>
+      </c>
+      <c r="BC142">
+        <v>15</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>0</v>
+      </c>
+      <c r="BL142">
+        <v>0</v>
+      </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7778215</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45783.16666666666</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>73</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>184</v>
+      </c>
+      <c r="P143" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q143">
+        <v>3.4</v>
+      </c>
+      <c r="R143">
+        <v>1.83</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.62</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>4</v>
+      </c>
+      <c r="W143">
+        <v>1.22</v>
+      </c>
+      <c r="X143">
+        <v>13</v>
+      </c>
+      <c r="Y143">
+        <v>1.04</v>
+      </c>
+      <c r="Z143">
+        <v>2.38</v>
+      </c>
+      <c r="AA143">
+        <v>2.66</v>
+      </c>
+      <c r="AB143">
+        <v>3.1</v>
+      </c>
+      <c r="AC143">
+        <v>0</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>1.6</v>
+      </c>
+      <c r="AF143">
+        <v>2.1</v>
+      </c>
+      <c r="AG143">
+        <v>2.94</v>
+      </c>
+      <c r="AH143">
+        <v>1.37</v>
+      </c>
+      <c r="AI143">
+        <v>2.25</v>
+      </c>
+      <c r="AJ143">
+        <v>1.57</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>1.17</v>
+      </c>
+      <c r="AO143">
+        <v>0.4</v>
+      </c>
+      <c r="AP143">
+        <v>1.43</v>
+      </c>
+      <c r="AQ143">
+        <v>0.33</v>
+      </c>
+      <c r="AR143">
+        <v>1.48</v>
+      </c>
+      <c r="AS143">
+        <v>1.21</v>
+      </c>
+      <c r="AT143">
+        <v>2.69</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>3</v>
+      </c>
+      <c r="AW143">
+        <v>0</v>
+      </c>
+      <c r="AX143">
+        <v>7</v>
+      </c>
+      <c r="AY143">
+        <v>6</v>
+      </c>
+      <c r="AZ143">
+        <v>10</v>
+      </c>
+      <c r="BA143">
+        <v>1</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>4</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>0</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>0</v>
+      </c>
+      <c r="BJ143">
+        <v>0</v>
+      </c>
+      <c r="BK143">
+        <v>0</v>
+      </c>
+      <c r="BL143">
+        <v>0</v>
+      </c>
+      <c r="BM143">
+        <v>0</v>
+      </c>
+      <c r="BN143">
+        <v>0</v>
+      </c>
+      <c r="BO143">
+        <v>0</v>
+      </c>
+      <c r="BP143">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -29964,7 +29964,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45783.08333333334</v>
+        <v>45783.125</v>
       </c>
       <c r="F141">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -744,6 +744,9 @@
   <si>
     <t>['53']</t>
   </si>
+  <si>
+    <t>['72', '90+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1104,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2268,7 +2271,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2883,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ9">
         <v>1.71</v>
@@ -3089,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5976,7 +5979,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6182,7 +6185,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6385,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6797,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -8036,7 +8039,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR34">
         <v>1.99</v>
@@ -11535,7 +11538,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ51">
         <v>1.14</v>
@@ -12156,7 +12159,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR54">
         <v>1.44</v>
@@ -13183,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -14628,7 +14631,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -18127,7 +18130,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ83">
         <v>1.43</v>
@@ -18748,7 +18751,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ86">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR86">
         <v>1.65</v>
@@ -19157,7 +19160,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88">
         <v>0.5</v>
@@ -21423,7 +21426,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -22250,7 +22253,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22456,7 +22459,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ104">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR104">
         <v>1.53</v>
@@ -23280,7 +23283,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ108">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR108">
         <v>1.41</v>
@@ -23895,7 +23898,7 @@
         <v>1.8</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ111">
         <v>2.14</v>
@@ -24719,7 +24722,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -25546,7 +25549,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ119">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR119">
         <v>1.43</v>
@@ -27194,7 +27197,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ127">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR127">
         <v>1.65</v>
@@ -27397,7 +27400,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ128">
         <v>1.43</v>
@@ -30565,6 +30568,418 @@
         <v>0</v>
       </c>
       <c r="BP143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7778216</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45784.29166666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>83</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>179</v>
+      </c>
+      <c r="P144" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q144">
+        <v>2.63</v>
+      </c>
+      <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>4.5</v>
+      </c>
+      <c r="T144">
+        <v>1.44</v>
+      </c>
+      <c r="U144">
+        <v>2.63</v>
+      </c>
+      <c r="V144">
+        <v>3.25</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>10</v>
+      </c>
+      <c r="Y144">
+        <v>1.06</v>
+      </c>
+      <c r="Z144">
+        <v>1.88</v>
+      </c>
+      <c r="AA144">
+        <v>3.15</v>
+      </c>
+      <c r="AB144">
+        <v>3.68</v>
+      </c>
+      <c r="AC144">
+        <v>0</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>1.5</v>
+      </c>
+      <c r="AF144">
+        <v>2.4</v>
+      </c>
+      <c r="AG144">
+        <v>2.1</v>
+      </c>
+      <c r="AH144">
+        <v>1.6</v>
+      </c>
+      <c r="AI144">
+        <v>2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.75</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>0</v>
+      </c>
+      <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>0.67</v>
+      </c>
+      <c r="AO144">
+        <v>1.63</v>
+      </c>
+      <c r="AP144">
+        <v>0.57</v>
+      </c>
+      <c r="AQ144">
+        <v>1.78</v>
+      </c>
+      <c r="AR144">
+        <v>1.36</v>
+      </c>
+      <c r="AS144">
+        <v>1.4</v>
+      </c>
+      <c r="AT144">
+        <v>2.76</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>3</v>
+      </c>
+      <c r="AW144">
+        <v>10</v>
+      </c>
+      <c r="AX144">
+        <v>9</v>
+      </c>
+      <c r="AY144">
+        <v>16</v>
+      </c>
+      <c r="AZ144">
+        <v>12</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
+        <v>3</v>
+      </c>
+      <c r="BC144">
+        <v>4</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>0</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0</v>
+      </c>
+      <c r="BJ144">
+        <v>0</v>
+      </c>
+      <c r="BK144">
+        <v>0</v>
+      </c>
+      <c r="BL144">
+        <v>0</v>
+      </c>
+      <c r="BM144">
+        <v>0</v>
+      </c>
+      <c r="BN144">
+        <v>0</v>
+      </c>
+      <c r="BO144">
+        <v>0</v>
+      </c>
+      <c r="BP144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7778217</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45784.29166666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>87</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>91</v>
+      </c>
+      <c r="P145" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q145">
+        <v>4.5</v>
+      </c>
+      <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>2.75</v>
+      </c>
+      <c r="T145">
+        <v>1.5</v>
+      </c>
+      <c r="U145">
+        <v>2.5</v>
+      </c>
+      <c r="V145">
+        <v>3.4</v>
+      </c>
+      <c r="W145">
+        <v>1.3</v>
+      </c>
+      <c r="X145">
+        <v>10</v>
+      </c>
+      <c r="Y145">
+        <v>1.06</v>
+      </c>
+      <c r="Z145">
+        <v>3.86</v>
+      </c>
+      <c r="AA145">
+        <v>3.26</v>
+      </c>
+      <c r="AB145">
+        <v>1.8</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>2.15</v>
+      </c>
+      <c r="AH145">
+        <v>1.57</v>
+      </c>
+      <c r="AI145">
+        <v>2</v>
+      </c>
+      <c r="AJ145">
+        <v>1.75</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1.67</v>
+      </c>
+      <c r="AO145">
+        <v>0.8</v>
+      </c>
+      <c r="AP145">
+        <v>1.43</v>
+      </c>
+      <c r="AQ145">
+        <v>1.17</v>
+      </c>
+      <c r="AR145">
+        <v>1.48</v>
+      </c>
+      <c r="AS145">
+        <v>1.65</v>
+      </c>
+      <c r="AT145">
+        <v>3.13</v>
+      </c>
+      <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>9</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>12</v>
+      </c>
+      <c r="AZ145">
+        <v>6</v>
+      </c>
+      <c r="BA145">
+        <v>2</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
+      <c r="BG145">
+        <v>0</v>
+      </c>
+      <c r="BH145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>0</v>
+      </c>
+      <c r="BJ145">
+        <v>0</v>
+      </c>
+      <c r="BK145">
+        <v>0</v>
+      </c>
+      <c r="BL145">
+        <v>0</v>
+      </c>
+      <c r="BM145">
+        <v>0</v>
+      </c>
+      <c r="BN145">
+        <v>0</v>
+      </c>
+      <c r="BO145">
+        <v>0</v>
+      </c>
+      <c r="BP145">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,15 @@
     <t>['36', '90+1']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['90+13']</t>
+  </si>
+  <si>
+    <t>['76', '90']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -704,9 +713,6 @@
   </si>
   <si>
     <t>['48']</t>
-  </si>
-  <si>
-    <t>['59']</t>
   </si>
   <si>
     <t>['90+3']</t>
@@ -1107,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1372,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2062,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5">
         <v>1.14</v>
@@ -3014,7 +3020,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3220,7 +3226,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3426,7 +3432,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3507,7 +3513,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3632,7 +3638,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3710,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3916,10 +3922,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -4250,7 +4256,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4456,7 +4462,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4662,7 +4668,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4743,7 +4749,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>2.07</v>
@@ -4946,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5486,7 +5492,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5898,7 +5904,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6516,7 +6522,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6722,7 +6728,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7006,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7134,7 +7140,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7212,7 +7218,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30">
         <v>1.25</v>
@@ -7546,7 +7552,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8164,7 +8170,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8245,7 +8251,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.47</v>
@@ -8370,7 +8376,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8576,7 +8582,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8782,7 +8788,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9400,7 +9406,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9687,7 +9693,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR42">
         <v>2.05</v>
@@ -9812,7 +9818,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10302,7 +10308,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10430,7 +10436,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10508,7 +10514,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -10636,7 +10642,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10842,7 +10848,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -10920,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
         <v>1.71</v>
@@ -11129,7 +11135,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11332,7 +11338,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11666,7 +11672,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12078,7 +12084,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12696,7 +12702,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13108,7 +13114,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13189,7 +13195,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13314,7 +13320,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14010,7 +14016,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -14138,7 +14144,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14837,7 +14843,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.72</v>
@@ -14962,7 +14968,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15168,7 +15174,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15246,7 +15252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15580,7 +15586,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15661,7 +15667,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -16485,7 +16491,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -16816,7 +16822,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17022,7 +17028,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17100,10 +17106,10 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.29</v>
@@ -17228,7 +17234,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -18052,7 +18058,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18336,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ84">
         <v>1.25</v>
@@ -18670,7 +18676,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18954,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19082,7 +19088,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19494,7 +19500,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19700,7 +19706,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19778,7 +19784,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>2.14</v>
@@ -19906,7 +19912,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -19987,7 +19993,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20524,7 +20530,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20811,7 +20817,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21348,7 +21354,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21760,7 +21766,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21966,7 +21972,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22172,7 +22178,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22378,7 +22384,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22662,7 +22668,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22790,7 +22796,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22996,7 +23002,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23077,7 +23083,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ107">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23202,7 +23208,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23820,7 +23826,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24232,7 +24238,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24644,7 +24650,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24850,7 +24856,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25137,7 +25143,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25752,7 +25758,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -25880,7 +25886,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -25958,7 +25964,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ121">
         <v>1.14</v>
@@ -26086,7 +26092,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26164,7 +26170,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
         <v>1.25</v>
@@ -26292,7 +26298,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26498,7 +26504,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26576,7 +26582,7 @@
         <v>1.2</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
         <v>1.71</v>
@@ -26704,7 +26710,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26910,7 +26916,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27403,7 +27409,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
         <v>1.57</v>
@@ -27528,7 +27534,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27734,7 +27740,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27815,7 +27821,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -27940,7 +27946,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28146,7 +28152,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28433,7 +28439,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ133">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -29176,7 +29182,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29382,7 +29388,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29794,7 +29800,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30081,7 +30087,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ141">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
         <v>1.35</v>
@@ -30284,7 +30290,7 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
         <v>1.25</v>
@@ -30618,7 +30624,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30980,6 +30986,624 @@
         <v>0</v>
       </c>
       <c r="BP145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7778227</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45787.08333333334</v>
+      </c>
+      <c r="F146">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s">
+        <v>71</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>185</v>
+      </c>
+      <c r="P146" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q146">
+        <v>3.4</v>
+      </c>
+      <c r="R146">
+        <v>1.91</v>
+      </c>
+      <c r="S146">
+        <v>4</v>
+      </c>
+      <c r="T146">
+        <v>1.62</v>
+      </c>
+      <c r="U146">
+        <v>2.2</v>
+      </c>
+      <c r="V146">
+        <v>4</v>
+      </c>
+      <c r="W146">
+        <v>1.22</v>
+      </c>
+      <c r="X146">
+        <v>13</v>
+      </c>
+      <c r="Y146">
+        <v>1.04</v>
+      </c>
+      <c r="Z146">
+        <v>2.84</v>
+      </c>
+      <c r="AA146">
+        <v>2.66</v>
+      </c>
+      <c r="AB146">
+        <v>2.55</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>1.6</v>
+      </c>
+      <c r="AF146">
+        <v>2.2</v>
+      </c>
+      <c r="AG146">
+        <v>2.94</v>
+      </c>
+      <c r="AH146">
+        <v>1.37</v>
+      </c>
+      <c r="AI146">
+        <v>2.25</v>
+      </c>
+      <c r="AJ146">
+        <v>1.57</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1.25</v>
+      </c>
+      <c r="AO146">
+        <v>1.43</v>
+      </c>
+      <c r="AP146">
+        <v>1.44</v>
+      </c>
+      <c r="AQ146">
+        <v>1.25</v>
+      </c>
+      <c r="AR146">
+        <v>1.26</v>
+      </c>
+      <c r="AS146">
+        <v>1.68</v>
+      </c>
+      <c r="AT146">
+        <v>2.94</v>
+      </c>
+      <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>2</v>
+      </c>
+      <c r="AW146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>10</v>
+      </c>
+      <c r="AY146">
+        <v>14</v>
+      </c>
+      <c r="AZ146">
+        <v>16</v>
+      </c>
+      <c r="BA146">
+        <v>2</v>
+      </c>
+      <c r="BB146">
+        <v>6</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>0</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7778225</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45787.125</v>
+      </c>
+      <c r="F147">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>85</v>
+      </c>
+      <c r="H147" t="s">
+        <v>72</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>186</v>
+      </c>
+      <c r="P147" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q147">
+        <v>4.75</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>2.6</v>
+      </c>
+      <c r="T147">
+        <v>1.44</v>
+      </c>
+      <c r="U147">
+        <v>2.63</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>9</v>
+      </c>
+      <c r="Y147">
+        <v>1.07</v>
+      </c>
+      <c r="Z147">
+        <v>3.64</v>
+      </c>
+      <c r="AA147">
+        <v>3.2</v>
+      </c>
+      <c r="AB147">
+        <v>1.88</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>2.1</v>
+      </c>
+      <c r="AH147">
+        <v>1.6</v>
+      </c>
+      <c r="AI147">
+        <v>1.95</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>1.14</v>
+      </c>
+      <c r="AO147">
+        <v>2</v>
+      </c>
+      <c r="AP147">
+        <v>1.38</v>
+      </c>
+      <c r="AQ147">
+        <v>1.67</v>
+      </c>
+      <c r="AR147">
+        <v>1.43</v>
+      </c>
+      <c r="AS147">
+        <v>1.29</v>
+      </c>
+      <c r="AT147">
+        <v>2.72</v>
+      </c>
+      <c r="AU147">
+        <v>8</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>8</v>
+      </c>
+      <c r="AX147">
+        <v>11</v>
+      </c>
+      <c r="AY147">
+        <v>16</v>
+      </c>
+      <c r="AZ147">
+        <v>18</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>11</v>
+      </c>
+      <c r="BC147">
+        <v>16</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7778224</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45787.16666666666</v>
+      </c>
+      <c r="F148">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>81</v>
+      </c>
+      <c r="H148" t="s">
+        <v>74</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>187</v>
+      </c>
+      <c r="P148" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q148">
+        <v>2.75</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>5</v>
+      </c>
+      <c r="T148">
+        <v>1.53</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>3.5</v>
+      </c>
+      <c r="W148">
+        <v>1.29</v>
+      </c>
+      <c r="X148">
+        <v>11</v>
+      </c>
+      <c r="Y148">
+        <v>1.05</v>
+      </c>
+      <c r="Z148">
+        <v>1.97</v>
+      </c>
+      <c r="AA148">
+        <v>2.99</v>
+      </c>
+      <c r="AB148">
+        <v>3.62</v>
+      </c>
+      <c r="AC148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>1.47</v>
+      </c>
+      <c r="AF148">
+        <v>2.75</v>
+      </c>
+      <c r="AG148">
+        <v>2.25</v>
+      </c>
+      <c r="AH148">
+        <v>1.5</v>
+      </c>
+      <c r="AI148">
+        <v>2.2</v>
+      </c>
+      <c r="AJ148">
+        <v>1.62</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>1.71</v>
+      </c>
+      <c r="AO148">
+        <v>0.71</v>
+      </c>
+      <c r="AP148">
+        <v>1.88</v>
+      </c>
+      <c r="AQ148">
+        <v>0.63</v>
+      </c>
+      <c r="AR148">
+        <v>1.42</v>
+      </c>
+      <c r="AS148">
+        <v>1.31</v>
+      </c>
+      <c r="AT148">
+        <v>2.73</v>
+      </c>
+      <c r="AU148">
+        <v>-1</v>
+      </c>
+      <c r="AV148">
+        <v>-1</v>
+      </c>
+      <c r="AW148">
+        <v>-1</v>
+      </c>
+      <c r="AX148">
+        <v>-1</v>
+      </c>
+      <c r="AY148">
+        <v>-1</v>
+      </c>
+      <c r="AZ148">
+        <v>-1</v>
+      </c>
+      <c r="BA148">
+        <v>-1</v>
+      </c>
+      <c r="BB148">
+        <v>-1</v>
+      </c>
+      <c r="BC148">
+        <v>-1</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>0</v>
+      </c>
+      <c r="BK148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -31541,31 +31541,31 @@
         <v>2.73</v>
       </c>
       <c r="AU148">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV148">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW148">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX148">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY148">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ148">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA148">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB148">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC148">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD148">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,21 @@
     <t>['76', '90']</t>
   </si>
   <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
+    <t>['45+1', '65']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -662,9 +677,6 @@
   </si>
   <si>
     <t>['43', '89']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['79']</t>
@@ -752,6 +764,18 @@
   </si>
   <si>
     <t>['72', '90+5']</t>
+  </si>
+  <si>
+    <t>['21', '66']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['62', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1396,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1450,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -2689,7 +2713,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3020,7 +3044,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3101,7 +3125,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3226,7 +3250,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3304,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>1.25</v>
@@ -3432,7 +3456,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3638,7 +3662,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3719,7 +3743,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4128,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4256,7 +4280,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4334,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4462,7 +4486,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4540,10 +4564,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4668,7 +4692,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4746,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -4955,7 +4979,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5158,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5367,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5492,7 +5516,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5573,7 +5597,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>0.91</v>
@@ -5904,7 +5928,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6188,10 +6212,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6522,7 +6546,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6600,7 +6624,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6728,7 +6752,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7015,7 +7039,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29">
         <v>1.17</v>
@@ -7140,7 +7164,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7552,7 +7576,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7633,7 +7657,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR32">
         <v>1.12</v>
@@ -7836,7 +7860,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ33">
         <v>1.14</v>
@@ -8170,7 +8194,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8376,7 +8400,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8454,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8582,7 +8606,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8660,7 +8684,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8788,7 +8812,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8869,7 +8893,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR38">
         <v>1.35</v>
@@ -9406,7 +9430,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9818,7 +9842,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9896,7 +9920,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ43">
         <v>1.25</v>
@@ -10102,7 +10126,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
         <v>1.25</v>
@@ -10311,7 +10335,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10436,7 +10460,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10517,7 +10541,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10642,7 +10666,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10720,10 +10744,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
         <v>1.63</v>
@@ -10848,7 +10872,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11132,7 +11156,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11672,7 +11696,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11750,10 +11774,10 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12084,7 +12108,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12162,7 +12186,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1.78</v>
@@ -12577,7 +12601,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR56">
         <v>1.66</v>
@@ -12702,7 +12726,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12986,7 +13010,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13114,7 +13138,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13320,7 +13344,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13398,7 +13422,7 @@
         <v>0.75</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13607,7 +13631,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -13810,10 +13834,10 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14144,7 +14168,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14222,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14634,10 +14658,10 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -14840,7 +14864,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -14968,7 +14992,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15049,7 +15073,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15174,7 +15198,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15255,7 +15279,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15586,7 +15610,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15664,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>0.63</v>
@@ -15870,10 +15894,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR72">
         <v>1.64</v>
@@ -16076,7 +16100,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>2.14</v>
@@ -16285,7 +16309,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ74">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR74">
         <v>1.09</v>
@@ -16488,7 +16512,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ75">
         <v>1.25</v>
@@ -16697,7 +16721,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.89</v>
@@ -16822,7 +16846,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16900,7 +16924,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>1.14</v>
@@ -17028,7 +17052,7 @@
         <v>91</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17234,7 +17258,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -18058,7 +18082,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18139,7 +18163,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ83">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18676,7 +18700,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18754,7 +18778,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ86">
         <v>1.78</v>
@@ -19088,7 +19112,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19169,7 +19193,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR88">
         <v>1.6</v>
@@ -19500,7 +19524,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19581,7 +19605,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR90">
         <v>1.9</v>
@@ -19706,7 +19730,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19912,7 +19936,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20196,10 +20220,10 @@
         <v>1.8</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20402,10 +20426,10 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR94">
         <v>1.55</v>
@@ -20530,7 +20554,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20611,7 +20635,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ95">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -20814,7 +20838,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ96">
         <v>1.67</v>
@@ -21020,7 +21044,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.71</v>
@@ -21226,10 +21250,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR98">
         <v>1.39</v>
@@ -21354,7 +21378,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21638,7 +21662,7 @@
         <v>0.33</v>
       </c>
       <c r="AP100">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ100">
         <v>0.33</v>
@@ -21766,7 +21790,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21972,7 +21996,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22053,7 +22077,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22178,7 +22202,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22384,7 +22408,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22462,7 +22486,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ104">
         <v>1.78</v>
@@ -22796,7 +22820,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23002,7 +23026,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23080,7 +23104,7 @@
         <v>2.25</v>
       </c>
       <c r="AP107">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>1.25</v>
@@ -23208,7 +23232,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23289,7 +23313,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ108">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR108">
         <v>1.41</v>
@@ -23495,7 +23519,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR109">
         <v>1.57</v>
@@ -23698,7 +23722,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.14</v>
@@ -23826,7 +23850,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24319,7 +24343,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ113">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24522,7 +24546,7 @@
         <v>0.8</v>
       </c>
       <c r="AP114">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114">
         <v>1.25</v>
@@ -24650,7 +24674,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24731,7 +24755,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR115">
         <v>1.31</v>
@@ -24856,7 +24880,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24934,7 +24958,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>0.33</v>
@@ -25346,10 +25370,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ118">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR118">
         <v>1.72</v>
@@ -25555,7 +25579,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ119">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR119">
         <v>1.43</v>
@@ -25886,7 +25910,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26092,7 +26116,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26298,7 +26322,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26504,7 +26528,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26710,7 +26734,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26916,7 +26940,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27200,7 +27224,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
         <v>1.78</v>
@@ -27534,7 +27558,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27612,10 +27636,10 @@
         <v>2.17</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR129">
         <v>2.07</v>
@@ -27740,7 +27764,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27946,7 +27970,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28024,10 +28048,10 @@
         <v>0.14</v>
       </c>
       <c r="AP131">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR131">
         <v>1.34</v>
@@ -28152,7 +28176,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28230,7 +28254,7 @@
         <v>0.83</v>
       </c>
       <c r="AP132">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ132">
         <v>1.14</v>
@@ -28642,10 +28666,10 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR134">
         <v>1.6</v>
@@ -28848,10 +28872,10 @@
         <v>2.29</v>
       </c>
       <c r="AP135">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR135">
         <v>1.68</v>
@@ -29182,7 +29206,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29260,7 +29284,7 @@
         <v>0.67</v>
       </c>
       <c r="AP137">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.25</v>
@@ -29388,7 +29412,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29800,7 +29824,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30496,7 +30520,7 @@
         <v>0.4</v>
       </c>
       <c r="AP143">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ143">
         <v>0.33</v>
@@ -30624,7 +30648,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30911,7 +30935,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ145">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR145">
         <v>1.48</v>
@@ -31604,6 +31628,1448 @@
         <v>0</v>
       </c>
       <c r="BP148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7778229</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45788.04513888889</v>
+      </c>
+      <c r="F149">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>82</v>
+      </c>
+      <c r="H149" t="s">
+        <v>78</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>188</v>
+      </c>
+      <c r="P149" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q149">
+        <v>3.5</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>3.25</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>10</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>2.57</v>
+      </c>
+      <c r="AA149">
+        <v>3.21</v>
+      </c>
+      <c r="AB149">
+        <v>2.38</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>1.5</v>
+      </c>
+      <c r="AF149">
+        <v>2.4</v>
+      </c>
+      <c r="AG149">
+        <v>2.1</v>
+      </c>
+      <c r="AH149">
+        <v>1.6</v>
+      </c>
+      <c r="AI149">
+        <v>1.95</v>
+      </c>
+      <c r="AJ149">
+        <v>1.8</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1.57</v>
+      </c>
+      <c r="AO149">
+        <v>2</v>
+      </c>
+      <c r="AP149">
+        <v>1.5</v>
+      </c>
+      <c r="AQ149">
+        <v>1.89</v>
+      </c>
+      <c r="AR149">
+        <v>1.3</v>
+      </c>
+      <c r="AS149">
+        <v>1.41</v>
+      </c>
+      <c r="AT149">
+        <v>2.71</v>
+      </c>
+      <c r="AU149">
+        <v>5</v>
+      </c>
+      <c r="AV149">
+        <v>6</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>8</v>
+      </c>
+      <c r="AY149">
+        <v>16</v>
+      </c>
+      <c r="AZ149">
+        <v>16</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
+        <v>5</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0</v>
+      </c>
+      <c r="BJ149">
+        <v>0</v>
+      </c>
+      <c r="BK149">
+        <v>0</v>
+      </c>
+      <c r="BL149">
+        <v>0</v>
+      </c>
+      <c r="BM149">
+        <v>0</v>
+      </c>
+      <c r="BN149">
+        <v>0</v>
+      </c>
+      <c r="BO149">
+        <v>0</v>
+      </c>
+      <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7778223</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45788.04513888889</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>86</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>189</v>
+      </c>
+      <c r="P150" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q150">
+        <v>3.4</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>3</v>
+      </c>
+      <c r="T150">
+        <v>1.4</v>
+      </c>
+      <c r="U150">
+        <v>2.75</v>
+      </c>
+      <c r="V150">
+        <v>2.75</v>
+      </c>
+      <c r="W150">
+        <v>1.4</v>
+      </c>
+      <c r="X150">
+        <v>8</v>
+      </c>
+      <c r="Y150">
+        <v>1.08</v>
+      </c>
+      <c r="Z150">
+        <v>2.73</v>
+      </c>
+      <c r="AA150">
+        <v>3.17</v>
+      </c>
+      <c r="AB150">
+        <v>2.28</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>1.86</v>
+      </c>
+      <c r="AH150">
+        <v>1.84</v>
+      </c>
+      <c r="AI150">
+        <v>1.75</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>2.38</v>
+      </c>
+      <c r="AO150">
+        <v>1.43</v>
+      </c>
+      <c r="AP150">
+        <v>2.44</v>
+      </c>
+      <c r="AQ150">
+        <v>1.25</v>
+      </c>
+      <c r="AR150">
+        <v>1.64</v>
+      </c>
+      <c r="AS150">
+        <v>1.47</v>
+      </c>
+      <c r="AT150">
+        <v>3.11</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>8</v>
+      </c>
+      <c r="AW150">
+        <v>7</v>
+      </c>
+      <c r="AX150">
+        <v>14</v>
+      </c>
+      <c r="AY150">
+        <v>15</v>
+      </c>
+      <c r="AZ150">
+        <v>27</v>
+      </c>
+      <c r="BA150">
+        <v>5</v>
+      </c>
+      <c r="BB150">
+        <v>11</v>
+      </c>
+      <c r="BC150">
+        <v>16</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7778230</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45788.08333333334</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>83</v>
+      </c>
+      <c r="H151" t="s">
+        <v>80</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>190</v>
+      </c>
+      <c r="P151" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>3.5</v>
+      </c>
+      <c r="T151">
+        <v>1.4</v>
+      </c>
+      <c r="U151">
+        <v>2.75</v>
+      </c>
+      <c r="V151">
+        <v>2.75</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>8</v>
+      </c>
+      <c r="Y151">
+        <v>1.08</v>
+      </c>
+      <c r="Z151">
+        <v>2.19</v>
+      </c>
+      <c r="AA151">
+        <v>3.21</v>
+      </c>
+      <c r="AB151">
+        <v>2.84</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AE151">
+        <v>1.5</v>
+      </c>
+      <c r="AF151">
+        <v>2.4</v>
+      </c>
+      <c r="AG151">
+        <v>1.9</v>
+      </c>
+      <c r="AH151">
+        <v>1.8</v>
+      </c>
+      <c r="AI151">
+        <v>1.75</v>
+      </c>
+      <c r="AJ151">
+        <v>2</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1.57</v>
+      </c>
+      <c r="AO151">
+        <v>0.5</v>
+      </c>
+      <c r="AP151">
+        <v>1.5</v>
+      </c>
+      <c r="AQ151">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR151">
+        <v>1.61</v>
+      </c>
+      <c r="AS151">
+        <v>1.2</v>
+      </c>
+      <c r="AT151">
+        <v>2.81</v>
+      </c>
+      <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>10</v>
+      </c>
+      <c r="AX151">
+        <v>11</v>
+      </c>
+      <c r="AY151">
+        <v>19</v>
+      </c>
+      <c r="AZ151">
+        <v>17</v>
+      </c>
+      <c r="BA151">
+        <v>6</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>9</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7778228</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45788.08680555555</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" t="s">
+        <v>89</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>191</v>
+      </c>
+      <c r="P152" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q152">
+        <v>3.6</v>
+      </c>
+      <c r="R152">
+        <v>2.05</v>
+      </c>
+      <c r="S152">
+        <v>3.25</v>
+      </c>
+      <c r="T152">
+        <v>1.5</v>
+      </c>
+      <c r="U152">
+        <v>2.5</v>
+      </c>
+      <c r="V152">
+        <v>3.4</v>
+      </c>
+      <c r="W152">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <v>10</v>
+      </c>
+      <c r="Y152">
+        <v>1.06</v>
+      </c>
+      <c r="Z152">
+        <v>2.62</v>
+      </c>
+      <c r="AA152">
+        <v>3.02</v>
+      </c>
+      <c r="AB152">
+        <v>2.46</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AE152">
+        <v>1.44</v>
+      </c>
+      <c r="AF152">
+        <v>2.9</v>
+      </c>
+      <c r="AG152">
+        <v>2.15</v>
+      </c>
+      <c r="AH152">
+        <v>1.57</v>
+      </c>
+      <c r="AI152">
+        <v>1.95</v>
+      </c>
+      <c r="AJ152">
+        <v>1.8</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>0</v>
+      </c>
+      <c r="AM152">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>0.57</v>
+      </c>
+      <c r="AO152">
+        <v>1</v>
+      </c>
+      <c r="AP152">
+        <v>0.63</v>
+      </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
+      <c r="AR152">
+        <v>1.53</v>
+      </c>
+      <c r="AS152">
+        <v>1.57</v>
+      </c>
+      <c r="AT152">
+        <v>3.1</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>9</v>
+      </c>
+      <c r="AY152">
+        <v>15</v>
+      </c>
+      <c r="AZ152">
+        <v>18</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>3</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>0</v>
+      </c>
+      <c r="BJ152">
+        <v>0</v>
+      </c>
+      <c r="BK152">
+        <v>0</v>
+      </c>
+      <c r="BL152">
+        <v>0</v>
+      </c>
+      <c r="BM152">
+        <v>0</v>
+      </c>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7778231</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45788.125</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>70</v>
+      </c>
+      <c r="H153" t="s">
+        <v>87</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>91</v>
+      </c>
+      <c r="P153" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q153">
+        <v>3.75</v>
+      </c>
+      <c r="R153">
+        <v>2.1</v>
+      </c>
+      <c r="S153">
+        <v>3</v>
+      </c>
+      <c r="T153">
+        <v>1.44</v>
+      </c>
+      <c r="U153">
+        <v>2.63</v>
+      </c>
+      <c r="V153">
+        <v>3</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>9</v>
+      </c>
+      <c r="Y153">
+        <v>1.07</v>
+      </c>
+      <c r="Z153">
+        <v>2.66</v>
+      </c>
+      <c r="AA153">
+        <v>3.3</v>
+      </c>
+      <c r="AB153">
+        <v>2.27</v>
+      </c>
+      <c r="AC153">
+        <v>0</v>
+      </c>
+      <c r="AD153">
+        <v>0</v>
+      </c>
+      <c r="AE153">
+        <v>2.7</v>
+      </c>
+      <c r="AF153">
+        <v>1.49</v>
+      </c>
+      <c r="AG153">
+        <v>1.95</v>
+      </c>
+      <c r="AH153">
+        <v>1.75</v>
+      </c>
+      <c r="AI153">
+        <v>1.91</v>
+      </c>
+      <c r="AJ153">
+        <v>1.91</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>0</v>
+      </c>
+      <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>2.14</v>
+      </c>
+      <c r="AO153">
+        <v>1.17</v>
+      </c>
+      <c r="AP153">
+        <v>1.88</v>
+      </c>
+      <c r="AQ153">
+        <v>1.43</v>
+      </c>
+      <c r="AR153">
+        <v>1.59</v>
+      </c>
+      <c r="AS153">
+        <v>1.54</v>
+      </c>
+      <c r="AT153">
+        <v>3.13</v>
+      </c>
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>8</v>
+      </c>
+      <c r="AX153">
+        <v>11</v>
+      </c>
+      <c r="AY153">
+        <v>13</v>
+      </c>
+      <c r="AZ153">
+        <v>17</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>6</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>0</v>
+      </c>
+      <c r="BJ153">
+        <v>0</v>
+      </c>
+      <c r="BK153">
+        <v>0</v>
+      </c>
+      <c r="BL153">
+        <v>0</v>
+      </c>
+      <c r="BM153">
+        <v>0</v>
+      </c>
+      <c r="BN153">
+        <v>0</v>
+      </c>
+      <c r="BO153">
+        <v>0</v>
+      </c>
+      <c r="BP153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7778232</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45788.125</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>84</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>192</v>
+      </c>
+      <c r="P154" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q154">
+        <v>2.75</v>
+      </c>
+      <c r="R154">
+        <v>2.3</v>
+      </c>
+      <c r="S154">
+        <v>3.5</v>
+      </c>
+      <c r="T154">
+        <v>1.3</v>
+      </c>
+      <c r="U154">
+        <v>3.4</v>
+      </c>
+      <c r="V154">
+        <v>2.5</v>
+      </c>
+      <c r="W154">
+        <v>1.5</v>
+      </c>
+      <c r="X154">
+        <v>6</v>
+      </c>
+      <c r="Y154">
+        <v>1.13</v>
+      </c>
+      <c r="Z154">
+        <v>2.07</v>
+      </c>
+      <c r="AA154">
+        <v>3.36</v>
+      </c>
+      <c r="AB154">
+        <v>2.95</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>0</v>
+      </c>
+      <c r="AF154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <v>1.67</v>
+      </c>
+      <c r="AH154">
+        <v>2</v>
+      </c>
+      <c r="AI154">
+        <v>1.57</v>
+      </c>
+      <c r="AJ154">
+        <v>2.25</v>
+      </c>
+      <c r="AK154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>0</v>
+      </c>
+      <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
+        <v>1.29</v>
+      </c>
+      <c r="AO154">
+        <v>0.17</v>
+      </c>
+      <c r="AP154">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154">
+        <v>0.14</v>
+      </c>
+      <c r="AR154">
+        <v>1.91</v>
+      </c>
+      <c r="AS154">
+        <v>1.33</v>
+      </c>
+      <c r="AT154">
+        <v>3.24</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>3</v>
+      </c>
+      <c r="AW154">
+        <v>11</v>
+      </c>
+      <c r="AX154">
+        <v>14</v>
+      </c>
+      <c r="AY154">
+        <v>19</v>
+      </c>
+      <c r="AZ154">
+        <v>23</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>12</v>
+      </c>
+      <c r="BC154">
+        <v>15</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>0</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>0</v>
+      </c>
+      <c r="BJ154">
+        <v>0</v>
+      </c>
+      <c r="BK154">
+        <v>0</v>
+      </c>
+      <c r="BL154">
+        <v>0</v>
+      </c>
+      <c r="BM154">
+        <v>0</v>
+      </c>
+      <c r="BN154">
+        <v>0</v>
+      </c>
+      <c r="BO154">
+        <v>0</v>
+      </c>
+      <c r="BP154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7778226</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45788.125</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>91</v>
+      </c>
+      <c r="P155" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q155">
+        <v>3.1</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>4</v>
+      </c>
+      <c r="T155">
+        <v>1.53</v>
+      </c>
+      <c r="U155">
+        <v>2.38</v>
+      </c>
+      <c r="V155">
+        <v>3.5</v>
+      </c>
+      <c r="W155">
+        <v>1.29</v>
+      </c>
+      <c r="X155">
+        <v>11</v>
+      </c>
+      <c r="Y155">
+        <v>1.05</v>
+      </c>
+      <c r="Z155">
+        <v>2.01</v>
+      </c>
+      <c r="AA155">
+        <v>3.06</v>
+      </c>
+      <c r="AB155">
+        <v>3.38</v>
+      </c>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AD155">
+        <v>0</v>
+      </c>
+      <c r="AE155">
+        <v>1.5</v>
+      </c>
+      <c r="AF155">
+        <v>2.4</v>
+      </c>
+      <c r="AG155">
+        <v>2.25</v>
+      </c>
+      <c r="AH155">
+        <v>1.53</v>
+      </c>
+      <c r="AI155">
+        <v>2.05</v>
+      </c>
+      <c r="AJ155">
+        <v>1.7</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>0</v>
+      </c>
+      <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AN155">
+        <v>1.43</v>
+      </c>
+      <c r="AO155">
+        <v>1</v>
+      </c>
+      <c r="AP155">
+        <v>1.25</v>
+      </c>
+      <c r="AQ155">
+        <v>1.22</v>
+      </c>
+      <c r="AR155">
+        <v>1.4</v>
+      </c>
+      <c r="AS155">
+        <v>1.28</v>
+      </c>
+      <c r="AT155">
+        <v>2.68</v>
+      </c>
+      <c r="AU155">
+        <v>0</v>
+      </c>
+      <c r="AV155">
+        <v>6</v>
+      </c>
+      <c r="AW155">
+        <v>14</v>
+      </c>
+      <c r="AX155">
+        <v>4</v>
+      </c>
+      <c r="AY155">
+        <v>19</v>
+      </c>
+      <c r="AZ155">
+        <v>11</v>
+      </c>
+      <c r="BA155">
+        <v>9</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>13</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>0</v>
+      </c>
+      <c r="BJ155">
+        <v>0</v>
+      </c>
+      <c r="BK155">
+        <v>0</v>
+      </c>
+      <c r="BL155">
+        <v>0</v>
+      </c>
+      <c r="BM155">
+        <v>0</v>
+      </c>
+      <c r="BN155">
+        <v>0</v>
+      </c>
+      <c r="BO155">
+        <v>0</v>
+      </c>
+      <c r="BP155">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['33', '83']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -776,6 +779,12 @@
   </si>
   <si>
     <t>['62', '90+4']</t>
+  </si>
+  <si>
+    <t>['55', '90+1']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1405,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1683,7 +1692,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2504,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -2710,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8">
         <v>0.5600000000000001</v>
@@ -3044,7 +3053,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3250,7 +3259,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3456,7 +3465,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3662,7 +3671,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4280,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4486,7 +4495,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4692,7 +4701,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5516,7 +5525,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5928,7 +5937,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6546,7 +6555,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6752,7 +6761,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7164,7 +7173,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7448,10 +7457,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR31">
         <v>1.14</v>
@@ -7576,7 +7585,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7654,7 +7663,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.22</v>
@@ -8066,7 +8075,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>1.78</v>
@@ -8194,7 +8203,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8400,7 +8409,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8606,7 +8615,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8812,7 +8821,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9305,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR40">
         <v>1.25</v>
@@ -9430,7 +9439,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9511,7 +9520,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ41">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9842,7 +9851,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10460,7 +10469,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10666,7 +10675,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10872,7 +10881,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11696,7 +11705,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12108,7 +12117,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12392,7 +12401,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12726,7 +12735,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12807,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR57">
         <v>1.46</v>
@@ -13138,7 +13147,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13344,7 +13353,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14168,7 +14177,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14455,7 +14464,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR65">
         <v>1.08</v>
@@ -14992,7 +15001,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15198,7 +15207,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15610,7 +15619,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16103,7 +16112,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16718,7 +16727,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -16846,7 +16855,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17258,7 +17267,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17542,7 +17551,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -18082,7 +18091,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18700,7 +18709,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19112,7 +19121,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19524,7 +19533,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19602,7 +19611,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ90">
         <v>0.14</v>
@@ -19730,7 +19739,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19811,7 +19820,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR91">
         <v>1.32</v>
@@ -19936,7 +19945,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20554,7 +20563,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21378,7 +21387,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21665,7 +21674,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ100">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21790,7 +21799,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21868,7 +21877,7 @@
         <v>0.8</v>
       </c>
       <c r="AP101">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1.25</v>
@@ -21996,7 +22005,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22202,7 +22211,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22408,7 +22417,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22820,7 +22829,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23026,7 +23035,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23232,7 +23241,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23850,7 +23859,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -23931,7 +23940,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ111">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24134,7 +24143,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ112">
         <v>1.25</v>
@@ -24674,7 +24683,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24880,7 +24889,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24961,7 +24970,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25910,7 +25919,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26116,7 +26125,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26322,7 +26331,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26528,7 +26537,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26734,7 +26743,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26940,7 +26949,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27021,7 +27030,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ126">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR126">
         <v>1.31</v>
@@ -27558,7 +27567,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27764,7 +27773,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27970,7 +27979,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28176,7 +28185,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29206,7 +29215,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29412,7 +29421,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29824,7 +29833,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30523,7 +30532,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ143">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR143">
         <v>1.48</v>
@@ -30648,7 +30657,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31678,7 +31687,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32090,7 +32099,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32296,7 +32305,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32914,7 +32923,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33071,6 +33080,418 @@
       </c>
       <c r="BP155">
         <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7778211</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45791.29166666666</v>
+      </c>
+      <c r="F156">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>75</v>
+      </c>
+      <c r="H156" t="s">
+        <v>81</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>91</v>
+      </c>
+      <c r="P156" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q156">
+        <v>3.2</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>3.2</v>
+      </c>
+      <c r="T156">
+        <v>1.42</v>
+      </c>
+      <c r="U156">
+        <v>2.65</v>
+      </c>
+      <c r="V156">
+        <v>2.9</v>
+      </c>
+      <c r="W156">
+        <v>1.36</v>
+      </c>
+      <c r="X156">
+        <v>8</v>
+      </c>
+      <c r="Y156">
+        <v>1.07</v>
+      </c>
+      <c r="Z156">
+        <v>2.55</v>
+      </c>
+      <c r="AA156">
+        <v>2.94</v>
+      </c>
+      <c r="AB156">
+        <v>2.58</v>
+      </c>
+      <c r="AC156">
+        <v>1.07</v>
+      </c>
+      <c r="AD156">
+        <v>8</v>
+      </c>
+      <c r="AE156">
+        <v>1.36</v>
+      </c>
+      <c r="AF156">
+        <v>3.1</v>
+      </c>
+      <c r="AG156">
+        <v>1.95</v>
+      </c>
+      <c r="AH156">
+        <v>1.75</v>
+      </c>
+      <c r="AI156">
+        <v>1.77</v>
+      </c>
+      <c r="AJ156">
+        <v>1.91</v>
+      </c>
+      <c r="AK156">
+        <v>1.45</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.45</v>
+      </c>
+      <c r="AN156">
+        <v>1.17</v>
+      </c>
+      <c r="AO156">
+        <v>2.14</v>
+      </c>
+      <c r="AP156">
+        <v>1</v>
+      </c>
+      <c r="AQ156">
+        <v>2.25</v>
+      </c>
+      <c r="AR156">
+        <v>1.35</v>
+      </c>
+      <c r="AS156">
+        <v>1.32</v>
+      </c>
+      <c r="AT156">
+        <v>2.67</v>
+      </c>
+      <c r="AU156">
+        <v>3</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>16</v>
+      </c>
+      <c r="AY156">
+        <v>16</v>
+      </c>
+      <c r="AZ156">
+        <v>33</v>
+      </c>
+      <c r="BA156">
+        <v>9</v>
+      </c>
+      <c r="BB156">
+        <v>3</v>
+      </c>
+      <c r="BC156">
+        <v>12</v>
+      </c>
+      <c r="BD156">
+        <v>2.05</v>
+      </c>
+      <c r="BE156">
+        <v>6.5</v>
+      </c>
+      <c r="BF156">
+        <v>1.93</v>
+      </c>
+      <c r="BG156">
+        <v>1.28</v>
+      </c>
+      <c r="BH156">
+        <v>3.15</v>
+      </c>
+      <c r="BI156">
+        <v>1.49</v>
+      </c>
+      <c r="BJ156">
+        <v>2.33</v>
+      </c>
+      <c r="BK156">
+        <v>1.81</v>
+      </c>
+      <c r="BL156">
+        <v>1.83</v>
+      </c>
+      <c r="BM156">
+        <v>2.28</v>
+      </c>
+      <c r="BN156">
+        <v>1.52</v>
+      </c>
+      <c r="BO156">
+        <v>2.95</v>
+      </c>
+      <c r="BP156">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7778210</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45791.29166666666</v>
+      </c>
+      <c r="F157">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s">
+        <v>73</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>193</v>
+      </c>
+      <c r="P157" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q157">
+        <v>2.5</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>4.33</v>
+      </c>
+      <c r="T157">
+        <v>1.42</v>
+      </c>
+      <c r="U157">
+        <v>2.62</v>
+      </c>
+      <c r="V157">
+        <v>2.95</v>
+      </c>
+      <c r="W157">
+        <v>1.35</v>
+      </c>
+      <c r="X157">
+        <v>8.5</v>
+      </c>
+      <c r="Y157">
+        <v>1.07</v>
+      </c>
+      <c r="Z157">
+        <v>1.86</v>
+      </c>
+      <c r="AA157">
+        <v>3.12</v>
+      </c>
+      <c r="AB157">
+        <v>3.84</v>
+      </c>
+      <c r="AC157">
+        <v>1.07</v>
+      </c>
+      <c r="AD157">
+        <v>8</v>
+      </c>
+      <c r="AE157">
+        <v>1.38</v>
+      </c>
+      <c r="AF157">
+        <v>3</v>
+      </c>
+      <c r="AG157">
+        <v>2.1</v>
+      </c>
+      <c r="AH157">
+        <v>1.6</v>
+      </c>
+      <c r="AI157">
+        <v>1.85</v>
+      </c>
+      <c r="AJ157">
+        <v>1.8</v>
+      </c>
+      <c r="AK157">
+        <v>1.22</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.83</v>
+      </c>
+      <c r="AN157">
+        <v>1.6</v>
+      </c>
+      <c r="AO157">
+        <v>0.33</v>
+      </c>
+      <c r="AP157">
+        <v>1.83</v>
+      </c>
+      <c r="AQ157">
+        <v>0.29</v>
+      </c>
+      <c r="AR157">
+        <v>1.64</v>
+      </c>
+      <c r="AS157">
+        <v>1.2</v>
+      </c>
+      <c r="AT157">
+        <v>2.84</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>6</v>
+      </c>
+      <c r="AW157">
+        <v>13</v>
+      </c>
+      <c r="AX157">
+        <v>6</v>
+      </c>
+      <c r="AY157">
+        <v>22</v>
+      </c>
+      <c r="AZ157">
+        <v>12</v>
+      </c>
+      <c r="BA157">
+        <v>4</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>1.68</v>
+      </c>
+      <c r="BE157">
+        <v>6.5</v>
+      </c>
+      <c r="BF157">
+        <v>2.43</v>
+      </c>
+      <c r="BG157">
+        <v>1.35</v>
+      </c>
+      <c r="BH157">
+        <v>2.8</v>
+      </c>
+      <c r="BI157">
+        <v>1.61</v>
+      </c>
+      <c r="BJ157">
+        <v>2.1</v>
+      </c>
+      <c r="BK157">
+        <v>1.98</v>
+      </c>
+      <c r="BL157">
+        <v>1.68</v>
+      </c>
+      <c r="BM157">
+        <v>2.55</v>
+      </c>
+      <c r="BN157">
+        <v>1.42</v>
+      </c>
+      <c r="BO157">
+        <v>3.35</v>
+      </c>
+      <c r="BP157">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,18 @@
     <t>['33', '83']</t>
   </si>
   <si>
+    <t>['50', '59', '90+6']</t>
+  </si>
+  <si>
+    <t>['4', '15', '45+2']</t>
+  </si>
+  <si>
+    <t>['87', '89']</t>
+  </si>
+  <si>
+    <t>['32', '80', '90+3']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -785,6 +797,15 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['31', '67', '80']</t>
+  </si>
+  <si>
+    <t>['56', '73']</t>
+  </si>
+  <si>
+    <t>['9', '68']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1426,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1689,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1895,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2104,7 +2125,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2310,7 +2331,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2513,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -2722,7 +2743,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2925,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>1.71</v>
@@ -3053,7 +3074,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3131,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>1.43</v>
@@ -3259,7 +3280,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3340,7 +3361,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3465,7 +3486,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3671,7 +3692,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4289,7 +4310,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4495,7 +4516,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4701,7 +4722,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5191,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5397,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ21">
         <v>0.14</v>
@@ -5525,7 +5546,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5603,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5812,7 +5833,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
         <v>1.24</v>
@@ -5937,7 +5958,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6015,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6427,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6555,7 +6576,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6633,7 +6654,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6761,7 +6782,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6839,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>0.8</v>
@@ -7048,7 +7069,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
         <v>1.17</v>
@@ -7173,7 +7194,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7457,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ31">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>1.14</v>
@@ -7585,7 +7606,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7663,7 +7684,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ32">
         <v>1.22</v>
@@ -7869,10 +7890,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.86</v>
@@ -8078,7 +8099,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ34">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR34">
         <v>1.99</v>
@@ -8203,7 +8224,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8281,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8409,7 +8430,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8490,7 +8511,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8615,7 +8636,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8821,7 +8842,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9108,7 +9129,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9311,10 +9332,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR40">
         <v>1.25</v>
@@ -9439,7 +9460,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9517,10 +9538,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9723,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -9851,7 +9872,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9932,7 +9953,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.74</v>
@@ -10138,7 +10159,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
         <v>1.53</v>
@@ -10469,7 +10490,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10675,7 +10696,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10756,7 +10777,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR47">
         <v>1.63</v>
@@ -10881,7 +10902,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11577,7 +11598,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ51">
         <v>1.14</v>
@@ -11705,7 +11726,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11786,7 +11807,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -11989,10 +12010,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.12</v>
@@ -12117,7 +12138,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12198,7 +12219,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR54">
         <v>1.44</v>
@@ -12401,10 +12422,10 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.24</v>
@@ -12735,7 +12756,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12813,10 +12834,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.46</v>
@@ -13019,7 +13040,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13147,7 +13168,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13225,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13353,7 +13374,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14052,7 +14073,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14177,7 +14198,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14258,7 +14279,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14464,7 +14485,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ65">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.08</v>
@@ -14873,7 +14894,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -15001,7 +15022,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15079,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
         <v>1.89</v>
@@ -15207,7 +15228,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15491,7 +15512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
         <v>1.71</v>
@@ -15619,7 +15640,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16112,7 +16133,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16855,7 +16876,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16936,7 +16957,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -17267,7 +17288,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17345,10 +17366,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.78</v>
@@ -17551,10 +17572,10 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR80">
         <v>1.25</v>
@@ -17760,7 +17781,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -17963,7 +17984,7 @@
         <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18091,7 +18112,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18169,7 +18190,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18378,7 +18399,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ84">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
         <v>1.19</v>
@@ -18581,7 +18602,7 @@
         <v>0.25</v>
       </c>
       <c r="AP85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85">
         <v>1.14</v>
@@ -18709,7 +18730,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18787,10 +18808,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ86">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR86">
         <v>1.65</v>
@@ -18996,7 +19017,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR87">
         <v>1.34</v>
@@ -19121,7 +19142,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19199,10 +19220,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR88">
         <v>1.6</v>
@@ -19405,7 +19426,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89">
         <v>1.25</v>
@@ -19533,7 +19554,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19739,7 +19760,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19820,7 +19841,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>1.32</v>
@@ -19945,7 +19966,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20023,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
         <v>0.63</v>
@@ -20438,7 +20459,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR94">
         <v>1.55</v>
@@ -20563,7 +20584,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20641,7 +20662,7 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>0.14</v>
@@ -21387,7 +21408,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21465,7 +21486,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21674,7 +21695,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ100">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21799,7 +21820,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21877,10 +21898,10 @@
         <v>0.8</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -22005,7 +22026,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22083,7 +22104,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22211,7 +22232,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22289,10 +22310,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22417,7 +22438,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22498,7 +22519,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ104">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR104">
         <v>1.53</v>
@@ -22704,7 +22725,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR105">
         <v>1.2</v>
@@ -22829,7 +22850,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23035,7 +23056,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23241,7 +23262,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23525,7 +23546,7 @@
         <v>2.6</v>
       </c>
       <c r="AP109">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
         <v>1.89</v>
@@ -23734,7 +23755,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>2.07</v>
@@ -23859,7 +23880,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -23937,10 +23958,10 @@
         <v>1.8</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24146,7 +24167,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>1.78</v>
@@ -24349,7 +24370,7 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ113">
         <v>0.14</v>
@@ -24683,7 +24704,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24761,7 +24782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
         <v>1.22</v>
@@ -24889,7 +24910,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24970,7 +24991,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25173,7 +25194,7 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
         <v>0.63</v>
@@ -25379,10 +25400,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR118">
         <v>1.72</v>
@@ -25585,7 +25606,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
         <v>1.43</v>
@@ -25794,7 +25815,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR120">
         <v>1.31</v>
@@ -25919,7 +25940,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26125,7 +26146,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26206,7 +26227,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.41</v>
@@ -26331,7 +26352,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26409,7 +26430,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ123">
         <v>1.14</v>
@@ -26537,7 +26558,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26743,7 +26764,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26824,7 +26845,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ125">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.53</v>
@@ -26949,7 +26970,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27030,7 +27051,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR126">
         <v>1.31</v>
@@ -27236,7 +27257,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR127">
         <v>1.65</v>
@@ -27439,7 +27460,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
         <v>1.25</v>
@@ -27567,7 +27588,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27773,7 +27794,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27851,7 +27872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
         <v>1.25</v>
@@ -27979,7 +28000,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28060,7 +28081,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR131">
         <v>1.34</v>
@@ -28185,7 +28206,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28266,7 +28287,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ132">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.52</v>
@@ -28469,7 +28490,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ133">
         <v>0.63</v>
@@ -28881,7 +28902,7 @@
         <v>2.29</v>
       </c>
       <c r="AP135">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ135">
         <v>1.89</v>
@@ -29087,10 +29108,10 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR136">
         <v>1.42</v>
@@ -29215,7 +29236,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29421,7 +29442,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29499,7 +29520,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ138">
         <v>1.25</v>
@@ -29705,7 +29726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
         <v>1.71</v>
@@ -29833,7 +29854,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -29911,10 +29932,10 @@
         <v>0.71</v>
       </c>
       <c r="AP140">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30326,7 +30347,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ142">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.48</v>
@@ -30532,7 +30553,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ143">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR143">
         <v>1.48</v>
@@ -30657,7 +30678,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30735,10 +30756,10 @@
         <v>1.63</v>
       </c>
       <c r="AP144">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ144">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
@@ -30941,7 +30962,7 @@
         <v>0.8</v>
       </c>
       <c r="AP145">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ145">
         <v>1.43</v>
@@ -31687,7 +31708,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31971,7 +31992,7 @@
         <v>1.43</v>
       </c>
       <c r="AP150">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ150">
         <v>1.25</v>
@@ -32099,7 +32120,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32180,7 +32201,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR151">
         <v>1.61</v>
@@ -32305,7 +32326,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32923,7 +32944,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33129,7 +33150,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33207,10 +33228,10 @@
         <v>2.14</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33335,7 +33356,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33416,7 +33437,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ157">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR157">
         <v>1.64</v>
@@ -33492,6 +33513,1654 @@
       </c>
       <c r="BP157">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7778237</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F158">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>83</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>91</v>
+      </c>
+      <c r="P158" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q158">
+        <v>2.88</v>
+      </c>
+      <c r="R158">
+        <v>2.25</v>
+      </c>
+      <c r="S158">
+        <v>3.4</v>
+      </c>
+      <c r="T158">
+        <v>1.33</v>
+      </c>
+      <c r="U158">
+        <v>3.25</v>
+      </c>
+      <c r="V158">
+        <v>2.63</v>
+      </c>
+      <c r="W158">
+        <v>1.44</v>
+      </c>
+      <c r="X158">
+        <v>6.5</v>
+      </c>
+      <c r="Y158">
+        <v>1.11</v>
+      </c>
+      <c r="Z158">
+        <v>2.17</v>
+      </c>
+      <c r="AA158">
+        <v>3.25</v>
+      </c>
+      <c r="AB158">
+        <v>2.85</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>8.9</v>
+      </c>
+      <c r="AE158">
+        <v>1.25</v>
+      </c>
+      <c r="AF158">
+        <v>3.4</v>
+      </c>
+      <c r="AG158">
+        <v>1.77</v>
+      </c>
+      <c r="AH158">
+        <v>1.93</v>
+      </c>
+      <c r="AI158">
+        <v>1.62</v>
+      </c>
+      <c r="AJ158">
+        <v>2.2</v>
+      </c>
+      <c r="AK158">
+        <v>1.43</v>
+      </c>
+      <c r="AL158">
+        <v>1.34</v>
+      </c>
+      <c r="AM158">
+        <v>1.52</v>
+      </c>
+      <c r="AN158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
+        <v>1.78</v>
+      </c>
+      <c r="AP158">
+        <v>0.88</v>
+      </c>
+      <c r="AQ158">
+        <v>1.9</v>
+      </c>
+      <c r="AR158">
+        <v>1.35</v>
+      </c>
+      <c r="AS158">
+        <v>1.37</v>
+      </c>
+      <c r="AT158">
+        <v>2.72</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>7</v>
+      </c>
+      <c r="AW158">
+        <v>10</v>
+      </c>
+      <c r="AX158">
+        <v>7</v>
+      </c>
+      <c r="AY158">
+        <v>19</v>
+      </c>
+      <c r="AZ158">
+        <v>17</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>2</v>
+      </c>
+      <c r="BC158">
+        <v>7</v>
+      </c>
+      <c r="BD158">
+        <v>1.87</v>
+      </c>
+      <c r="BE158">
+        <v>8.6</v>
+      </c>
+      <c r="BF158">
+        <v>2.26</v>
+      </c>
+      <c r="BG158">
+        <v>1.18</v>
+      </c>
+      <c r="BH158">
+        <v>3.88</v>
+      </c>
+      <c r="BI158">
+        <v>1.38</v>
+      </c>
+      <c r="BJ158">
+        <v>2.71</v>
+      </c>
+      <c r="BK158">
+        <v>1.69</v>
+      </c>
+      <c r="BL158">
+        <v>2.04</v>
+      </c>
+      <c r="BM158">
+        <v>2.11</v>
+      </c>
+      <c r="BN158">
+        <v>1.62</v>
+      </c>
+      <c r="BO158">
+        <v>2.74</v>
+      </c>
+      <c r="BP158">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7778239</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F159">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>72</v>
+      </c>
+      <c r="H159" t="s">
+        <v>70</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>194</v>
+      </c>
+      <c r="P159" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q159">
+        <v>2.6</v>
+      </c>
+      <c r="R159">
+        <v>2.1</v>
+      </c>
+      <c r="S159">
+        <v>4.75</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.63</v>
+      </c>
+      <c r="V159">
+        <v>3.25</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>9</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>1.85</v>
+      </c>
+      <c r="AA159">
+        <v>3.16</v>
+      </c>
+      <c r="AB159">
+        <v>3.79</v>
+      </c>
+      <c r="AC159">
+        <v>1.07</v>
+      </c>
+      <c r="AD159">
+        <v>8</v>
+      </c>
+      <c r="AE159">
+        <v>1.38</v>
+      </c>
+      <c r="AF159">
+        <v>3</v>
+      </c>
+      <c r="AG159">
+        <v>2.05</v>
+      </c>
+      <c r="AH159">
+        <v>1.65</v>
+      </c>
+      <c r="AI159">
+        <v>1.95</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.22</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.85</v>
+      </c>
+      <c r="AN159">
+        <v>1.38</v>
+      </c>
+      <c r="AO159">
+        <v>1</v>
+      </c>
+      <c r="AP159">
+        <v>1.56</v>
+      </c>
+      <c r="AQ159">
+        <v>0.89</v>
+      </c>
+      <c r="AR159">
+        <v>1.74</v>
+      </c>
+      <c r="AS159">
+        <v>1.57</v>
+      </c>
+      <c r="AT159">
+        <v>3.31</v>
+      </c>
+      <c r="AU159">
+        <v>11</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
+      <c r="AY159">
+        <v>17</v>
+      </c>
+      <c r="AZ159">
+        <v>15</v>
+      </c>
+      <c r="BA159">
+        <v>8</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>9</v>
+      </c>
+      <c r="BD159">
+        <v>1.47</v>
+      </c>
+      <c r="BE159">
+        <v>7</v>
+      </c>
+      <c r="BF159">
+        <v>2.95</v>
+      </c>
+      <c r="BG159">
+        <v>1.28</v>
+      </c>
+      <c r="BH159">
+        <v>3.1</v>
+      </c>
+      <c r="BI159">
+        <v>1.49</v>
+      </c>
+      <c r="BJ159">
+        <v>2.33</v>
+      </c>
+      <c r="BK159">
+        <v>1.8</v>
+      </c>
+      <c r="BL159">
+        <v>1.85</v>
+      </c>
+      <c r="BM159">
+        <v>2.25</v>
+      </c>
+      <c r="BN159">
+        <v>1.52</v>
+      </c>
+      <c r="BO159">
+        <v>2.9</v>
+      </c>
+      <c r="BP159">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7778235</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F160">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>78</v>
+      </c>
+      <c r="H160" t="s">
+        <v>81</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>195</v>
+      </c>
+      <c r="P160" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q160">
+        <v>3</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
+        <v>4.33</v>
+      </c>
+      <c r="T160">
+        <v>1.53</v>
+      </c>
+      <c r="U160">
+        <v>2.38</v>
+      </c>
+      <c r="V160">
+        <v>3.75</v>
+      </c>
+      <c r="W160">
+        <v>1.25</v>
+      </c>
+      <c r="X160">
+        <v>11</v>
+      </c>
+      <c r="Y160">
+        <v>1.05</v>
+      </c>
+      <c r="Z160">
+        <v>2.12</v>
+      </c>
+      <c r="AA160">
+        <v>2.96</v>
+      </c>
+      <c r="AB160">
+        <v>3.23</v>
+      </c>
+      <c r="AC160">
+        <v>1.07</v>
+      </c>
+      <c r="AD160">
+        <v>6.25</v>
+      </c>
+      <c r="AE160">
+        <v>1.48</v>
+      </c>
+      <c r="AF160">
+        <v>2.37</v>
+      </c>
+      <c r="AG160">
+        <v>2.6</v>
+      </c>
+      <c r="AH160">
+        <v>1.46</v>
+      </c>
+      <c r="AI160">
+        <v>2.1</v>
+      </c>
+      <c r="AJ160">
+        <v>1.67</v>
+      </c>
+      <c r="AK160">
+        <v>1.36</v>
+      </c>
+      <c r="AL160">
+        <v>1.37</v>
+      </c>
+      <c r="AM160">
+        <v>1.56</v>
+      </c>
+      <c r="AN160">
+        <v>0.57</v>
+      </c>
+      <c r="AO160">
+        <v>2.25</v>
+      </c>
+      <c r="AP160">
+        <v>0.88</v>
+      </c>
+      <c r="AQ160">
+        <v>2</v>
+      </c>
+      <c r="AR160">
+        <v>1.42</v>
+      </c>
+      <c r="AS160">
+        <v>1.41</v>
+      </c>
+      <c r="AT160">
+        <v>2.83</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>4</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>14</v>
+      </c>
+      <c r="AZ160">
+        <v>9</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>7</v>
+      </c>
+      <c r="BC160">
+        <v>9</v>
+      </c>
+      <c r="BD160">
+        <v>1.75</v>
+      </c>
+      <c r="BE160">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF160">
+        <v>2.5</v>
+      </c>
+      <c r="BG160">
+        <v>1.32</v>
+      </c>
+      <c r="BH160">
+        <v>2.88</v>
+      </c>
+      <c r="BI160">
+        <v>1.62</v>
+      </c>
+      <c r="BJ160">
+        <v>2.11</v>
+      </c>
+      <c r="BK160">
+        <v>2.07</v>
+      </c>
+      <c r="BL160">
+        <v>1.67</v>
+      </c>
+      <c r="BM160">
+        <v>2.71</v>
+      </c>
+      <c r="BN160">
+        <v>1.38</v>
+      </c>
+      <c r="BO160">
+        <v>3.78</v>
+      </c>
+      <c r="BP160">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7778242</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>87</v>
+      </c>
+      <c r="H161" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>196</v>
+      </c>
+      <c r="P161" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q161">
+        <v>2.4</v>
+      </c>
+      <c r="R161">
+        <v>2.05</v>
+      </c>
+      <c r="S161">
+        <v>6</v>
+      </c>
+      <c r="T161">
+        <v>1.5</v>
+      </c>
+      <c r="U161">
+        <v>2.5</v>
+      </c>
+      <c r="V161">
+        <v>3.5</v>
+      </c>
+      <c r="W161">
+        <v>1.29</v>
+      </c>
+      <c r="X161">
+        <v>10</v>
+      </c>
+      <c r="Y161">
+        <v>1.06</v>
+      </c>
+      <c r="Z161">
+        <v>1.67</v>
+      </c>
+      <c r="AA161">
+        <v>3.23</v>
+      </c>
+      <c r="AB161">
+        <v>4.75</v>
+      </c>
+      <c r="AC161">
+        <v>1.09</v>
+      </c>
+      <c r="AD161">
+        <v>7</v>
+      </c>
+      <c r="AE161">
+        <v>1.45</v>
+      </c>
+      <c r="AF161">
+        <v>2.7</v>
+      </c>
+      <c r="AG161">
+        <v>2.25</v>
+      </c>
+      <c r="AH161">
+        <v>1.53</v>
+      </c>
+      <c r="AI161">
+        <v>2.2</v>
+      </c>
+      <c r="AJ161">
+        <v>1.62</v>
+      </c>
+      <c r="AK161">
+        <v>1.15</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>2.05</v>
+      </c>
+      <c r="AN161">
+        <v>2</v>
+      </c>
+      <c r="AO161">
+        <v>1.25</v>
+      </c>
+      <c r="AP161">
+        <v>2.11</v>
+      </c>
+      <c r="AQ161">
+        <v>1.11</v>
+      </c>
+      <c r="AR161">
+        <v>1.68</v>
+      </c>
+      <c r="AS161">
+        <v>1.17</v>
+      </c>
+      <c r="AT161">
+        <v>2.85</v>
+      </c>
+      <c r="AU161">
+        <v>4</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>12</v>
+      </c>
+      <c r="AX161">
+        <v>1</v>
+      </c>
+      <c r="AY161">
+        <v>20</v>
+      </c>
+      <c r="AZ161">
+        <v>5</v>
+      </c>
+      <c r="BA161">
+        <v>8</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>1.4</v>
+      </c>
+      <c r="BE161">
+        <v>7</v>
+      </c>
+      <c r="BF161">
+        <v>3.3</v>
+      </c>
+      <c r="BG161">
+        <v>1.3</v>
+      </c>
+      <c r="BH161">
+        <v>3</v>
+      </c>
+      <c r="BI161">
+        <v>1.54</v>
+      </c>
+      <c r="BJ161">
+        <v>2.23</v>
+      </c>
+      <c r="BK161">
+        <v>1.89</v>
+      </c>
+      <c r="BL161">
+        <v>1.75</v>
+      </c>
+      <c r="BM161">
+        <v>2.38</v>
+      </c>
+      <c r="BN161">
+        <v>1.47</v>
+      </c>
+      <c r="BO161">
+        <v>3.05</v>
+      </c>
+      <c r="BP161">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7778241</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45794.10416666666</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>71</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>124</v>
+      </c>
+      <c r="P162" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q162">
+        <v>3.4</v>
+      </c>
+      <c r="R162">
+        <v>1.91</v>
+      </c>
+      <c r="S162">
+        <v>4</v>
+      </c>
+      <c r="T162">
+        <v>1.62</v>
+      </c>
+      <c r="U162">
+        <v>2.2</v>
+      </c>
+      <c r="V162">
+        <v>4</v>
+      </c>
+      <c r="W162">
+        <v>1.22</v>
+      </c>
+      <c r="X162">
+        <v>13</v>
+      </c>
+      <c r="Y162">
+        <v>1.04</v>
+      </c>
+      <c r="Z162">
+        <v>2.26</v>
+      </c>
+      <c r="AA162">
+        <v>2.82</v>
+      </c>
+      <c r="AB162">
+        <v>3.11</v>
+      </c>
+      <c r="AC162">
+        <v>1.12</v>
+      </c>
+      <c r="AD162">
+        <v>6</v>
+      </c>
+      <c r="AE162">
+        <v>1.55</v>
+      </c>
+      <c r="AF162">
+        <v>2.2</v>
+      </c>
+      <c r="AG162">
+        <v>2.86</v>
+      </c>
+      <c r="AH162">
+        <v>1.39</v>
+      </c>
+      <c r="AI162">
+        <v>2.25</v>
+      </c>
+      <c r="AJ162">
+        <v>1.57</v>
+      </c>
+      <c r="AK162">
+        <v>1.33</v>
+      </c>
+      <c r="AL162">
+        <v>1.33</v>
+      </c>
+      <c r="AM162">
+        <v>1.55</v>
+      </c>
+      <c r="AN162">
+        <v>1.38</v>
+      </c>
+      <c r="AO162">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP162">
+        <v>1.33</v>
+      </c>
+      <c r="AQ162">
+        <v>0.6</v>
+      </c>
+      <c r="AR162">
+        <v>1.61</v>
+      </c>
+      <c r="AS162">
+        <v>1.21</v>
+      </c>
+      <c r="AT162">
+        <v>2.82</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>5</v>
+      </c>
+      <c r="AW162">
+        <v>4</v>
+      </c>
+      <c r="AX162">
+        <v>10</v>
+      </c>
+      <c r="AY162">
+        <v>9</v>
+      </c>
+      <c r="AZ162">
+        <v>16</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.81</v>
+      </c>
+      <c r="BE162">
+        <v>6.5</v>
+      </c>
+      <c r="BF162">
+        <v>2.18</v>
+      </c>
+      <c r="BG162">
+        <v>1.38</v>
+      </c>
+      <c r="BH162">
+        <v>2.65</v>
+      </c>
+      <c r="BI162">
+        <v>1.65</v>
+      </c>
+      <c r="BJ162">
+        <v>2.02</v>
+      </c>
+      <c r="BK162">
+        <v>2.06</v>
+      </c>
+      <c r="BL162">
+        <v>1.63</v>
+      </c>
+      <c r="BM162">
+        <v>2.65</v>
+      </c>
+      <c r="BN162">
+        <v>1.4</v>
+      </c>
+      <c r="BO162">
+        <v>3.45</v>
+      </c>
+      <c r="BP162">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7778233</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45794.125</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>86</v>
+      </c>
+      <c r="H163" t="s">
+        <v>82</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>163</v>
+      </c>
+      <c r="P163" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q163">
+        <v>2.63</v>
+      </c>
+      <c r="R163">
+        <v>2.1</v>
+      </c>
+      <c r="S163">
+        <v>4.33</v>
+      </c>
+      <c r="T163">
+        <v>1.44</v>
+      </c>
+      <c r="U163">
+        <v>2.63</v>
+      </c>
+      <c r="V163">
+        <v>3.25</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>9</v>
+      </c>
+      <c r="Y163">
+        <v>1.07</v>
+      </c>
+      <c r="Z163">
+        <v>2.17</v>
+      </c>
+      <c r="AA163">
+        <v>2.94</v>
+      </c>
+      <c r="AB163">
+        <v>3.12</v>
+      </c>
+      <c r="AC163">
+        <v>1.07</v>
+      </c>
+      <c r="AD163">
+        <v>8</v>
+      </c>
+      <c r="AE163">
+        <v>1.4</v>
+      </c>
+      <c r="AF163">
+        <v>2.9</v>
+      </c>
+      <c r="AG163">
+        <v>2.1</v>
+      </c>
+      <c r="AH163">
+        <v>1.61</v>
+      </c>
+      <c r="AI163">
+        <v>1.95</v>
+      </c>
+      <c r="AJ163">
+        <v>1.8</v>
+      </c>
+      <c r="AK163">
+        <v>1.25</v>
+      </c>
+      <c r="AL163">
+        <v>1.28</v>
+      </c>
+      <c r="AM163">
+        <v>1.75</v>
+      </c>
+      <c r="AN163">
+        <v>2.44</v>
+      </c>
+      <c r="AO163">
+        <v>1.25</v>
+      </c>
+      <c r="AP163">
+        <v>2.5</v>
+      </c>
+      <c r="AQ163">
+        <v>1.11</v>
+      </c>
+      <c r="AR163">
+        <v>1.63</v>
+      </c>
+      <c r="AS163">
+        <v>1.51</v>
+      </c>
+      <c r="AT163">
+        <v>3.14</v>
+      </c>
+      <c r="AU163">
+        <v>4</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>8</v>
+      </c>
+      <c r="AX163">
+        <v>16</v>
+      </c>
+      <c r="AY163">
+        <v>13</v>
+      </c>
+      <c r="AZ163">
+        <v>23</v>
+      </c>
+      <c r="BA163">
+        <v>1</v>
+      </c>
+      <c r="BB163">
+        <v>4</v>
+      </c>
+      <c r="BC163">
+        <v>5</v>
+      </c>
+      <c r="BD163">
+        <v>1.58</v>
+      </c>
+      <c r="BE163">
+        <v>6.75</v>
+      </c>
+      <c r="BF163">
+        <v>2.55</v>
+      </c>
+      <c r="BG163">
+        <v>1.3</v>
+      </c>
+      <c r="BH163">
+        <v>3</v>
+      </c>
+      <c r="BI163">
+        <v>1.53</v>
+      </c>
+      <c r="BJ163">
+        <v>2.25</v>
+      </c>
+      <c r="BK163">
+        <v>1.87</v>
+      </c>
+      <c r="BL163">
+        <v>1.78</v>
+      </c>
+      <c r="BM163">
+        <v>2.35</v>
+      </c>
+      <c r="BN163">
+        <v>1.49</v>
+      </c>
+      <c r="BO163">
+        <v>3.05</v>
+      </c>
+      <c r="BP163">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7778238</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45794.125</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>91</v>
+      </c>
+      <c r="P164" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q164">
+        <v>3.5</v>
+      </c>
+      <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>3.6</v>
+      </c>
+      <c r="T164">
+        <v>1.53</v>
+      </c>
+      <c r="U164">
+        <v>2.38</v>
+      </c>
+      <c r="V164">
+        <v>3.75</v>
+      </c>
+      <c r="W164">
+        <v>1.25</v>
+      </c>
+      <c r="X164">
+        <v>11</v>
+      </c>
+      <c r="Y164">
+        <v>1.05</v>
+      </c>
+      <c r="Z164">
+        <v>2.58</v>
+      </c>
+      <c r="AA164">
+        <v>2.76</v>
+      </c>
+      <c r="AB164">
+        <v>2.71</v>
+      </c>
+      <c r="AC164">
+        <v>1.08</v>
+      </c>
+      <c r="AD164">
+        <v>5.55</v>
+      </c>
+      <c r="AE164">
+        <v>1.57</v>
+      </c>
+      <c r="AF164">
+        <v>2.4</v>
+      </c>
+      <c r="AG164">
+        <v>2.37</v>
+      </c>
+      <c r="AH164">
+        <v>1.48</v>
+      </c>
+      <c r="AI164">
+        <v>2.05</v>
+      </c>
+      <c r="AJ164">
+        <v>1.7</v>
+      </c>
+      <c r="AK164">
+        <v>1.4</v>
+      </c>
+      <c r="AL164">
+        <v>1.41</v>
+      </c>
+      <c r="AM164">
+        <v>1.48</v>
+      </c>
+      <c r="AN164">
+        <v>1.43</v>
+      </c>
+      <c r="AO164">
+        <v>0.29</v>
+      </c>
+      <c r="AP164">
+        <v>1.25</v>
+      </c>
+      <c r="AQ164">
+        <v>0.63</v>
+      </c>
+      <c r="AR164">
+        <v>1.47</v>
+      </c>
+      <c r="AS164">
+        <v>1.23</v>
+      </c>
+      <c r="AT164">
+        <v>2.7</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>5</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>5</v>
+      </c>
+      <c r="AY164">
+        <v>11</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>8</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>11</v>
+      </c>
+      <c r="BD164">
+        <v>2.08</v>
+      </c>
+      <c r="BE164">
+        <v>6.25</v>
+      </c>
+      <c r="BF164">
+        <v>2.21</v>
+      </c>
+      <c r="BG164">
+        <v>1.36</v>
+      </c>
+      <c r="BH164">
+        <v>2.79</v>
+      </c>
+      <c r="BI164">
+        <v>1.67</v>
+      </c>
+      <c r="BJ164">
+        <v>2.08</v>
+      </c>
+      <c r="BK164">
+        <v>2.11</v>
+      </c>
+      <c r="BL164">
+        <v>1.62</v>
+      </c>
+      <c r="BM164">
+        <v>2.78</v>
+      </c>
+      <c r="BN164">
+        <v>1.34</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7778234</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45794.16666666666</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>89</v>
+      </c>
+      <c r="H165" t="s">
+        <v>85</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165" t="s">
+        <v>197</v>
+      </c>
+      <c r="P165" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q165">
+        <v>2.6</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>4.75</v>
+      </c>
+      <c r="T165">
+        <v>1.44</v>
+      </c>
+      <c r="U165">
+        <v>2.63</v>
+      </c>
+      <c r="V165">
+        <v>3.25</v>
+      </c>
+      <c r="W165">
+        <v>1.33</v>
+      </c>
+      <c r="X165">
+        <v>9</v>
+      </c>
+      <c r="Y165">
+        <v>1.07</v>
+      </c>
+      <c r="Z165">
+        <v>1.71</v>
+      </c>
+      <c r="AA165">
+        <v>3.35</v>
+      </c>
+      <c r="AB165">
+        <v>4.3</v>
+      </c>
+      <c r="AC165">
+        <v>1.07</v>
+      </c>
+      <c r="AD165">
+        <v>8</v>
+      </c>
+      <c r="AE165">
+        <v>1.38</v>
+      </c>
+      <c r="AF165">
+        <v>3</v>
+      </c>
+      <c r="AG165">
+        <v>2.05</v>
+      </c>
+      <c r="AH165">
+        <v>1.61</v>
+      </c>
+      <c r="AI165">
+        <v>1.95</v>
+      </c>
+      <c r="AJ165">
+        <v>1.8</v>
+      </c>
+      <c r="AK165">
+        <v>1.22</v>
+      </c>
+      <c r="AL165">
+        <v>1.25</v>
+      </c>
+      <c r="AM165">
+        <v>1.85</v>
+      </c>
+      <c r="AN165">
+        <v>2.25</v>
+      </c>
+      <c r="AO165">
+        <v>1.14</v>
+      </c>
+      <c r="AP165">
+        <v>2.33</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>1.36</v>
+      </c>
+      <c r="AS165">
+        <v>1.22</v>
+      </c>
+      <c r="AT165">
+        <v>2.58</v>
+      </c>
+      <c r="AU165">
+        <v>9</v>
+      </c>
+      <c r="AV165">
+        <v>5</v>
+      </c>
+      <c r="AW165">
+        <v>12</v>
+      </c>
+      <c r="AX165">
+        <v>6</v>
+      </c>
+      <c r="AY165">
+        <v>25</v>
+      </c>
+      <c r="AZ165">
+        <v>12</v>
+      </c>
+      <c r="BA165">
+        <v>8</v>
+      </c>
+      <c r="BB165">
+        <v>6</v>
+      </c>
+      <c r="BC165">
+        <v>14</v>
+      </c>
+      <c r="BD165">
+        <v>1.63</v>
+      </c>
+      <c r="BE165">
+        <v>6.4</v>
+      </c>
+      <c r="BF165">
+        <v>2.55</v>
+      </c>
+      <c r="BG165">
+        <v>1.34</v>
+      </c>
+      <c r="BH165">
+        <v>2.85</v>
+      </c>
+      <c r="BI165">
+        <v>1.6</v>
+      </c>
+      <c r="BJ165">
+        <v>2.12</v>
+      </c>
+      <c r="BK165">
+        <v>1.96</v>
+      </c>
+      <c r="BL165">
+        <v>1.7</v>
+      </c>
+      <c r="BM165">
+        <v>2.5</v>
+      </c>
+      <c r="BN165">
+        <v>1.43</v>
+      </c>
+      <c r="BO165">
+        <v>3.25</v>
+      </c>
+      <c r="BP165">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['32', '80', '90+3']</t>
   </si>
   <si>
+    <t>['85', '88']</t>
+  </si>
+  <si>
+    <t>['10', '58']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -1167,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1507,7 +1513,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2328,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
         <v>1.9</v>
@@ -2537,7 +2543,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2740,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -3074,7 +3080,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3280,7 +3286,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3486,7 +3492,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3692,7 +3698,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4185,7 +4191,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4310,7 +4316,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4516,7 +4522,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4722,7 +4728,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5546,7 +5552,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5830,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ23">
         <v>0.89</v>
@@ -5958,7 +5964,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6576,7 +6582,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6657,7 +6663,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2.08</v>
@@ -6782,7 +6788,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7194,7 +7200,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7275,7 +7281,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7606,7 +7612,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8096,7 +8102,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.9</v>
@@ -8224,7 +8230,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8430,7 +8436,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8636,7 +8642,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8717,7 +8723,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8842,7 +8848,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9126,7 +9132,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ39">
         <v>1.11</v>
@@ -9460,7 +9466,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9872,7 +9878,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10490,7 +10496,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10696,7 +10702,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10902,7 +10908,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11395,7 +11401,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11601,7 +11607,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.02</v>
@@ -11726,7 +11732,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12138,7 +12144,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12628,7 +12634,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ56">
         <v>1.25</v>
@@ -12756,7 +12762,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13168,7 +13174,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13374,7 +13380,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13658,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
         <v>0.14</v>
@@ -14198,7 +14204,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -15022,7 +15028,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15228,7 +15234,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15640,7 +15646,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16748,7 +16754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -16876,7 +16882,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17288,7 +17294,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17778,7 +17784,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18112,7 +18118,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18605,7 +18611,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18730,7 +18736,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19142,7 +19148,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19429,7 +19435,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19554,7 +19560,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19632,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>0.14</v>
@@ -19760,7 +19766,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19966,7 +19972,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20584,7 +20590,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21408,7 +21414,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21820,7 +21826,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22026,7 +22032,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22232,7 +22238,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22438,7 +22444,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22850,7 +22856,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22928,7 +22934,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ106">
         <v>1.71</v>
@@ -23056,7 +23062,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23262,7 +23268,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23880,7 +23886,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24164,7 +24170,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>1.11</v>
@@ -24579,7 +24585,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.46</v>
@@ -24704,7 +24710,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24910,7 +24916,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25940,7 +25946,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26021,7 +26027,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ121">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26146,7 +26152,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26352,7 +26358,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26433,7 +26439,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ123">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26558,7 +26564,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26764,7 +26770,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26842,7 +26848,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ125">
         <v>1.11</v>
@@ -26970,7 +26976,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27588,7 +27594,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27794,7 +27800,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28000,7 +28006,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28206,7 +28212,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29236,7 +29242,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29317,7 +29323,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -29442,7 +29448,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29523,7 +29529,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR138">
         <v>1.72</v>
@@ -29854,7 +29860,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30678,7 +30684,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31708,7 +31714,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32120,7 +32126,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32326,7 +32332,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32944,7 +32950,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33150,7 +33156,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33356,7 +33362,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33434,7 +33440,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>0.63</v>
@@ -33562,7 +33568,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33768,7 +33774,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -34386,7 +34392,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -35004,7 +35010,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35160,6 +35166,418 @@
         <v>3.25</v>
       </c>
       <c r="BP165">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7778236</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45795.125</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>76</v>
+      </c>
+      <c r="H166" t="s">
+        <v>84</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>198</v>
+      </c>
+      <c r="P166" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q166">
+        <v>2.38</v>
+      </c>
+      <c r="R166">
+        <v>2.3</v>
+      </c>
+      <c r="S166">
+        <v>4.33</v>
+      </c>
+      <c r="T166">
+        <v>1.33</v>
+      </c>
+      <c r="U166">
+        <v>3.25</v>
+      </c>
+      <c r="V166">
+        <v>2.5</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>6.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.11</v>
+      </c>
+      <c r="Z166">
+        <v>1.71</v>
+      </c>
+      <c r="AA166">
+        <v>3.57</v>
+      </c>
+      <c r="AB166">
+        <v>3.92</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+      <c r="AE166">
+        <v>1.15</v>
+      </c>
+      <c r="AF166">
+        <v>4.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.67</v>
+      </c>
+      <c r="AH166">
+        <v>2</v>
+      </c>
+      <c r="AI166">
+        <v>1.67</v>
+      </c>
+      <c r="AJ166">
+        <v>2.1</v>
+      </c>
+      <c r="AK166">
+        <v>1.24</v>
+      </c>
+      <c r="AL166">
+        <v>1.26</v>
+      </c>
+      <c r="AM166">
+        <v>2.01</v>
+      </c>
+      <c r="AN166">
+        <v>1.83</v>
+      </c>
+      <c r="AO166">
+        <v>1.25</v>
+      </c>
+      <c r="AP166">
+        <v>2</v>
+      </c>
+      <c r="AQ166">
+        <v>1.11</v>
+      </c>
+      <c r="AR166">
+        <v>1.66</v>
+      </c>
+      <c r="AS166">
+        <v>1.48</v>
+      </c>
+      <c r="AT166">
+        <v>3.14</v>
+      </c>
+      <c r="AU166">
+        <v>6</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>11</v>
+      </c>
+      <c r="AX166">
+        <v>9</v>
+      </c>
+      <c r="AY166">
+        <v>20</v>
+      </c>
+      <c r="AZ166">
+        <v>15</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>8</v>
+      </c>
+      <c r="BD166">
+        <v>1.62</v>
+      </c>
+      <c r="BE166">
+        <v>9</v>
+      </c>
+      <c r="BF166">
+        <v>2.75</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>1.34</v>
+      </c>
+      <c r="BJ166">
+        <v>2.78</v>
+      </c>
+      <c r="BK166">
+        <v>1.63</v>
+      </c>
+      <c r="BL166">
+        <v>2.09</v>
+      </c>
+      <c r="BM166">
+        <v>2.06</v>
+      </c>
+      <c r="BN166">
+        <v>1.68</v>
+      </c>
+      <c r="BO166">
+        <v>2.67</v>
+      </c>
+      <c r="BP166">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7778240</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45795.125</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s">
+        <v>88</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>199</v>
+      </c>
+      <c r="P167" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q167">
+        <v>3.25</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>3.75</v>
+      </c>
+      <c r="T167">
+        <v>1.53</v>
+      </c>
+      <c r="U167">
+        <v>2.38</v>
+      </c>
+      <c r="V167">
+        <v>3.5</v>
+      </c>
+      <c r="W167">
+        <v>1.29</v>
+      </c>
+      <c r="X167">
+        <v>11</v>
+      </c>
+      <c r="Y167">
+        <v>1.05</v>
+      </c>
+      <c r="Z167">
+        <v>2.4</v>
+      </c>
+      <c r="AA167">
+        <v>2.79</v>
+      </c>
+      <c r="AB167">
+        <v>2.9</v>
+      </c>
+      <c r="AC167">
+        <v>1.1</v>
+      </c>
+      <c r="AD167">
+        <v>6.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.53</v>
+      </c>
+      <c r="AF167">
+        <v>2.51</v>
+      </c>
+      <c r="AG167">
+        <v>2.3</v>
+      </c>
+      <c r="AH167">
+        <v>1.5</v>
+      </c>
+      <c r="AI167">
+        <v>2.05</v>
+      </c>
+      <c r="AJ167">
+        <v>1.7</v>
+      </c>
+      <c r="AK167">
+        <v>1.36</v>
+      </c>
+      <c r="AL167">
+        <v>1.33</v>
+      </c>
+      <c r="AM167">
+        <v>1.5</v>
+      </c>
+      <c r="AN167">
+        <v>1.75</v>
+      </c>
+      <c r="AO167">
+        <v>1.14</v>
+      </c>
+      <c r="AP167">
+        <v>1.89</v>
+      </c>
+      <c r="AQ167">
+        <v>1</v>
+      </c>
+      <c r="AR167">
+        <v>1.53</v>
+      </c>
+      <c r="AS167">
+        <v>1.13</v>
+      </c>
+      <c r="AT167">
+        <v>2.66</v>
+      </c>
+      <c r="AU167">
+        <v>10</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>14</v>
+      </c>
+      <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>30</v>
+      </c>
+      <c r="AZ167">
+        <v>10</v>
+      </c>
+      <c r="BA167">
+        <v>7</v>
+      </c>
+      <c r="BB167">
+        <v>2</v>
+      </c>
+      <c r="BC167">
+        <v>9</v>
+      </c>
+      <c r="BD167">
+        <v>1.9</v>
+      </c>
+      <c r="BE167">
+        <v>6.5</v>
+      </c>
+      <c r="BF167">
+        <v>2.42</v>
+      </c>
+      <c r="BG167">
+        <v>1.25</v>
+      </c>
+      <c r="BH167">
+        <v>3.28</v>
+      </c>
+      <c r="BI167">
+        <v>1.49</v>
+      </c>
+      <c r="BJ167">
+        <v>2.38</v>
+      </c>
+      <c r="BK167">
+        <v>1.86</v>
+      </c>
+      <c r="BL167">
+        <v>1.84</v>
+      </c>
+      <c r="BM167">
+        <v>2.4</v>
+      </c>
+      <c r="BN167">
+        <v>1.48</v>
+      </c>
+      <c r="BO167">
+        <v>3.2</v>
+      </c>
+      <c r="BP167">
         <v>1.26</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['10', '58']</t>
   </si>
   <si>
+    <t>['45+2', '86']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -812,6 +815,12 @@
   </si>
   <si>
     <t>['9', '68']</t>
+  </si>
+  <si>
+    <t>['42', '90+4']</t>
+  </si>
+  <si>
+    <t>['19', '51']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1441,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2540,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2746,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -3080,7 +3089,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3286,7 +3295,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3492,7 +3501,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3573,7 +3582,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3698,7 +3707,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4316,7 +4325,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4522,7 +4531,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4728,7 +4737,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5552,7 +5561,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5964,7 +5973,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6582,7 +6591,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6788,7 +6797,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7200,7 +7209,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7484,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ31">
         <v>0.63</v>
@@ -7612,7 +7621,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7690,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ32">
         <v>1.22</v>
@@ -8102,7 +8111,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34">
         <v>1.9</v>
@@ -8230,7 +8239,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8436,7 +8445,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8642,7 +8651,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8848,7 +8857,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9466,7 +9475,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9878,7 +9887,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10496,7 +10505,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10702,7 +10711,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10908,7 +10917,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11732,7 +11741,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12144,7 +12153,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12428,7 +12437,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ55">
         <v>0.89</v>
@@ -12762,7 +12771,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13174,7 +13183,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13255,7 +13264,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13380,7 +13389,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14204,7 +14213,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14903,7 +14912,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR67">
         <v>1.72</v>
@@ -15028,7 +15037,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15234,7 +15243,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15646,7 +15655,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16754,7 +16763,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -16882,7 +16891,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17169,7 +17178,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
         <v>1.29</v>
@@ -17294,7 +17303,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17578,7 +17587,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ80">
         <v>1.11</v>
@@ -18118,7 +18127,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18736,7 +18745,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19148,7 +19157,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19560,7 +19569,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19638,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
         <v>0.14</v>
@@ -19766,7 +19775,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19972,7 +19981,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20590,7 +20599,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20877,7 +20886,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21414,7 +21423,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21826,7 +21835,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21904,7 +21913,7 @@
         <v>0.8</v>
       </c>
       <c r="AP101">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -22032,7 +22041,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22238,7 +22247,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22444,7 +22453,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22856,7 +22865,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23062,7 +23071,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23268,7 +23277,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23886,7 +23895,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24170,7 +24179,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ112">
         <v>1.11</v>
@@ -24710,7 +24719,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24916,7 +24925,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25946,7 +25955,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26152,7 +26161,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26358,7 +26367,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26564,7 +26573,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26770,7 +26779,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26976,7 +26985,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27594,7 +27603,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27800,7 +27809,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28006,7 +28015,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28212,7 +28221,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29242,7 +29251,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29448,7 +29457,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29860,7 +29869,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30684,7 +30693,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31383,7 +31392,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31714,7 +31723,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32126,7 +32135,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32332,7 +32341,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32950,7 +32959,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33156,7 +33165,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33234,7 +33243,7 @@
         <v>2.14</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ156">
         <v>2</v>
@@ -33362,7 +33371,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33440,7 +33449,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ157">
         <v>0.63</v>
@@ -33568,7 +33577,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33646,7 +33655,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ158">
         <v>1.9</v>
@@ -33774,7 +33783,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -34392,7 +34401,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -35010,7 +35019,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35294,7 +35303,7 @@
         <v>1.25</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ166">
         <v>1.11</v>
@@ -35579,6 +35588,418 @@
       </c>
       <c r="BP167">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7778201</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45798.29166666666</v>
+      </c>
+      <c r="F168">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>89</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>200</v>
+      </c>
+      <c r="P168" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q168">
+        <v>2.63</v>
+      </c>
+      <c r="R168">
+        <v>2.2</v>
+      </c>
+      <c r="S168">
+        <v>4</v>
+      </c>
+      <c r="T168">
+        <v>1.4</v>
+      </c>
+      <c r="U168">
+        <v>2.75</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>2.03</v>
+      </c>
+      <c r="AA168">
+        <v>3.16</v>
+      </c>
+      <c r="AB168">
+        <v>3.21</v>
+      </c>
+      <c r="AC168">
+        <v>1.05</v>
+      </c>
+      <c r="AD168">
+        <v>9</v>
+      </c>
+      <c r="AE168">
+        <v>1.33</v>
+      </c>
+      <c r="AF168">
+        <v>3.3</v>
+      </c>
+      <c r="AG168">
+        <v>1.92</v>
+      </c>
+      <c r="AH168">
+        <v>1.78</v>
+      </c>
+      <c r="AI168">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168">
+        <v>1.95</v>
+      </c>
+      <c r="AK168">
+        <v>1.28</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.77</v>
+      </c>
+      <c r="AN168">
+        <v>2</v>
+      </c>
+      <c r="AO168">
+        <v>1</v>
+      </c>
+      <c r="AP168">
+        <v>1.88</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>1.69</v>
+      </c>
+      <c r="AS168">
+        <v>1.54</v>
+      </c>
+      <c r="AT168">
+        <v>3.23</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>6</v>
+      </c>
+      <c r="AW168">
+        <v>8</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>18</v>
+      </c>
+      <c r="AZ168">
+        <v>11</v>
+      </c>
+      <c r="BA168">
+        <v>4</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>1.62</v>
+      </c>
+      <c r="BE168">
+        <v>8.9</v>
+      </c>
+      <c r="BF168">
+        <v>2.75</v>
+      </c>
+      <c r="BG168">
+        <v>1.2</v>
+      </c>
+      <c r="BH168">
+        <v>3.72</v>
+      </c>
+      <c r="BI168">
+        <v>1.41</v>
+      </c>
+      <c r="BJ168">
+        <v>2.6</v>
+      </c>
+      <c r="BK168">
+        <v>1.73</v>
+      </c>
+      <c r="BL168">
+        <v>1.99</v>
+      </c>
+      <c r="BM168">
+        <v>2.17</v>
+      </c>
+      <c r="BN168">
+        <v>1.58</v>
+      </c>
+      <c r="BO168">
+        <v>2.83</v>
+      </c>
+      <c r="BP168">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7778202</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45798.29166666666</v>
+      </c>
+      <c r="F169">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>72</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>164</v>
+      </c>
+      <c r="P169" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>2.63</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>8</v>
+      </c>
+      <c r="Y169">
+        <v>1.08</v>
+      </c>
+      <c r="Z169">
+        <v>3.23</v>
+      </c>
+      <c r="AA169">
+        <v>3.18</v>
+      </c>
+      <c r="AB169">
+        <v>2.02</v>
+      </c>
+      <c r="AC169">
+        <v>1.05</v>
+      </c>
+      <c r="AD169">
+        <v>9</v>
+      </c>
+      <c r="AE169">
+        <v>1.3</v>
+      </c>
+      <c r="AF169">
+        <v>3.4</v>
+      </c>
+      <c r="AG169">
+        <v>1.89</v>
+      </c>
+      <c r="AH169">
+        <v>1.81</v>
+      </c>
+      <c r="AI169">
+        <v>1.8</v>
+      </c>
+      <c r="AJ169">
+        <v>1.95</v>
+      </c>
+      <c r="AK169">
+        <v>1.77</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.28</v>
+      </c>
+      <c r="AN169">
+        <v>0.88</v>
+      </c>
+      <c r="AO169">
+        <v>1.67</v>
+      </c>
+      <c r="AP169">
+        <v>0.78</v>
+      </c>
+      <c r="AQ169">
+        <v>1.86</v>
+      </c>
+      <c r="AR169">
+        <v>1.38</v>
+      </c>
+      <c r="AS169">
+        <v>1.41</v>
+      </c>
+      <c r="AT169">
+        <v>2.79</v>
+      </c>
+      <c r="AU169">
+        <v>6</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>10</v>
+      </c>
+      <c r="AX169">
+        <v>6</v>
+      </c>
+      <c r="AY169">
+        <v>18</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>8</v>
+      </c>
+      <c r="BC169">
+        <v>13</v>
+      </c>
+      <c r="BD169">
+        <v>2.8</v>
+      </c>
+      <c r="BE169">
+        <v>6.75</v>
+      </c>
+      <c r="BF169">
+        <v>1.7</v>
+      </c>
+      <c r="BG169">
+        <v>1.18</v>
+      </c>
+      <c r="BH169">
+        <v>3.9</v>
+      </c>
+      <c r="BI169">
+        <v>1.37</v>
+      </c>
+      <c r="BJ169">
+        <v>2.75</v>
+      </c>
+      <c r="BK169">
+        <v>1.68</v>
+      </c>
+      <c r="BL169">
+        <v>2.06</v>
+      </c>
+      <c r="BM169">
+        <v>2.09</v>
+      </c>
+      <c r="BN169">
+        <v>1.63</v>
+      </c>
+      <c r="BO169">
+        <v>2.7</v>
+      </c>
+      <c r="BP169">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,30 @@
     <t>['45+2', '86']</t>
   </si>
   <si>
+    <t>['84', '90+8']</t>
+  </si>
+  <si>
+    <t>['83', '90+3']</t>
+  </si>
+  <si>
+    <t>['26', '55']</t>
+  </si>
+  <si>
+    <t>['4', '13', '27']</t>
+  </si>
+  <si>
+    <t>['31', '71']</t>
+  </si>
+  <si>
+    <t>['15', '24', '71']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['32', '79']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -716,9 +740,6 @@
   </si>
   <si>
     <t>['41', '89', '90+2']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['58']</t>
@@ -821,6 +842,18 @@
   </si>
   <si>
     <t>['19', '51']</t>
+  </si>
+  <si>
+    <t>['76', '81']</t>
+  </si>
+  <si>
+    <t>['57', '90+1']</t>
+  </si>
+  <si>
+    <t>['49', '59', '88']</t>
+  </si>
+  <si>
+    <t>['53', '60']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1728,7 +1761,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1934,7 +1967,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2137,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2343,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2549,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2755,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -2964,7 +2997,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3089,7 +3122,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3170,7 +3203,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3295,7 +3328,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3373,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -3501,7 +3534,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3579,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3707,7 +3740,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3991,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>0.63</v>
@@ -4197,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4325,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4406,7 +4439,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4531,7 +4564,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4609,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4737,7 +4770,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4818,7 +4851,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR18">
         <v>2.07</v>
@@ -5021,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5561,7 +5594,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5845,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR23">
         <v>1.24</v>
@@ -5973,7 +6006,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6054,7 +6087,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6257,10 +6290,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6466,7 +6499,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR26">
         <v>2</v>
@@ -6591,7 +6624,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6797,7 +6830,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7081,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ29">
         <v>0.6</v>
@@ -7209,7 +7242,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7493,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0.63</v>
@@ -7621,7 +7654,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7699,10 +7732,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR32">
         <v>1.12</v>
@@ -8111,10 +8144,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ34">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR34">
         <v>1.99</v>
@@ -8239,7 +8272,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8320,7 +8353,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>1.47</v>
@@ -8445,7 +8478,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8523,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ36">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8651,7 +8684,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8729,7 +8762,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37">
         <v>1.11</v>
@@ -8857,7 +8890,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8935,10 +8968,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR38">
         <v>1.35</v>
@@ -9141,7 +9174,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.11</v>
@@ -9475,7 +9508,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9556,7 +9589,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9887,7 +9920,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9965,7 +9998,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ43">
         <v>1.11</v>
@@ -10377,10 +10410,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10505,7 +10538,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10583,10 +10616,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10711,7 +10744,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10789,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>0.6</v>
@@ -10917,7 +10950,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -10998,7 +11031,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ48">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.45</v>
@@ -11204,7 +11237,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11407,7 +11440,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>1.11</v>
@@ -11741,7 +11774,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11819,7 +11852,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -12153,7 +12186,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12231,10 +12264,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR54">
         <v>1.44</v>
@@ -12437,10 +12470,10 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR55">
         <v>1.24</v>
@@ -12643,7 +12676,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>1.25</v>
@@ -12771,7 +12804,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12852,7 +12885,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR57">
         <v>1.46</v>
@@ -13058,7 +13091,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR58">
         <v>1.91</v>
@@ -13183,7 +13216,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13264,7 +13297,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13389,7 +13422,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13467,10 +13500,10 @@
         <v>0.75</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR60">
         <v>1.95</v>
@@ -13673,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
         <v>0.14</v>
@@ -13879,10 +13912,10 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14213,7 +14246,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14291,10 +14324,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ64">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14497,7 +14530,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14706,7 +14739,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -14912,7 +14945,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR67">
         <v>1.72</v>
@@ -15037,7 +15070,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15118,7 +15151,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15243,7 +15276,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15321,7 +15354,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -15530,7 +15563,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15655,7 +15688,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15733,7 +15766,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>0.63</v>
@@ -15942,7 +15975,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR72">
         <v>1.64</v>
@@ -16148,7 +16181,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16351,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74">
         <v>0.14</v>
@@ -16557,10 +16590,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -16763,10 +16796,10 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
         <v>1.89</v>
@@ -16891,7 +16924,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -16969,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17175,10 +17208,10 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR78">
         <v>1.29</v>
@@ -17303,7 +17336,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17587,7 +17620,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>1.11</v>
@@ -17793,7 +17826,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18002,7 +18035,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>1.53</v>
@@ -18127,7 +18160,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18411,7 +18444,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ84">
         <v>1.11</v>
@@ -18745,7 +18778,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18826,7 +18859,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ86">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR86">
         <v>1.65</v>
@@ -19032,7 +19065,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR87">
         <v>1.34</v>
@@ -19157,7 +19190,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19569,7 +19602,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19647,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ90">
         <v>0.14</v>
@@ -19775,7 +19808,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19853,10 +19886,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR91">
         <v>1.32</v>
@@ -19981,7 +20014,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20265,7 +20298,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
         <v>1.25</v>
@@ -20599,7 +20632,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20883,10 +20916,10 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21089,10 +21122,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
         <v>1.5</v>
-      </c>
-      <c r="AQ97">
-        <v>1.71</v>
       </c>
       <c r="AR97">
         <v>1.91</v>
@@ -21298,7 +21331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR98">
         <v>1.39</v>
@@ -21423,7 +21456,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21504,7 +21537,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -21707,7 +21740,7 @@
         <v>0.33</v>
       </c>
       <c r="AP100">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ100">
         <v>0.63</v>
@@ -21835,7 +21868,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21913,7 +21946,7 @@
         <v>0.8</v>
       </c>
       <c r="AP101">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -22041,7 +22074,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22247,7 +22280,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22328,7 +22361,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22453,7 +22486,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22531,10 +22564,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ104">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR104">
         <v>1.53</v>
@@ -22737,10 +22770,10 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR105">
         <v>1.2</v>
@@ -22865,7 +22898,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22943,10 +22976,10 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ106">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23071,7 +23104,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23149,10 +23182,10 @@
         <v>2.25</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23277,7 +23310,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23355,10 +23388,10 @@
         <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR108">
         <v>1.41</v>
@@ -23564,7 +23597,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR109">
         <v>1.57</v>
@@ -23767,7 +23800,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -23895,7 +23928,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -23976,7 +24009,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24179,7 +24212,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ112">
         <v>1.11</v>
@@ -24591,7 +24624,7 @@
         <v>0.8</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
         <v>1.11</v>
@@ -24719,7 +24752,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24800,7 +24833,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR115">
         <v>1.31</v>
@@ -24925,7 +24958,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25624,7 +25657,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ119">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR119">
         <v>1.43</v>
@@ -25827,10 +25860,10 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR120">
         <v>1.31</v>
@@ -25955,7 +25988,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26161,7 +26194,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26239,7 +26272,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ122">
         <v>1.11</v>
@@ -26367,7 +26400,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26573,7 +26606,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26651,10 +26684,10 @@
         <v>1.2</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.26</v>
@@ -26779,7 +26812,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26857,7 +26890,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125">
         <v>1.11</v>
@@ -26985,7 +27018,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27063,10 +27096,10 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR126">
         <v>1.31</v>
@@ -27272,7 +27305,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR127">
         <v>1.65</v>
@@ -27478,7 +27511,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.57</v>
@@ -27603,7 +27636,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27681,10 +27714,10 @@
         <v>2.17</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ129">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR129">
         <v>2.07</v>
@@ -27809,7 +27842,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27890,7 +27923,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -28015,7 +28048,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28093,7 +28126,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
         <v>0.6</v>
@@ -28221,7 +28254,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28299,7 +28332,7 @@
         <v>0.83</v>
       </c>
       <c r="AP132">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28714,7 +28747,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR134">
         <v>1.6</v>
@@ -28920,7 +28953,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ135">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR135">
         <v>1.68</v>
@@ -29251,7 +29284,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29457,7 +29490,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29744,7 +29777,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ139">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -29869,7 +29902,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -29950,7 +29983,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30153,7 +30186,7 @@
         <v>0.67</v>
       </c>
       <c r="AP141">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ141">
         <v>0.63</v>
@@ -30565,7 +30598,7 @@
         <v>0.4</v>
       </c>
       <c r="AP143">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ143">
         <v>0.63</v>
@@ -30693,7 +30726,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30774,7 +30807,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ144">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
@@ -30980,7 +31013,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
         <v>1.48</v>
@@ -31183,10 +31216,10 @@
         <v>1.43</v>
       </c>
       <c r="AP146">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR146">
         <v>1.26</v>
@@ -31389,10 +31422,10 @@
         <v>2</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ147">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31723,7 +31756,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31801,10 +31834,10 @@
         <v>2</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ149">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR149">
         <v>1.3</v>
@@ -32135,7 +32168,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32341,7 +32374,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32419,10 +32452,10 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32628,7 +32661,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -32831,7 +32864,7 @@
         <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154">
         <v>0.14</v>
@@ -32959,7 +32992,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33037,10 +33070,10 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ155">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR155">
         <v>1.4</v>
@@ -33165,7 +33198,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33243,10 +33276,10 @@
         <v>2.14</v>
       </c>
       <c r="AP156">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33371,7 +33404,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33449,7 +33482,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ157">
         <v>0.63</v>
@@ -33577,7 +33610,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33655,10 +33688,10 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ158">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR158">
         <v>1.35</v>
@@ -33783,7 +33816,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -33864,7 +33897,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR159">
         <v>1.74</v>
@@ -34070,7 +34103,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR160">
         <v>1.42</v>
@@ -34401,7 +34434,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -35019,7 +35052,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35303,7 +35336,7 @@
         <v>1.25</v>
       </c>
       <c r="AP166">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ166">
         <v>1.11</v>
@@ -35509,7 +35542,7 @@
         <v>1.14</v>
       </c>
       <c r="AP167">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167">
         <v>1</v>
@@ -35637,7 +35670,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35715,10 +35748,10 @@
         <v>1</v>
       </c>
       <c r="AP168">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR168">
         <v>1.69</v>
@@ -35843,7 +35876,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -35921,10 +35954,10 @@
         <v>1.67</v>
       </c>
       <c r="AP169">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR169">
         <v>1.38</v>
@@ -36000,6 +36033,2066 @@
       </c>
       <c r="BP169">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7778251</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45801.125</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>84</v>
+      </c>
+      <c r="H170" t="s">
+        <v>71</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>201</v>
+      </c>
+      <c r="P170" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q170">
+        <v>2.9</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>3.6</v>
+      </c>
+      <c r="T170">
+        <v>1.44</v>
+      </c>
+      <c r="U170">
+        <v>2.6</v>
+      </c>
+      <c r="V170">
+        <v>2.95</v>
+      </c>
+      <c r="W170">
+        <v>1.35</v>
+      </c>
+      <c r="X170">
+        <v>8.5</v>
+      </c>
+      <c r="Y170">
+        <v>1.07</v>
+      </c>
+      <c r="Z170">
+        <v>2.27</v>
+      </c>
+      <c r="AA170">
+        <v>2.95</v>
+      </c>
+      <c r="AB170">
+        <v>2.95</v>
+      </c>
+      <c r="AC170">
+        <v>1.07</v>
+      </c>
+      <c r="AD170">
+        <v>8</v>
+      </c>
+      <c r="AE170">
+        <v>1.38</v>
+      </c>
+      <c r="AF170">
+        <v>3</v>
+      </c>
+      <c r="AG170">
+        <v>2.05</v>
+      </c>
+      <c r="AH170">
+        <v>1.65</v>
+      </c>
+      <c r="AI170">
+        <v>1.8</v>
+      </c>
+      <c r="AJ170">
+        <v>1.85</v>
+      </c>
+      <c r="AK170">
+        <v>1.36</v>
+      </c>
+      <c r="AL170">
+        <v>1.3</v>
+      </c>
+      <c r="AM170">
+        <v>1.57</v>
+      </c>
+      <c r="AN170">
+        <v>1.5</v>
+      </c>
+      <c r="AO170">
+        <v>1.25</v>
+      </c>
+      <c r="AP170">
+        <v>1.67</v>
+      </c>
+      <c r="AQ170">
+        <v>1.11</v>
+      </c>
+      <c r="AR170">
+        <v>1.87</v>
+      </c>
+      <c r="AS170">
+        <v>1.62</v>
+      </c>
+      <c r="AT170">
+        <v>3.49</v>
+      </c>
+      <c r="AU170">
+        <v>9</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>7</v>
+      </c>
+      <c r="AX170">
+        <v>10</v>
+      </c>
+      <c r="AY170">
+        <v>17</v>
+      </c>
+      <c r="AZ170">
+        <v>17</v>
+      </c>
+      <c r="BA170">
+        <v>4</v>
+      </c>
+      <c r="BB170">
+        <v>5</v>
+      </c>
+      <c r="BC170">
+        <v>9</v>
+      </c>
+      <c r="BD170">
+        <v>1.61</v>
+      </c>
+      <c r="BE170">
+        <v>6.5</v>
+      </c>
+      <c r="BF170">
+        <v>2.55</v>
+      </c>
+      <c r="BG170">
+        <v>1.29</v>
+      </c>
+      <c r="BH170">
+        <v>3.1</v>
+      </c>
+      <c r="BI170">
+        <v>1.5</v>
+      </c>
+      <c r="BJ170">
+        <v>2.3</v>
+      </c>
+      <c r="BK170">
+        <v>1.82</v>
+      </c>
+      <c r="BL170">
+        <v>1.82</v>
+      </c>
+      <c r="BM170">
+        <v>2.3</v>
+      </c>
+      <c r="BN170">
+        <v>1.5</v>
+      </c>
+      <c r="BO170">
+        <v>2.95</v>
+      </c>
+      <c r="BP170">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7778250</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45801.22916666666</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>80</v>
+      </c>
+      <c r="H171" t="s">
+        <v>89</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>202</v>
+      </c>
+      <c r="P171" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q171">
+        <v>3.5</v>
+      </c>
+      <c r="R171">
+        <v>1.87</v>
+      </c>
+      <c r="S171">
+        <v>3.3</v>
+      </c>
+      <c r="T171">
+        <v>1.55</v>
+      </c>
+      <c r="U171">
+        <v>2.3</v>
+      </c>
+      <c r="V171">
+        <v>3.5</v>
+      </c>
+      <c r="W171">
+        <v>1.26</v>
+      </c>
+      <c r="X171">
+        <v>10.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.04</v>
+      </c>
+      <c r="Z171">
+        <v>2.67</v>
+      </c>
+      <c r="AA171">
+        <v>2.81</v>
+      </c>
+      <c r="AB171">
+        <v>2.57</v>
+      </c>
+      <c r="AC171">
+        <v>1.11</v>
+      </c>
+      <c r="AD171">
+        <v>6.25</v>
+      </c>
+      <c r="AE171">
+        <v>1.48</v>
+      </c>
+      <c r="AF171">
+        <v>2.37</v>
+      </c>
+      <c r="AG171">
+        <v>2.5</v>
+      </c>
+      <c r="AH171">
+        <v>1.53</v>
+      </c>
+      <c r="AI171">
+        <v>2.1</v>
+      </c>
+      <c r="AJ171">
+        <v>1.63</v>
+      </c>
+      <c r="AK171">
+        <v>1.44</v>
+      </c>
+      <c r="AL171">
+        <v>1.37</v>
+      </c>
+      <c r="AM171">
+        <v>1.42</v>
+      </c>
+      <c r="AN171">
+        <v>1.57</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>1.75</v>
+      </c>
+      <c r="AQ171">
+        <v>0.9</v>
+      </c>
+      <c r="AR171">
+        <v>1.32</v>
+      </c>
+      <c r="AS171">
+        <v>1.52</v>
+      </c>
+      <c r="AT171">
+        <v>2.84</v>
+      </c>
+      <c r="AU171">
+        <v>12</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>18</v>
+      </c>
+      <c r="AX171">
+        <v>1</v>
+      </c>
+      <c r="AY171">
+        <v>35</v>
+      </c>
+      <c r="AZ171">
+        <v>5</v>
+      </c>
+      <c r="BA171">
+        <v>7</v>
+      </c>
+      <c r="BB171">
+        <v>2</v>
+      </c>
+      <c r="BC171">
+        <v>9</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>0</v>
+      </c>
+      <c r="BJ171">
+        <v>0</v>
+      </c>
+      <c r="BK171">
+        <v>0</v>
+      </c>
+      <c r="BL171">
+        <v>0</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7778252</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45802.04166666666</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>74</v>
+      </c>
+      <c r="H172" t="s">
+        <v>78</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>203</v>
+      </c>
+      <c r="P172" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q172">
+        <v>5</v>
+      </c>
+      <c r="R172">
+        <v>1.91</v>
+      </c>
+      <c r="S172">
+        <v>2.88</v>
+      </c>
+      <c r="T172">
+        <v>1.62</v>
+      </c>
+      <c r="U172">
+        <v>2.2</v>
+      </c>
+      <c r="V172">
+        <v>4</v>
+      </c>
+      <c r="W172">
+        <v>1.22</v>
+      </c>
+      <c r="X172">
+        <v>13</v>
+      </c>
+      <c r="Y172">
+        <v>1.04</v>
+      </c>
+      <c r="Z172">
+        <v>3.64</v>
+      </c>
+      <c r="AA172">
+        <v>2.81</v>
+      </c>
+      <c r="AB172">
+        <v>2.04</v>
+      </c>
+      <c r="AC172">
+        <v>1.12</v>
+      </c>
+      <c r="AD172">
+        <v>5.75</v>
+      </c>
+      <c r="AE172">
+        <v>1.55</v>
+      </c>
+      <c r="AF172">
+        <v>2.2</v>
+      </c>
+      <c r="AG172">
+        <v>2.82</v>
+      </c>
+      <c r="AH172">
+        <v>1.4</v>
+      </c>
+      <c r="AI172">
+        <v>2.38</v>
+      </c>
+      <c r="AJ172">
+        <v>1.53</v>
+      </c>
+      <c r="AK172">
+        <v>1.67</v>
+      </c>
+      <c r="AL172">
+        <v>1.33</v>
+      </c>
+      <c r="AM172">
+        <v>1.25</v>
+      </c>
+      <c r="AN172">
+        <v>1.89</v>
+      </c>
+      <c r="AO172">
+        <v>1.89</v>
+      </c>
+      <c r="AP172">
+        <v>1.8</v>
+      </c>
+      <c r="AQ172">
+        <v>1.8</v>
+      </c>
+      <c r="AR172">
+        <v>1.66</v>
+      </c>
+      <c r="AS172">
+        <v>1.44</v>
+      </c>
+      <c r="AT172">
+        <v>3.1</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>4</v>
+      </c>
+      <c r="AW172">
+        <v>5</v>
+      </c>
+      <c r="AX172">
+        <v>9</v>
+      </c>
+      <c r="AY172">
+        <v>12</v>
+      </c>
+      <c r="AZ172">
+        <v>14</v>
+      </c>
+      <c r="BA172">
+        <v>2</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>6</v>
+      </c>
+      <c r="BD172">
+        <v>2.4</v>
+      </c>
+      <c r="BE172">
+        <v>6.75</v>
+      </c>
+      <c r="BF172">
+        <v>1.68</v>
+      </c>
+      <c r="BG172">
+        <v>1.33</v>
+      </c>
+      <c r="BH172">
+        <v>2.85</v>
+      </c>
+      <c r="BI172">
+        <v>1.58</v>
+      </c>
+      <c r="BJ172">
+        <v>2.14</v>
+      </c>
+      <c r="BK172">
+        <v>1.94</v>
+      </c>
+      <c r="BL172">
+        <v>1.71</v>
+      </c>
+      <c r="BM172">
+        <v>2.48</v>
+      </c>
+      <c r="BN172">
+        <v>1.44</v>
+      </c>
+      <c r="BO172">
+        <v>3.2</v>
+      </c>
+      <c r="BP172">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7778246</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s">
+        <v>86</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>4</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>204</v>
+      </c>
+      <c r="P173" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q173">
+        <v>3.25</v>
+      </c>
+      <c r="R173">
+        <v>2.15</v>
+      </c>
+      <c r="S173">
+        <v>2.87</v>
+      </c>
+      <c r="T173">
+        <v>1.35</v>
+      </c>
+      <c r="U173">
+        <v>2.95</v>
+      </c>
+      <c r="V173">
+        <v>2.55</v>
+      </c>
+      <c r="W173">
+        <v>1.44</v>
+      </c>
+      <c r="X173">
+        <v>6.25</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>2.48</v>
+      </c>
+      <c r="AA173">
+        <v>3.29</v>
+      </c>
+      <c r="AB173">
+        <v>2.42</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>9.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.28</v>
+      </c>
+      <c r="AF173">
+        <v>3.55</v>
+      </c>
+      <c r="AG173">
+        <v>1.75</v>
+      </c>
+      <c r="AH173">
+        <v>1.95</v>
+      </c>
+      <c r="AI173">
+        <v>1.66</v>
+      </c>
+      <c r="AJ173">
+        <v>2.05</v>
+      </c>
+      <c r="AK173">
+        <v>1.55</v>
+      </c>
+      <c r="AL173">
+        <v>1.3</v>
+      </c>
+      <c r="AM173">
+        <v>1.41</v>
+      </c>
+      <c r="AN173">
+        <v>0.78</v>
+      </c>
+      <c r="AO173">
+        <v>1.71</v>
+      </c>
+      <c r="AP173">
+        <v>1</v>
+      </c>
+      <c r="AQ173">
+        <v>1.5</v>
+      </c>
+      <c r="AR173">
+        <v>1.43</v>
+      </c>
+      <c r="AS173">
+        <v>1.45</v>
+      </c>
+      <c r="AT173">
+        <v>2.88</v>
+      </c>
+      <c r="AU173">
+        <v>5</v>
+      </c>
+      <c r="AV173">
+        <v>6</v>
+      </c>
+      <c r="AW173">
+        <v>3</v>
+      </c>
+      <c r="AX173">
+        <v>12</v>
+      </c>
+      <c r="AY173">
+        <v>10</v>
+      </c>
+      <c r="AZ173">
+        <v>21</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>10</v>
+      </c>
+      <c r="BC173">
+        <v>14</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>0</v>
+      </c>
+      <c r="BJ173">
+        <v>0</v>
+      </c>
+      <c r="BK173">
+        <v>0</v>
+      </c>
+      <c r="BL173">
+        <v>0</v>
+      </c>
+      <c r="BM173">
+        <v>0</v>
+      </c>
+      <c r="BN173">
+        <v>0</v>
+      </c>
+      <c r="BO173">
+        <v>0</v>
+      </c>
+      <c r="BP173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7778247</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>162</v>
+      </c>
+      <c r="P174" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q174">
+        <v>3.75</v>
+      </c>
+      <c r="R174">
+        <v>1.91</v>
+      </c>
+      <c r="S174">
+        <v>3.25</v>
+      </c>
+      <c r="T174">
+        <v>1.57</v>
+      </c>
+      <c r="U174">
+        <v>2.25</v>
+      </c>
+      <c r="V174">
+        <v>3.75</v>
+      </c>
+      <c r="W174">
+        <v>1.25</v>
+      </c>
+      <c r="X174">
+        <v>11</v>
+      </c>
+      <c r="Y174">
+        <v>1.05</v>
+      </c>
+      <c r="Z174">
+        <v>2.81</v>
+      </c>
+      <c r="AA174">
+        <v>2.83</v>
+      </c>
+      <c r="AB174">
+        <v>2.43</v>
+      </c>
+      <c r="AC174">
+        <v>1.11</v>
+      </c>
+      <c r="AD174">
+        <v>6.25</v>
+      </c>
+      <c r="AE174">
+        <v>1.5</v>
+      </c>
+      <c r="AF174">
+        <v>2.3</v>
+      </c>
+      <c r="AG174">
+        <v>2.57</v>
+      </c>
+      <c r="AH174">
+        <v>1.47</v>
+      </c>
+      <c r="AI174">
+        <v>2.1</v>
+      </c>
+      <c r="AJ174">
+        <v>1.67</v>
+      </c>
+      <c r="AK174">
+        <v>1.5</v>
+      </c>
+      <c r="AL174">
+        <v>1.33</v>
+      </c>
+      <c r="AM174">
+        <v>1.38</v>
+      </c>
+      <c r="AN174">
+        <v>1.44</v>
+      </c>
+      <c r="AO174">
+        <v>2</v>
+      </c>
+      <c r="AP174">
+        <v>1.4</v>
+      </c>
+      <c r="AQ174">
+        <v>1.9</v>
+      </c>
+      <c r="AR174">
+        <v>1.27</v>
+      </c>
+      <c r="AS174">
+        <v>1.38</v>
+      </c>
+      <c r="AT174">
+        <v>2.65</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>6</v>
+      </c>
+      <c r="AW174">
+        <v>10</v>
+      </c>
+      <c r="AX174">
+        <v>12</v>
+      </c>
+      <c r="AY174">
+        <v>18</v>
+      </c>
+      <c r="AZ174">
+        <v>23</v>
+      </c>
+      <c r="BA174">
+        <v>6</v>
+      </c>
+      <c r="BB174">
+        <v>8</v>
+      </c>
+      <c r="BC174">
+        <v>14</v>
+      </c>
+      <c r="BD174">
+        <v>1.98</v>
+      </c>
+      <c r="BE174">
+        <v>6.4</v>
+      </c>
+      <c r="BF174">
+        <v>2</v>
+      </c>
+      <c r="BG174">
+        <v>1.35</v>
+      </c>
+      <c r="BH174">
+        <v>2.8</v>
+      </c>
+      <c r="BI174">
+        <v>1.6</v>
+      </c>
+      <c r="BJ174">
+        <v>2.1</v>
+      </c>
+      <c r="BK174">
+        <v>1.97</v>
+      </c>
+      <c r="BL174">
+        <v>1.68</v>
+      </c>
+      <c r="BM174">
+        <v>2.55</v>
+      </c>
+      <c r="BN174">
+        <v>1.42</v>
+      </c>
+      <c r="BO174">
+        <v>3.3</v>
+      </c>
+      <c r="BP174">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7778248</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>88</v>
+      </c>
+      <c r="H175" t="s">
+        <v>77</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>205</v>
+      </c>
+      <c r="P175" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q175">
+        <v>3.4</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>3.6</v>
+      </c>
+      <c r="T175">
+        <v>1.5</v>
+      </c>
+      <c r="U175">
+        <v>2.5</v>
+      </c>
+      <c r="V175">
+        <v>3.5</v>
+      </c>
+      <c r="W175">
+        <v>1.29</v>
+      </c>
+      <c r="X175">
+        <v>11</v>
+      </c>
+      <c r="Y175">
+        <v>1.05</v>
+      </c>
+      <c r="Z175">
+        <v>2.37</v>
+      </c>
+      <c r="AA175">
+        <v>3.06</v>
+      </c>
+      <c r="AB175">
+        <v>2.7</v>
+      </c>
+      <c r="AC175">
+        <v>1.09</v>
+      </c>
+      <c r="AD175">
+        <v>7</v>
+      </c>
+      <c r="AE175">
+        <v>1.45</v>
+      </c>
+      <c r="AF175">
+        <v>2.7</v>
+      </c>
+      <c r="AG175">
+        <v>2.2</v>
+      </c>
+      <c r="AH175">
+        <v>1.53</v>
+      </c>
+      <c r="AI175">
+        <v>2</v>
+      </c>
+      <c r="AJ175">
+        <v>1.75</v>
+      </c>
+      <c r="AK175">
+        <v>1.42</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
+        <v>1.48</v>
+      </c>
+      <c r="AN175">
+        <v>0.63</v>
+      </c>
+      <c r="AO175">
+        <v>1.22</v>
+      </c>
+      <c r="AP175">
+        <v>0.89</v>
+      </c>
+      <c r="AQ175">
+        <v>1.1</v>
+      </c>
+      <c r="AR175">
+        <v>1.51</v>
+      </c>
+      <c r="AS175">
+        <v>1.28</v>
+      </c>
+      <c r="AT175">
+        <v>2.79</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>8</v>
+      </c>
+      <c r="AY175">
+        <v>9</v>
+      </c>
+      <c r="AZ175">
+        <v>16</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>1.83</v>
+      </c>
+      <c r="BE175">
+        <v>6.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.17</v>
+      </c>
+      <c r="BG175">
+        <v>1.29</v>
+      </c>
+      <c r="BH175">
+        <v>3.1</v>
+      </c>
+      <c r="BI175">
+        <v>1.5</v>
+      </c>
+      <c r="BJ175">
+        <v>2.3</v>
+      </c>
+      <c r="BK175">
+        <v>1.83</v>
+      </c>
+      <c r="BL175">
+        <v>1.81</v>
+      </c>
+      <c r="BM175">
+        <v>2.3</v>
+      </c>
+      <c r="BN175">
+        <v>1.52</v>
+      </c>
+      <c r="BO175">
+        <v>2.95</v>
+      </c>
+      <c r="BP175">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7778249</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>82</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>5</v>
+      </c>
+      <c r="O176" t="s">
+        <v>206</v>
+      </c>
+      <c r="P176" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q176">
+        <v>3.8</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>2.75</v>
+      </c>
+      <c r="T176">
+        <v>1.46</v>
+      </c>
+      <c r="U176">
+        <v>2.55</v>
+      </c>
+      <c r="V176">
+        <v>3.1</v>
+      </c>
+      <c r="W176">
+        <v>1.32</v>
+      </c>
+      <c r="X176">
+        <v>8.5</v>
+      </c>
+      <c r="Y176">
+        <v>1.06</v>
+      </c>
+      <c r="Z176">
+        <v>3.23</v>
+      </c>
+      <c r="AA176">
+        <v>3.05</v>
+      </c>
+      <c r="AB176">
+        <v>2.07</v>
+      </c>
+      <c r="AC176">
+        <v>1.08</v>
+      </c>
+      <c r="AD176">
+        <v>7.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.4</v>
+      </c>
+      <c r="AF176">
+        <v>2.88</v>
+      </c>
+      <c r="AG176">
+        <v>2.1</v>
+      </c>
+      <c r="AH176">
+        <v>1.6</v>
+      </c>
+      <c r="AI176">
+        <v>1.93</v>
+      </c>
+      <c r="AJ176">
+        <v>1.77</v>
+      </c>
+      <c r="AK176">
+        <v>1.66</v>
+      </c>
+      <c r="AL176">
+        <v>1.32</v>
+      </c>
+      <c r="AM176">
+        <v>1.3</v>
+      </c>
+      <c r="AN176">
+        <v>1.5</v>
+      </c>
+      <c r="AO176">
+        <v>1.86</v>
+      </c>
+      <c r="AP176">
+        <v>1.67</v>
+      </c>
+      <c r="AQ176">
+        <v>1.63</v>
+      </c>
+      <c r="AR176">
+        <v>1.33</v>
+      </c>
+      <c r="AS176">
+        <v>1.38</v>
+      </c>
+      <c r="AT176">
+        <v>2.71</v>
+      </c>
+      <c r="AU176">
+        <v>9</v>
+      </c>
+      <c r="AV176">
+        <v>8</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>12</v>
+      </c>
+      <c r="AY176">
+        <v>18</v>
+      </c>
+      <c r="AZ176">
+        <v>25</v>
+      </c>
+      <c r="BA176">
+        <v>9</v>
+      </c>
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
+        <v>13</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>0</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>0</v>
+      </c>
+      <c r="BJ176">
+        <v>0</v>
+      </c>
+      <c r="BK176">
+        <v>0</v>
+      </c>
+      <c r="BL176">
+        <v>0</v>
+      </c>
+      <c r="BM176">
+        <v>0</v>
+      </c>
+      <c r="BN176">
+        <v>0</v>
+      </c>
+      <c r="BO176">
+        <v>0</v>
+      </c>
+      <c r="BP176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7778244</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45802.125</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s">
+        <v>83</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>207</v>
+      </c>
+      <c r="P177" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q177">
+        <v>3.5</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>3.5</v>
+      </c>
+      <c r="T177">
+        <v>1.53</v>
+      </c>
+      <c r="U177">
+        <v>2.38</v>
+      </c>
+      <c r="V177">
+        <v>3.75</v>
+      </c>
+      <c r="W177">
+        <v>1.25</v>
+      </c>
+      <c r="X177">
+        <v>11</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>2.65</v>
+      </c>
+      <c r="AA177">
+        <v>2.91</v>
+      </c>
+      <c r="AB177">
+        <v>2.5</v>
+      </c>
+      <c r="AC177">
+        <v>1.1</v>
+      </c>
+      <c r="AD177">
+        <v>6.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.48</v>
+      </c>
+      <c r="AF177">
+        <v>2.37</v>
+      </c>
+      <c r="AG177">
+        <v>2.53</v>
+      </c>
+      <c r="AH177">
+        <v>1.53</v>
+      </c>
+      <c r="AI177">
+        <v>2.1</v>
+      </c>
+      <c r="AJ177">
+        <v>1.67</v>
+      </c>
+      <c r="AK177">
+        <v>1.45</v>
+      </c>
+      <c r="AL177">
+        <v>1.3</v>
+      </c>
+      <c r="AM177">
+        <v>1.42</v>
+      </c>
+      <c r="AN177">
+        <v>1.25</v>
+      </c>
+      <c r="AO177">
+        <v>1.9</v>
+      </c>
+      <c r="AP177">
+        <v>1.44</v>
+      </c>
+      <c r="AQ177">
+        <v>1.73</v>
+      </c>
+      <c r="AR177">
+        <v>1.39</v>
+      </c>
+      <c r="AS177">
+        <v>1.4</v>
+      </c>
+      <c r="AT177">
+        <v>2.79</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>10</v>
+      </c>
+      <c r="AX177">
+        <v>6</v>
+      </c>
+      <c r="AY177">
+        <v>18</v>
+      </c>
+      <c r="AZ177">
+        <v>11</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>9</v>
+      </c>
+      <c r="BD177">
+        <v>2</v>
+      </c>
+      <c r="BE177">
+        <v>6.75</v>
+      </c>
+      <c r="BF177">
+        <v>1.95</v>
+      </c>
+      <c r="BG177">
+        <v>1.22</v>
+      </c>
+      <c r="BH177">
+        <v>3.55</v>
+      </c>
+      <c r="BI177">
+        <v>1.4</v>
+      </c>
+      <c r="BJ177">
+        <v>2.63</v>
+      </c>
+      <c r="BK177">
+        <v>1.65</v>
+      </c>
+      <c r="BL177">
+        <v>2.02</v>
+      </c>
+      <c r="BM177">
+        <v>2</v>
+      </c>
+      <c r="BN177">
+        <v>1.67</v>
+      </c>
+      <c r="BO177">
+        <v>2.55</v>
+      </c>
+      <c r="BP177">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7778243</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45802.125</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>85</v>
+      </c>
+      <c r="H178" t="s">
+        <v>87</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>91</v>
+      </c>
+      <c r="P178" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q178">
+        <v>4.75</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>2.6</v>
+      </c>
+      <c r="T178">
+        <v>1.44</v>
+      </c>
+      <c r="U178">
+        <v>2.63</v>
+      </c>
+      <c r="V178">
+        <v>3.25</v>
+      </c>
+      <c r="W178">
+        <v>1.33</v>
+      </c>
+      <c r="X178">
+        <v>9</v>
+      </c>
+      <c r="Y178">
+        <v>1.07</v>
+      </c>
+      <c r="Z178">
+        <v>3.84</v>
+      </c>
+      <c r="AA178">
+        <v>3.23</v>
+      </c>
+      <c r="AB178">
+        <v>1.82</v>
+      </c>
+      <c r="AC178">
+        <v>1.07</v>
+      </c>
+      <c r="AD178">
+        <v>8</v>
+      </c>
+      <c r="AE178">
+        <v>1.38</v>
+      </c>
+      <c r="AF178">
+        <v>2.95</v>
+      </c>
+      <c r="AG178">
+        <v>2.05</v>
+      </c>
+      <c r="AH178">
+        <v>1.61</v>
+      </c>
+      <c r="AI178">
+        <v>2</v>
+      </c>
+      <c r="AJ178">
+        <v>1.75</v>
+      </c>
+      <c r="AK178">
+        <v>1.85</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.22</v>
+      </c>
+      <c r="AN178">
+        <v>1.38</v>
+      </c>
+      <c r="AO178">
+        <v>1.43</v>
+      </c>
+      <c r="AP178">
+        <v>1.22</v>
+      </c>
+      <c r="AQ178">
+        <v>1.63</v>
+      </c>
+      <c r="AR178">
+        <v>1.49</v>
+      </c>
+      <c r="AS178">
+        <v>1.57</v>
+      </c>
+      <c r="AT178">
+        <v>3.06</v>
+      </c>
+      <c r="AU178">
+        <v>2</v>
+      </c>
+      <c r="AV178">
+        <v>8</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>12</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>23</v>
+      </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
+        <v>7</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
+        <v>2.65</v>
+      </c>
+      <c r="BE178">
+        <v>6.75</v>
+      </c>
+      <c r="BF178">
+        <v>1.57</v>
+      </c>
+      <c r="BG178">
+        <v>1.36</v>
+      </c>
+      <c r="BH178">
+        <v>2.75</v>
+      </c>
+      <c r="BI178">
+        <v>1.62</v>
+      </c>
+      <c r="BJ178">
+        <v>2.07</v>
+      </c>
+      <c r="BK178">
+        <v>2</v>
+      </c>
+      <c r="BL178">
+        <v>1.67</v>
+      </c>
+      <c r="BM178">
+        <v>2.55</v>
+      </c>
+      <c r="BN178">
+        <v>1.41</v>
+      </c>
+      <c r="BO178">
+        <v>3.4</v>
+      </c>
+      <c r="BP178">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7778245</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45802.16666666666</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>208</v>
+      </c>
+      <c r="P179" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q179">
+        <v>2.45</v>
+      </c>
+      <c r="R179">
+        <v>2.15</v>
+      </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>2.87</v>
+      </c>
+      <c r="V179">
+        <v>2.65</v>
+      </c>
+      <c r="W179">
+        <v>1.42</v>
+      </c>
+      <c r="X179">
+        <v>6.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.09</v>
+      </c>
+      <c r="Z179">
+        <v>1.83</v>
+      </c>
+      <c r="AA179">
+        <v>3.34</v>
+      </c>
+      <c r="AB179">
+        <v>3.64</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>9</v>
+      </c>
+      <c r="AE179">
+        <v>1.28</v>
+      </c>
+      <c r="AF179">
+        <v>3.5</v>
+      </c>
+      <c r="AG179">
+        <v>1.83</v>
+      </c>
+      <c r="AH179">
+        <v>1.87</v>
+      </c>
+      <c r="AI179">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179">
+        <v>1.95</v>
+      </c>
+      <c r="AK179">
+        <v>1.26</v>
+      </c>
+      <c r="AL179">
+        <v>1.28</v>
+      </c>
+      <c r="AM179">
+        <v>1.85</v>
+      </c>
+      <c r="AN179">
+        <v>1.88</v>
+      </c>
+      <c r="AO179">
+        <v>0.89</v>
+      </c>
+      <c r="AP179">
+        <v>1.78</v>
+      </c>
+      <c r="AQ179">
+        <v>0.9</v>
+      </c>
+      <c r="AR179">
+        <v>1.72</v>
+      </c>
+      <c r="AS179">
+        <v>1.57</v>
+      </c>
+      <c r="AT179">
+        <v>3.29</v>
+      </c>
+      <c r="AU179">
+        <v>3</v>
+      </c>
+      <c r="AV179">
+        <v>5</v>
+      </c>
+      <c r="AW179">
+        <v>10</v>
+      </c>
+      <c r="AX179">
+        <v>8</v>
+      </c>
+      <c r="AY179">
+        <v>14</v>
+      </c>
+      <c r="AZ179">
+        <v>14</v>
+      </c>
+      <c r="BA179">
+        <v>3</v>
+      </c>
+      <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
+        <v>7</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>0</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>0</v>
+      </c>
+      <c r="BI179">
+        <v>0</v>
+      </c>
+      <c r="BJ179">
+        <v>0</v>
+      </c>
+      <c r="BK179">
+        <v>0</v>
+      </c>
+      <c r="BL179">
+        <v>0</v>
+      </c>
+      <c r="BM179">
+        <v>0</v>
+      </c>
+      <c r="BN179">
+        <v>0</v>
+      </c>
+      <c r="BO179">
+        <v>0</v>
+      </c>
+      <c r="BP179">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1215,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1555,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ2">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -7323,7 +7323,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -8765,7 +8765,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ37">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -9586,7 +9586,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ41">
         <v>1.9</v>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -11443,7 +11443,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -17414,7 +17414,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ79">
         <v>1.11</v>
@@ -19477,7 +19477,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ89">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -22358,7 +22358,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ103">
         <v>1.73</v>
@@ -24418,7 +24418,7 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ113">
         <v>0.14</v>
@@ -24627,7 +24627,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR114">
         <v>1.46</v>
@@ -25654,7 +25654,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ119">
         <v>1.63</v>
@@ -29156,7 +29156,7 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ136">
         <v>1.11</v>
@@ -29365,7 +29365,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -29571,7 +29571,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR138">
         <v>1.72</v>
@@ -29980,7 +29980,7 @@
         <v>0.71</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -35130,7 +35130,7 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35339,7 +35339,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR166">
         <v>1.66</v>
@@ -38093,6 +38093,212 @@
       </c>
       <c r="BP179">
         <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7778292</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45805.3125</v>
+      </c>
+      <c r="F180">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>89</v>
+      </c>
+      <c r="H180" t="s">
+        <v>84</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>91</v>
+      </c>
+      <c r="P180" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q180">
+        <v>2.63</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>1.36</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>2.75</v>
+      </c>
+      <c r="W180">
+        <v>1.4</v>
+      </c>
+      <c r="X180">
+        <v>7</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>1.94</v>
+      </c>
+      <c r="AA180">
+        <v>3.21</v>
+      </c>
+      <c r="AB180">
+        <v>3.41</v>
+      </c>
+      <c r="AC180">
+        <v>1.06</v>
+      </c>
+      <c r="AD180">
+        <v>9</v>
+      </c>
+      <c r="AE180">
+        <v>1.28</v>
+      </c>
+      <c r="AF180">
+        <v>3.3</v>
+      </c>
+      <c r="AG180">
+        <v>1.89</v>
+      </c>
+      <c r="AH180">
+        <v>1.81</v>
+      </c>
+      <c r="AI180">
+        <v>1.75</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.29</v>
+      </c>
+      <c r="AL180">
+        <v>1.31</v>
+      </c>
+      <c r="AM180">
+        <v>1.71</v>
+      </c>
+      <c r="AN180">
+        <v>2.33</v>
+      </c>
+      <c r="AO180">
+        <v>1.11</v>
+      </c>
+      <c r="AP180">
+        <v>2.2</v>
+      </c>
+      <c r="AQ180">
+        <v>1.1</v>
+      </c>
+      <c r="AR180">
+        <v>1.47</v>
+      </c>
+      <c r="AS180">
+        <v>1.47</v>
+      </c>
+      <c r="AT180">
+        <v>2.94</v>
+      </c>
+      <c r="AU180">
+        <v>7</v>
+      </c>
+      <c r="AV180">
+        <v>6</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>14</v>
+      </c>
+      <c r="AY180">
+        <v>14</v>
+      </c>
+      <c r="AZ180">
+        <v>23</v>
+      </c>
+      <c r="BA180">
+        <v>4</v>
+      </c>
+      <c r="BB180">
+        <v>8</v>
+      </c>
+      <c r="BC180">
+        <v>12</v>
+      </c>
+      <c r="BD180">
+        <v>1.74</v>
+      </c>
+      <c r="BE180">
+        <v>6.5</v>
+      </c>
+      <c r="BF180">
+        <v>2.3</v>
+      </c>
+      <c r="BG180">
+        <v>1.24</v>
+      </c>
+      <c r="BH180">
+        <v>3.4</v>
+      </c>
+      <c r="BI180">
+        <v>1.42</v>
+      </c>
+      <c r="BJ180">
+        <v>2.55</v>
+      </c>
+      <c r="BK180">
+        <v>1.7</v>
+      </c>
+      <c r="BL180">
+        <v>1.95</v>
+      </c>
+      <c r="BM180">
+        <v>2.1</v>
+      </c>
+      <c r="BN180">
+        <v>1.6</v>
+      </c>
+      <c r="BO180">
+        <v>2.7</v>
+      </c>
+      <c r="BP180">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,9 @@
     <t>['32', '79']</t>
   </si>
   <si>
+    <t>['54', '90', '90+2']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -854,6 +857,12 @@
   </si>
   <si>
     <t>['53', '60']</t>
+  </si>
+  <si>
+    <t>['23', '27', '90+4']</t>
+  </si>
+  <si>
+    <t>['18', '40', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1483,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1758,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
         <v>1.9</v>
@@ -2585,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3122,7 +3131,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3200,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ10">
         <v>1.63</v>
@@ -3328,7 +3337,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3534,7 +3543,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3612,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3740,7 +3749,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3818,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -4233,7 +4242,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4358,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4564,7 +4573,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4770,7 +4779,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5263,7 +5272,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5469,7 +5478,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ21">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5594,7 +5603,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5672,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -6006,7 +6015,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6624,7 +6633,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6705,7 +6714,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>2.08</v>
@@ -6830,7 +6839,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6908,10 +6917,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR28">
         <v>0.8</v>
@@ -7242,7 +7251,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7320,7 +7329,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>1.1</v>
@@ -7654,7 +7663,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8272,7 +8281,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8478,7 +8487,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8684,7 +8693,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8890,7 +8899,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8968,7 +8977,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -9508,7 +9517,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9920,7 +9929,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10001,7 +10010,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR43">
         <v>1.74</v>
@@ -10538,7 +10547,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10744,7 +10753,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10950,7 +10959,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11028,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11646,10 +11655,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR51">
         <v>1.02</v>
@@ -11774,7 +11783,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12058,7 +12067,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12186,7 +12195,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12804,7 +12813,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13216,7 +13225,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13297,7 +13306,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13422,7 +13431,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13709,7 +13718,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -14118,10 +14127,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14246,7 +14255,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14530,7 +14539,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14945,7 +14954,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR67">
         <v>1.72</v>
@@ -15070,7 +15079,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15148,7 +15157,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
         <v>1.8</v>
@@ -15276,7 +15285,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15688,7 +15697,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16384,10 +16393,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ74">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>1.09</v>
@@ -16924,7 +16933,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17211,7 +17220,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR78">
         <v>1.29</v>
@@ -17336,7 +17345,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17623,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR80">
         <v>1.25</v>
@@ -18032,7 +18041,7 @@
         <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82">
         <v>0.9</v>
@@ -18160,7 +18169,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18238,7 +18247,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18653,7 +18662,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18778,7 +18787,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19062,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
         <v>0.9</v>
@@ -19190,7 +19199,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19602,7 +19611,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19683,7 +19692,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
         <v>1.9</v>
@@ -20014,7 +20023,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20632,7 +20641,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20710,10 +20719,10 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ95">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -20919,7 +20928,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21456,7 +21465,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21534,7 +21543,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ99">
         <v>0.9</v>
@@ -21868,7 +21877,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22074,7 +22083,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22280,7 +22289,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22486,7 +22495,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22898,7 +22907,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23104,7 +23113,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23310,7 +23319,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23388,7 +23397,7 @@
         <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ108">
         <v>1.63</v>
@@ -23928,7 +23937,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24215,7 +24224,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ112">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR112">
         <v>1.78</v>
@@ -24421,7 +24430,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ113">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24752,7 +24761,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24830,7 +24839,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ115">
         <v>1.1</v>
@@ -24958,7 +24967,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25242,7 +25251,7 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117">
         <v>0.63</v>
@@ -25988,7 +25997,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26066,10 +26075,10 @@
         <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26194,7 +26203,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26400,7 +26409,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26481,7 +26490,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26606,7 +26615,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26812,7 +26821,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26893,7 +26902,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR125">
         <v>1.53</v>
@@ -27018,7 +27027,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27096,7 +27105,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ126">
         <v>1.9</v>
@@ -27636,7 +27645,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27842,7 +27851,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28048,7 +28057,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28254,7 +28263,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29159,7 +29168,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ136">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR136">
         <v>1.42</v>
@@ -29284,7 +29293,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29490,7 +29499,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29774,7 +29783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ139">
         <v>1.5</v>
@@ -29902,7 +29911,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30186,7 +30195,7 @@
         <v>0.67</v>
       </c>
       <c r="AP141">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ141">
         <v>0.63</v>
@@ -30392,7 +30401,7 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -30726,7 +30735,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30804,7 +30813,7 @@
         <v>1.63</v>
       </c>
       <c r="AP144">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ144">
         <v>1.73</v>
@@ -31425,7 +31434,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ147">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31628,7 +31637,7 @@
         <v>0.71</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
         <v>0.63</v>
@@ -31756,7 +31765,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32168,7 +32177,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32374,7 +32383,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32867,7 +32876,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ154">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR154">
         <v>1.91</v>
@@ -32992,7 +33001,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33198,7 +33207,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33404,7 +33413,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33610,7 +33619,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33816,7 +33825,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -34100,7 +34109,7 @@
         <v>2.25</v>
       </c>
       <c r="AP160">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ160">
         <v>1.9</v>
@@ -34309,7 +34318,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ161">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR161">
         <v>1.68</v>
@@ -34434,7 +34443,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34512,7 +34521,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP162">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ162">
         <v>0.6</v>
@@ -35052,7 +35061,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35545,7 +35554,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35670,7 +35679,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35876,7 +35885,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -35957,7 +35966,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR169">
         <v>1.38</v>
@@ -36366,7 +36375,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ171">
         <v>0.9</v>
@@ -36494,7 +36503,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -37318,7 +37327,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q176">
         <v>3.8</v>
@@ -37399,7 +37408,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ176">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR176">
         <v>1.33</v>
@@ -37730,7 +37739,7 @@
         <v>91</v>
       </c>
       <c r="P178" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q178">
         <v>4.75</v>
@@ -37936,7 +37945,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q179">
         <v>2.45</v>
@@ -38299,6 +38308,830 @@
       </c>
       <c r="BP180">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7778257</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H181" t="s">
+        <v>88</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>209</v>
+      </c>
+      <c r="P181" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q181">
+        <v>2.75</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>4.75</v>
+      </c>
+      <c r="T181">
+        <v>1.53</v>
+      </c>
+      <c r="U181">
+        <v>2.38</v>
+      </c>
+      <c r="V181">
+        <v>3.5</v>
+      </c>
+      <c r="W181">
+        <v>1.29</v>
+      </c>
+      <c r="X181">
+        <v>11</v>
+      </c>
+      <c r="Y181">
+        <v>1.05</v>
+      </c>
+      <c r="Z181">
+        <v>1.89</v>
+      </c>
+      <c r="AA181">
+        <v>3</v>
+      </c>
+      <c r="AB181">
+        <v>3.9</v>
+      </c>
+      <c r="AC181">
+        <v>1.1</v>
+      </c>
+      <c r="AD181">
+        <v>6.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.57</v>
+      </c>
+      <c r="AF181">
+        <v>2.42</v>
+      </c>
+      <c r="AG181">
+        <v>2.37</v>
+      </c>
+      <c r="AH181">
+        <v>1.48</v>
+      </c>
+      <c r="AI181">
+        <v>2.1</v>
+      </c>
+      <c r="AJ181">
+        <v>1.67</v>
+      </c>
+      <c r="AK181">
+        <v>1.25</v>
+      </c>
+      <c r="AL181">
+        <v>1.3</v>
+      </c>
+      <c r="AM181">
+        <v>1.75</v>
+      </c>
+      <c r="AN181">
+        <v>1.75</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>1.89</v>
+      </c>
+      <c r="AQ181">
+        <v>0.89</v>
+      </c>
+      <c r="AR181">
+        <v>1.55</v>
+      </c>
+      <c r="AS181">
+        <v>1.12</v>
+      </c>
+      <c r="AT181">
+        <v>2.67</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>14</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>23</v>
+      </c>
+      <c r="AZ181">
+        <v>7</v>
+      </c>
+      <c r="BA181">
+        <v>8</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>11</v>
+      </c>
+      <c r="BD181">
+        <v>1.61</v>
+      </c>
+      <c r="BE181">
+        <v>6.75</v>
+      </c>
+      <c r="BF181">
+        <v>2.55</v>
+      </c>
+      <c r="BG181">
+        <v>1.38</v>
+      </c>
+      <c r="BH181">
+        <v>2.65</v>
+      </c>
+      <c r="BI181">
+        <v>1.65</v>
+      </c>
+      <c r="BJ181">
+        <v>2.02</v>
+      </c>
+      <c r="BK181">
+        <v>2.06</v>
+      </c>
+      <c r="BL181">
+        <v>1.63</v>
+      </c>
+      <c r="BM181">
+        <v>2.65</v>
+      </c>
+      <c r="BN181">
+        <v>1.38</v>
+      </c>
+      <c r="BO181">
+        <v>3.55</v>
+      </c>
+      <c r="BP181">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7778255</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>3</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>91</v>
+      </c>
+      <c r="P182" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q182">
+        <v>2.4</v>
+      </c>
+      <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>4.5</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>3</v>
+      </c>
+      <c r="V182">
+        <v>2.63</v>
+      </c>
+      <c r="W182">
+        <v>1.44</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.1</v>
+      </c>
+      <c r="Z182">
+        <v>1.78</v>
+      </c>
+      <c r="AA182">
+        <v>3.59</v>
+      </c>
+      <c r="AB182">
+        <v>3.57</v>
+      </c>
+      <c r="AC182">
+        <v>1.04</v>
+      </c>
+      <c r="AD182">
+        <v>10</v>
+      </c>
+      <c r="AE182">
+        <v>1.25</v>
+      </c>
+      <c r="AF182">
+        <v>3.8</v>
+      </c>
+      <c r="AG182">
+        <v>1.9</v>
+      </c>
+      <c r="AH182">
+        <v>1.8</v>
+      </c>
+      <c r="AI182">
+        <v>1.8</v>
+      </c>
+      <c r="AJ182">
+        <v>1.95</v>
+      </c>
+      <c r="AK182">
+        <v>1.22</v>
+      </c>
+      <c r="AL182">
+        <v>1.2</v>
+      </c>
+      <c r="AM182">
+        <v>1.95</v>
+      </c>
+      <c r="AN182">
+        <v>0.88</v>
+      </c>
+      <c r="AO182">
+        <v>0.14</v>
+      </c>
+      <c r="AP182">
+        <v>0.78</v>
+      </c>
+      <c r="AQ182">
+        <v>0.5</v>
+      </c>
+      <c r="AR182">
+        <v>1.42</v>
+      </c>
+      <c r="AS182">
+        <v>1.4</v>
+      </c>
+      <c r="AT182">
+        <v>2.82</v>
+      </c>
+      <c r="AU182">
+        <v>8</v>
+      </c>
+      <c r="AV182">
+        <v>5</v>
+      </c>
+      <c r="AW182">
+        <v>9</v>
+      </c>
+      <c r="AX182">
+        <v>3</v>
+      </c>
+      <c r="AY182">
+        <v>19</v>
+      </c>
+      <c r="AZ182">
+        <v>8</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>1</v>
+      </c>
+      <c r="BC182">
+        <v>6</v>
+      </c>
+      <c r="BD182">
+        <v>1.52</v>
+      </c>
+      <c r="BE182">
+        <v>6.75</v>
+      </c>
+      <c r="BF182">
+        <v>2.8</v>
+      </c>
+      <c r="BG182">
+        <v>1.3</v>
+      </c>
+      <c r="BH182">
+        <v>3</v>
+      </c>
+      <c r="BI182">
+        <v>1.53</v>
+      </c>
+      <c r="BJ182">
+        <v>2.25</v>
+      </c>
+      <c r="BK182">
+        <v>1.86</v>
+      </c>
+      <c r="BL182">
+        <v>1.78</v>
+      </c>
+      <c r="BM182">
+        <v>2.35</v>
+      </c>
+      <c r="BN182">
+        <v>1.49</v>
+      </c>
+      <c r="BO182">
+        <v>3.05</v>
+      </c>
+      <c r="BP182">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7778262</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>79</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>91</v>
+      </c>
+      <c r="P183" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q183">
+        <v>3.6</v>
+      </c>
+      <c r="R183">
+        <v>1.83</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.67</v>
+      </c>
+      <c r="U183">
+        <v>2.1</v>
+      </c>
+      <c r="V183">
+        <v>4.33</v>
+      </c>
+      <c r="W183">
+        <v>1.2</v>
+      </c>
+      <c r="X183">
+        <v>15</v>
+      </c>
+      <c r="Y183">
+        <v>1.03</v>
+      </c>
+      <c r="Z183">
+        <v>2.32</v>
+      </c>
+      <c r="AA183">
+        <v>2.66</v>
+      </c>
+      <c r="AB183">
+        <v>3.19</v>
+      </c>
+      <c r="AC183">
+        <v>1.14</v>
+      </c>
+      <c r="AD183">
+        <v>5.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.6</v>
+      </c>
+      <c r="AF183">
+        <v>2.1</v>
+      </c>
+      <c r="AG183">
+        <v>3.04</v>
+      </c>
+      <c r="AH183">
+        <v>1.35</v>
+      </c>
+      <c r="AI183">
+        <v>2.38</v>
+      </c>
+      <c r="AJ183">
+        <v>1.53</v>
+      </c>
+      <c r="AK183">
+        <v>1.35</v>
+      </c>
+      <c r="AL183">
+        <v>1.36</v>
+      </c>
+      <c r="AM183">
+        <v>1.48</v>
+      </c>
+      <c r="AN183">
+        <v>1.33</v>
+      </c>
+      <c r="AO183">
+        <v>1.11</v>
+      </c>
+      <c r="AP183">
+        <v>1.3</v>
+      </c>
+      <c r="AQ183">
+        <v>1.1</v>
+      </c>
+      <c r="AR183">
+        <v>1.56</v>
+      </c>
+      <c r="AS183">
+        <v>1.11</v>
+      </c>
+      <c r="AT183">
+        <v>2.67</v>
+      </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>0</v>
+      </c>
+      <c r="AW183">
+        <v>6</v>
+      </c>
+      <c r="AX183">
+        <v>15</v>
+      </c>
+      <c r="AY183">
+        <v>13</v>
+      </c>
+      <c r="AZ183">
+        <v>18</v>
+      </c>
+      <c r="BA183">
+        <v>3</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>6</v>
+      </c>
+      <c r="BD183">
+        <v>1.86</v>
+      </c>
+      <c r="BE183">
+        <v>6.1</v>
+      </c>
+      <c r="BF183">
+        <v>2.15</v>
+      </c>
+      <c r="BG183">
+        <v>1.57</v>
+      </c>
+      <c r="BH183">
+        <v>2.15</v>
+      </c>
+      <c r="BI183">
+        <v>1.96</v>
+      </c>
+      <c r="BJ183">
+        <v>1.7</v>
+      </c>
+      <c r="BK183">
+        <v>2.55</v>
+      </c>
+      <c r="BL183">
+        <v>1.42</v>
+      </c>
+      <c r="BM183">
+        <v>3.4</v>
+      </c>
+      <c r="BN183">
+        <v>1.24</v>
+      </c>
+      <c r="BO183">
+        <v>4.6</v>
+      </c>
+      <c r="BP183">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7778254</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45808.16666666666</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>96</v>
+      </c>
+      <c r="P184" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q184">
+        <v>3.75</v>
+      </c>
+      <c r="R184">
+        <v>2.05</v>
+      </c>
+      <c r="S184">
+        <v>3.1</v>
+      </c>
+      <c r="T184">
+        <v>1.44</v>
+      </c>
+      <c r="U184">
+        <v>2.63</v>
+      </c>
+      <c r="V184">
+        <v>3.25</v>
+      </c>
+      <c r="W184">
+        <v>1.33</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>3.1</v>
+      </c>
+      <c r="AA184">
+        <v>2.98</v>
+      </c>
+      <c r="AB184">
+        <v>2.17</v>
+      </c>
+      <c r="AC184">
+        <v>1.07</v>
+      </c>
+      <c r="AD184">
+        <v>8</v>
+      </c>
+      <c r="AE184">
+        <v>1.4</v>
+      </c>
+      <c r="AF184">
+        <v>2.9</v>
+      </c>
+      <c r="AG184">
+        <v>1.94</v>
+      </c>
+      <c r="AH184">
+        <v>1.76</v>
+      </c>
+      <c r="AI184">
+        <v>1.95</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.6</v>
+      </c>
+      <c r="AL184">
+        <v>1.28</v>
+      </c>
+      <c r="AM184">
+        <v>1.35</v>
+      </c>
+      <c r="AN184">
+        <v>1.88</v>
+      </c>
+      <c r="AO184">
+        <v>1.63</v>
+      </c>
+      <c r="AP184">
+        <v>1.67</v>
+      </c>
+      <c r="AQ184">
+        <v>1.78</v>
+      </c>
+      <c r="AR184">
+        <v>1.55</v>
+      </c>
+      <c r="AS184">
+        <v>1.49</v>
+      </c>
+      <c r="AT184">
+        <v>3.04</v>
+      </c>
+      <c r="AU184">
+        <v>-1</v>
+      </c>
+      <c r="AV184">
+        <v>-1</v>
+      </c>
+      <c r="AW184">
+        <v>-1</v>
+      </c>
+      <c r="AX184">
+        <v>-1</v>
+      </c>
+      <c r="AY184">
+        <v>-1</v>
+      </c>
+      <c r="AZ184">
+        <v>-1</v>
+      </c>
+      <c r="BA184">
+        <v>-1</v>
+      </c>
+      <c r="BB184">
+        <v>-1</v>
+      </c>
+      <c r="BC184">
+        <v>-1</v>
+      </c>
+      <c r="BD184">
+        <v>2.18</v>
+      </c>
+      <c r="BE184">
+        <v>6.75</v>
+      </c>
+      <c r="BF184">
+        <v>1.79</v>
+      </c>
+      <c r="BG184">
+        <v>1.26</v>
+      </c>
+      <c r="BH184">
+        <v>3.25</v>
+      </c>
+      <c r="BI184">
+        <v>1.47</v>
+      </c>
+      <c r="BJ184">
+        <v>2.38</v>
+      </c>
+      <c r="BK184">
+        <v>1.77</v>
+      </c>
+      <c r="BL184">
+        <v>1.88</v>
+      </c>
+      <c r="BM184">
+        <v>2.2</v>
+      </c>
+      <c r="BN184">
+        <v>1.55</v>
+      </c>
+      <c r="BO184">
+        <v>2.85</v>
+      </c>
+      <c r="BP184">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,12 @@
     <t>['54', '90', '90+2']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['32', '70', '75']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -707,9 +713,6 @@
   </si>
   <si>
     <t>['38', '67']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['24', '37']</t>
@@ -863,6 +866,9 @@
   </si>
   <si>
     <t>['18', '40', '90+6']</t>
+  </si>
+  <si>
+    <t>['50', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1489,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1561,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>1.1</v>
@@ -2182,7 +2188,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3006,7 +3012,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3131,7 +3137,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3337,7 +3343,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3543,7 +3549,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3749,7 +3755,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3830,7 +3836,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4367,7 +4373,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4445,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>0.9</v>
@@ -4573,7 +4579,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4779,7 +4785,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4857,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>1.11</v>
@@ -5475,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5603,7 +5609,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5684,7 +5690,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>0.91</v>
@@ -6015,7 +6021,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6633,7 +6639,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6839,7 +6845,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7251,7 +7257,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7663,7 +7669,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7950,7 +7956,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR33">
         <v>1.86</v>
@@ -8281,7 +8287,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8487,7 +8493,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8693,7 +8699,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8899,7 +8905,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9389,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ40">
         <v>0.63</v>
@@ -9517,7 +9523,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9929,7 +9935,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10213,7 +10219,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
         <v>1.11</v>
@@ -10547,7 +10553,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10753,7 +10759,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10959,7 +10965,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11040,7 +11046,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.45</v>
@@ -11243,7 +11249,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
         <v>1.11</v>
@@ -11783,7 +11789,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12070,7 +12076,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>1.12</v>
@@ -12195,7 +12201,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12688,7 +12694,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
         <v>1.66</v>
@@ -12813,7 +12819,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12891,7 +12897,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ57">
         <v>1.9</v>
@@ -13225,7 +13231,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13431,7 +13437,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14255,7 +14261,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14745,7 +14751,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>1.63</v>
@@ -15079,7 +15085,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15285,7 +15291,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15366,7 +15372,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15569,10 +15575,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15697,7 +15703,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15981,7 +15987,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>1.8</v>
@@ -16187,7 +16193,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73">
         <v>1.9</v>
@@ -16933,7 +16939,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17014,7 +17020,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -17345,7 +17351,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17838,7 +17844,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -18169,7 +18175,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18250,7 +18256,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18787,7 +18793,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19199,7 +19205,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19483,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ89">
         <v>1.1</v>
@@ -19611,7 +19617,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20023,7 +20029,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20101,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92">
         <v>0.63</v>
@@ -20310,7 +20316,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20513,7 +20519,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>0.6</v>
@@ -20641,7 +20647,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21134,7 +21140,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR97">
         <v>1.91</v>
@@ -21337,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98">
         <v>1.1</v>
@@ -21465,7 +21471,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21877,7 +21883,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22083,7 +22089,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22164,7 +22170,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22289,7 +22295,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22495,7 +22501,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22907,7 +22913,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22988,7 +22994,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23113,7 +23119,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23319,7 +23325,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23812,7 +23818,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>2.07</v>
@@ -23937,7 +23943,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24761,7 +24767,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24967,7 +24973,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25045,7 +25051,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116">
         <v>0.63</v>
@@ -25997,7 +26003,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26203,7 +26209,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26409,7 +26415,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26487,7 +26493,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ123">
         <v>0.89</v>
@@ -26615,7 +26621,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26696,7 +26702,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.26</v>
@@ -26821,7 +26827,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -27027,7 +27033,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27311,7 +27317,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>1.73</v>
@@ -27645,7 +27651,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27851,7 +27857,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27929,7 +27935,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
         <v>1.11</v>
@@ -28057,7 +28063,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28263,7 +28269,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28344,7 +28350,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR132">
         <v>1.52</v>
@@ -28753,7 +28759,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ134">
         <v>1.1</v>
@@ -29293,7 +29299,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29371,7 +29377,7 @@
         <v>0.67</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ137">
         <v>1.1</v>
@@ -29499,7 +29505,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29786,7 +29792,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -29911,7 +29917,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30735,7 +30741,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31765,7 +31771,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32052,7 +32058,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32177,7 +32183,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32255,7 +32261,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151">
         <v>0.6</v>
@@ -32383,7 +32389,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32667,7 +32673,7 @@
         <v>1.17</v>
       </c>
       <c r="AP153">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ153">
         <v>1.63</v>
@@ -33001,7 +33007,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33207,7 +33213,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33413,7 +33419,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33619,7 +33625,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33825,7 +33831,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -34315,7 +34321,7 @@
         <v>1.25</v>
       </c>
       <c r="AP161">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ161">
         <v>1.1</v>
@@ -34443,7 +34449,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -35061,7 +35067,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35142,7 +35148,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR165">
         <v>1.36</v>
@@ -35679,7 +35685,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35885,7 +35891,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36503,7 +36509,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -36790,7 +36796,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37327,7 +37333,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q176">
         <v>3.8</v>
@@ -37739,7 +37745,7 @@
         <v>91</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q178">
         <v>4.75</v>
@@ -37945,7 +37951,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q179">
         <v>2.45</v>
@@ -38563,7 +38569,7 @@
         <v>91</v>
       </c>
       <c r="P182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q182">
         <v>2.4</v>
@@ -38975,7 +38981,7 @@
         <v>96</v>
       </c>
       <c r="P184" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39068,31 +39074,31 @@
         <v>3.04</v>
       </c>
       <c r="AU184">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW184">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX184">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY184">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ184">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC184">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD184">
         <v>2.18</v>
@@ -39132,6 +39138,624 @@
       </c>
       <c r="BP184">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7778261</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45808.22916666666</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>87</v>
+      </c>
+      <c r="H185" t="s">
+        <v>76</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>210</v>
+      </c>
+      <c r="P185" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q185">
+        <v>2.75</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>1.81</v>
+      </c>
+      <c r="AA185">
+        <v>3.33</v>
+      </c>
+      <c r="AB185">
+        <v>3.73</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>8.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.3</v>
+      </c>
+      <c r="AF185">
+        <v>3.35</v>
+      </c>
+      <c r="AG185">
+        <v>1.87</v>
+      </c>
+      <c r="AH185">
+        <v>1.83</v>
+      </c>
+      <c r="AI185">
+        <v>1.75</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>1.3</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.7</v>
+      </c>
+      <c r="AN185">
+        <v>2.11</v>
+      </c>
+      <c r="AO185">
+        <v>1.25</v>
+      </c>
+      <c r="AP185">
+        <v>1.9</v>
+      </c>
+      <c r="AQ185">
+        <v>1.44</v>
+      </c>
+      <c r="AR185">
+        <v>1.69</v>
+      </c>
+      <c r="AS185">
+        <v>1.59</v>
+      </c>
+      <c r="AT185">
+        <v>3.28</v>
+      </c>
+      <c r="AU185">
+        <v>11</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>10</v>
+      </c>
+      <c r="AX185">
+        <v>7</v>
+      </c>
+      <c r="AY185">
+        <v>25</v>
+      </c>
+      <c r="AZ185">
+        <v>16</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>1.5</v>
+      </c>
+      <c r="BE185">
+        <v>6.75</v>
+      </c>
+      <c r="BF185">
+        <v>2.8</v>
+      </c>
+      <c r="BG185">
+        <v>1.3</v>
+      </c>
+      <c r="BH185">
+        <v>3.05</v>
+      </c>
+      <c r="BI185">
+        <v>1.52</v>
+      </c>
+      <c r="BJ185">
+        <v>2.25</v>
+      </c>
+      <c r="BK185">
+        <v>1.85</v>
+      </c>
+      <c r="BL185">
+        <v>1.79</v>
+      </c>
+      <c r="BM185">
+        <v>2.33</v>
+      </c>
+      <c r="BN185">
+        <v>1.49</v>
+      </c>
+      <c r="BO185">
+        <v>3.05</v>
+      </c>
+      <c r="BP185">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7778259</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45808.25</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>70</v>
+      </c>
+      <c r="H186" t="s">
+        <v>86</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>91</v>
+      </c>
+      <c r="P186" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>3.6</v>
+      </c>
+      <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>3</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>2.4</v>
+      </c>
+      <c r="AA186">
+        <v>3.13</v>
+      </c>
+      <c r="AB186">
+        <v>2.6</v>
+      </c>
+      <c r="AC186">
+        <v>1.06</v>
+      </c>
+      <c r="AD186">
+        <v>8.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.33</v>
+      </c>
+      <c r="AF186">
+        <v>3.25</v>
+      </c>
+      <c r="AG186">
+        <v>2.02</v>
+      </c>
+      <c r="AH186">
+        <v>1.7</v>
+      </c>
+      <c r="AI186">
+        <v>1.8</v>
+      </c>
+      <c r="AJ186">
+        <v>1.95</v>
+      </c>
+      <c r="AK186">
+        <v>1.38</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.57</v>
+      </c>
+      <c r="AN186">
+        <v>1.88</v>
+      </c>
+      <c r="AO186">
+        <v>1.5</v>
+      </c>
+      <c r="AP186">
+        <v>1.67</v>
+      </c>
+      <c r="AQ186">
+        <v>1.67</v>
+      </c>
+      <c r="AR186">
+        <v>1.58</v>
+      </c>
+      <c r="AS186">
+        <v>1.52</v>
+      </c>
+      <c r="AT186">
+        <v>3.1</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
+        <v>21</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>34</v>
+      </c>
+      <c r="AZ186">
+        <v>9</v>
+      </c>
+      <c r="BA186">
+        <v>10</v>
+      </c>
+      <c r="BB186">
+        <v>3</v>
+      </c>
+      <c r="BC186">
+        <v>13</v>
+      </c>
+      <c r="BD186">
+        <v>1.98</v>
+      </c>
+      <c r="BE186">
+        <v>6.5</v>
+      </c>
+      <c r="BF186">
+        <v>1.98</v>
+      </c>
+      <c r="BG186">
+        <v>1.28</v>
+      </c>
+      <c r="BH186">
+        <v>3.15</v>
+      </c>
+      <c r="BI186">
+        <v>1.49</v>
+      </c>
+      <c r="BJ186">
+        <v>2.33</v>
+      </c>
+      <c r="BK186">
+        <v>1.81</v>
+      </c>
+      <c r="BL186">
+        <v>1.83</v>
+      </c>
+      <c r="BM186">
+        <v>2.28</v>
+      </c>
+      <c r="BN186">
+        <v>1.52</v>
+      </c>
+      <c r="BO186">
+        <v>2.95</v>
+      </c>
+      <c r="BP186">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7778258</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>83</v>
+      </c>
+      <c r="H187" t="s">
+        <v>85</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>211</v>
+      </c>
+      <c r="P187" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q187">
+        <v>2.88</v>
+      </c>
+      <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>3.75</v>
+      </c>
+      <c r="T187">
+        <v>1.4</v>
+      </c>
+      <c r="U187">
+        <v>2.75</v>
+      </c>
+      <c r="V187">
+        <v>3</v>
+      </c>
+      <c r="W187">
+        <v>1.36</v>
+      </c>
+      <c r="X187">
+        <v>8</v>
+      </c>
+      <c r="Y187">
+        <v>1.08</v>
+      </c>
+      <c r="Z187">
+        <v>2.05</v>
+      </c>
+      <c r="AA187">
+        <v>3.26</v>
+      </c>
+      <c r="AB187">
+        <v>3.07</v>
+      </c>
+      <c r="AC187">
+        <v>1.06</v>
+      </c>
+      <c r="AD187">
+        <v>8.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.33</v>
+      </c>
+      <c r="AF187">
+        <v>3.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.95</v>
+      </c>
+      <c r="AH187">
+        <v>1.7</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.95</v>
+      </c>
+      <c r="AK187">
+        <v>1.35</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.62</v>
+      </c>
+      <c r="AN187">
+        <v>1.5</v>
+      </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
+      <c r="AP187">
+        <v>1.67</v>
+      </c>
+      <c r="AQ187">
+        <v>0.89</v>
+      </c>
+      <c r="AR187">
+        <v>1.58</v>
+      </c>
+      <c r="AS187">
+        <v>1.23</v>
+      </c>
+      <c r="AT187">
+        <v>2.81</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
+        <v>16</v>
+      </c>
+      <c r="AZ187">
+        <v>9</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>8</v>
+      </c>
+      <c r="BD187">
+        <v>1.74</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>2.32</v>
+      </c>
+      <c r="BG187">
+        <v>1.3</v>
+      </c>
+      <c r="BH187">
+        <v>3.05</v>
+      </c>
+      <c r="BI187">
+        <v>1.52</v>
+      </c>
+      <c r="BJ187">
+        <v>2.28</v>
+      </c>
+      <c r="BK187">
+        <v>1.84</v>
+      </c>
+      <c r="BL187">
+        <v>1.8</v>
+      </c>
+      <c r="BM187">
+        <v>2.32</v>
+      </c>
+      <c r="BN187">
+        <v>1.5</v>
+      </c>
+      <c r="BO187">
+        <v>2.95</v>
+      </c>
+      <c r="BP187">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,12 @@
     <t>['32', '70', '75']</t>
   </si>
   <si>
+    <t>['12', '18', '54', '70']</t>
+  </si>
+  <si>
+    <t>['53', '83']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -869,6 +875,12 @@
   </si>
   <si>
     <t>['50', '90+1']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['4', '89']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1501,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -3009,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -3137,7 +3149,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3343,7 +3355,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3424,7 +3436,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3549,7 +3561,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3755,7 +3767,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4042,7 +4054,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -4373,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4579,7 +4591,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4657,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>1.1</v>
@@ -4785,7 +4797,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -5609,7 +5621,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -6021,7 +6033,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6511,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ26">
         <v>0.9</v>
@@ -6639,7 +6651,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6845,7 +6857,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7257,7 +7269,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7544,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.14</v>
@@ -7669,7 +7681,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8287,7 +8299,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8493,7 +8505,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8699,7 +8711,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8905,7 +8917,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9192,7 +9204,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9398,7 +9410,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ40">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR40">
         <v>1.25</v>
@@ -9523,7 +9535,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9601,7 +9613,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ41">
         <v>1.9</v>
@@ -9807,10 +9819,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>2.05</v>
@@ -9935,7 +9947,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10222,7 +10234,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.53</v>
@@ -10553,7 +10565,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10759,7 +10771,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10837,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>0.6</v>
@@ -10965,7 +10977,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11789,7 +11801,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12201,7 +12213,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -13231,7 +13243,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13309,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59">
         <v>1.78</v>
@@ -13437,7 +13449,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13515,7 +13527,7 @@
         <v>0.75</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>0.9</v>
@@ -14261,7 +14273,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14548,7 +14560,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
         <v>1.08</v>
@@ -15085,7 +15097,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15291,7 +15303,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15703,7 +15715,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15781,10 +15793,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -16939,7 +16951,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17351,7 +17363,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17429,10 +17441,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.78</v>
@@ -18175,7 +18187,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18462,7 +18474,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.19</v>
@@ -18793,7 +18805,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19205,7 +19217,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19283,7 +19295,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
         <v>0.6</v>
@@ -19617,7 +19629,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20029,7 +20041,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20110,7 +20122,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20647,7 +20659,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21137,7 +21149,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ97">
         <v>1.67</v>
@@ -21471,7 +21483,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21758,7 +21770,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21883,7 +21895,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21964,7 +21976,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -22089,7 +22101,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22295,7 +22307,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22373,7 +22385,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ103">
         <v>1.73</v>
@@ -22501,7 +22513,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22913,7 +22925,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23119,7 +23131,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23325,7 +23337,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23815,7 +23827,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ110">
         <v>0.89</v>
@@ -23943,7 +23955,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24021,7 +24033,7 @@
         <v>1.8</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ111">
         <v>1.9</v>
@@ -24433,7 +24445,7 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ113">
         <v>0.5</v>
@@ -24767,7 +24779,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24973,7 +24985,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25054,7 +25066,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25260,7 +25272,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ117">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25669,7 +25681,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ119">
         <v>1.63</v>
@@ -26003,7 +26015,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26209,7 +26221,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26290,7 +26302,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ122">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.41</v>
@@ -26415,7 +26427,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26621,7 +26633,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26827,7 +26839,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -27033,7 +27045,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27523,7 +27535,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
         <v>1.11</v>
@@ -27651,7 +27663,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27729,7 +27741,7 @@
         <v>2.17</v>
       </c>
       <c r="AP129">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ129">
         <v>1.8</v>
@@ -28063,7 +28075,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28269,7 +28281,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28556,7 +28568,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ133">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -29171,7 +29183,7 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ136">
         <v>1.1</v>
@@ -29299,7 +29311,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29505,7 +29517,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29917,7 +29929,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -29995,7 +30007,7 @@
         <v>0.71</v>
       </c>
       <c r="AP140">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30204,7 +30216,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ141">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR141">
         <v>1.35</v>
@@ -30410,7 +30422,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ142">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.48</v>
@@ -30616,7 +30628,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ143">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR143">
         <v>1.48</v>
@@ -30741,7 +30753,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31025,7 +31037,7 @@
         <v>0.8</v>
       </c>
       <c r="AP145">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31646,7 +31658,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ148">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31771,7 +31783,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32183,7 +32195,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32389,7 +32401,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32879,7 +32891,7 @@
         <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ154">
         <v>0.5</v>
@@ -33007,7 +33019,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33213,7 +33225,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33419,7 +33431,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33500,7 +33512,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ157">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR157">
         <v>1.64</v>
@@ -33625,7 +33637,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33831,7 +33843,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -34449,7 +34461,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34736,7 +34748,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ163">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR163">
         <v>1.63</v>
@@ -34939,10 +34951,10 @@
         <v>0.29</v>
       </c>
       <c r="AP164">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ164">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR164">
         <v>1.47</v>
@@ -35067,7 +35079,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35145,7 +35157,7 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ165">
         <v>0.89</v>
@@ -35685,7 +35697,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35891,7 +35903,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -36175,7 +36187,7 @@
         <v>1.25</v>
       </c>
       <c r="AP170">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ170">
         <v>1.11</v>
@@ -36509,7 +36521,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -37333,7 +37345,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q176">
         <v>3.8</v>
@@ -37745,7 +37757,7 @@
         <v>91</v>
       </c>
       <c r="P178" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q178">
         <v>4.75</v>
@@ -37951,7 +37963,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q179">
         <v>2.45</v>
@@ -38235,7 +38247,7 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ180">
         <v>1.1</v>
@@ -38569,7 +38581,7 @@
         <v>91</v>
       </c>
       <c r="P182" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q182">
         <v>2.4</v>
@@ -38981,7 +38993,7 @@
         <v>96</v>
       </c>
       <c r="P184" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39187,7 +39199,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39393,7 +39405,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -39756,6 +39768,624 @@
       </c>
       <c r="BP187">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7778256</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>77</v>
+      </c>
+      <c r="H188" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>149</v>
+      </c>
+      <c r="P188" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q188">
+        <v>3.25</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>3.75</v>
+      </c>
+      <c r="T188">
+        <v>1.53</v>
+      </c>
+      <c r="U188">
+        <v>2.38</v>
+      </c>
+      <c r="V188">
+        <v>3.5</v>
+      </c>
+      <c r="W188">
+        <v>1.29</v>
+      </c>
+      <c r="X188">
+        <v>11</v>
+      </c>
+      <c r="Y188">
+        <v>1.05</v>
+      </c>
+      <c r="Z188">
+        <v>2.33</v>
+      </c>
+      <c r="AA188">
+        <v>2.89</v>
+      </c>
+      <c r="AB188">
+        <v>2.9</v>
+      </c>
+      <c r="AC188">
+        <v>1.1</v>
+      </c>
+      <c r="AD188">
+        <v>6.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.48</v>
+      </c>
+      <c r="AF188">
+        <v>2.6</v>
+      </c>
+      <c r="AG188">
+        <v>2.3</v>
+      </c>
+      <c r="AH188">
+        <v>1.5</v>
+      </c>
+      <c r="AI188">
+        <v>2.05</v>
+      </c>
+      <c r="AJ188">
+        <v>1.7</v>
+      </c>
+      <c r="AK188">
+        <v>1.38</v>
+      </c>
+      <c r="AL188">
+        <v>1.34</v>
+      </c>
+      <c r="AM188">
+        <v>1.52</v>
+      </c>
+      <c r="AN188">
+        <v>1.25</v>
+      </c>
+      <c r="AO188">
+        <v>0.63</v>
+      </c>
+      <c r="AP188">
+        <v>1.22</v>
+      </c>
+      <c r="AQ188">
+        <v>0.67</v>
+      </c>
+      <c r="AR188">
+        <v>1.45</v>
+      </c>
+      <c r="AS188">
+        <v>1.29</v>
+      </c>
+      <c r="AT188">
+        <v>2.74</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>8</v>
+      </c>
+      <c r="AX188">
+        <v>9</v>
+      </c>
+      <c r="AY188">
+        <v>14</v>
+      </c>
+      <c r="AZ188">
+        <v>14</v>
+      </c>
+      <c r="BA188">
+        <v>2</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>6</v>
+      </c>
+      <c r="BD188">
+        <v>1.74</v>
+      </c>
+      <c r="BE188">
+        <v>6.75</v>
+      </c>
+      <c r="BF188">
+        <v>2.3</v>
+      </c>
+      <c r="BG188">
+        <v>1.24</v>
+      </c>
+      <c r="BH188">
+        <v>3.45</v>
+      </c>
+      <c r="BI188">
+        <v>1.42</v>
+      </c>
+      <c r="BJ188">
+        <v>2.5</v>
+      </c>
+      <c r="BK188">
+        <v>1.7</v>
+      </c>
+      <c r="BL188">
+        <v>1.95</v>
+      </c>
+      <c r="BM188">
+        <v>2.1</v>
+      </c>
+      <c r="BN188">
+        <v>1.61</v>
+      </c>
+      <c r="BO188">
+        <v>2.65</v>
+      </c>
+      <c r="BP188">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7778260</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>84</v>
+      </c>
+      <c r="H189" t="s">
+        <v>82</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>6</v>
+      </c>
+      <c r="O189" t="s">
+        <v>212</v>
+      </c>
+      <c r="P189" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q189">
+        <v>2.8</v>
+      </c>
+      <c r="R189">
+        <v>2.1</v>
+      </c>
+      <c r="S189">
+        <v>3.4</v>
+      </c>
+      <c r="T189">
+        <v>1.35</v>
+      </c>
+      <c r="U189">
+        <v>2.9</v>
+      </c>
+      <c r="V189">
+        <v>2.55</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>6.25</v>
+      </c>
+      <c r="Y189">
+        <v>1.1</v>
+      </c>
+      <c r="Z189">
+        <v>2.39</v>
+      </c>
+      <c r="AA189">
+        <v>3.12</v>
+      </c>
+      <c r="AB189">
+        <v>2.63</v>
+      </c>
+      <c r="AC189">
+        <v>1.05</v>
+      </c>
+      <c r="AD189">
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1.28</v>
+      </c>
+      <c r="AF189">
+        <v>3.65</v>
+      </c>
+      <c r="AG189">
+        <v>1.85</v>
+      </c>
+      <c r="AH189">
+        <v>1.85</v>
+      </c>
+      <c r="AI189">
+        <v>1.65</v>
+      </c>
+      <c r="AJ189">
+        <v>2.1</v>
+      </c>
+      <c r="AK189">
+        <v>1.36</v>
+      </c>
+      <c r="AL189">
+        <v>1.31</v>
+      </c>
+      <c r="AM189">
+        <v>1.6</v>
+      </c>
+      <c r="AN189">
+        <v>1.67</v>
+      </c>
+      <c r="AO189">
+        <v>1.11</v>
+      </c>
+      <c r="AP189">
+        <v>1.8</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>1.88</v>
+      </c>
+      <c r="AS189">
+        <v>1.55</v>
+      </c>
+      <c r="AT189">
+        <v>3.43</v>
+      </c>
+      <c r="AU189">
+        <v>11</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>11</v>
+      </c>
+      <c r="AX189">
+        <v>7</v>
+      </c>
+      <c r="AY189">
+        <v>27</v>
+      </c>
+      <c r="AZ189">
+        <v>14</v>
+      </c>
+      <c r="BA189">
+        <v>13</v>
+      </c>
+      <c r="BB189">
+        <v>3</v>
+      </c>
+      <c r="BC189">
+        <v>16</v>
+      </c>
+      <c r="BD189">
+        <v>1.8</v>
+      </c>
+      <c r="BE189">
+        <v>8</v>
+      </c>
+      <c r="BF189">
+        <v>2.3</v>
+      </c>
+      <c r="BG189">
+        <v>1.22</v>
+      </c>
+      <c r="BH189">
+        <v>3.65</v>
+      </c>
+      <c r="BI189">
+        <v>1.42</v>
+      </c>
+      <c r="BJ189">
+        <v>2.65</v>
+      </c>
+      <c r="BK189">
+        <v>1.7</v>
+      </c>
+      <c r="BL189">
+        <v>2.07</v>
+      </c>
+      <c r="BM189">
+        <v>2.11</v>
+      </c>
+      <c r="BN189">
+        <v>1.68</v>
+      </c>
+      <c r="BO189">
+        <v>2.65</v>
+      </c>
+      <c r="BP189">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7778253</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" t="s">
+        <v>73</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>213</v>
+      </c>
+      <c r="P190" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q190">
+        <v>2.75</v>
+      </c>
+      <c r="R190">
+        <v>1.9</v>
+      </c>
+      <c r="S190">
+        <v>4.33</v>
+      </c>
+      <c r="T190">
+        <v>1.52</v>
+      </c>
+      <c r="U190">
+        <v>2.35</v>
+      </c>
+      <c r="V190">
+        <v>3.4</v>
+      </c>
+      <c r="W190">
+        <v>1.28</v>
+      </c>
+      <c r="X190">
+        <v>9.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.04</v>
+      </c>
+      <c r="Z190">
+        <v>2.02</v>
+      </c>
+      <c r="AA190">
+        <v>2.91</v>
+      </c>
+      <c r="AB190">
+        <v>3.57</v>
+      </c>
+      <c r="AC190">
+        <v>1.1</v>
+      </c>
+      <c r="AD190">
+        <v>6.25</v>
+      </c>
+      <c r="AE190">
+        <v>1.47</v>
+      </c>
+      <c r="AF190">
+        <v>2.5</v>
+      </c>
+      <c r="AG190">
+        <v>2.37</v>
+      </c>
+      <c r="AH190">
+        <v>1.48</v>
+      </c>
+      <c r="AI190">
+        <v>2.1</v>
+      </c>
+      <c r="AJ190">
+        <v>1.65</v>
+      </c>
+      <c r="AK190">
+        <v>1.25</v>
+      </c>
+      <c r="AL190">
+        <v>1.35</v>
+      </c>
+      <c r="AM190">
+        <v>1.7</v>
+      </c>
+      <c r="AN190">
+        <v>2.2</v>
+      </c>
+      <c r="AO190">
+        <v>0.63</v>
+      </c>
+      <c r="AP190">
+        <v>2.27</v>
+      </c>
+      <c r="AQ190">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR190">
+        <v>1.49</v>
+      </c>
+      <c r="AS190">
+        <v>1.23</v>
+      </c>
+      <c r="AT190">
+        <v>2.72</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>10</v>
+      </c>
+      <c r="AX190">
+        <v>6</v>
+      </c>
+      <c r="AY190">
+        <v>20</v>
+      </c>
+      <c r="AZ190">
+        <v>12</v>
+      </c>
+      <c r="BA190">
+        <v>8</v>
+      </c>
+      <c r="BB190">
+        <v>6</v>
+      </c>
+      <c r="BC190">
+        <v>14</v>
+      </c>
+      <c r="BD190">
+        <v>1.8</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>2.38</v>
+      </c>
+      <c r="BG190">
+        <v>1.32</v>
+      </c>
+      <c r="BH190">
+        <v>3.12</v>
+      </c>
+      <c r="BI190">
+        <v>1.57</v>
+      </c>
+      <c r="BJ190">
+        <v>2.31</v>
+      </c>
+      <c r="BK190">
+        <v>1.92</v>
+      </c>
+      <c r="BL190">
+        <v>1.82</v>
+      </c>
+      <c r="BM190">
+        <v>2.41</v>
+      </c>
+      <c r="BN190">
+        <v>1.5</v>
+      </c>
+      <c r="BO190">
+        <v>3.15</v>
+      </c>
+      <c r="BP190">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -40116,22 +40116,22 @@
         <v>3.43</v>
       </c>
       <c r="AU189">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV189">
         <v>5</v>
       </c>
       <c r="AW189">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX189">
         <v>7</v>
       </c>
       <c r="AY189">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ189">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA189">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -1609,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="AZ2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1812,10 +1812,10 @@
         <v>8</v>
       </c>
       <c r="AY3">
+        <v>9</v>
+      </c>
+      <c r="AZ3">
         <v>13</v>
-      </c>
-      <c r="AZ3">
-        <v>15</v>
       </c>
       <c r="BA3">
         <v>2</v>
@@ -2018,10 +2018,10 @@
         <v>14</v>
       </c>
       <c r="AY4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -2224,10 +2224,10 @@
         <v>6</v>
       </c>
       <c r="AY5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="AZ6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -2636,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="AY7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -3048,10 +3048,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA9">
         <v>9</v>
@@ -3254,10 +3254,10 @@
         <v>12</v>
       </c>
       <c r="AY10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ10">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BA10">
         <v>3</v>
@@ -3460,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="AY11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA11">
         <v>6</v>
@@ -3666,10 +3666,10 @@
         <v>7</v>
       </c>
       <c r="AY12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA12">
         <v>3</v>
@@ -3872,10 +3872,10 @@
         <v>7</v>
       </c>
       <c r="AY13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA13">
         <v>7</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="AY15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15">
         <v>7</v>
@@ -4490,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="AY16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16">
         <v>6</v>
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="AY17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ17">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA17">
         <v>7</v>
@@ -4905,7 +4905,7 @@
         <v>8</v>
       </c>
       <c r="AZ18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -5108,10 +5108,10 @@
         <v>7</v>
       </c>
       <c r="AY19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA19">
         <v>5</v>
@@ -5314,10 +5314,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA20">
         <v>6</v>
@@ -5520,10 +5520,10 @@
         <v>7</v>
       </c>
       <c r="AY21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5726,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ22">
         <v>11</v>
@@ -5932,10 +5932,10 @@
         <v>7</v>
       </c>
       <c r="AY23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="AY24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ24">
         <v>6</v>
@@ -6344,10 +6344,10 @@
         <v>10</v>
       </c>
       <c r="AY25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA25">
         <v>5</v>
@@ -6550,10 +6550,10 @@
         <v>5</v>
       </c>
       <c r="AY26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA26">
         <v>10</v>
@@ -6756,7 +6756,7 @@
         <v>6</v>
       </c>
       <c r="AY27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ27">
         <v>12</v>
@@ -6962,10 +6962,10 @@
         <v>2</v>
       </c>
       <c r="AY28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA28">
         <v>5</v>
@@ -7168,10 +7168,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7374,10 +7374,10 @@
         <v>8</v>
       </c>
       <c r="AY30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA30">
         <v>4</v>
@@ -7583,7 +7583,7 @@
         <v>8</v>
       </c>
       <c r="AZ31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA31">
         <v>2</v>
@@ -7786,7 +7786,7 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ32">
         <v>10</v>
@@ -7992,10 +7992,10 @@
         <v>11</v>
       </c>
       <c r="AY33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>7</v>
@@ -8198,10 +8198,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8407,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="AZ35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA35">
         <v>2</v>
@@ -8610,10 +8610,10 @@
         <v>17</v>
       </c>
       <c r="AY36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ36">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8816,10 +8816,10 @@
         <v>6</v>
       </c>
       <c r="AY37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA37">
         <v>9</v>
@@ -9025,7 +9025,7 @@
         <v>6</v>
       </c>
       <c r="AZ38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA38">
         <v>3</v>
@@ -9228,10 +9228,10 @@
         <v>10</v>
       </c>
       <c r="AY39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ39">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9434,10 +9434,10 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA40">
         <v>3</v>
@@ -9640,10 +9640,10 @@
         <v>2</v>
       </c>
       <c r="AY41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA41">
         <v>7</v>
@@ -9846,10 +9846,10 @@
         <v>8</v>
       </c>
       <c r="AY42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA42">
         <v>5</v>
@@ -10052,10 +10052,10 @@
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -10258,10 +10258,10 @@
         <v>9</v>
       </c>
       <c r="AY44">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ44">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA44">
         <v>4</v>
@@ -10464,7 +10464,7 @@
         <v>4</v>
       </c>
       <c r="AY45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ45">
         <v>4</v>
@@ -10673,7 +10673,7 @@
         <v>6</v>
       </c>
       <c r="AZ46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA46">
         <v>1</v>
@@ -10876,10 +10876,10 @@
         <v>4</v>
       </c>
       <c r="AY47">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AZ47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA47">
         <v>9</v>
@@ -11082,10 +11082,10 @@
         <v>8</v>
       </c>
       <c r="AY48">
+        <v>11</v>
+      </c>
+      <c r="AZ48">
         <v>14</v>
-      </c>
-      <c r="AZ48">
-        <v>15</v>
       </c>
       <c r="BA48">
         <v>8</v>
@@ -11291,7 +11291,7 @@
         <v>9</v>
       </c>
       <c r="AZ49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -11494,10 +11494,10 @@
         <v>6</v>
       </c>
       <c r="AY50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA50">
         <v>5</v>
@@ -11700,10 +11700,10 @@
         <v>4</v>
       </c>
       <c r="AY51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -11906,10 +11906,10 @@
         <v>4</v>
       </c>
       <c r="AY52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA52">
         <v>5</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="AY53">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ53">
         <v>6</v>
@@ -12318,10 +12318,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA54">
         <v>5</v>
@@ -12527,7 +12527,7 @@
         <v>8</v>
       </c>
       <c r="AZ55">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -12730,7 +12730,7 @@
         <v>8</v>
       </c>
       <c r="AY56">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ56">
         <v>10</v>
@@ -12936,10 +12936,10 @@
         <v>1</v>
       </c>
       <c r="AY57">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA57">
         <v>5</v>
@@ -13142,7 +13142,7 @@
         <v>6</v>
       </c>
       <c r="AY58">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ58">
         <v>13</v>
@@ -13348,7 +13348,7 @@
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ59">
         <v>8</v>
@@ -13554,10 +13554,10 @@
         <v>13</v>
       </c>
       <c r="AY60">
+        <v>14</v>
+      </c>
+      <c r="AZ60">
         <v>17</v>
-      </c>
-      <c r="AZ60">
-        <v>20</v>
       </c>
       <c r="BA60">
         <v>8</v>
@@ -13763,7 +13763,7 @@
         <v>10</v>
       </c>
       <c r="AZ61">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA61">
         <v>8</v>
@@ -13966,10 +13966,10 @@
         <v>6</v>
       </c>
       <c r="AY62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA62">
         <v>5</v>
@@ -14172,10 +14172,10 @@
         <v>9</v>
       </c>
       <c r="AY63">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ63">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -14584,10 +14584,10 @@
         <v>5</v>
       </c>
       <c r="AY65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA65">
         <v>2</v>
@@ -14793,7 +14793,7 @@
         <v>7</v>
       </c>
       <c r="AZ66">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BA66">
         <v>1</v>
@@ -14996,7 +14996,7 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ67">
         <v>7</v>
@@ -15202,7 +15202,7 @@
         <v>7</v>
       </c>
       <c r="AY68">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ68">
         <v>13</v>
@@ -15614,10 +15614,10 @@
         <v>14</v>
       </c>
       <c r="AY70">
+        <v>13</v>
+      </c>
+      <c r="AZ70">
         <v>16</v>
-      </c>
-      <c r="AZ70">
-        <v>22</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -15820,10 +15820,10 @@
         <v>11</v>
       </c>
       <c r="AY71">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ71">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA71">
         <v>5</v>
@@ -16026,10 +16026,10 @@
         <v>9</v>
       </c>
       <c r="AY72">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ72">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA72">
         <v>3</v>
@@ -16438,10 +16438,10 @@
         <v>7</v>
       </c>
       <c r="AY74">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA74">
         <v>9</v>
@@ -16644,10 +16644,10 @@
         <v>8</v>
       </c>
       <c r="AY75">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AZ75">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA75">
         <v>8</v>
@@ -16850,10 +16850,10 @@
         <v>6</v>
       </c>
       <c r="AY76">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ76">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA76">
         <v>9</v>
@@ -17056,10 +17056,10 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA77">
         <v>6</v>
@@ -17262,10 +17262,10 @@
         <v>4</v>
       </c>
       <c r="AY78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA78">
         <v>5</v>
@@ -17468,10 +17468,10 @@
         <v>10</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ79">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA79">
         <v>1</v>
@@ -17674,10 +17674,10 @@
         <v>11</v>
       </c>
       <c r="AY80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ80">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17880,10 +17880,10 @@
         <v>10</v>
       </c>
       <c r="AY81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ81">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA81">
         <v>6</v>
@@ -18089,7 +18089,7 @@
         <v>12</v>
       </c>
       <c r="AZ82">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA82">
         <v>2</v>
@@ -18292,10 +18292,10 @@
         <v>11</v>
       </c>
       <c r="AY83">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ83">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18498,10 +18498,10 @@
         <v>14</v>
       </c>
       <c r="AY84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ84">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA84">
         <v>1</v>
@@ -18704,10 +18704,10 @@
         <v>4</v>
       </c>
       <c r="AY85">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA85">
         <v>3</v>
@@ -18910,10 +18910,10 @@
         <v>5</v>
       </c>
       <c r="AY86">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA86">
         <v>4</v>
@@ -19116,10 +19116,10 @@
         <v>7</v>
       </c>
       <c r="AY87">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA87">
         <v>8</v>
@@ -19322,10 +19322,10 @@
         <v>5</v>
       </c>
       <c r="AY88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ88">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA88">
         <v>2</v>
@@ -19528,10 +19528,10 @@
         <v>13</v>
       </c>
       <c r="AY89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA89">
         <v>3</v>
@@ -19734,10 +19734,10 @@
         <v>10</v>
       </c>
       <c r="AY90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA90">
         <v>6</v>
@@ -19940,10 +19940,10 @@
         <v>10</v>
       </c>
       <c r="AY91">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ91">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA91">
         <v>3</v>
@@ -20146,10 +20146,10 @@
         <v>5</v>
       </c>
       <c r="AY92">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA92">
         <v>9</v>
@@ -20352,10 +20352,10 @@
         <v>15</v>
       </c>
       <c r="AY93">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ93">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA93">
         <v>1</v>
@@ -20558,10 +20558,10 @@
         <v>3</v>
       </c>
       <c r="AY94">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA94">
         <v>3</v>
@@ -20764,10 +20764,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -20970,10 +20970,10 @@
         <v>8</v>
       </c>
       <c r="AY96">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ96">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA96">
         <v>4</v>
@@ -21176,10 +21176,10 @@
         <v>4</v>
       </c>
       <c r="AY97">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA97">
         <v>8</v>
@@ -21382,7 +21382,7 @@
         <v>7</v>
       </c>
       <c r="AY98">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ98">
         <v>12</v>
@@ -21588,10 +21588,10 @@
         <v>5</v>
       </c>
       <c r="AY99">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ99">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA99">
         <v>2</v>
@@ -21794,10 +21794,10 @@
         <v>8</v>
       </c>
       <c r="AY100">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ100">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA100">
         <v>5</v>
@@ -22000,10 +22000,10 @@
         <v>8</v>
       </c>
       <c r="AY101">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ101">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA101">
         <v>6</v>
@@ -22206,10 +22206,10 @@
         <v>5</v>
       </c>
       <c r="AY102">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ102">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA102">
         <v>8</v>
@@ -22412,7 +22412,7 @@
         <v>5</v>
       </c>
       <c r="AY103">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ103">
         <v>8</v>
@@ -22618,10 +22618,10 @@
         <v>9</v>
       </c>
       <c r="AY104">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ104">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA104">
         <v>3</v>
@@ -22824,7 +22824,7 @@
         <v>4</v>
       </c>
       <c r="AY105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ105">
         <v>7</v>
@@ -23030,10 +23030,10 @@
         <v>7</v>
       </c>
       <c r="AY106">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ106">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA106">
         <v>5</v>
@@ -23442,10 +23442,10 @@
         <v>11</v>
       </c>
       <c r="AY108">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ108">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA108">
         <v>0</v>
@@ -23648,10 +23648,10 @@
         <v>13</v>
       </c>
       <c r="AY109">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ109">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA109">
         <v>5</v>
@@ -23854,10 +23854,10 @@
         <v>8</v>
       </c>
       <c r="AY110">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ110">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA110">
         <v>7</v>
@@ -24060,10 +24060,10 @@
         <v>8</v>
       </c>
       <c r="AY111">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ111">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA111">
         <v>13</v>
@@ -24266,10 +24266,10 @@
         <v>6</v>
       </c>
       <c r="AY112">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA112">
         <v>7</v>
@@ -24472,10 +24472,10 @@
         <v>10</v>
       </c>
       <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
         <v>14</v>
-      </c>
-      <c r="AZ113">
-        <v>17</v>
       </c>
       <c r="BA113">
         <v>10</v>
@@ -24678,10 +24678,10 @@
         <v>10</v>
       </c>
       <c r="AY114">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ114">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA114">
         <v>2</v>
@@ -24884,10 +24884,10 @@
         <v>8</v>
       </c>
       <c r="AY115">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ115">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA115">
         <v>4</v>
@@ -25090,10 +25090,10 @@
         <v>10</v>
       </c>
       <c r="AY116">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ116">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA116">
         <v>4</v>
@@ -25296,10 +25296,10 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ117">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA117">
         <v>4</v>
@@ -25502,7 +25502,7 @@
         <v>6</v>
       </c>
       <c r="AY118">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ118">
         <v>9</v>
@@ -25711,7 +25711,7 @@
         <v>11</v>
       </c>
       <c r="AZ119">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA119">
         <v>5</v>
@@ -25917,7 +25917,7 @@
         <v>13</v>
       </c>
       <c r="AZ120">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -26120,10 +26120,10 @@
         <v>9</v>
       </c>
       <c r="AY121">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ121">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA121">
         <v>2</v>
@@ -26326,7 +26326,7 @@
         <v>3</v>
       </c>
       <c r="AY122">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ122">
         <v>7</v>
@@ -26532,10 +26532,10 @@
         <v>6</v>
       </c>
       <c r="AY123">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ123">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA123">
         <v>5</v>
@@ -26738,10 +26738,10 @@
         <v>4</v>
       </c>
       <c r="AY124">
+        <v>10</v>
+      </c>
+      <c r="AZ124">
         <v>12</v>
-      </c>
-      <c r="AZ124">
-        <v>13</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -26944,10 +26944,10 @@
         <v>6</v>
       </c>
       <c r="AY125">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ125">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA125">
         <v>7</v>
@@ -27150,10 +27150,10 @@
         <v>8</v>
       </c>
       <c r="AY126">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ126">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA126">
         <v>8</v>
@@ -27356,10 +27356,10 @@
         <v>13</v>
       </c>
       <c r="AY127">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ127">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA127">
         <v>7</v>
@@ -27562,10 +27562,10 @@
         <v>18</v>
       </c>
       <c r="AY128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ128">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BA128">
         <v>1</v>
@@ -27768,7 +27768,7 @@
         <v>13</v>
       </c>
       <c r="AY129">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ129">
         <v>19</v>
@@ -27974,10 +27974,10 @@
         <v>7</v>
       </c>
       <c r="AY130">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA130">
         <v>8</v>
@@ -28180,10 +28180,10 @@
         <v>7</v>
       </c>
       <c r="AY131">
+        <v>9</v>
+      </c>
+      <c r="AZ131">
         <v>12</v>
-      </c>
-      <c r="AZ131">
-        <v>15</v>
       </c>
       <c r="BA131">
         <v>6</v>
@@ -28386,10 +28386,10 @@
         <v>9</v>
       </c>
       <c r="AY132">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ132">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA132">
         <v>3</v>
@@ -28592,10 +28592,10 @@
         <v>6</v>
       </c>
       <c r="AY133">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA133">
         <v>6</v>
@@ -28798,10 +28798,10 @@
         <v>11</v>
       </c>
       <c r="AY134">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ134">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA134">
         <v>2</v>
@@ -29004,10 +29004,10 @@
         <v>6</v>
       </c>
       <c r="AY135">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ135">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA135">
         <v>5</v>
@@ -29210,7 +29210,7 @@
         <v>5</v>
       </c>
       <c r="AY136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ136">
         <v>8</v>
@@ -29416,7 +29416,7 @@
         <v>6</v>
       </c>
       <c r="AY137">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ137">
         <v>12</v>
@@ -29622,10 +29622,10 @@
         <v>6</v>
       </c>
       <c r="AY138">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ138">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA138">
         <v>6</v>
@@ -29828,10 +29828,10 @@
         <v>10</v>
       </c>
       <c r="AY139">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ139">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA139">
         <v>3</v>
@@ -30034,10 +30034,10 @@
         <v>8</v>
       </c>
       <c r="AY140">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ140">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA140">
         <v>5</v>
@@ -30446,10 +30446,10 @@
         <v>15</v>
       </c>
       <c r="AY142">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ142">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA142">
         <v>6</v>
@@ -31270,10 +31270,10 @@
         <v>10</v>
       </c>
       <c r="AY146">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ146">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA146">
         <v>2</v>
@@ -31479,7 +31479,7 @@
         <v>16</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -31682,10 +31682,10 @@
         <v>4</v>
       </c>
       <c r="AY148">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA148">
         <v>7</v>
@@ -31888,10 +31888,10 @@
         <v>8</v>
       </c>
       <c r="AY149">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ149">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA149">
         <v>2</v>
@@ -32094,10 +32094,10 @@
         <v>14</v>
       </c>
       <c r="AY150">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ150">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BA150">
         <v>5</v>
@@ -32300,10 +32300,10 @@
         <v>11</v>
       </c>
       <c r="AY151">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ151">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA151">
         <v>6</v>
@@ -32506,10 +32506,10 @@
         <v>9</v>
       </c>
       <c r="AY152">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ152">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA152">
         <v>5</v>
@@ -32715,7 +32715,7 @@
         <v>13</v>
       </c>
       <c r="AZ153">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -32918,10 +32918,10 @@
         <v>14</v>
       </c>
       <c r="AY154">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ154">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BA154">
         <v>3</v>
@@ -33124,10 +33124,10 @@
         <v>4</v>
       </c>
       <c r="AY155">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA155">
         <v>9</v>
@@ -33330,10 +33330,10 @@
         <v>16</v>
       </c>
       <c r="AY156">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ156">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="BA156">
         <v>9</v>
@@ -33536,7 +33536,7 @@
         <v>6</v>
       </c>
       <c r="AY157">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ157">
         <v>12</v>
@@ -33742,10 +33742,10 @@
         <v>7</v>
       </c>
       <c r="AY158">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ158">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA158">
         <v>5</v>
@@ -33951,7 +33951,7 @@
         <v>17</v>
       </c>
       <c r="AZ159">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA159">
         <v>8</v>
@@ -34154,7 +34154,7 @@
         <v>5</v>
       </c>
       <c r="AY160">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ160">
         <v>9</v>
@@ -34360,10 +34360,10 @@
         <v>1</v>
       </c>
       <c r="AY161">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA161">
         <v>8</v>
@@ -34566,10 +34566,10 @@
         <v>10</v>
       </c>
       <c r="AY162">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ162">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA162">
         <v>4</v>
@@ -34772,10 +34772,10 @@
         <v>16</v>
       </c>
       <c r="AY163">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ163">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA163">
         <v>1</v>
@@ -34978,7 +34978,7 @@
         <v>5</v>
       </c>
       <c r="AY164">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ164">
         <v>10</v>
@@ -35184,10 +35184,10 @@
         <v>6</v>
       </c>
       <c r="AY165">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ165">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA165">
         <v>8</v>
@@ -35390,10 +35390,10 @@
         <v>9</v>
       </c>
       <c r="AY166">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ166">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA166">
         <v>5</v>
@@ -35596,10 +35596,10 @@
         <v>4</v>
       </c>
       <c r="AY167">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AZ167">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA167">
         <v>7</v>
@@ -35802,10 +35802,10 @@
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ168">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA168">
         <v>4</v>
@@ -36008,10 +36008,10 @@
         <v>6</v>
       </c>
       <c r="AY169">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ169">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA169">
         <v>5</v>
@@ -36214,10 +36214,10 @@
         <v>10</v>
       </c>
       <c r="AY170">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ170">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA170">
         <v>4</v>
@@ -36420,7 +36420,7 @@
         <v>1</v>
       </c>
       <c r="AY171">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AZ171">
         <v>5</v>
@@ -36626,10 +36626,10 @@
         <v>9</v>
       </c>
       <c r="AY172">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ172">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA172">
         <v>2</v>
@@ -36832,10 +36832,10 @@
         <v>12</v>
       </c>
       <c r="AY173">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ173">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA173">
         <v>4</v>
@@ -37038,10 +37038,10 @@
         <v>12</v>
       </c>
       <c r="AY174">
+        <v>14</v>
+      </c>
+      <c r="AZ174">
         <v>18</v>
-      </c>
-      <c r="AZ174">
-        <v>23</v>
       </c>
       <c r="BA174">
         <v>6</v>
@@ -37247,7 +37247,7 @@
         <v>9</v>
       </c>
       <c r="AZ175">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA175">
         <v>3</v>
@@ -37450,10 +37450,10 @@
         <v>12</v>
       </c>
       <c r="AY176">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ176">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA176">
         <v>9</v>
@@ -37656,10 +37656,10 @@
         <v>6</v>
       </c>
       <c r="AY177">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ177">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA177">
         <v>4</v>
@@ -37862,10 +37862,10 @@
         <v>12</v>
       </c>
       <c r="AY178">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ178">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA178">
         <v>2</v>
@@ -38068,10 +38068,10 @@
         <v>8</v>
       </c>
       <c r="AY179">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ179">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA179">
         <v>3</v>
@@ -38274,10 +38274,10 @@
         <v>14</v>
       </c>
       <c r="AY180">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ180">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA180">
         <v>4</v>
@@ -38480,7 +38480,7 @@
         <v>4</v>
       </c>
       <c r="AY181">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ181">
         <v>7</v>
@@ -38686,7 +38686,7 @@
         <v>3</v>
       </c>
       <c r="AY182">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ182">
         <v>8</v>
@@ -38892,10 +38892,10 @@
         <v>15</v>
       </c>
       <c r="AY183">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ183">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA183">
         <v>3</v>
@@ -39098,10 +39098,10 @@
         <v>8</v>
       </c>
       <c r="AY184">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ184">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA184">
         <v>5</v>
@@ -39304,10 +39304,10 @@
         <v>7</v>
       </c>
       <c r="AY185">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ185">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA185">
         <v>5</v>
@@ -39510,10 +39510,10 @@
         <v>5</v>
       </c>
       <c r="AY186">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AZ186">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA186">
         <v>10</v>
@@ -39922,10 +39922,10 @@
         <v>9</v>
       </c>
       <c r="AY188">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ188">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA188">
         <v>2</v>
@@ -40128,10 +40128,10 @@
         <v>7</v>
       </c>
       <c r="AY189">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ189">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA189">
         <v>13</v>
@@ -40334,10 +40334,10 @@
         <v>6</v>
       </c>
       <c r="AY190">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ190">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA190">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,21 +643,6 @@
     <t>['32', '79']</t>
   </si>
   <si>
-    <t>['54', '90', '90+2']</t>
-  </si>
-  <si>
-    <t>['86']</t>
-  </si>
-  <si>
-    <t>['32', '70', '75']</t>
-  </si>
-  <si>
-    <t>['12', '18', '54', '70']</t>
-  </si>
-  <si>
-    <t>['53', '83']</t>
-  </si>
-  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -719,6 +704,9 @@
   </si>
   <si>
     <t>['38', '67']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
   <si>
     <t>['24', '37']</t>
@@ -866,21 +854,6 @@
   </si>
   <si>
     <t>['53', '60']</t>
-  </si>
-  <si>
-    <t>['23', '27', '90+4']</t>
-  </si>
-  <si>
-    <t>['18', '40', '90+6']</t>
-  </si>
-  <si>
-    <t>['50', '90+1']</t>
-  </si>
-  <si>
-    <t>['37']</t>
-  </si>
-  <si>
-    <t>['4', '89']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1579,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ2">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1785,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>1.9</v>
@@ -2200,7 +2173,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2612,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3021,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3149,7 +3122,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3227,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>1.63</v>
@@ -3355,7 +3328,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3436,7 +3409,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3561,7 +3534,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3639,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3767,7 +3740,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3845,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4054,7 +4027,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -4260,7 +4233,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4385,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4463,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>0.9</v>
@@ -4591,7 +4564,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4669,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>1.1</v>
@@ -4797,7 +4770,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4875,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
         <v>1.11</v>
@@ -5290,7 +5263,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5493,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5621,7 +5594,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5699,10 +5672,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>0.91</v>
@@ -6033,7 +6006,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6523,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.9</v>
@@ -6651,7 +6624,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6732,7 +6705,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2.08</v>
@@ -6857,7 +6830,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6935,10 +6908,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>0.8</v>
@@ -7269,7 +7242,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7347,10 +7320,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7556,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>1.14</v>
@@ -7681,7 +7654,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7968,7 +7941,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.86</v>
@@ -8299,7 +8272,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8505,7 +8478,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8711,7 +8684,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8792,7 +8765,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ37">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8917,7 +8890,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8995,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -9204,7 +9177,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9407,10 +9380,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR40">
         <v>1.25</v>
@@ -9535,7 +9508,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9613,7 +9586,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41">
         <v>1.9</v>
@@ -9819,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR42">
         <v>2.05</v>
@@ -9947,7 +9920,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10028,7 +10001,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ43">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.74</v>
@@ -10231,10 +10204,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
         <v>1.53</v>
@@ -10565,7 +10538,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10771,7 +10744,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10849,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>0.6</v>
@@ -10977,7 +10950,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11055,10 +11028,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.45</v>
@@ -11261,7 +11234,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.11</v>
@@ -11470,7 +11443,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11673,10 +11646,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.02</v>
@@ -11801,7 +11774,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12085,10 +12058,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.12</v>
@@ -12213,7 +12186,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12706,7 +12679,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR56">
         <v>1.66</v>
@@ -12831,7 +12804,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12909,7 +12882,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ57">
         <v>1.9</v>
@@ -13243,7 +13216,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13321,10 +13294,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13449,7 +13422,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13527,7 +13500,7 @@
         <v>0.75</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
         <v>0.9</v>
@@ -13736,7 +13709,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -14145,10 +14118,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14273,7 +14246,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14557,10 +14530,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.08</v>
@@ -14763,7 +14736,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1.63</v>
@@ -14972,7 +14945,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR67">
         <v>1.72</v>
@@ -15097,7 +15070,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15175,7 +15148,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
         <v>1.8</v>
@@ -15303,7 +15276,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15384,7 +15357,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15587,10 +15560,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15715,7 +15688,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15793,10 +15766,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15999,7 +15972,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>1.8</v>
@@ -16205,7 +16178,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.9</v>
@@ -16411,10 +16384,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR74">
         <v>1.09</v>
@@ -16951,7 +16924,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17032,7 +17005,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ77">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -17238,7 +17211,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR78">
         <v>1.29</v>
@@ -17363,7 +17336,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17441,10 +17414,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.78</v>
@@ -17650,7 +17623,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR80">
         <v>1.25</v>
@@ -17856,7 +17829,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -18059,7 +18032,7 @@
         <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
         <v>0.9</v>
@@ -18187,7 +18160,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18265,10 +18238,10 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18474,7 +18447,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
         <v>1.19</v>
@@ -18680,7 +18653,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18805,7 +18778,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19089,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87">
         <v>0.9</v>
@@ -19217,7 +19190,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19295,7 +19268,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>0.6</v>
@@ -19501,10 +19474,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19629,7 +19602,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19710,7 +19683,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR90">
         <v>1.9</v>
@@ -20041,7 +20014,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20119,10 +20092,10 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20328,7 +20301,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20531,7 +20504,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
         <v>0.6</v>
@@ -20659,7 +20632,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20737,10 +20710,10 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -20946,7 +20919,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21149,10 +21122,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.91</v>
@@ -21355,7 +21328,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.1</v>
@@ -21483,7 +21456,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21561,7 +21534,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
         <v>0.9</v>
@@ -21770,7 +21743,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ100">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21895,7 +21868,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21976,7 +21949,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -22101,7 +22074,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22182,7 +22155,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22307,7 +22280,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22385,7 +22358,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103">
         <v>1.73</v>
@@ -22513,7 +22486,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22925,7 +22898,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23006,7 +22979,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23131,7 +23104,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23337,7 +23310,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23415,7 +23388,7 @@
         <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
         <v>1.63</v>
@@ -23827,10 +23800,10 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>2.07</v>
@@ -23955,7 +23928,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24033,7 +24006,7 @@
         <v>1.8</v>
       </c>
       <c r="AP111">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
         <v>1.9</v>
@@ -24242,7 +24215,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ112">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>1.78</v>
@@ -24445,10 +24418,10 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24654,7 +24627,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.46</v>
@@ -24779,7 +24752,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24857,7 +24830,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
         <v>1.1</v>
@@ -24985,7 +24958,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25063,10 +25036,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25269,10 +25242,10 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25681,7 +25654,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
         <v>1.63</v>
@@ -26015,7 +25988,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26093,10 +26066,10 @@
         <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ121">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26221,7 +26194,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26302,7 +26275,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.41</v>
@@ -26427,7 +26400,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26505,10 +26478,10 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26633,7 +26606,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26714,7 +26687,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.26</v>
@@ -26839,7 +26812,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26920,7 +26893,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.53</v>
@@ -27045,7 +27018,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27123,7 +27096,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
         <v>1.9</v>
@@ -27329,7 +27302,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
         <v>1.73</v>
@@ -27535,7 +27508,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
         <v>1.11</v>
@@ -27663,7 +27636,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27741,7 +27714,7 @@
         <v>2.17</v>
       </c>
       <c r="AP129">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ129">
         <v>1.8</v>
@@ -27869,7 +27842,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27947,7 +27920,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
         <v>1.11</v>
@@ -28075,7 +28048,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28281,7 +28254,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28362,7 +28335,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.52</v>
@@ -28568,7 +28541,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28771,7 +28744,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>1.1</v>
@@ -29183,10 +29156,10 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR136">
         <v>1.42</v>
@@ -29311,7 +29284,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29389,10 +29362,10 @@
         <v>0.67</v>
       </c>
       <c r="AP137">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -29517,7 +29490,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29598,7 +29571,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR138">
         <v>1.72</v>
@@ -29801,10 +29774,10 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -29929,7 +29902,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30007,7 +29980,7 @@
         <v>0.71</v>
       </c>
       <c r="AP140">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30213,10 +30186,10 @@
         <v>0.67</v>
       </c>
       <c r="AP141">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
         <v>1.35</v>
@@ -30419,10 +30392,10 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.48</v>
@@ -30628,7 +30601,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ143">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR143">
         <v>1.48</v>
@@ -30753,7 +30726,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30831,7 +30804,7 @@
         <v>1.63</v>
       </c>
       <c r="AP144">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ144">
         <v>1.73</v>
@@ -31037,7 +31010,7 @@
         <v>0.8</v>
       </c>
       <c r="AP145">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31452,7 +31425,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ147">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31655,10 +31628,10 @@
         <v>0.71</v>
       </c>
       <c r="AP148">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31783,7 +31756,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32070,7 +32043,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ150">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32195,7 +32168,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32273,7 +32246,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>0.6</v>
@@ -32401,7 +32374,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32685,7 +32658,7 @@
         <v>1.17</v>
       </c>
       <c r="AP153">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
         <v>1.63</v>
@@ -32891,10 +32864,10 @@
         <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR154">
         <v>1.91</v>
@@ -33019,7 +32992,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33225,7 +33198,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33431,7 +33404,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33512,7 +33485,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ157">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR157">
         <v>1.64</v>
@@ -33637,7 +33610,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33843,7 +33816,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -34127,7 +34100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP160">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ160">
         <v>1.9</v>
@@ -34333,10 +34306,10 @@
         <v>1.25</v>
       </c>
       <c r="AP161">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AQ161">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR161">
         <v>1.68</v>
@@ -34461,7 +34434,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34539,7 +34512,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP162">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ162">
         <v>0.6</v>
@@ -34748,7 +34721,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR163">
         <v>1.63</v>
@@ -34951,10 +34924,10 @@
         <v>0.29</v>
       </c>
       <c r="AP164">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ164">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AR164">
         <v>1.47</v>
@@ -35079,7 +35052,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35157,10 +35130,10 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ165">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.36</v>
@@ -35366,7 +35339,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ166">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AR166">
         <v>1.66</v>
@@ -35572,7 +35545,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ167">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35697,7 +35670,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35903,7 +35876,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -35984,7 +35957,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR169">
         <v>1.38</v>
@@ -36187,7 +36160,7 @@
         <v>1.25</v>
       </c>
       <c r="AP170">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170">
         <v>1.11</v>
@@ -36393,7 +36366,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ171">
         <v>0.9</v>
@@ -36521,7 +36494,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -36808,7 +36781,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37345,7 +37318,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>3.8</v>
@@ -37426,7 +37399,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ176">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR176">
         <v>1.33</v>
@@ -37757,7 +37730,7 @@
         <v>91</v>
       </c>
       <c r="P178" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q178">
         <v>4.75</v>
@@ -37963,7 +37936,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q179">
         <v>2.45</v>
@@ -38120,2272 +38093,6 @@
       </c>
       <c r="BP179">
         <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:68">
-      <c r="A180" s="1">
-        <v>179</v>
-      </c>
-      <c r="B180">
-        <v>7778292</v>
-      </c>
-      <c r="C180" t="s">
-        <v>68</v>
-      </c>
-      <c r="D180" t="s">
-        <v>69</v>
-      </c>
-      <c r="E180" s="2">
-        <v>45805.3125</v>
-      </c>
-      <c r="F180">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>89</v>
-      </c>
-      <c r="H180" t="s">
-        <v>84</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180">
-        <v>0</v>
-      </c>
-      <c r="N180">
-        <v>0</v>
-      </c>
-      <c r="O180" t="s">
-        <v>91</v>
-      </c>
-      <c r="P180" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q180">
-        <v>2.63</v>
-      </c>
-      <c r="R180">
-        <v>2.2</v>
-      </c>
-      <c r="S180">
-        <v>4</v>
-      </c>
-      <c r="T180">
-        <v>1.36</v>
-      </c>
-      <c r="U180">
-        <v>3</v>
-      </c>
-      <c r="V180">
-        <v>2.75</v>
-      </c>
-      <c r="W180">
-        <v>1.4</v>
-      </c>
-      <c r="X180">
-        <v>7</v>
-      </c>
-      <c r="Y180">
-        <v>1.1</v>
-      </c>
-      <c r="Z180">
-        <v>1.94</v>
-      </c>
-      <c r="AA180">
-        <v>3.21</v>
-      </c>
-      <c r="AB180">
-        <v>3.41</v>
-      </c>
-      <c r="AC180">
-        <v>1.06</v>
-      </c>
-      <c r="AD180">
-        <v>9</v>
-      </c>
-      <c r="AE180">
-        <v>1.28</v>
-      </c>
-      <c r="AF180">
-        <v>3.3</v>
-      </c>
-      <c r="AG180">
-        <v>1.89</v>
-      </c>
-      <c r="AH180">
-        <v>1.81</v>
-      </c>
-      <c r="AI180">
-        <v>1.75</v>
-      </c>
-      <c r="AJ180">
-        <v>2</v>
-      </c>
-      <c r="AK180">
-        <v>1.29</v>
-      </c>
-      <c r="AL180">
-        <v>1.31</v>
-      </c>
-      <c r="AM180">
-        <v>1.71</v>
-      </c>
-      <c r="AN180">
-        <v>2.33</v>
-      </c>
-      <c r="AO180">
-        <v>1.11</v>
-      </c>
-      <c r="AP180">
-        <v>2.27</v>
-      </c>
-      <c r="AQ180">
-        <v>1.1</v>
-      </c>
-      <c r="AR180">
-        <v>1.47</v>
-      </c>
-      <c r="AS180">
-        <v>1.47</v>
-      </c>
-      <c r="AT180">
-        <v>2.94</v>
-      </c>
-      <c r="AU180">
-        <v>7</v>
-      </c>
-      <c r="AV180">
-        <v>6</v>
-      </c>
-      <c r="AW180">
-        <v>6</v>
-      </c>
-      <c r="AX180">
-        <v>14</v>
-      </c>
-      <c r="AY180">
-        <v>13</v>
-      </c>
-      <c r="AZ180">
-        <v>20</v>
-      </c>
-      <c r="BA180">
-        <v>4</v>
-      </c>
-      <c r="BB180">
-        <v>8</v>
-      </c>
-      <c r="BC180">
-        <v>12</v>
-      </c>
-      <c r="BD180">
-        <v>1.74</v>
-      </c>
-      <c r="BE180">
-        <v>6.5</v>
-      </c>
-      <c r="BF180">
-        <v>2.3</v>
-      </c>
-      <c r="BG180">
-        <v>1.24</v>
-      </c>
-      <c r="BH180">
-        <v>3.4</v>
-      </c>
-      <c r="BI180">
-        <v>1.42</v>
-      </c>
-      <c r="BJ180">
-        <v>2.55</v>
-      </c>
-      <c r="BK180">
-        <v>1.7</v>
-      </c>
-      <c r="BL180">
-        <v>1.95</v>
-      </c>
-      <c r="BM180">
-        <v>2.1</v>
-      </c>
-      <c r="BN180">
-        <v>1.6</v>
-      </c>
-      <c r="BO180">
-        <v>2.7</v>
-      </c>
-      <c r="BP180">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="181" spans="1:68">
-      <c r="A181" s="1">
-        <v>180</v>
-      </c>
-      <c r="B181">
-        <v>7778257</v>
-      </c>
-      <c r="C181" t="s">
-        <v>68</v>
-      </c>
-      <c r="D181" t="s">
-        <v>69</v>
-      </c>
-      <c r="E181" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F181">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>80</v>
-      </c>
-      <c r="H181" t="s">
-        <v>88</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>3</v>
-      </c>
-      <c r="M181">
-        <v>0</v>
-      </c>
-      <c r="N181">
-        <v>3</v>
-      </c>
-      <c r="O181" t="s">
-        <v>209</v>
-      </c>
-      <c r="P181" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q181">
-        <v>2.75</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
-        <v>4.75</v>
-      </c>
-      <c r="T181">
-        <v>1.53</v>
-      </c>
-      <c r="U181">
-        <v>2.38</v>
-      </c>
-      <c r="V181">
-        <v>3.5</v>
-      </c>
-      <c r="W181">
-        <v>1.29</v>
-      </c>
-      <c r="X181">
-        <v>11</v>
-      </c>
-      <c r="Y181">
-        <v>1.05</v>
-      </c>
-      <c r="Z181">
-        <v>1.89</v>
-      </c>
-      <c r="AA181">
-        <v>3</v>
-      </c>
-      <c r="AB181">
-        <v>3.9</v>
-      </c>
-      <c r="AC181">
-        <v>1.1</v>
-      </c>
-      <c r="AD181">
-        <v>6.5</v>
-      </c>
-      <c r="AE181">
-        <v>1.57</v>
-      </c>
-      <c r="AF181">
-        <v>2.42</v>
-      </c>
-      <c r="AG181">
-        <v>2.37</v>
-      </c>
-      <c r="AH181">
-        <v>1.48</v>
-      </c>
-      <c r="AI181">
-        <v>2.1</v>
-      </c>
-      <c r="AJ181">
-        <v>1.67</v>
-      </c>
-      <c r="AK181">
-        <v>1.25</v>
-      </c>
-      <c r="AL181">
-        <v>1.3</v>
-      </c>
-      <c r="AM181">
-        <v>1.75</v>
-      </c>
-      <c r="AN181">
-        <v>1.75</v>
-      </c>
-      <c r="AO181">
-        <v>1</v>
-      </c>
-      <c r="AP181">
-        <v>1.89</v>
-      </c>
-      <c r="AQ181">
-        <v>0.89</v>
-      </c>
-      <c r="AR181">
-        <v>1.55</v>
-      </c>
-      <c r="AS181">
-        <v>1.12</v>
-      </c>
-      <c r="AT181">
-        <v>2.67</v>
-      </c>
-      <c r="AU181">
-        <v>5</v>
-      </c>
-      <c r="AV181">
-        <v>3</v>
-      </c>
-      <c r="AW181">
-        <v>14</v>
-      </c>
-      <c r="AX181">
-        <v>4</v>
-      </c>
-      <c r="AY181">
-        <v>19</v>
-      </c>
-      <c r="AZ181">
-        <v>7</v>
-      </c>
-      <c r="BA181">
-        <v>8</v>
-      </c>
-      <c r="BB181">
-        <v>3</v>
-      </c>
-      <c r="BC181">
-        <v>11</v>
-      </c>
-      <c r="BD181">
-        <v>1.61</v>
-      </c>
-      <c r="BE181">
-        <v>6.75</v>
-      </c>
-      <c r="BF181">
-        <v>2.55</v>
-      </c>
-      <c r="BG181">
-        <v>1.38</v>
-      </c>
-      <c r="BH181">
-        <v>2.65</v>
-      </c>
-      <c r="BI181">
-        <v>1.65</v>
-      </c>
-      <c r="BJ181">
-        <v>2.02</v>
-      </c>
-      <c r="BK181">
-        <v>2.06</v>
-      </c>
-      <c r="BL181">
-        <v>1.63</v>
-      </c>
-      <c r="BM181">
-        <v>2.65</v>
-      </c>
-      <c r="BN181">
-        <v>1.38</v>
-      </c>
-      <c r="BO181">
-        <v>3.55</v>
-      </c>
-      <c r="BP181">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:68">
-      <c r="A182" s="1">
-        <v>181</v>
-      </c>
-      <c r="B182">
-        <v>7778255</v>
-      </c>
-      <c r="C182" t="s">
-        <v>68</v>
-      </c>
-      <c r="D182" t="s">
-        <v>69</v>
-      </c>
-      <c r="E182" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F182">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>78</v>
-      </c>
-      <c r="H182" t="s">
-        <v>75</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182">
-        <v>2</v>
-      </c>
-      <c r="K182">
-        <v>2</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="M182">
-        <v>3</v>
-      </c>
-      <c r="N182">
-        <v>3</v>
-      </c>
-      <c r="O182" t="s">
-        <v>91</v>
-      </c>
-      <c r="P182" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q182">
-        <v>2.4</v>
-      </c>
-      <c r="R182">
-        <v>2.25</v>
-      </c>
-      <c r="S182">
-        <v>4.5</v>
-      </c>
-      <c r="T182">
-        <v>1.36</v>
-      </c>
-      <c r="U182">
-        <v>3</v>
-      </c>
-      <c r="V182">
-        <v>2.63</v>
-      </c>
-      <c r="W182">
-        <v>1.44</v>
-      </c>
-      <c r="X182">
-        <v>7</v>
-      </c>
-      <c r="Y182">
-        <v>1.1</v>
-      </c>
-      <c r="Z182">
-        <v>1.78</v>
-      </c>
-      <c r="AA182">
-        <v>3.59</v>
-      </c>
-      <c r="AB182">
-        <v>3.57</v>
-      </c>
-      <c r="AC182">
-        <v>1.04</v>
-      </c>
-      <c r="AD182">
-        <v>10</v>
-      </c>
-      <c r="AE182">
-        <v>1.25</v>
-      </c>
-      <c r="AF182">
-        <v>3.8</v>
-      </c>
-      <c r="AG182">
-        <v>1.9</v>
-      </c>
-      <c r="AH182">
-        <v>1.8</v>
-      </c>
-      <c r="AI182">
-        <v>1.8</v>
-      </c>
-      <c r="AJ182">
-        <v>1.95</v>
-      </c>
-      <c r="AK182">
-        <v>1.22</v>
-      </c>
-      <c r="AL182">
-        <v>1.2</v>
-      </c>
-      <c r="AM182">
-        <v>1.95</v>
-      </c>
-      <c r="AN182">
-        <v>0.88</v>
-      </c>
-      <c r="AO182">
-        <v>0.14</v>
-      </c>
-      <c r="AP182">
-        <v>0.78</v>
-      </c>
-      <c r="AQ182">
-        <v>0.5</v>
-      </c>
-      <c r="AR182">
-        <v>1.42</v>
-      </c>
-      <c r="AS182">
-        <v>1.4</v>
-      </c>
-      <c r="AT182">
-        <v>2.82</v>
-      </c>
-      <c r="AU182">
-        <v>8</v>
-      </c>
-      <c r="AV182">
-        <v>5</v>
-      </c>
-      <c r="AW182">
-        <v>9</v>
-      </c>
-      <c r="AX182">
-        <v>3</v>
-      </c>
-      <c r="AY182">
-        <v>17</v>
-      </c>
-      <c r="AZ182">
-        <v>8</v>
-      </c>
-      <c r="BA182">
-        <v>5</v>
-      </c>
-      <c r="BB182">
-        <v>1</v>
-      </c>
-      <c r="BC182">
-        <v>6</v>
-      </c>
-      <c r="BD182">
-        <v>1.52</v>
-      </c>
-      <c r="BE182">
-        <v>6.75</v>
-      </c>
-      <c r="BF182">
-        <v>2.8</v>
-      </c>
-      <c r="BG182">
-        <v>1.3</v>
-      </c>
-      <c r="BH182">
-        <v>3</v>
-      </c>
-      <c r="BI182">
-        <v>1.53</v>
-      </c>
-      <c r="BJ182">
-        <v>2.25</v>
-      </c>
-      <c r="BK182">
-        <v>1.86</v>
-      </c>
-      <c r="BL182">
-        <v>1.78</v>
-      </c>
-      <c r="BM182">
-        <v>2.35</v>
-      </c>
-      <c r="BN182">
-        <v>1.49</v>
-      </c>
-      <c r="BO182">
-        <v>3.05</v>
-      </c>
-      <c r="BP182">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:68">
-      <c r="A183" s="1">
-        <v>182</v>
-      </c>
-      <c r="B183">
-        <v>7778262</v>
-      </c>
-      <c r="C183" t="s">
-        <v>68</v>
-      </c>
-      <c r="D183" t="s">
-        <v>69</v>
-      </c>
-      <c r="E183" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F183">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>71</v>
-      </c>
-      <c r="H183" t="s">
-        <v>79</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="M183">
-        <v>0</v>
-      </c>
-      <c r="N183">
-        <v>0</v>
-      </c>
-      <c r="O183" t="s">
-        <v>91</v>
-      </c>
-      <c r="P183" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q183">
-        <v>3.6</v>
-      </c>
-      <c r="R183">
-        <v>1.83</v>
-      </c>
-      <c r="S183">
-        <v>4</v>
-      </c>
-      <c r="T183">
-        <v>1.67</v>
-      </c>
-      <c r="U183">
-        <v>2.1</v>
-      </c>
-      <c r="V183">
-        <v>4.33</v>
-      </c>
-      <c r="W183">
-        <v>1.2</v>
-      </c>
-      <c r="X183">
-        <v>15</v>
-      </c>
-      <c r="Y183">
-        <v>1.03</v>
-      </c>
-      <c r="Z183">
-        <v>2.32</v>
-      </c>
-      <c r="AA183">
-        <v>2.66</v>
-      </c>
-      <c r="AB183">
-        <v>3.19</v>
-      </c>
-      <c r="AC183">
-        <v>1.14</v>
-      </c>
-      <c r="AD183">
-        <v>5.5</v>
-      </c>
-      <c r="AE183">
-        <v>1.6</v>
-      </c>
-      <c r="AF183">
-        <v>2.1</v>
-      </c>
-      <c r="AG183">
-        <v>3.04</v>
-      </c>
-      <c r="AH183">
-        <v>1.35</v>
-      </c>
-      <c r="AI183">
-        <v>2.38</v>
-      </c>
-      <c r="AJ183">
-        <v>1.53</v>
-      </c>
-      <c r="AK183">
-        <v>1.35</v>
-      </c>
-      <c r="AL183">
-        <v>1.36</v>
-      </c>
-      <c r="AM183">
-        <v>1.48</v>
-      </c>
-      <c r="AN183">
-        <v>1.33</v>
-      </c>
-      <c r="AO183">
-        <v>1.11</v>
-      </c>
-      <c r="AP183">
-        <v>1.3</v>
-      </c>
-      <c r="AQ183">
-        <v>1.1</v>
-      </c>
-      <c r="AR183">
-        <v>1.56</v>
-      </c>
-      <c r="AS183">
-        <v>1.11</v>
-      </c>
-      <c r="AT183">
-        <v>2.67</v>
-      </c>
-      <c r="AU183">
-        <v>5</v>
-      </c>
-      <c r="AV183">
-        <v>0</v>
-      </c>
-      <c r="AW183">
-        <v>6</v>
-      </c>
-      <c r="AX183">
-        <v>15</v>
-      </c>
-      <c r="AY183">
-        <v>11</v>
-      </c>
-      <c r="AZ183">
-        <v>15</v>
-      </c>
-      <c r="BA183">
-        <v>3</v>
-      </c>
-      <c r="BB183">
-        <v>3</v>
-      </c>
-      <c r="BC183">
-        <v>6</v>
-      </c>
-      <c r="BD183">
-        <v>1.86</v>
-      </c>
-      <c r="BE183">
-        <v>6.1</v>
-      </c>
-      <c r="BF183">
-        <v>2.15</v>
-      </c>
-      <c r="BG183">
-        <v>1.57</v>
-      </c>
-      <c r="BH183">
-        <v>2.15</v>
-      </c>
-      <c r="BI183">
-        <v>1.96</v>
-      </c>
-      <c r="BJ183">
-        <v>1.7</v>
-      </c>
-      <c r="BK183">
-        <v>2.55</v>
-      </c>
-      <c r="BL183">
-        <v>1.42</v>
-      </c>
-      <c r="BM183">
-        <v>3.4</v>
-      </c>
-      <c r="BN183">
-        <v>1.24</v>
-      </c>
-      <c r="BO183">
-        <v>4.6</v>
-      </c>
-      <c r="BP183">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:68">
-      <c r="A184" s="1">
-        <v>183</v>
-      </c>
-      <c r="B184">
-        <v>7778254</v>
-      </c>
-      <c r="C184" t="s">
-        <v>68</v>
-      </c>
-      <c r="D184" t="s">
-        <v>69</v>
-      </c>
-      <c r="E184" s="2">
-        <v>45808.16666666666</v>
-      </c>
-      <c r="F184">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>81</v>
-      </c>
-      <c r="H184" t="s">
-        <v>72</v>
-      </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-      <c r="J184">
-        <v>2</v>
-      </c>
-      <c r="K184">
-        <v>3</v>
-      </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184">
-        <v>3</v>
-      </c>
-      <c r="N184">
-        <v>4</v>
-      </c>
-      <c r="O184" t="s">
-        <v>96</v>
-      </c>
-      <c r="P184" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q184">
-        <v>3.75</v>
-      </c>
-      <c r="R184">
-        <v>2.05</v>
-      </c>
-      <c r="S184">
-        <v>3.1</v>
-      </c>
-      <c r="T184">
-        <v>1.44</v>
-      </c>
-      <c r="U184">
-        <v>2.63</v>
-      </c>
-      <c r="V184">
-        <v>3.25</v>
-      </c>
-      <c r="W184">
-        <v>1.33</v>
-      </c>
-      <c r="X184">
-        <v>10</v>
-      </c>
-      <c r="Y184">
-        <v>1.06</v>
-      </c>
-      <c r="Z184">
-        <v>3.1</v>
-      </c>
-      <c r="AA184">
-        <v>2.98</v>
-      </c>
-      <c r="AB184">
-        <v>2.17</v>
-      </c>
-      <c r="AC184">
-        <v>1.07</v>
-      </c>
-      <c r="AD184">
-        <v>8</v>
-      </c>
-      <c r="AE184">
-        <v>1.4</v>
-      </c>
-      <c r="AF184">
-        <v>2.9</v>
-      </c>
-      <c r="AG184">
-        <v>1.94</v>
-      </c>
-      <c r="AH184">
-        <v>1.76</v>
-      </c>
-      <c r="AI184">
-        <v>1.95</v>
-      </c>
-      <c r="AJ184">
-        <v>1.8</v>
-      </c>
-      <c r="AK184">
-        <v>1.6</v>
-      </c>
-      <c r="AL184">
-        <v>1.28</v>
-      </c>
-      <c r="AM184">
-        <v>1.35</v>
-      </c>
-      <c r="AN184">
-        <v>1.88</v>
-      </c>
-      <c r="AO184">
-        <v>1.63</v>
-      </c>
-      <c r="AP184">
-        <v>1.67</v>
-      </c>
-      <c r="AQ184">
-        <v>1.78</v>
-      </c>
-      <c r="AR184">
-        <v>1.55</v>
-      </c>
-      <c r="AS184">
-        <v>1.49</v>
-      </c>
-      <c r="AT184">
-        <v>3.04</v>
-      </c>
-      <c r="AU184">
-        <v>3</v>
-      </c>
-      <c r="AV184">
-        <v>5</v>
-      </c>
-      <c r="AW184">
-        <v>6</v>
-      </c>
-      <c r="AX184">
-        <v>8</v>
-      </c>
-      <c r="AY184">
-        <v>9</v>
-      </c>
-      <c r="AZ184">
-        <v>13</v>
-      </c>
-      <c r="BA184">
-        <v>5</v>
-      </c>
-      <c r="BB184">
-        <v>5</v>
-      </c>
-      <c r="BC184">
-        <v>10</v>
-      </c>
-      <c r="BD184">
-        <v>2.18</v>
-      </c>
-      <c r="BE184">
-        <v>6.75</v>
-      </c>
-      <c r="BF184">
-        <v>1.79</v>
-      </c>
-      <c r="BG184">
-        <v>1.26</v>
-      </c>
-      <c r="BH184">
-        <v>3.25</v>
-      </c>
-      <c r="BI184">
-        <v>1.47</v>
-      </c>
-      <c r="BJ184">
-        <v>2.38</v>
-      </c>
-      <c r="BK184">
-        <v>1.77</v>
-      </c>
-      <c r="BL184">
-        <v>1.88</v>
-      </c>
-      <c r="BM184">
-        <v>2.2</v>
-      </c>
-      <c r="BN184">
-        <v>1.55</v>
-      </c>
-      <c r="BO184">
-        <v>2.85</v>
-      </c>
-      <c r="BP184">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:68">
-      <c r="A185" s="1">
-        <v>184</v>
-      </c>
-      <c r="B185">
-        <v>7778261</v>
-      </c>
-      <c r="C185" t="s">
-        <v>68</v>
-      </c>
-      <c r="D185" t="s">
-        <v>69</v>
-      </c>
-      <c r="E185" s="2">
-        <v>45808.22916666666</v>
-      </c>
-      <c r="F185">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>87</v>
-      </c>
-      <c r="H185" t="s">
-        <v>76</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185">
-        <v>2</v>
-      </c>
-      <c r="N185">
-        <v>3</v>
-      </c>
-      <c r="O185" t="s">
-        <v>210</v>
-      </c>
-      <c r="P185" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q185">
-        <v>2.75</v>
-      </c>
-      <c r="R185">
-        <v>2.2</v>
-      </c>
-      <c r="S185">
-        <v>4</v>
-      </c>
-      <c r="T185">
-        <v>1.4</v>
-      </c>
-      <c r="U185">
-        <v>2.75</v>
-      </c>
-      <c r="V185">
-        <v>2.75</v>
-      </c>
-      <c r="W185">
-        <v>1.4</v>
-      </c>
-      <c r="X185">
-        <v>8</v>
-      </c>
-      <c r="Y185">
-        <v>1.08</v>
-      </c>
-      <c r="Z185">
-        <v>1.81</v>
-      </c>
-      <c r="AA185">
-        <v>3.33</v>
-      </c>
-      <c r="AB185">
-        <v>3.73</v>
-      </c>
-      <c r="AC185">
-        <v>1.06</v>
-      </c>
-      <c r="AD185">
-        <v>8.5</v>
-      </c>
-      <c r="AE185">
-        <v>1.3</v>
-      </c>
-      <c r="AF185">
-        <v>3.35</v>
-      </c>
-      <c r="AG185">
-        <v>1.87</v>
-      </c>
-      <c r="AH185">
-        <v>1.83</v>
-      </c>
-      <c r="AI185">
-        <v>1.75</v>
-      </c>
-      <c r="AJ185">
-        <v>2</v>
-      </c>
-      <c r="AK185">
-        <v>1.3</v>
-      </c>
-      <c r="AL185">
-        <v>1.25</v>
-      </c>
-      <c r="AM185">
-        <v>1.7</v>
-      </c>
-      <c r="AN185">
-        <v>2.11</v>
-      </c>
-      <c r="AO185">
-        <v>1.25</v>
-      </c>
-      <c r="AP185">
-        <v>1.9</v>
-      </c>
-      <c r="AQ185">
-        <v>1.44</v>
-      </c>
-      <c r="AR185">
-        <v>1.69</v>
-      </c>
-      <c r="AS185">
-        <v>1.59</v>
-      </c>
-      <c r="AT185">
-        <v>3.28</v>
-      </c>
-      <c r="AU185">
-        <v>11</v>
-      </c>
-      <c r="AV185">
-        <v>5</v>
-      </c>
-      <c r="AW185">
-        <v>10</v>
-      </c>
-      <c r="AX185">
-        <v>7</v>
-      </c>
-      <c r="AY185">
-        <v>21</v>
-      </c>
-      <c r="AZ185">
-        <v>12</v>
-      </c>
-      <c r="BA185">
-        <v>5</v>
-      </c>
-      <c r="BB185">
-        <v>3</v>
-      </c>
-      <c r="BC185">
-        <v>8</v>
-      </c>
-      <c r="BD185">
-        <v>1.5</v>
-      </c>
-      <c r="BE185">
-        <v>6.75</v>
-      </c>
-      <c r="BF185">
-        <v>2.8</v>
-      </c>
-      <c r="BG185">
-        <v>1.3</v>
-      </c>
-      <c r="BH185">
-        <v>3.05</v>
-      </c>
-      <c r="BI185">
-        <v>1.52</v>
-      </c>
-      <c r="BJ185">
-        <v>2.25</v>
-      </c>
-      <c r="BK185">
-        <v>1.85</v>
-      </c>
-      <c r="BL185">
-        <v>1.79</v>
-      </c>
-      <c r="BM185">
-        <v>2.33</v>
-      </c>
-      <c r="BN185">
-        <v>1.49</v>
-      </c>
-      <c r="BO185">
-        <v>3.05</v>
-      </c>
-      <c r="BP185">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:68">
-      <c r="A186" s="1">
-        <v>185</v>
-      </c>
-      <c r="B186">
-        <v>7778259</v>
-      </c>
-      <c r="C186" t="s">
-        <v>68</v>
-      </c>
-      <c r="D186" t="s">
-        <v>69</v>
-      </c>
-      <c r="E186" s="2">
-        <v>45808.25</v>
-      </c>
-      <c r="F186">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>70</v>
-      </c>
-      <c r="H186" t="s">
-        <v>86</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>1</v>
-      </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="M186">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>1</v>
-      </c>
-      <c r="O186" t="s">
-        <v>91</v>
-      </c>
-      <c r="P186" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q186">
-        <v>3</v>
-      </c>
-      <c r="R186">
-        <v>2.1</v>
-      </c>
-      <c r="S186">
-        <v>3.6</v>
-      </c>
-      <c r="T186">
-        <v>1.4</v>
-      </c>
-      <c r="U186">
-        <v>2.75</v>
-      </c>
-      <c r="V186">
-        <v>3</v>
-      </c>
-      <c r="W186">
-        <v>1.36</v>
-      </c>
-      <c r="X186">
-        <v>8</v>
-      </c>
-      <c r="Y186">
-        <v>1.08</v>
-      </c>
-      <c r="Z186">
-        <v>2.4</v>
-      </c>
-      <c r="AA186">
-        <v>3.13</v>
-      </c>
-      <c r="AB186">
-        <v>2.6</v>
-      </c>
-      <c r="AC186">
-        <v>1.06</v>
-      </c>
-      <c r="AD186">
-        <v>8.5</v>
-      </c>
-      <c r="AE186">
-        <v>1.33</v>
-      </c>
-      <c r="AF186">
-        <v>3.25</v>
-      </c>
-      <c r="AG186">
-        <v>2.02</v>
-      </c>
-      <c r="AH186">
-        <v>1.7</v>
-      </c>
-      <c r="AI186">
-        <v>1.8</v>
-      </c>
-      <c r="AJ186">
-        <v>1.95</v>
-      </c>
-      <c r="AK186">
-        <v>1.38</v>
-      </c>
-      <c r="AL186">
-        <v>1.25</v>
-      </c>
-      <c r="AM186">
-        <v>1.57</v>
-      </c>
-      <c r="AN186">
-        <v>1.88</v>
-      </c>
-      <c r="AO186">
-        <v>1.5</v>
-      </c>
-      <c r="AP186">
-        <v>1.67</v>
-      </c>
-      <c r="AQ186">
-        <v>1.67</v>
-      </c>
-      <c r="AR186">
-        <v>1.58</v>
-      </c>
-      <c r="AS186">
-        <v>1.52</v>
-      </c>
-      <c r="AT186">
-        <v>3.1</v>
-      </c>
-      <c r="AU186">
-        <v>4</v>
-      </c>
-      <c r="AV186">
-        <v>2</v>
-      </c>
-      <c r="AW186">
-        <v>21</v>
-      </c>
-      <c r="AX186">
-        <v>5</v>
-      </c>
-      <c r="AY186">
-        <v>25</v>
-      </c>
-      <c r="AZ186">
-        <v>7</v>
-      </c>
-      <c r="BA186">
-        <v>10</v>
-      </c>
-      <c r="BB186">
-        <v>3</v>
-      </c>
-      <c r="BC186">
-        <v>13</v>
-      </c>
-      <c r="BD186">
-        <v>1.98</v>
-      </c>
-      <c r="BE186">
-        <v>6.5</v>
-      </c>
-      <c r="BF186">
-        <v>1.98</v>
-      </c>
-      <c r="BG186">
-        <v>1.28</v>
-      </c>
-      <c r="BH186">
-        <v>3.15</v>
-      </c>
-      <c r="BI186">
-        <v>1.49</v>
-      </c>
-      <c r="BJ186">
-        <v>2.33</v>
-      </c>
-      <c r="BK186">
-        <v>1.81</v>
-      </c>
-      <c r="BL186">
-        <v>1.83</v>
-      </c>
-      <c r="BM186">
-        <v>2.28</v>
-      </c>
-      <c r="BN186">
-        <v>1.52</v>
-      </c>
-      <c r="BO186">
-        <v>2.95</v>
-      </c>
-      <c r="BP186">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="187" spans="1:68">
-      <c r="A187" s="1">
-        <v>186</v>
-      </c>
-      <c r="B187">
-        <v>7778258</v>
-      </c>
-      <c r="C187" t="s">
-        <v>68</v>
-      </c>
-      <c r="D187" t="s">
-        <v>69</v>
-      </c>
-      <c r="E187" s="2">
-        <v>45808.29166666666</v>
-      </c>
-      <c r="F187">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>83</v>
-      </c>
-      <c r="H187" t="s">
-        <v>85</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>1</v>
-      </c>
-      <c r="L187">
-        <v>3</v>
-      </c>
-      <c r="M187">
-        <v>0</v>
-      </c>
-      <c r="N187">
-        <v>3</v>
-      </c>
-      <c r="O187" t="s">
-        <v>211</v>
-      </c>
-      <c r="P187" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q187">
-        <v>2.88</v>
-      </c>
-      <c r="R187">
-        <v>2.1</v>
-      </c>
-      <c r="S187">
-        <v>3.75</v>
-      </c>
-      <c r="T187">
-        <v>1.4</v>
-      </c>
-      <c r="U187">
-        <v>2.75</v>
-      </c>
-      <c r="V187">
-        <v>3</v>
-      </c>
-      <c r="W187">
-        <v>1.36</v>
-      </c>
-      <c r="X187">
-        <v>8</v>
-      </c>
-      <c r="Y187">
-        <v>1.08</v>
-      </c>
-      <c r="Z187">
-        <v>2.05</v>
-      </c>
-      <c r="AA187">
-        <v>3.26</v>
-      </c>
-      <c r="AB187">
-        <v>3.07</v>
-      </c>
-      <c r="AC187">
-        <v>1.06</v>
-      </c>
-      <c r="AD187">
-        <v>8.5</v>
-      </c>
-      <c r="AE187">
-        <v>1.33</v>
-      </c>
-      <c r="AF187">
-        <v>3.25</v>
-      </c>
-      <c r="AG187">
-        <v>1.95</v>
-      </c>
-      <c r="AH187">
-        <v>1.7</v>
-      </c>
-      <c r="AI187">
-        <v>1.8</v>
-      </c>
-      <c r="AJ187">
-        <v>1.95</v>
-      </c>
-      <c r="AK187">
-        <v>1.35</v>
-      </c>
-      <c r="AL187">
-        <v>1.28</v>
-      </c>
-      <c r="AM187">
-        <v>1.62</v>
-      </c>
-      <c r="AN187">
-        <v>1.5</v>
-      </c>
-      <c r="AO187">
-        <v>1</v>
-      </c>
-      <c r="AP187">
-        <v>1.67</v>
-      </c>
-      <c r="AQ187">
-        <v>0.89</v>
-      </c>
-      <c r="AR187">
-        <v>1.58</v>
-      </c>
-      <c r="AS187">
-        <v>1.23</v>
-      </c>
-      <c r="AT187">
-        <v>2.81</v>
-      </c>
-      <c r="AU187">
-        <v>8</v>
-      </c>
-      <c r="AV187">
-        <v>4</v>
-      </c>
-      <c r="AW187">
-        <v>8</v>
-      </c>
-      <c r="AX187">
-        <v>5</v>
-      </c>
-      <c r="AY187">
-        <v>16</v>
-      </c>
-      <c r="AZ187">
-        <v>9</v>
-      </c>
-      <c r="BA187">
-        <v>3</v>
-      </c>
-      <c r="BB187">
-        <v>5</v>
-      </c>
-      <c r="BC187">
-        <v>8</v>
-      </c>
-      <c r="BD187">
-        <v>1.74</v>
-      </c>
-      <c r="BE187">
-        <v>6.75</v>
-      </c>
-      <c r="BF187">
-        <v>2.32</v>
-      </c>
-      <c r="BG187">
-        <v>1.3</v>
-      </c>
-      <c r="BH187">
-        <v>3.05</v>
-      </c>
-      <c r="BI187">
-        <v>1.52</v>
-      </c>
-      <c r="BJ187">
-        <v>2.28</v>
-      </c>
-      <c r="BK187">
-        <v>1.84</v>
-      </c>
-      <c r="BL187">
-        <v>1.8</v>
-      </c>
-      <c r="BM187">
-        <v>2.32</v>
-      </c>
-      <c r="BN187">
-        <v>1.5</v>
-      </c>
-      <c r="BO187">
-        <v>2.95</v>
-      </c>
-      <c r="BP187">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="188" spans="1:68">
-      <c r="A188" s="1">
-        <v>187</v>
-      </c>
-      <c r="B188">
-        <v>7778256</v>
-      </c>
-      <c r="C188" t="s">
-        <v>68</v>
-      </c>
-      <c r="D188" t="s">
-        <v>69</v>
-      </c>
-      <c r="E188" s="2">
-        <v>45809.125</v>
-      </c>
-      <c r="F188">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s">
-        <v>77</v>
-      </c>
-      <c r="H188" t="s">
-        <v>74</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188">
-        <v>1</v>
-      </c>
-      <c r="K188">
-        <v>1</v>
-      </c>
-      <c r="L188">
-        <v>1</v>
-      </c>
-      <c r="M188">
-        <v>1</v>
-      </c>
-      <c r="N188">
-        <v>2</v>
-      </c>
-      <c r="O188" t="s">
-        <v>149</v>
-      </c>
-      <c r="P188" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q188">
-        <v>3.25</v>
-      </c>
-      <c r="R188">
-        <v>1.95</v>
-      </c>
-      <c r="S188">
-        <v>3.75</v>
-      </c>
-      <c r="T188">
-        <v>1.53</v>
-      </c>
-      <c r="U188">
-        <v>2.38</v>
-      </c>
-      <c r="V188">
-        <v>3.5</v>
-      </c>
-      <c r="W188">
-        <v>1.29</v>
-      </c>
-      <c r="X188">
-        <v>11</v>
-      </c>
-      <c r="Y188">
-        <v>1.05</v>
-      </c>
-      <c r="Z188">
-        <v>2.33</v>
-      </c>
-      <c r="AA188">
-        <v>2.89</v>
-      </c>
-      <c r="AB188">
-        <v>2.9</v>
-      </c>
-      <c r="AC188">
-        <v>1.1</v>
-      </c>
-      <c r="AD188">
-        <v>6.5</v>
-      </c>
-      <c r="AE188">
-        <v>1.48</v>
-      </c>
-      <c r="AF188">
-        <v>2.6</v>
-      </c>
-      <c r="AG188">
-        <v>2.3</v>
-      </c>
-      <c r="AH188">
-        <v>1.5</v>
-      </c>
-      <c r="AI188">
-        <v>2.05</v>
-      </c>
-      <c r="AJ188">
-        <v>1.7</v>
-      </c>
-      <c r="AK188">
-        <v>1.38</v>
-      </c>
-      <c r="AL188">
-        <v>1.34</v>
-      </c>
-      <c r="AM188">
-        <v>1.52</v>
-      </c>
-      <c r="AN188">
-        <v>1.25</v>
-      </c>
-      <c r="AO188">
-        <v>0.63</v>
-      </c>
-      <c r="AP188">
-        <v>1.22</v>
-      </c>
-      <c r="AQ188">
-        <v>0.67</v>
-      </c>
-      <c r="AR188">
-        <v>1.45</v>
-      </c>
-      <c r="AS188">
-        <v>1.29</v>
-      </c>
-      <c r="AT188">
-        <v>2.74</v>
-      </c>
-      <c r="AU188">
-        <v>5</v>
-      </c>
-      <c r="AV188">
-        <v>3</v>
-      </c>
-      <c r="AW188">
-        <v>8</v>
-      </c>
-      <c r="AX188">
-        <v>9</v>
-      </c>
-      <c r="AY188">
-        <v>13</v>
-      </c>
-      <c r="AZ188">
-        <v>12</v>
-      </c>
-      <c r="BA188">
-        <v>2</v>
-      </c>
-      <c r="BB188">
-        <v>4</v>
-      </c>
-      <c r="BC188">
-        <v>6</v>
-      </c>
-      <c r="BD188">
-        <v>1.74</v>
-      </c>
-      <c r="BE188">
-        <v>6.75</v>
-      </c>
-      <c r="BF188">
-        <v>2.3</v>
-      </c>
-      <c r="BG188">
-        <v>1.24</v>
-      </c>
-      <c r="BH188">
-        <v>3.45</v>
-      </c>
-      <c r="BI188">
-        <v>1.42</v>
-      </c>
-      <c r="BJ188">
-        <v>2.5</v>
-      </c>
-      <c r="BK188">
-        <v>1.7</v>
-      </c>
-      <c r="BL188">
-        <v>1.95</v>
-      </c>
-      <c r="BM188">
-        <v>2.1</v>
-      </c>
-      <c r="BN188">
-        <v>1.61</v>
-      </c>
-      <c r="BO188">
-        <v>2.65</v>
-      </c>
-      <c r="BP188">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="189" spans="1:68">
-      <c r="A189" s="1">
-        <v>188</v>
-      </c>
-      <c r="B189">
-        <v>7778260</v>
-      </c>
-      <c r="C189" t="s">
-        <v>68</v>
-      </c>
-      <c r="D189" t="s">
-        <v>69</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45809.125</v>
-      </c>
-      <c r="F189">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>84</v>
-      </c>
-      <c r="H189" t="s">
-        <v>82</v>
-      </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
-      <c r="J189">
-        <v>1</v>
-      </c>
-      <c r="K189">
-        <v>3</v>
-      </c>
-      <c r="L189">
-        <v>4</v>
-      </c>
-      <c r="M189">
-        <v>2</v>
-      </c>
-      <c r="N189">
-        <v>6</v>
-      </c>
-      <c r="O189" t="s">
-        <v>212</v>
-      </c>
-      <c r="P189" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q189">
-        <v>2.8</v>
-      </c>
-      <c r="R189">
-        <v>2.1</v>
-      </c>
-      <c r="S189">
-        <v>3.4</v>
-      </c>
-      <c r="T189">
-        <v>1.35</v>
-      </c>
-      <c r="U189">
-        <v>2.9</v>
-      </c>
-      <c r="V189">
-        <v>2.55</v>
-      </c>
-      <c r="W189">
-        <v>1.44</v>
-      </c>
-      <c r="X189">
-        <v>6.25</v>
-      </c>
-      <c r="Y189">
-        <v>1.1</v>
-      </c>
-      <c r="Z189">
-        <v>2.39</v>
-      </c>
-      <c r="AA189">
-        <v>3.12</v>
-      </c>
-      <c r="AB189">
-        <v>2.63</v>
-      </c>
-      <c r="AC189">
-        <v>1.05</v>
-      </c>
-      <c r="AD189">
-        <v>9</v>
-      </c>
-      <c r="AE189">
-        <v>1.28</v>
-      </c>
-      <c r="AF189">
-        <v>3.65</v>
-      </c>
-      <c r="AG189">
-        <v>1.85</v>
-      </c>
-      <c r="AH189">
-        <v>1.85</v>
-      </c>
-      <c r="AI189">
-        <v>1.65</v>
-      </c>
-      <c r="AJ189">
-        <v>2.1</v>
-      </c>
-      <c r="AK189">
-        <v>1.36</v>
-      </c>
-      <c r="AL189">
-        <v>1.31</v>
-      </c>
-      <c r="AM189">
-        <v>1.6</v>
-      </c>
-      <c r="AN189">
-        <v>1.67</v>
-      </c>
-      <c r="AO189">
-        <v>1.11</v>
-      </c>
-      <c r="AP189">
-        <v>1.8</v>
-      </c>
-      <c r="AQ189">
-        <v>1</v>
-      </c>
-      <c r="AR189">
-        <v>1.88</v>
-      </c>
-      <c r="AS189">
-        <v>1.55</v>
-      </c>
-      <c r="AT189">
-        <v>3.43</v>
-      </c>
-      <c r="AU189">
-        <v>10</v>
-      </c>
-      <c r="AV189">
-        <v>5</v>
-      </c>
-      <c r="AW189">
-        <v>7</v>
-      </c>
-      <c r="AX189">
-        <v>7</v>
-      </c>
-      <c r="AY189">
-        <v>17</v>
-      </c>
-      <c r="AZ189">
-        <v>12</v>
-      </c>
-      <c r="BA189">
-        <v>13</v>
-      </c>
-      <c r="BB189">
-        <v>3</v>
-      </c>
-      <c r="BC189">
-        <v>16</v>
-      </c>
-      <c r="BD189">
-        <v>1.8</v>
-      </c>
-      <c r="BE189">
-        <v>8</v>
-      </c>
-      <c r="BF189">
-        <v>2.3</v>
-      </c>
-      <c r="BG189">
-        <v>1.22</v>
-      </c>
-      <c r="BH189">
-        <v>3.65</v>
-      </c>
-      <c r="BI189">
-        <v>1.42</v>
-      </c>
-      <c r="BJ189">
-        <v>2.65</v>
-      </c>
-      <c r="BK189">
-        <v>1.7</v>
-      </c>
-      <c r="BL189">
-        <v>2.07</v>
-      </c>
-      <c r="BM189">
-        <v>2.11</v>
-      </c>
-      <c r="BN189">
-        <v>1.68</v>
-      </c>
-      <c r="BO189">
-        <v>2.65</v>
-      </c>
-      <c r="BP189">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="190" spans="1:68">
-      <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="B190">
-        <v>7778253</v>
-      </c>
-      <c r="C190" t="s">
-        <v>68</v>
-      </c>
-      <c r="D190" t="s">
-        <v>69</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45809.16666666666</v>
-      </c>
-      <c r="F190">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>89</v>
-      </c>
-      <c r="H190" t="s">
-        <v>73</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <v>1</v>
-      </c>
-      <c r="K190">
-        <v>1</v>
-      </c>
-      <c r="L190">
-        <v>2</v>
-      </c>
-      <c r="M190">
-        <v>1</v>
-      </c>
-      <c r="N190">
-        <v>3</v>
-      </c>
-      <c r="O190" t="s">
-        <v>213</v>
-      </c>
-      <c r="P190" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q190">
-        <v>2.75</v>
-      </c>
-      <c r="R190">
-        <v>1.9</v>
-      </c>
-      <c r="S190">
-        <v>4.33</v>
-      </c>
-      <c r="T190">
-        <v>1.52</v>
-      </c>
-      <c r="U190">
-        <v>2.35</v>
-      </c>
-      <c r="V190">
-        <v>3.4</v>
-      </c>
-      <c r="W190">
-        <v>1.28</v>
-      </c>
-      <c r="X190">
-        <v>9.5</v>
-      </c>
-      <c r="Y190">
-        <v>1.04</v>
-      </c>
-      <c r="Z190">
-        <v>2.02</v>
-      </c>
-      <c r="AA190">
-        <v>2.91</v>
-      </c>
-      <c r="AB190">
-        <v>3.57</v>
-      </c>
-      <c r="AC190">
-        <v>1.1</v>
-      </c>
-      <c r="AD190">
-        <v>6.25</v>
-      </c>
-      <c r="AE190">
-        <v>1.47</v>
-      </c>
-      <c r="AF190">
-        <v>2.5</v>
-      </c>
-      <c r="AG190">
-        <v>2.37</v>
-      </c>
-      <c r="AH190">
-        <v>1.48</v>
-      </c>
-      <c r="AI190">
-        <v>2.1</v>
-      </c>
-      <c r="AJ190">
-        <v>1.65</v>
-      </c>
-      <c r="AK190">
-        <v>1.25</v>
-      </c>
-      <c r="AL190">
-        <v>1.35</v>
-      </c>
-      <c r="AM190">
-        <v>1.7</v>
-      </c>
-      <c r="AN190">
-        <v>2.2</v>
-      </c>
-      <c r="AO190">
-        <v>0.63</v>
-      </c>
-      <c r="AP190">
-        <v>2.27</v>
-      </c>
-      <c r="AQ190">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR190">
-        <v>1.49</v>
-      </c>
-      <c r="AS190">
-        <v>1.23</v>
-      </c>
-      <c r="AT190">
-        <v>2.72</v>
-      </c>
-      <c r="AU190">
-        <v>4</v>
-      </c>
-      <c r="AV190">
-        <v>4</v>
-      </c>
-      <c r="AW190">
-        <v>10</v>
-      </c>
-      <c r="AX190">
-        <v>6</v>
-      </c>
-      <c r="AY190">
-        <v>14</v>
-      </c>
-      <c r="AZ190">
-        <v>10</v>
-      </c>
-      <c r="BA190">
-        <v>8</v>
-      </c>
-      <c r="BB190">
-        <v>6</v>
-      </c>
-      <c r="BC190">
-        <v>14</v>
-      </c>
-      <c r="BD190">
-        <v>1.8</v>
-      </c>
-      <c r="BE190">
-        <v>8</v>
-      </c>
-      <c r="BF190">
-        <v>2.38</v>
-      </c>
-      <c r="BG190">
-        <v>1.32</v>
-      </c>
-      <c r="BH190">
-        <v>3.12</v>
-      </c>
-      <c r="BI190">
-        <v>1.57</v>
-      </c>
-      <c r="BJ190">
-        <v>2.31</v>
-      </c>
-      <c r="BK190">
-        <v>1.92</v>
-      </c>
-      <c r="BL190">
-        <v>1.82</v>
-      </c>
-      <c r="BM190">
-        <v>2.41</v>
-      </c>
-      <c r="BN190">
-        <v>1.5</v>
-      </c>
-      <c r="BO190">
-        <v>3.15</v>
-      </c>
-      <c r="BP190">
-        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J1 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,21 @@
     <t>['32', '79']</t>
   </si>
   <si>
+    <t>['54', '90', '9002']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['32', '70', '75']</t>
+  </si>
+  <si>
+    <t>['12', '18', '54', '70']</t>
+  </si>
+  <si>
+    <t>['53', '83']</t>
+  </si>
+  <si>
     <t>['7', '46', '52', '63', '90+4']</t>
   </si>
   <si>
@@ -704,9 +719,6 @@
   </si>
   <si>
     <t>['38', '67']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['24', '37']</t>
@@ -854,6 +866,18 @@
   </si>
   <si>
     <t>['53', '60']</t>
+  </si>
+  <si>
+    <t>['23', '27']</t>
+  </si>
+  <si>
+    <t>['18', '40', '9006']</t>
+  </si>
+  <si>
+    <t>['50', '9001']</t>
+  </si>
+  <si>
+    <t>['4', '89']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1498,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1552,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1758,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
         <v>1.9</v>
@@ -2173,7 +2197,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2585,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2994,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3122,7 +3146,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3200,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ10">
         <v>1.63</v>
@@ -3328,7 +3352,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3409,7 +3433,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3534,7 +3558,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>4.3</v>
@@ -3612,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3740,7 +3764,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3818,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4027,7 +4051,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -4233,7 +4257,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4358,7 +4382,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
@@ -4436,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>0.9</v>
@@ -4564,7 +4588,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>2.55</v>
@@ -4642,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>1.1</v>
@@ -4770,7 +4794,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>2.7</v>
@@ -4848,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>1.11</v>
@@ -5263,7 +5287,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5466,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ21">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5594,7 +5618,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>3.9</v>
@@ -5672,10 +5696,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>0.91</v>
@@ -6006,7 +6030,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>2.2</v>
@@ -6496,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
         <v>0.9</v>
@@ -6624,7 +6648,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6705,7 +6729,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>2.08</v>
@@ -6830,7 +6854,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6908,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR28">
         <v>0.8</v>
@@ -7242,7 +7266,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>2.95</v>
@@ -7320,10 +7344,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7529,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.14</v>
@@ -7654,7 +7678,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7941,7 +7965,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR33">
         <v>1.86</v>
@@ -8272,7 +8296,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8478,7 +8502,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>3.5</v>
@@ -8684,7 +8708,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8765,7 +8789,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ37">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8890,7 +8914,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8968,7 +8992,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -9177,7 +9201,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9380,10 +9404,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ40">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR40">
         <v>1.25</v>
@@ -9508,7 +9532,7 @@
         <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9586,7 +9610,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ41">
         <v>1.9</v>
@@ -9792,10 +9816,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR42">
         <v>2.05</v>
@@ -9920,7 +9944,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10001,7 +10025,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR43">
         <v>1.74</v>
@@ -10204,10 +10228,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.53</v>
@@ -10538,7 +10562,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10744,7 +10768,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10822,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>0.6</v>
@@ -10950,7 +10974,7 @@
         <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>3.35</v>
@@ -11028,10 +11052,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.45</v>
@@ -11234,7 +11258,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
         <v>1.11</v>
@@ -11443,7 +11467,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11646,10 +11670,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR51">
         <v>1.02</v>
@@ -11774,7 +11798,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12058,10 +12082,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>1.12</v>
@@ -12186,7 +12210,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12679,7 +12703,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
         <v>1.66</v>
@@ -12804,7 +12828,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12882,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ57">
         <v>1.9</v>
@@ -13216,7 +13240,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13294,10 +13318,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR59">
         <v>1.93</v>
@@ -13422,7 +13446,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13500,7 +13524,7 @@
         <v>0.75</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>0.9</v>
@@ -13709,7 +13733,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -14118,10 +14142,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14246,7 +14270,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14530,10 +14554,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
         <v>1.08</v>
@@ -14736,7 +14760,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>1.63</v>
@@ -14945,7 +14969,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR67">
         <v>1.72</v>
@@ -15070,7 +15094,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>4.5</v>
@@ -15148,7 +15172,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
         <v>1.8</v>
@@ -15276,7 +15300,7 @@
         <v>91</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15357,7 +15381,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15560,10 +15584,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15688,7 +15712,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15766,10 +15790,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15972,7 +15996,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>1.8</v>
@@ -16178,7 +16202,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73">
         <v>1.9</v>
@@ -16384,10 +16408,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ74">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>1.09</v>
@@ -16924,7 +16948,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17005,7 +17029,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -17211,7 +17235,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR78">
         <v>1.29</v>
@@ -17336,7 +17360,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17414,10 +17438,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.78</v>
@@ -17623,7 +17647,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR80">
         <v>1.25</v>
@@ -17829,7 +17853,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -18032,7 +18056,7 @@
         <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82">
         <v>0.9</v>
@@ -18160,7 +18184,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18238,10 +18262,10 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18447,7 +18471,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.19</v>
@@ -18653,7 +18677,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18778,7 +18802,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19062,7 +19086,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
         <v>0.9</v>
@@ -19190,7 +19214,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19268,7 +19292,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
         <v>0.6</v>
@@ -19474,10 +19498,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ89">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19602,7 +19626,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19683,7 +19707,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
         <v>1.9</v>
@@ -20014,7 +20038,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20092,10 +20116,10 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20301,7 +20325,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20504,7 +20528,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>0.6</v>
@@ -20632,7 +20656,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20710,10 +20734,10 @@
         <v>0.25</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ95">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -20919,7 +20943,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21122,10 +21146,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
+        <v>1.8</v>
+      </c>
+      <c r="AQ97">
         <v>1.67</v>
-      </c>
-      <c r="AQ97">
-        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.91</v>
@@ -21328,7 +21352,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98">
         <v>1.1</v>
@@ -21456,7 +21480,7 @@
         <v>91</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21534,7 +21558,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ99">
         <v>0.9</v>
@@ -21743,7 +21767,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21868,7 +21892,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21949,7 +21973,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -22074,7 +22098,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22155,7 +22179,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22280,7 +22304,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22358,7 +22382,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ103">
         <v>1.73</v>
@@ -22486,7 +22510,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -22898,7 +22922,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22979,7 +23003,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23104,7 +23128,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23310,7 +23334,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23388,7 +23412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ108">
         <v>1.63</v>
@@ -23800,10 +23824,10 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>2.07</v>
@@ -23928,7 +23952,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>3.6</v>
@@ -24006,7 +24030,7 @@
         <v>1.8</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
         <v>1.9</v>
@@ -24215,7 +24239,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ112">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR112">
         <v>1.78</v>
@@ -24418,10 +24442,10 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ113">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24627,7 +24651,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR114">
         <v>1.46</v>
@@ -24752,7 +24776,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24830,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ115">
         <v>1.1</v>
@@ -24958,7 +24982,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25036,10 +25060,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25242,10 +25266,10 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25654,7 +25678,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ119">
         <v>1.63</v>
@@ -25988,7 +26012,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26066,10 +26090,10 @@
         <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26194,7 +26218,7 @@
         <v>91</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26275,7 +26299,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ122">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.41</v>
@@ -26400,7 +26424,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q123">
         <v>2.2</v>
@@ -26478,10 +26502,10 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26606,7 +26630,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -26687,7 +26711,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.26</v>
@@ -26812,7 +26836,7 @@
         <v>91</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26893,7 +26917,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR125">
         <v>1.53</v>
@@ -27018,7 +27042,7 @@
         <v>130</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27096,7 +27120,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ126">
         <v>1.9</v>
@@ -27302,7 +27326,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>1.73</v>
@@ -27508,7 +27532,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128">
         <v>1.11</v>
@@ -27636,7 +27660,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27714,7 +27738,7 @@
         <v>2.17</v>
       </c>
       <c r="AP129">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ129">
         <v>1.8</v>
@@ -27842,7 +27866,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27920,7 +27944,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
         <v>1.11</v>
@@ -28048,7 +28072,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28254,7 +28278,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28335,7 +28359,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR132">
         <v>1.52</v>
@@ -28541,7 +28565,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ133">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28744,7 +28768,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ134">
         <v>1.1</v>
@@ -29156,10 +29180,10 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ136">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR136">
         <v>1.42</v>
@@ -29284,7 +29308,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29362,10 +29386,10 @@
         <v>0.67</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ137">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -29490,7 +29514,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29571,7 +29595,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR138">
         <v>1.72</v>
@@ -29774,10 +29798,10 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -29902,7 +29926,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -29980,7 +30004,7 @@
         <v>0.71</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30186,10 +30210,10 @@
         <v>0.67</v>
       </c>
       <c r="AP141">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ141">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR141">
         <v>1.35</v>
@@ -30392,10 +30416,10 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.48</v>
@@ -30601,7 +30625,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ143">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR143">
         <v>1.48</v>
@@ -30726,7 +30750,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30804,7 +30828,7 @@
         <v>1.63</v>
       </c>
       <c r="AP144">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ144">
         <v>1.73</v>
@@ -31010,7 +31034,7 @@
         <v>0.8</v>
       </c>
       <c r="AP145">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31425,7 +31449,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ147">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31628,10 +31652,10 @@
         <v>0.71</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31756,7 +31780,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32043,7 +32067,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32168,7 +32192,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32246,7 +32270,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151">
         <v>0.6</v>
@@ -32374,7 +32398,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>3.6</v>
@@ -32658,7 +32682,7 @@
         <v>1.17</v>
       </c>
       <c r="AP153">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ153">
         <v>1.63</v>
@@ -32864,10 +32888,10 @@
         <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ154">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR154">
         <v>1.91</v>
@@ -32992,7 +33016,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33198,7 +33222,7 @@
         <v>91</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -33404,7 +33428,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33485,7 +33509,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ157">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR157">
         <v>1.64</v>
@@ -33610,7 +33634,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>2.88</v>
@@ -33816,7 +33840,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>2.6</v>
@@ -34100,7 +34124,7 @@
         <v>2.25</v>
       </c>
       <c r="AP160">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ160">
         <v>1.9</v>
@@ -34306,10 +34330,10 @@
         <v>1.25</v>
       </c>
       <c r="AP161">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ161">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR161">
         <v>1.68</v>
@@ -34434,7 +34458,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q162">
         <v>3.4</v>
@@ -34512,7 +34536,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP162">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ162">
         <v>0.6</v>
@@ -34721,7 +34745,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ163">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR163">
         <v>1.63</v>
@@ -34924,10 +34948,10 @@
         <v>0.29</v>
       </c>
       <c r="AP164">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ164">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR164">
         <v>1.47</v>
@@ -35052,7 +35076,7 @@
         <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>2.6</v>
@@ -35130,10 +35154,10 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR165">
         <v>1.36</v>
@@ -35339,7 +35363,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR166">
         <v>1.66</v>
@@ -35545,7 +35569,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35670,7 +35694,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35876,7 +35900,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -35957,7 +35981,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR169">
         <v>1.38</v>
@@ -36160,7 +36184,7 @@
         <v>1.25</v>
       </c>
       <c r="AP170">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ170">
         <v>1.11</v>
@@ -36366,7 +36390,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ171">
         <v>0.9</v>
@@ -36494,7 +36518,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -36781,7 +36805,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37318,7 +37342,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q176">
         <v>3.8</v>
@@ -37399,7 +37423,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ176">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR176">
         <v>1.33</v>
@@ -37730,7 +37754,7 @@
         <v>91</v>
       </c>
       <c r="P178" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q178">
         <v>4.75</v>
@@ -37936,7 +37960,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q179">
         <v>2.45</v>
@@ -38093,6 +38117,2272 @@
       </c>
       <c r="BP179">
         <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7778292</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45805.3125</v>
+      </c>
+      <c r="F180">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>89</v>
+      </c>
+      <c r="H180" t="s">
+        <v>84</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>91</v>
+      </c>
+      <c r="P180" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q180">
+        <v>2.63</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>1.36</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>2.75</v>
+      </c>
+      <c r="W180">
+        <v>1.4</v>
+      </c>
+      <c r="X180">
+        <v>7</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>1.94</v>
+      </c>
+      <c r="AA180">
+        <v>3.21</v>
+      </c>
+      <c r="AB180">
+        <v>3.41</v>
+      </c>
+      <c r="AC180">
+        <v>1.06</v>
+      </c>
+      <c r="AD180">
+        <v>9</v>
+      </c>
+      <c r="AE180">
+        <v>1.28</v>
+      </c>
+      <c r="AF180">
+        <v>3.3</v>
+      </c>
+      <c r="AG180">
+        <v>1.89</v>
+      </c>
+      <c r="AH180">
+        <v>1.81</v>
+      </c>
+      <c r="AI180">
+        <v>1.75</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.29</v>
+      </c>
+      <c r="AL180">
+        <v>1.31</v>
+      </c>
+      <c r="AM180">
+        <v>1.71</v>
+      </c>
+      <c r="AN180">
+        <v>2.33</v>
+      </c>
+      <c r="AO180">
+        <v>1.11</v>
+      </c>
+      <c r="AP180">
+        <v>2.27</v>
+      </c>
+      <c r="AQ180">
+        <v>1.1</v>
+      </c>
+      <c r="AR180">
+        <v>1.47</v>
+      </c>
+      <c r="AS180">
+        <v>1.47</v>
+      </c>
+      <c r="AT180">
+        <v>2.94</v>
+      </c>
+      <c r="AU180">
+        <v>7</v>
+      </c>
+      <c r="AV180">
+        <v>6</v>
+      </c>
+      <c r="AW180">
+        <v>4</v>
+      </c>
+      <c r="AX180">
+        <v>9</v>
+      </c>
+      <c r="AY180">
+        <v>11</v>
+      </c>
+      <c r="AZ180">
+        <v>15</v>
+      </c>
+      <c r="BA180">
+        <v>4</v>
+      </c>
+      <c r="BB180">
+        <v>8</v>
+      </c>
+      <c r="BC180">
+        <v>12</v>
+      </c>
+      <c r="BD180">
+        <v>1.74</v>
+      </c>
+      <c r="BE180">
+        <v>6.5</v>
+      </c>
+      <c r="BF180">
+        <v>2.3</v>
+      </c>
+      <c r="BG180">
+        <v>1.24</v>
+      </c>
+      <c r="BH180">
+        <v>3.4</v>
+      </c>
+      <c r="BI180">
+        <v>1.42</v>
+      </c>
+      <c r="BJ180">
+        <v>2.55</v>
+      </c>
+      <c r="BK180">
+        <v>1.7</v>
+      </c>
+      <c r="BL180">
+        <v>1.95</v>
+      </c>
+      <c r="BM180">
+        <v>2.1</v>
+      </c>
+      <c r="BN180">
+        <v>1.6</v>
+      </c>
+      <c r="BO180">
+        <v>2.7</v>
+      </c>
+      <c r="BP180">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7778257</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H181" t="s">
+        <v>88</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>209</v>
+      </c>
+      <c r="P181" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q181">
+        <v>2.75</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>4.75</v>
+      </c>
+      <c r="T181">
+        <v>1.53</v>
+      </c>
+      <c r="U181">
+        <v>2.38</v>
+      </c>
+      <c r="V181">
+        <v>3.5</v>
+      </c>
+      <c r="W181">
+        <v>1.29</v>
+      </c>
+      <c r="X181">
+        <v>11</v>
+      </c>
+      <c r="Y181">
+        <v>1.05</v>
+      </c>
+      <c r="Z181">
+        <v>1.89</v>
+      </c>
+      <c r="AA181">
+        <v>3</v>
+      </c>
+      <c r="AB181">
+        <v>3.9</v>
+      </c>
+      <c r="AC181">
+        <v>1.1</v>
+      </c>
+      <c r="AD181">
+        <v>6.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.57</v>
+      </c>
+      <c r="AF181">
+        <v>2.42</v>
+      </c>
+      <c r="AG181">
+        <v>2.37</v>
+      </c>
+      <c r="AH181">
+        <v>1.48</v>
+      </c>
+      <c r="AI181">
+        <v>2.1</v>
+      </c>
+      <c r="AJ181">
+        <v>1.67</v>
+      </c>
+      <c r="AK181">
+        <v>1.25</v>
+      </c>
+      <c r="AL181">
+        <v>1.3</v>
+      </c>
+      <c r="AM181">
+        <v>1.75</v>
+      </c>
+      <c r="AN181">
+        <v>1.75</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>1.89</v>
+      </c>
+      <c r="AQ181">
+        <v>0.89</v>
+      </c>
+      <c r="AR181">
+        <v>1.55</v>
+      </c>
+      <c r="AS181">
+        <v>1.12</v>
+      </c>
+      <c r="AT181">
+        <v>2.67</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>11</v>
+      </c>
+      <c r="AZ181">
+        <v>6</v>
+      </c>
+      <c r="BA181">
+        <v>8</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>11</v>
+      </c>
+      <c r="BD181">
+        <v>1.61</v>
+      </c>
+      <c r="BE181">
+        <v>6.75</v>
+      </c>
+      <c r="BF181">
+        <v>2.55</v>
+      </c>
+      <c r="BG181">
+        <v>1.38</v>
+      </c>
+      <c r="BH181">
+        <v>2.65</v>
+      </c>
+      <c r="BI181">
+        <v>1.65</v>
+      </c>
+      <c r="BJ181">
+        <v>2.02</v>
+      </c>
+      <c r="BK181">
+        <v>2.06</v>
+      </c>
+      <c r="BL181">
+        <v>1.63</v>
+      </c>
+      <c r="BM181">
+        <v>2.65</v>
+      </c>
+      <c r="BN181">
+        <v>1.38</v>
+      </c>
+      <c r="BO181">
+        <v>3.55</v>
+      </c>
+      <c r="BP181">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7778255</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>91</v>
+      </c>
+      <c r="P182" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q182">
+        <v>2.4</v>
+      </c>
+      <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>4.5</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>3</v>
+      </c>
+      <c r="V182">
+        <v>2.63</v>
+      </c>
+      <c r="W182">
+        <v>1.44</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.1</v>
+      </c>
+      <c r="Z182">
+        <v>1.78</v>
+      </c>
+      <c r="AA182">
+        <v>3.59</v>
+      </c>
+      <c r="AB182">
+        <v>3.57</v>
+      </c>
+      <c r="AC182">
+        <v>1.04</v>
+      </c>
+      <c r="AD182">
+        <v>10</v>
+      </c>
+      <c r="AE182">
+        <v>1.25</v>
+      </c>
+      <c r="AF182">
+        <v>3.8</v>
+      </c>
+      <c r="AG182">
+        <v>1.9</v>
+      </c>
+      <c r="AH182">
+        <v>1.8</v>
+      </c>
+      <c r="AI182">
+        <v>1.8</v>
+      </c>
+      <c r="AJ182">
+        <v>1.95</v>
+      </c>
+      <c r="AK182">
+        <v>1.22</v>
+      </c>
+      <c r="AL182">
+        <v>1.2</v>
+      </c>
+      <c r="AM182">
+        <v>1.95</v>
+      </c>
+      <c r="AN182">
+        <v>0.88</v>
+      </c>
+      <c r="AO182">
+        <v>0.14</v>
+      </c>
+      <c r="AP182">
+        <v>0.78</v>
+      </c>
+      <c r="AQ182">
+        <v>0.5</v>
+      </c>
+      <c r="AR182">
+        <v>1.42</v>
+      </c>
+      <c r="AS182">
+        <v>1.4</v>
+      </c>
+      <c r="AT182">
+        <v>2.82</v>
+      </c>
+      <c r="AU182">
+        <v>7</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>8</v>
+      </c>
+      <c r="AX182">
+        <v>2</v>
+      </c>
+      <c r="AY182">
+        <v>15</v>
+      </c>
+      <c r="AZ182">
+        <v>6</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>1</v>
+      </c>
+      <c r="BC182">
+        <v>6</v>
+      </c>
+      <c r="BD182">
+        <v>1.52</v>
+      </c>
+      <c r="BE182">
+        <v>6.75</v>
+      </c>
+      <c r="BF182">
+        <v>2.8</v>
+      </c>
+      <c r="BG182">
+        <v>1.3</v>
+      </c>
+      <c r="BH182">
+        <v>3</v>
+      </c>
+      <c r="BI182">
+        <v>1.53</v>
+      </c>
+      <c r="BJ182">
+        <v>2.25</v>
+      </c>
+      <c r="BK182">
+        <v>1.86</v>
+      </c>
+      <c r="BL182">
+        <v>1.78</v>
+      </c>
+      <c r="BM182">
+        <v>2.35</v>
+      </c>
+      <c r="BN182">
+        <v>1.49</v>
+      </c>
+      <c r="BO182">
+        <v>3.05</v>
+      </c>
+      <c r="BP182">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7778262</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>79</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>91</v>
+      </c>
+      <c r="P183" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q183">
+        <v>3.6</v>
+      </c>
+      <c r="R183">
+        <v>1.83</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.67</v>
+      </c>
+      <c r="U183">
+        <v>2.1</v>
+      </c>
+      <c r="V183">
+        <v>4.33</v>
+      </c>
+      <c r="W183">
+        <v>1.2</v>
+      </c>
+      <c r="X183">
+        <v>15</v>
+      </c>
+      <c r="Y183">
+        <v>1.03</v>
+      </c>
+      <c r="Z183">
+        <v>2.32</v>
+      </c>
+      <c r="AA183">
+        <v>2.66</v>
+      </c>
+      <c r="AB183">
+        <v>3.19</v>
+      </c>
+      <c r="AC183">
+        <v>1.14</v>
+      </c>
+      <c r="AD183">
+        <v>5.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.6</v>
+      </c>
+      <c r="AF183">
+        <v>2.1</v>
+      </c>
+      <c r="AG183">
+        <v>3.04</v>
+      </c>
+      <c r="AH183">
+        <v>1.35</v>
+      </c>
+      <c r="AI183">
+        <v>2.38</v>
+      </c>
+      <c r="AJ183">
+        <v>1.53</v>
+      </c>
+      <c r="AK183">
+        <v>1.35</v>
+      </c>
+      <c r="AL183">
+        <v>1.36</v>
+      </c>
+      <c r="AM183">
+        <v>1.48</v>
+      </c>
+      <c r="AN183">
+        <v>1.33</v>
+      </c>
+      <c r="AO183">
+        <v>1.11</v>
+      </c>
+      <c r="AP183">
+        <v>1.3</v>
+      </c>
+      <c r="AQ183">
+        <v>1.1</v>
+      </c>
+      <c r="AR183">
+        <v>1.56</v>
+      </c>
+      <c r="AS183">
+        <v>1.11</v>
+      </c>
+      <c r="AT183">
+        <v>2.67</v>
+      </c>
+      <c r="AU183">
+        <v>4</v>
+      </c>
+      <c r="AV183">
+        <v>-1</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>7</v>
+      </c>
+      <c r="AY183">
+        <v>7</v>
+      </c>
+      <c r="AZ183">
+        <v>6</v>
+      </c>
+      <c r="BA183">
+        <v>3</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>6</v>
+      </c>
+      <c r="BD183">
+        <v>1.86</v>
+      </c>
+      <c r="BE183">
+        <v>6.1</v>
+      </c>
+      <c r="BF183">
+        <v>2.15</v>
+      </c>
+      <c r="BG183">
+        <v>1.57</v>
+      </c>
+      <c r="BH183">
+        <v>2.15</v>
+      </c>
+      <c r="BI183">
+        <v>1.96</v>
+      </c>
+      <c r="BJ183">
+        <v>1.7</v>
+      </c>
+      <c r="BK183">
+        <v>2.55</v>
+      </c>
+      <c r="BL183">
+        <v>1.42</v>
+      </c>
+      <c r="BM183">
+        <v>3.4</v>
+      </c>
+      <c r="BN183">
+        <v>1.24</v>
+      </c>
+      <c r="BO183">
+        <v>4.6</v>
+      </c>
+      <c r="BP183">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7778254</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45808.16666666666</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>96</v>
+      </c>
+      <c r="P184" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q184">
+        <v>3.75</v>
+      </c>
+      <c r="R184">
+        <v>2.05</v>
+      </c>
+      <c r="S184">
+        <v>3.1</v>
+      </c>
+      <c r="T184">
+        <v>1.44</v>
+      </c>
+      <c r="U184">
+        <v>2.63</v>
+      </c>
+      <c r="V184">
+        <v>3.25</v>
+      </c>
+      <c r="W184">
+        <v>1.33</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>3.1</v>
+      </c>
+      <c r="AA184">
+        <v>2.98</v>
+      </c>
+      <c r="AB184">
+        <v>2.17</v>
+      </c>
+      <c r="AC184">
+        <v>1.07</v>
+      </c>
+      <c r="AD184">
+        <v>8</v>
+      </c>
+      <c r="AE184">
+        <v>1.4</v>
+      </c>
+      <c r="AF184">
+        <v>2.9</v>
+      </c>
+      <c r="AG184">
+        <v>1.94</v>
+      </c>
+      <c r="AH184">
+        <v>1.76</v>
+      </c>
+      <c r="AI184">
+        <v>1.95</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.6</v>
+      </c>
+      <c r="AL184">
+        <v>1.28</v>
+      </c>
+      <c r="AM184">
+        <v>1.35</v>
+      </c>
+      <c r="AN184">
+        <v>1.88</v>
+      </c>
+      <c r="AO184">
+        <v>1.63</v>
+      </c>
+      <c r="AP184">
+        <v>1.67</v>
+      </c>
+      <c r="AQ184">
+        <v>1.78</v>
+      </c>
+      <c r="AR184">
+        <v>1.55</v>
+      </c>
+      <c r="AS184">
+        <v>1.49</v>
+      </c>
+      <c r="AT184">
+        <v>3.04</v>
+      </c>
+      <c r="AU184">
+        <v>3</v>
+      </c>
+      <c r="AV184">
+        <v>4</v>
+      </c>
+      <c r="AW184">
+        <v>2</v>
+      </c>
+      <c r="AX184">
+        <v>5</v>
+      </c>
+      <c r="AY184">
+        <v>5</v>
+      </c>
+      <c r="AZ184">
+        <v>9</v>
+      </c>
+      <c r="BA184">
+        <v>5</v>
+      </c>
+      <c r="BB184">
+        <v>5</v>
+      </c>
+      <c r="BC184">
+        <v>10</v>
+      </c>
+      <c r="BD184">
+        <v>2.18</v>
+      </c>
+      <c r="BE184">
+        <v>6.75</v>
+      </c>
+      <c r="BF184">
+        <v>1.79</v>
+      </c>
+      <c r="BG184">
+        <v>1.26</v>
+      </c>
+      <c r="BH184">
+        <v>3.25</v>
+      </c>
+      <c r="BI184">
+        <v>1.47</v>
+      </c>
+      <c r="BJ184">
+        <v>2.38</v>
+      </c>
+      <c r="BK184">
+        <v>1.77</v>
+      </c>
+      <c r="BL184">
+        <v>1.88</v>
+      </c>
+      <c r="BM184">
+        <v>2.2</v>
+      </c>
+      <c r="BN184">
+        <v>1.55</v>
+      </c>
+      <c r="BO184">
+        <v>2.85</v>
+      </c>
+      <c r="BP184">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7778261</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45808.22916666666</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>87</v>
+      </c>
+      <c r="H185" t="s">
+        <v>76</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>210</v>
+      </c>
+      <c r="P185" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q185">
+        <v>2.75</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>1.81</v>
+      </c>
+      <c r="AA185">
+        <v>3.33</v>
+      </c>
+      <c r="AB185">
+        <v>3.73</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>8.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.3</v>
+      </c>
+      <c r="AF185">
+        <v>3.35</v>
+      </c>
+      <c r="AG185">
+        <v>1.87</v>
+      </c>
+      <c r="AH185">
+        <v>1.83</v>
+      </c>
+      <c r="AI185">
+        <v>1.75</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>1.3</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.7</v>
+      </c>
+      <c r="AN185">
+        <v>2.11</v>
+      </c>
+      <c r="AO185">
+        <v>1.25</v>
+      </c>
+      <c r="AP185">
+        <v>1.9</v>
+      </c>
+      <c r="AQ185">
+        <v>1.44</v>
+      </c>
+      <c r="AR185">
+        <v>1.69</v>
+      </c>
+      <c r="AS185">
+        <v>1.59</v>
+      </c>
+      <c r="AT185">
+        <v>3.28</v>
+      </c>
+      <c r="AU185">
+        <v>8</v>
+      </c>
+      <c r="AV185">
+        <v>8</v>
+      </c>
+      <c r="AW185">
+        <v>8</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>16</v>
+      </c>
+      <c r="AZ185">
+        <v>10</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>1.5</v>
+      </c>
+      <c r="BE185">
+        <v>6.75</v>
+      </c>
+      <c r="BF185">
+        <v>2.8</v>
+      </c>
+      <c r="BG185">
+        <v>1.3</v>
+      </c>
+      <c r="BH185">
+        <v>3.05</v>
+      </c>
+      <c r="BI185">
+        <v>1.52</v>
+      </c>
+      <c r="BJ185">
+        <v>2.25</v>
+      </c>
+      <c r="BK185">
+        <v>1.85</v>
+      </c>
+      <c r="BL185">
+        <v>1.79</v>
+      </c>
+      <c r="BM185">
+        <v>2.33</v>
+      </c>
+      <c r="BN185">
+        <v>1.49</v>
+      </c>
+      <c r="BO185">
+        <v>3.05</v>
+      </c>
+      <c r="BP185">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7778259</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45808.25</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>70</v>
+      </c>
+      <c r="H186" t="s">
+        <v>86</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>91</v>
+      </c>
+      <c r="P186" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>3.6</v>
+      </c>
+      <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>3</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>2.4</v>
+      </c>
+      <c r="AA186">
+        <v>3.13</v>
+      </c>
+      <c r="AB186">
+        <v>2.6</v>
+      </c>
+      <c r="AC186">
+        <v>1.06</v>
+      </c>
+      <c r="AD186">
+        <v>8.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.33</v>
+      </c>
+      <c r="AF186">
+        <v>3.25</v>
+      </c>
+      <c r="AG186">
+        <v>2.02</v>
+      </c>
+      <c r="AH186">
+        <v>1.7</v>
+      </c>
+      <c r="AI186">
+        <v>1.8</v>
+      </c>
+      <c r="AJ186">
+        <v>1.95</v>
+      </c>
+      <c r="AK186">
+        <v>1.38</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.57</v>
+      </c>
+      <c r="AN186">
+        <v>1.88</v>
+      </c>
+      <c r="AO186">
+        <v>1.5</v>
+      </c>
+      <c r="AP186">
+        <v>1.67</v>
+      </c>
+      <c r="AQ186">
+        <v>1.67</v>
+      </c>
+      <c r="AR186">
+        <v>1.58</v>
+      </c>
+      <c r="AS186">
+        <v>1.52</v>
+      </c>
+      <c r="AT186">
+        <v>3.1</v>
+      </c>
+      <c r="AU186">
+        <v>2</v>
+      </c>
+      <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
+        <v>12</v>
+      </c>
+      <c r="AX186">
+        <v>3</v>
+      </c>
+      <c r="AY186">
+        <v>14</v>
+      </c>
+      <c r="AZ186">
+        <v>5</v>
+      </c>
+      <c r="BA186">
+        <v>10</v>
+      </c>
+      <c r="BB186">
+        <v>3</v>
+      </c>
+      <c r="BC186">
+        <v>13</v>
+      </c>
+      <c r="BD186">
+        <v>1.98</v>
+      </c>
+      <c r="BE186">
+        <v>6.5</v>
+      </c>
+      <c r="BF186">
+        <v>1.98</v>
+      </c>
+      <c r="BG186">
+        <v>1.28</v>
+      </c>
+      <c r="BH186">
+        <v>3.15</v>
+      </c>
+      <c r="BI186">
+        <v>1.49</v>
+      </c>
+      <c r="BJ186">
+        <v>2.33</v>
+      </c>
+      <c r="BK186">
+        <v>1.81</v>
+      </c>
+      <c r="BL186">
+        <v>1.83</v>
+      </c>
+      <c r="BM186">
+        <v>2.28</v>
+      </c>
+      <c r="BN186">
+        <v>1.52</v>
+      </c>
+      <c r="BO186">
+        <v>2.95</v>
+      </c>
+      <c r="BP186">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7778258</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>83</v>
+      </c>
+      <c r="H187" t="s">
+        <v>85</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>211</v>
+      </c>
+      <c r="P187" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q187">
+        <v>2.88</v>
+      </c>
+      <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>3.75</v>
+      </c>
+      <c r="T187">
+        <v>1.4</v>
+      </c>
+      <c r="U187">
+        <v>2.75</v>
+      </c>
+      <c r="V187">
+        <v>3</v>
+      </c>
+      <c r="W187">
+        <v>1.36</v>
+      </c>
+      <c r="X187">
+        <v>8</v>
+      </c>
+      <c r="Y187">
+        <v>1.08</v>
+      </c>
+      <c r="Z187">
+        <v>2.05</v>
+      </c>
+      <c r="AA187">
+        <v>3.26</v>
+      </c>
+      <c r="AB187">
+        <v>3.07</v>
+      </c>
+      <c r="AC187">
+        <v>1.06</v>
+      </c>
+      <c r="AD187">
+        <v>8.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.33</v>
+      </c>
+      <c r="AF187">
+        <v>3.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.95</v>
+      </c>
+      <c r="AH187">
+        <v>1.7</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.95</v>
+      </c>
+      <c r="AK187">
+        <v>1.35</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.62</v>
+      </c>
+      <c r="AN187">
+        <v>1.5</v>
+      </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
+      <c r="AP187">
+        <v>1.67</v>
+      </c>
+      <c r="AQ187">
+        <v>0.89</v>
+      </c>
+      <c r="AR187">
+        <v>1.58</v>
+      </c>
+      <c r="AS187">
+        <v>1.23</v>
+      </c>
+      <c r="AT187">
+        <v>2.81</v>
+      </c>
+      <c r="AU187">
+        <v>7</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>15</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>8</v>
+      </c>
+      <c r="BD187">
+        <v>1.74</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>2.32</v>
+      </c>
+      <c r="BG187">
+        <v>1.3</v>
+      </c>
+      <c r="BH187">
+        <v>3.05</v>
+      </c>
+      <c r="BI187">
+        <v>1.52</v>
+      </c>
+      <c r="BJ187">
+        <v>2.28</v>
+      </c>
+      <c r="BK187">
+        <v>1.84</v>
+      </c>
+      <c r="BL187">
+        <v>1.8</v>
+      </c>
+      <c r="BM187">
+        <v>2.32</v>
+      </c>
+      <c r="BN187">
+        <v>1.5</v>
+      </c>
+      <c r="BO187">
+        <v>2.95</v>
+      </c>
+      <c r="BP187">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7778256</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>77</v>
+      </c>
+      <c r="H188" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>149</v>
+      </c>
+      <c r="P188" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q188">
+        <v>3.25</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>3.75</v>
+      </c>
+      <c r="T188">
+        <v>1.53</v>
+      </c>
+      <c r="U188">
+        <v>2.38</v>
+      </c>
+      <c r="V188">
+        <v>3.5</v>
+      </c>
+      <c r="W188">
+        <v>1.29</v>
+      </c>
+      <c r="X188">
+        <v>11</v>
+      </c>
+      <c r="Y188">
+        <v>1.05</v>
+      </c>
+      <c r="Z188">
+        <v>2.33</v>
+      </c>
+      <c r="AA188">
+        <v>2.89</v>
+      </c>
+      <c r="AB188">
+        <v>2.9</v>
+      </c>
+      <c r="AC188">
+        <v>1.1</v>
+      </c>
+      <c r="AD188">
+        <v>6.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.48</v>
+      </c>
+      <c r="AF188">
+        <v>2.6</v>
+      </c>
+      <c r="AG188">
+        <v>2.3</v>
+      </c>
+      <c r="AH188">
+        <v>1.5</v>
+      </c>
+      <c r="AI188">
+        <v>2.05</v>
+      </c>
+      <c r="AJ188">
+        <v>1.7</v>
+      </c>
+      <c r="AK188">
+        <v>1.38</v>
+      </c>
+      <c r="AL188">
+        <v>1.34</v>
+      </c>
+      <c r="AM188">
+        <v>1.52</v>
+      </c>
+      <c r="AN188">
+        <v>1.25</v>
+      </c>
+      <c r="AO188">
+        <v>0.63</v>
+      </c>
+      <c r="AP188">
+        <v>1.44</v>
+      </c>
+      <c r="AQ188">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR188">
+        <v>1.45</v>
+      </c>
+      <c r="AS188">
+        <v>1.29</v>
+      </c>
+      <c r="AT188">
+        <v>2.74</v>
+      </c>
+      <c r="AU188">
+        <v>4</v>
+      </c>
+      <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>6</v>
+      </c>
+      <c r="AY188">
+        <v>11</v>
+      </c>
+      <c r="AZ188">
+        <v>8</v>
+      </c>
+      <c r="BA188">
+        <v>2</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>6</v>
+      </c>
+      <c r="BD188">
+        <v>1.74</v>
+      </c>
+      <c r="BE188">
+        <v>6.75</v>
+      </c>
+      <c r="BF188">
+        <v>2.3</v>
+      </c>
+      <c r="BG188">
+        <v>1.24</v>
+      </c>
+      <c r="BH188">
+        <v>3.45</v>
+      </c>
+      <c r="BI188">
+        <v>1.42</v>
+      </c>
+      <c r="BJ188">
+        <v>2.5</v>
+      </c>
+      <c r="BK188">
+        <v>1.7</v>
+      </c>
+      <c r="BL188">
+        <v>1.95</v>
+      </c>
+      <c r="BM188">
+        <v>2.1</v>
+      </c>
+      <c r="BN188">
+        <v>1.61</v>
+      </c>
+      <c r="BO188">
+        <v>2.65</v>
+      </c>
+      <c r="BP188">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7778260</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>84</v>
+      </c>
+      <c r="H189" t="s">
+        <v>82</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>6</v>
+      </c>
+      <c r="O189" t="s">
+        <v>212</v>
+      </c>
+      <c r="P189" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q189">
+        <v>2.8</v>
+      </c>
+      <c r="R189">
+        <v>2.1</v>
+      </c>
+      <c r="S189">
+        <v>3.4</v>
+      </c>
+      <c r="T189">
+        <v>1.35</v>
+      </c>
+      <c r="U189">
+        <v>2.9</v>
+      </c>
+      <c r="V189">
+        <v>2.55</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>6.25</v>
+      </c>
+      <c r="Y189">
+        <v>1.1</v>
+      </c>
+      <c r="Z189">
+        <v>2.39</v>
+      </c>
+      <c r="AA189">
+        <v>3.12</v>
+      </c>
+      <c r="AB189">
+        <v>2.63</v>
+      </c>
+      <c r="AC189">
+        <v>1.05</v>
+      </c>
+      <c r="AD189">
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1.28</v>
+      </c>
+      <c r="AF189">
+        <v>3.65</v>
+      </c>
+      <c r="AG189">
+        <v>1.85</v>
+      </c>
+      <c r="AH189">
+        <v>1.85</v>
+      </c>
+      <c r="AI189">
+        <v>1.65</v>
+      </c>
+      <c r="AJ189">
+        <v>2.1</v>
+      </c>
+      <c r="AK189">
+        <v>1.36</v>
+      </c>
+      <c r="AL189">
+        <v>1.31</v>
+      </c>
+      <c r="AM189">
+        <v>1.6</v>
+      </c>
+      <c r="AN189">
+        <v>1.67</v>
+      </c>
+      <c r="AO189">
+        <v>1.11</v>
+      </c>
+      <c r="AP189">
+        <v>1.8</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>1.88</v>
+      </c>
+      <c r="AS189">
+        <v>1.55</v>
+      </c>
+      <c r="AT189">
+        <v>3.43</v>
+      </c>
+      <c r="AU189">
+        <v>10</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>7</v>
+      </c>
+      <c r="AX189">
+        <v>7</v>
+      </c>
+      <c r="AY189">
+        <v>17</v>
+      </c>
+      <c r="AZ189">
+        <v>12</v>
+      </c>
+      <c r="BA189">
+        <v>13</v>
+      </c>
+      <c r="BB189">
+        <v>3</v>
+      </c>
+      <c r="BC189">
+        <v>16</v>
+      </c>
+      <c r="BD189">
+        <v>1.8</v>
+      </c>
+      <c r="BE189">
+        <v>8</v>
+      </c>
+      <c r="BF189">
+        <v>2.3</v>
+      </c>
+      <c r="BG189">
+        <v>1.22</v>
+      </c>
+      <c r="BH189">
+        <v>3.65</v>
+      </c>
+      <c r="BI189">
+        <v>1.42</v>
+      </c>
+      <c r="BJ189">
+        <v>2.65</v>
+      </c>
+      <c r="BK189">
+        <v>1.7</v>
+      </c>
+      <c r="BL189">
+        <v>2.07</v>
+      </c>
+      <c r="BM189">
+        <v>2.11</v>
+      </c>
+      <c r="BN189">
+        <v>1.68</v>
+      </c>
+      <c r="BO189">
+        <v>2.65</v>
+      </c>
+      <c r="BP189">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7778253</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" t="s">
+        <v>73</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>213</v>
+      </c>
+      <c r="P190" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q190">
+        <v>2.75</v>
+      </c>
+      <c r="R190">
+        <v>1.9</v>
+      </c>
+      <c r="S190">
+        <v>4.33</v>
+      </c>
+      <c r="T190">
+        <v>1.52</v>
+      </c>
+      <c r="U190">
+        <v>2.35</v>
+      </c>
+      <c r="V190">
+        <v>3.4</v>
+      </c>
+      <c r="W190">
+        <v>1.28</v>
+      </c>
+      <c r="X190">
+        <v>9.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.04</v>
+      </c>
+      <c r="Z190">
+        <v>2.02</v>
+      </c>
+      <c r="AA190">
+        <v>2.91</v>
+      </c>
+      <c r="AB190">
+        <v>3.57</v>
+      </c>
+      <c r="AC190">
+        <v>1.1</v>
+      </c>
+      <c r="AD190">
+        <v>6.25</v>
+      </c>
+      <c r="AE190">
+        <v>1.47</v>
+      </c>
+      <c r="AF190">
+        <v>2.5</v>
+      </c>
+      <c r="AG190">
+        <v>2.37</v>
+      </c>
+      <c r="AH190">
+        <v>1.48</v>
+      </c>
+      <c r="AI190">
+        <v>2.1</v>
+      </c>
+      <c r="AJ190">
+        <v>1.65</v>
+      </c>
+      <c r="AK190">
+        <v>1.25</v>
+      </c>
+      <c r="AL190">
+        <v>1.35</v>
+      </c>
+      <c r="AM190">
+        <v>1.7</v>
+      </c>
+      <c r="AN190">
+        <v>2.2</v>
+      </c>
+      <c r="AO190">
+        <v>0.63</v>
+      </c>
+      <c r="AP190">
+        <v>2.27</v>
+      </c>
+      <c r="AQ190">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR190">
+        <v>1.47</v>
+      </c>
+      <c r="AS190">
+        <v>1.23</v>
+      </c>
+      <c r="AT190">
+        <v>2.7</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>4</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>8</v>
+      </c>
+      <c r="AZ190">
+        <v>8</v>
+      </c>
+      <c r="BA190">
+        <v>8</v>
+      </c>
+      <c r="BB190">
+        <v>6</v>
+      </c>
+      <c r="BC190">
+        <v>14</v>
+      </c>
+      <c r="BD190">
+        <v>1.8</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>2.38</v>
+      </c>
+      <c r="BG190">
+        <v>1.32</v>
+      </c>
+      <c r="BH190">
+        <v>3.12</v>
+      </c>
+      <c r="BI190">
+        <v>1.57</v>
+      </c>
+      <c r="BJ190">
+        <v>2.31</v>
+      </c>
+      <c r="BK190">
+        <v>1.92</v>
+      </c>
+      <c r="BL190">
+        <v>1.82</v>
+      </c>
+      <c r="BM190">
+        <v>2.41</v>
+      </c>
+      <c r="BN190">
+        <v>1.5</v>
+      </c>
+      <c r="BO190">
+        <v>3.15</v>
+      </c>
+      <c r="BP190">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>
